--- a/統計管制與最佳化方法概論/homework/my_homework/HW13/hw_13.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW13/hw_13.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7245771F-5DF9-40C4-9B93-66A7E377340B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362FE3B4-473A-48C3-8D56-9F907524DC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F0E5C9FA-8923-4A07-87AD-C8184F88F5AB}"/>
+    <workbookView xWindow="6400" yWindow="3940" windowWidth="19200" windowHeight="11460" xr2:uid="{F0E5C9FA-8923-4A07-87AD-C8184F88F5AB}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'1-1'!$Q$36:$S$36</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
@@ -106,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="97">
   <si>
     <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -523,6 +520,14 @@
   </si>
   <si>
     <t>e_ij</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precentile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1594,6 +1599,647 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Q-Q plot</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1-1'!$AC$2:$AC$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>3.3017048961195758</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.7777834618357384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.171346530098841</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82708217290775632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9394847909951354</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5304292368910388</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.9394847909951127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.4925623772507744</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1713465300988646</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.5304292368910171</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.3776205949555091</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.9109201944016225</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.16358717343096266</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.910920194401643</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16358717343098547</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3220376041503594</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.827082172907735</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.3220376041503372</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.3017048961195545</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.8035520548914157</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6.3776205949554976</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-4.8035520548913917</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.49256237725079627</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7777834618357606</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1-1'!$AA$2:$AA$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>3.9425000000000097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.3366666666666447</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.3433333333333159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0475000000000136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0191666666666741</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3300000000000054</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.2149999999999963</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.37416666666665321</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0925000000000082</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.3866666666666561</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1766666666666836</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.8324999999999818</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9.0833333333325328E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0600000000000094</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11500000000000199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1158333333333417</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.41749999999998977</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.2066666666666492</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.7833333333333172</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.0475000000000136</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-5.3708333333333265</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5.2599999999999909</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.7958333333333485</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB47-4C9B-8ADE-EA1E926E2454}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1-1'!$AA$2:$AA$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>3.9425000000000097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.3366666666666447</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.3433333333333159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0475000000000136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0191666666666741</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3300000000000054</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.2149999999999963</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.37416666666665321</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0925000000000082</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.3866666666666561</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1766666666666836</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.8324999999999818</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9.0833333333325328E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0600000000000094</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11500000000000199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1158333333333417</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.41749999999998977</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.2066666666666492</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.7833333333333172</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.0475000000000136</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-5.3708333333333265</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5.2599999999999909</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.7958333333333485</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1-1'!$AA$2:$AA$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>3.9425000000000097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.3366666666666447</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.3433333333333159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0475000000000136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0191666666666741</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3300000000000054</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.2149999999999963</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.37416666666665321</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0925000000000082</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.3866666666666561</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1766666666666836</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.8324999999999818</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9.0833333333325328E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0600000000000094</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11500000000000199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1158333333333417</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.41749999999998977</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.2066666666666492</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.7833333333333172</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.0475000000000136</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-5.3708333333333265</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5.2599999999999909</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.7958333333333485</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EB47-4C9B-8ADE-EA1E926E2454}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="195763824"/>
+        <c:axId val="195756752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="195763824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="195756752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="195756752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="195763824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1674,6 +2320,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2191,6 +2877,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2784,154 +3986,43 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>125185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>145142</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C411710-8800-4380-A222-36D97E14AC41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="1-1"/>
-      <sheetName val="1-2"/>
-      <sheetName val="2-1"/>
-      <sheetName val="2-1 check"/>
-      <sheetName val="2-2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="9">
-          <cell r="O9">
-            <v>1.9678250627177531</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="K11">
-            <v>21.46916666666667</v>
-          </cell>
-          <cell r="M11">
-            <v>1.0667050771423081</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="K12">
-            <v>1.1041666666666672</v>
-          </cell>
-          <cell r="M12">
-            <v>-0.49331539133300878</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="K13">
-            <v>-8.072499999999998</v>
-          </cell>
-          <cell r="M13">
-            <v>-1.9743508092834139</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="K14">
-            <v>2.1625000000000001</v>
-          </cell>
-          <cell r="M14">
-            <v>0.49331539133300889</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="K15">
-            <v>28.634166666666669</v>
-          </cell>
-          <cell r="M15">
-            <v>1.9743508092834146</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="K16">
-            <v>1.5558333333333347</v>
-          </cell>
-          <cell r="M16">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="K17">
-            <v>-0.4641666666666649</v>
-          </cell>
-          <cell r="M17">
-            <v>-1.0667050771423081</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="P26" t="str">
-            <v>b0</v>
-          </cell>
-          <cell r="Q26">
-            <v>49.868749999999991</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="P27" t="str">
-            <v>b1</v>
-          </cell>
-          <cell r="Q27">
-            <v>10.734583333333335</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="P28" t="str">
-            <v>b2</v>
-          </cell>
-          <cell r="Q28">
-            <v>0.55208333333333359</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="P29" t="str">
-            <v>b3</v>
-          </cell>
-          <cell r="Q29">
-            <v>-4.036249999999999</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="P30" t="str">
-            <v>b12</v>
-          </cell>
-          <cell r="Q30">
-            <v>1.08125</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="P31" t="str">
-            <v>b23</v>
-          </cell>
-          <cell r="Q31">
-            <v>14.317083333333334</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="P32" t="str">
-            <v>b13</v>
-          </cell>
-          <cell r="Q32">
-            <v>0.77791666666666737</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="P33" t="str">
-            <v>b123</v>
-          </cell>
-          <cell r="Q33">
-            <v>-0.23208333333333245</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3231,22 +4322,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E8708D-517C-4260-80E6-FB2ECBAC5C76}">
-  <dimension ref="B1:AA38"/>
+  <dimension ref="B1:AC38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="10" max="10" width="13.75" customWidth="1"/>
-    <col min="11" max="11" width="16.125" customWidth="1"/>
-    <col min="12" max="14" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" customWidth="1"/>
+    <col min="11" max="11" width="16.08984375" customWidth="1"/>
+    <col min="12" max="14" width="13.453125" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="17" max="17" width="12.375" customWidth="1"/>
+    <col min="17" max="17" width="12.36328125" customWidth="1"/>
+    <col min="27" max="27" width="13.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3289,8 +4381,14 @@
       <c r="AA1" t="s">
         <v>94</v>
       </c>
+      <c r="AB1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>1</v>
       </c>
@@ -3335,8 +4433,16 @@
         <f>Y2-Z2</f>
         <v>3.9425000000000097</v>
       </c>
+      <c r="AB2">
+        <f>(_xlfn.RANK.EQ(AA2,$AA$2:$AA$25,1)-0.5)/24*100</f>
+        <v>85.416666666666657</v>
+      </c>
+      <c r="AC2">
+        <f>_xlfn.NORM.INV(AB2/100,$AA$26,$AA$27)</f>
+        <v>3.3017048961195758</v>
+      </c>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>2</v>
       </c>
@@ -3374,19 +4480,27 @@
       </c>
       <c r="Q3" s="1"/>
       <c r="Y3" s="6">
-        <f t="shared" ref="Y3:Y26" si="2">I13</f>
+        <f t="shared" ref="Y3:Y25" si="2">I13</f>
         <v>75.62</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z29" si="3">$Q$26+$Q$27*B13+$Q$29*D13+$Q$31*C13*D13</f>
+        <f t="shared" ref="Z3:Z25" si="3">$Q$26+$Q$27*B13+$Q$29*D13+$Q$31*C13*D13</f>
         <v>78.956666666666649</v>
       </c>
       <c r="AA3">
         <f t="shared" ref="AA3:AA25" si="4">Y3-Z3</f>
         <v>-3.3366666666666447</v>
       </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB25" si="5">(_xlfn.RANK.EQ(AA3,$AA$2:$AA$25,1)-0.5)/24*100</f>
+        <v>18.75</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AC38" si="6">_xlfn.NORM.INV(AB3/100,$AA$26,$AA$27)</f>
+        <v>-2.7777834618357384</v>
+      </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>3</v>
       </c>
@@ -3437,8 +4551,16 @@
         <f t="shared" si="4"/>
         <v>-1.3433333333333159</v>
       </c>
+      <c r="AB4">
+        <f t="shared" si="5"/>
+        <v>35.416666666666671</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="6"/>
+        <v>-1.171346530098841</v>
+      </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>4</v>
       </c>
@@ -3489,8 +4611,16 @@
         <f t="shared" si="4"/>
         <v>1.0475000000000136</v>
       </c>
+      <c r="AB5">
+        <f t="shared" si="5"/>
+        <v>60.416666666666664</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="6"/>
+        <v>0.82708217290775632</v>
+      </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>5</v>
       </c>
@@ -3546,8 +4676,16 @@
         <f t="shared" si="4"/>
         <v>4.0191666666666741</v>
       </c>
+      <c r="AB6">
+        <f t="shared" si="5"/>
+        <v>89.583333333333343</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="6"/>
+        <v>3.9394847909951354</v>
+      </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>6</v>
       </c>
@@ -3604,8 +4742,16 @@
         <f t="shared" si="4"/>
         <v>1.3300000000000054</v>
       </c>
+      <c r="AB7">
+        <f t="shared" si="5"/>
+        <v>68.75</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="6"/>
+        <v>1.5304292368910388</v>
+      </c>
     </row>
-    <row r="8" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>7</v>
       </c>
@@ -3665,8 +4811,16 @@
         <f t="shared" si="4"/>
         <v>-4.2149999999999963</v>
       </c>
+      <c r="AB8">
+        <f t="shared" si="5"/>
+        <v>10.416666666666668</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="6"/>
+        <v>-3.9394847909951127</v>
+      </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>8</v>
       </c>
@@ -3726,8 +4880,16 @@
         <f t="shared" si="4"/>
         <v>-0.37416666666665321</v>
       </c>
+      <c r="AB9">
+        <f t="shared" si="5"/>
+        <v>43.75</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="6"/>
+        <v>-0.4925623772507744</v>
+      </c>
     </row>
-    <row r="10" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="L10" t="s">
         <v>24</v>
       </c>
@@ -3749,8 +4911,16 @@
         <f t="shared" si="4"/>
         <v>1.0925000000000082</v>
       </c>
+      <c r="AB10">
+        <f t="shared" si="5"/>
+        <v>64.583333333333343</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="6"/>
+        <v>1.1713465300988646</v>
+      </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -3783,11 +4953,11 @@
         <v>21.46916666666667</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:L17" si="5">(_xlfn.RANK.EQ(K11,$K$11:$K$17,1)-0.5)/7*100</f>
+        <f t="shared" ref="L11:L17" si="7">(_xlfn.RANK.EQ(K11,$K$11:$K$17,1)-0.5)/7*100</f>
         <v>78.571428571428569</v>
       </c>
       <c r="M11">
-        <f t="shared" ref="M11:M17" si="6">_xlfn.NORM.INV(L11/100,0,$L$8)</f>
+        <f t="shared" ref="M11:M17" si="8">_xlfn.NORM.INV(L11/100,0,$L$8)</f>
         <v>1.0667050771423081</v>
       </c>
       <c r="P11" s="8"/>
@@ -3818,18 +4988,26 @@
         <f t="shared" si="4"/>
         <v>-1.3866666666666561</v>
       </c>
+      <c r="AB11">
+        <f t="shared" si="5"/>
+        <v>31.25</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="6"/>
+        <v>-1.5304292368910171</v>
+      </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B12">
         <f>C2</f>
         <v>-1</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:D12" si="7">D2</f>
+        <f t="shared" ref="C12:D12" si="9">D2</f>
         <v>-1</v>
       </c>
       <c r="D12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="E12">
@@ -3860,11 +5038,11 @@
         <v>1.1041666666666672</v>
       </c>
       <c r="L12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>35.714285714285715</v>
       </c>
       <c r="M12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.49331539133300878</v>
       </c>
       <c r="P12" t="s">
@@ -3897,38 +5075,46 @@
         <f t="shared" si="4"/>
         <v>5.1766666666666836</v>
       </c>
+      <c r="AB12">
+        <f t="shared" si="5"/>
+        <v>97.916666666666657</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="6"/>
+        <v>6.3776205949555091</v>
+      </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B13">
-        <f t="shared" ref="B13:D19" si="8">C3</f>
+        <f t="shared" ref="B13:D19" si="10">C3</f>
         <v>1</v>
       </c>
       <c r="C13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="D13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:F19" si="9">B13*C13</f>
+        <f t="shared" ref="E13:F19" si="11">B13*C13</f>
         <v>-1</v>
       </c>
       <c r="F13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13:G19" si="10">B13*D13</f>
+        <f t="shared" ref="G13:G19" si="12">B13*D13</f>
         <v>-1</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13:H19" si="11">B13*C13*D13</f>
+        <f t="shared" ref="H13:H19" si="13">B13*C13*D13</f>
         <v>1</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" ref="I13:I19" si="12">F3</f>
+        <f t="shared" ref="I13:I19" si="14">F3</f>
         <v>75.62</v>
       </c>
       <c r="J13" t="s">
@@ -3939,11 +5125,11 @@
         <v>-8.072499999999998</v>
       </c>
       <c r="L13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.1428571428571423</v>
       </c>
       <c r="M13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1.9743508092834139</v>
       </c>
       <c r="P13" t="s">
@@ -3970,38 +5156,46 @@
         <f t="shared" si="4"/>
         <v>-1.8324999999999818</v>
       </c>
+      <c r="AB13">
+        <f t="shared" si="5"/>
+        <v>27.083333333333332</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="6"/>
+        <v>-1.9109201944016225</v>
+      </c>
     </row>
-    <row r="14" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="C14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="E14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="F14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="G14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="H14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>27.51</v>
       </c>
       <c r="J14" t="s">
@@ -4012,11 +5206,11 @@
         <v>2.1625000000000001</v>
       </c>
       <c r="L14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>64.285714285714292</v>
       </c>
       <c r="M14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.49331539133300889</v>
       </c>
       <c r="P14" s="7" t="s">
@@ -4043,38 +5237,46 @@
         <f t="shared" si="4"/>
         <v>-9.0833333333325328E-2</v>
       </c>
+      <c r="AB14">
+        <f t="shared" si="5"/>
+        <v>47.916666666666671</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="6"/>
+        <v>-0.16358717343096266</v>
+      </c>
     </row>
-    <row r="15" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="E15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="G15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="H15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>51.37</v>
       </c>
       <c r="J15" t="s">
@@ -4085,11 +5287,11 @@
         <v>28.634166666666669</v>
       </c>
       <c r="L15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>92.857142857142861</v>
       </c>
       <c r="M15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9743508092834146</v>
       </c>
       <c r="Y15" s="11">
@@ -4097,45 +5299,53 @@
         <v>44.31</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="3"/>
+        <f>$Q$26+$Q$27*B25+$Q$29*D25+$Q$31*C25*D25</f>
         <v>42.249999999999993</v>
       </c>
       <c r="AA15">
         <f t="shared" si="4"/>
         <v>2.0600000000000094</v>
       </c>
+      <c r="AB15">
+        <f t="shared" si="5"/>
+        <v>72.916666666666657</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="6"/>
+        <v>1.910920194401643</v>
+      </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="C16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="D16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="G16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="H16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>24.8</v>
       </c>
       <c r="J16" t="s">
@@ -4146,11 +5356,11 @@
         <v>1.5558333333333347</v>
       </c>
       <c r="L16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="M16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P16" s="8"/>
@@ -4190,38 +5400,46 @@
         <f t="shared" si="4"/>
         <v>0.11500000000000199</v>
       </c>
+      <c r="AB16">
+        <f t="shared" si="5"/>
+        <v>52.083333333333336</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="6"/>
+        <v>0.16358717343098547</v>
+      </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="D17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="F17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="G17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="H17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>43.58</v>
       </c>
       <c r="J17" t="s">
@@ -4232,11 +5450,11 @@
         <v>-0.4641666666666649</v>
       </c>
       <c r="L17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>21.428571428571427</v>
       </c>
       <c r="M17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1.0667050771423081</v>
       </c>
       <c r="P17" t="s">
@@ -4278,38 +5496,46 @@
         <f t="shared" si="4"/>
         <v>3.1158333333333417</v>
       </c>
+      <c r="AB17">
+        <f t="shared" si="5"/>
+        <v>77.083333333333343</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="6"/>
+        <v>2.3220376041503594</v>
+      </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="C18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="F18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="H18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45.2</v>
       </c>
       <c r="L18" t="s">
@@ -4357,38 +5583,46 @@
         <f t="shared" si="4"/>
         <v>-0.41749999999998977</v>
       </c>
+      <c r="AB18">
+        <f t="shared" si="5"/>
+        <v>39.583333333333329</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="6"/>
+        <v>-0.827082172907735</v>
+      </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="H19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>70.510000000000005</v>
       </c>
       <c r="J19" t="s">
@@ -4399,11 +5633,11 @@
         <v>15.933008639034604</v>
       </c>
       <c r="L19">
-        <f t="shared" ref="L19:L25" si="13">_xlfn.T.INV(0.005,$L$9)</f>
+        <f t="shared" ref="L19:L25" si="15">_xlfn.T.INV(0.005,$L$9)</f>
         <v>-2.9207816224251002</v>
       </c>
       <c r="M19" s="10">
-        <f t="shared" ref="M19:M25" si="14">_xlfn.T.INV(0.995,$L$9)</f>
+        <f t="shared" ref="M19:M25" si="16">_xlfn.T.INV(0.995,$L$9)</f>
         <v>2.9207816224250998</v>
       </c>
       <c r="N19" s="10"/>
@@ -4447,18 +5681,26 @@
         <f t="shared" si="4"/>
         <v>-3.2066666666666492</v>
       </c>
+      <c r="AB19">
+        <f t="shared" si="5"/>
+        <v>22.916666666666664</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="6"/>
+        <v>-2.3220376041503372</v>
+      </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B20">
         <f>C2</f>
         <v>-1</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:D20" si="15">D2</f>
+        <f t="shared" ref="C20:D20" si="17">D2</f>
         <v>-1</v>
       </c>
       <c r="D20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="E20">
@@ -4478,22 +5720,22 @@
         <v>-1</v>
       </c>
       <c r="I20" s="11">
-        <f t="shared" ref="I20:I27" si="16">G2</f>
+        <f t="shared" ref="I20:I27" si="18">G2</f>
         <v>58.58</v>
       </c>
       <c r="J20" t="s">
         <v>61</v>
       </c>
       <c r="K20">
-        <f t="shared" ref="K20:K25" si="17">(K12-0)/$K$8^0.5</f>
+        <f t="shared" ref="K20:K25" si="19">(K12-0)/$K$8^0.5</f>
         <v>0.8194401446539944</v>
       </c>
       <c r="L20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.9207816224251002</v>
       </c>
       <c r="M20" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.9207816224250998</v>
       </c>
       <c r="P20" t="s">
@@ -4535,53 +5777,61 @@
         <f t="shared" si="4"/>
         <v>-3.7833333333333172</v>
       </c>
+      <c r="AB20">
+        <f t="shared" si="5"/>
+        <v>14.583333333333334</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="6"/>
+        <v>-3.3017048961195545</v>
+      </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B21">
-        <f t="shared" ref="B21:D27" si="18">C3</f>
+        <f t="shared" ref="B21:D27" si="20">C3</f>
         <v>1</v>
       </c>
       <c r="C21">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="E21:F27" si="21">B21*C21</f>
+        <v>-1</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:G27" si="22">B21*D21</f>
+        <v>-1</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:H27" si="23">B21*C21*D21</f>
+        <v>1</v>
+      </c>
+      <c r="I21" s="11">
         <f t="shared" si="18"/>
-        <v>-1</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="18"/>
-        <v>-1</v>
-      </c>
-      <c r="E21">
-        <f t="shared" ref="E21:F27" si="19">B21*C21</f>
-        <v>-1</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <f t="shared" ref="G21:G27" si="20">B21*D21</f>
-        <v>-1</v>
-      </c>
-      <c r="H21">
-        <f t="shared" ref="H21:H27" si="21">B21*C21*D21</f>
-        <v>1</v>
-      </c>
-      <c r="I21" s="11">
-        <f t="shared" si="16"/>
         <v>77.569999999999993</v>
       </c>
       <c r="J21" t="s">
         <v>63</v>
       </c>
       <c r="K21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-5.990880514160934</v>
       </c>
       <c r="L21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.9207816224251002</v>
       </c>
       <c r="M21" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.9207816224250998</v>
       </c>
       <c r="P21" t="s">
@@ -4623,53 +5873,61 @@
         <f t="shared" si="4"/>
         <v>4.0475000000000136</v>
       </c>
+      <c r="AB21">
+        <f t="shared" si="5"/>
+        <v>93.75</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="6"/>
+        <v>4.8035520548914157</v>
+      </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B22">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="I22" s="11">
         <f t="shared" si="18"/>
-        <v>-1</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="18"/>
-        <v>-1</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="19"/>
-        <v>-1</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="19"/>
-        <v>-1</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="I22" s="11">
-        <f t="shared" si="16"/>
         <v>34.03</v>
       </c>
       <c r="J22" t="s">
         <v>65</v>
       </c>
       <c r="K22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.604865792737445</v>
       </c>
       <c r="L22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.9207816224251002</v>
       </c>
       <c r="M22" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.9207816224250998</v>
       </c>
       <c r="P22" t="s">
@@ -4711,53 +5969,61 @@
         <f t="shared" si="4"/>
         <v>-5.3708333333333265</v>
       </c>
+      <c r="AB22">
+        <f t="shared" si="5"/>
+        <v>2.083333333333333</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="6"/>
+        <v>-6.3776205949554976</v>
+      </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B23">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="I23" s="11">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="18"/>
-        <v>-1</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="19"/>
-        <v>-1</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="20"/>
-        <v>-1</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="21"/>
-        <v>-1</v>
-      </c>
-      <c r="I23" s="11">
-        <f t="shared" si="16"/>
         <v>48.49</v>
       </c>
       <c r="J23" t="s">
         <v>67</v>
       </c>
       <c r="K23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>21.250402121098787</v>
       </c>
       <c r="L23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.9207816224251002</v>
       </c>
       <c r="M23" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.9207816224250998</v>
       </c>
       <c r="P23" t="s">
@@ -4799,53 +6065,61 @@
         <f t="shared" si="4"/>
         <v>-5.2599999999999909</v>
       </c>
+      <c r="AB23">
+        <f t="shared" si="5"/>
+        <v>6.25</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="6"/>
+        <v>-4.8035520548913917</v>
+      </c>
     </row>
-    <row r="24" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="I24" s="11">
         <f t="shared" si="18"/>
-        <v>-1</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="18"/>
-        <v>-1</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="19"/>
-        <v>-1</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="20"/>
-        <v>-1</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="I24" s="11">
-        <f t="shared" si="16"/>
         <v>20.69</v>
       </c>
       <c r="J24" t="s">
         <v>69</v>
       </c>
       <c r="K24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.154637547221893</v>
       </c>
       <c r="L24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.9207816224251002</v>
       </c>
       <c r="M24" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.9207816224250998</v>
       </c>
       <c r="P24" s="7" t="s">
@@ -4887,53 +6161,61 @@
         <f t="shared" si="4"/>
         <v>0.875</v>
       </c>
+      <c r="AB24">
+        <f t="shared" si="5"/>
+        <v>56.25</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="6"/>
+        <v>0.49256237725079627</v>
+      </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B25">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="I25" s="11">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="18"/>
-        <v>-1</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="19"/>
-        <v>-1</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="19"/>
-        <v>-1</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="21"/>
-        <v>-1</v>
-      </c>
-      <c r="I25" s="11">
-        <f t="shared" si="16"/>
         <v>44.31</v>
       </c>
       <c r="J25" t="s">
         <v>71</v>
       </c>
       <c r="K25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.34447408345077202</v>
       </c>
       <c r="L25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.9207816224251002</v>
       </c>
       <c r="M25" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.9207816224250998</v>
       </c>
       <c r="P25" t="s">
@@ -4963,38 +6245,46 @@
         <f t="shared" si="4"/>
         <v>3.7958333333333485</v>
       </c>
+      <c r="AB25">
+        <f t="shared" si="5"/>
+        <v>81.25</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="6"/>
+        <v>2.7777834618357606</v>
+      </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B26">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="I26" s="11">
         <f t="shared" si="18"/>
-        <v>-1</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="19"/>
-        <v>-1</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="20"/>
-        <v>-1</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="21"/>
-        <v>-1</v>
-      </c>
-      <c r="I26" s="11">
-        <f t="shared" si="16"/>
         <v>49.53</v>
       </c>
       <c r="M26" s="10"/>
@@ -5017,49 +6307,56 @@
         <f>IF(OR(R26&gt;0,S26&lt;0),"reject","accept")</f>
         <v>reject</v>
       </c>
+      <c r="Z26" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA26">
+        <f>AVERAGE(AA2:AA25)</f>
+        <v>1.0954200509634878E-14</v>
+      </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B27">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="11">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="I27" s="11">
-        <f t="shared" si="16"/>
         <v>74</v>
       </c>
       <c r="J27" t="s">
         <v>78</v>
       </c>
       <c r="K27">
-        <f t="shared" ref="K27:K33" si="22">K11-$N$9</f>
+        <f t="shared" ref="K27:K33" si="24">K11-$N$9</f>
         <v>17.533516541231165</v>
       </c>
       <c r="L27" s="10">
-        <f t="shared" ref="L27:L33" si="23">K11+$N$9</f>
+        <f t="shared" ref="L27:L33" si="25">K11+$N$9</f>
         <v>25.404816792102174</v>
       </c>
       <c r="M27" s="10"/>
@@ -5067,33 +6364,40 @@
         <v>79</v>
       </c>
       <c r="Q27" s="14">
-        <f t="shared" ref="Q27:Q33" si="24">K11/2</f>
+        <f t="shared" ref="Q27:Q33" si="26">K11/2</f>
         <v>10.734583333333335</v>
       </c>
       <c r="R27" s="9">
-        <f t="shared" ref="R27:S33" si="25">K27/2</f>
+        <f t="shared" ref="R27:S33" si="27">K27/2</f>
         <v>8.7667582706155827</v>
       </c>
       <c r="S27" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>12.702408396051087</v>
       </c>
       <c r="T27" t="str">
-        <f t="shared" ref="T27:T33" si="26">IF(OR(R27&gt;0,S27&lt;0),"reject","accept")</f>
+        <f t="shared" ref="T27:T33" si="28">IF(OR(R27&gt;0,S27&lt;0),"reject","accept")</f>
         <v>reject</v>
       </c>
+      <c r="Z27" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA27">
+        <f>_xlfn.STDEV.S(AA2:AA25)</f>
+        <v>3.13114381563717</v>
+      </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B28">
         <f>C2</f>
         <v>-1</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:D28" si="27">D2</f>
+        <f t="shared" ref="C28:D28" si="29">D2</f>
         <v>-1</v>
       </c>
       <c r="D28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-1</v>
       </c>
       <c r="E28">
@@ -5113,18 +6417,18 @@
         <v>-1</v>
       </c>
       <c r="I28" s="15">
-        <f t="shared" ref="I28:I35" si="28">H2</f>
+        <f t="shared" ref="I28:I35" si="30">H2</f>
         <v>57.07</v>
       </c>
       <c r="J28" t="s">
         <v>80</v>
       </c>
       <c r="K28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-2.8314834587688393</v>
       </c>
       <c r="L28" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.0398167921021733</v>
       </c>
       <c r="M28" s="10"/>
@@ -5132,64 +6436,64 @@
         <v>81</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.55208333333333359</v>
       </c>
       <c r="R28" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-1.4157417293844197</v>
       </c>
       <c r="S28" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.5199083960510866</v>
       </c>
       <c r="T28" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>accept</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B29">
-        <f t="shared" ref="B29:D35" si="29">C3</f>
+        <f t="shared" ref="B29:D35" si="31">C3</f>
         <v>1</v>
       </c>
       <c r="C29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-1</v>
       </c>
       <c r="D29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-1</v>
       </c>
       <c r="E29">
-        <f t="shared" ref="E29:F35" si="30">B29*C29</f>
+        <f t="shared" ref="E29:F35" si="32">B29*C29</f>
         <v>-1</v>
       </c>
       <c r="F29">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29:G35" si="33">B29*D29</f>
+        <v>-1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29:H35" si="34">B29*C29*D29</f>
+        <v>1</v>
+      </c>
+      <c r="I29" s="15">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <f t="shared" ref="G29:G35" si="31">B29*D29</f>
-        <v>-1</v>
-      </c>
-      <c r="H29">
-        <f t="shared" ref="H29:H35" si="32">B29*C29*D29</f>
-        <v>1</v>
-      </c>
-      <c r="I29" s="15">
-        <f t="shared" si="28"/>
         <v>75.75</v>
       </c>
       <c r="J29" t="s">
         <v>82</v>
       </c>
       <c r="K29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-12.008150125435504</v>
       </c>
       <c r="L29" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-4.1368498745644917</v>
       </c>
       <c r="M29" s="10"/>
@@ -5197,67 +6501,67 @@
         <v>83</v>
       </c>
       <c r="Q29" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-4.036249999999999</v>
       </c>
       <c r="R29" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-6.0040750627177522</v>
       </c>
       <c r="S29" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-2.0684249372822459</v>
       </c>
       <c r="T29" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>reject</v>
       </c>
       <c r="V29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-1</v>
       </c>
       <c r="C30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="D30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-1</v>
       </c>
       <c r="E30">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="I30" s="15">
         <f t="shared" si="30"/>
-        <v>-1</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="30"/>
-        <v>-1</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="I30" s="15">
-        <f t="shared" si="28"/>
         <v>25.07</v>
       </c>
       <c r="J30" t="s">
         <v>84</v>
       </c>
       <c r="K30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-1.7731501254355062</v>
       </c>
       <c r="L30" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.0981501254355059</v>
       </c>
       <c r="M30" s="10"/>
@@ -5265,67 +6569,67 @@
         <v>85</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.08125</v>
       </c>
       <c r="R30" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.8865750627177531</v>
       </c>
       <c r="S30" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.049075062717753</v>
       </c>
       <c r="T30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>accept</v>
       </c>
       <c r="V30" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="C31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="D31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-1</v>
       </c>
       <c r="E31">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="I31" s="15">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="30"/>
-        <v>-1</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="31"/>
-        <v>-1</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="32"/>
-        <v>-1</v>
-      </c>
-      <c r="I31" s="15">
-        <f t="shared" si="28"/>
         <v>54.37</v>
       </c>
       <c r="J31" t="s">
         <v>86</v>
       </c>
       <c r="K31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>24.698516541231164</v>
       </c>
       <c r="L31" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>32.569816792102174</v>
       </c>
       <c r="M31" s="10"/>
@@ -5333,67 +6637,67 @@
         <v>87</v>
       </c>
       <c r="Q31" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>14.317083333333334</v>
       </c>
       <c r="R31" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>12.349258270615582</v>
       </c>
       <c r="S31" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>16.284908396051087</v>
       </c>
       <c r="T31" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>reject</v>
       </c>
       <c r="V31" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-1</v>
       </c>
       <c r="C32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-1</v>
       </c>
       <c r="D32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="E32">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="I32" s="15">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="30"/>
-        <v>-1</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="31"/>
-        <v>-1</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="I32" s="15">
-        <f t="shared" si="28"/>
         <v>15.41</v>
       </c>
       <c r="J32" t="s">
         <v>89</v>
       </c>
       <c r="K32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-2.3798167921021713</v>
       </c>
       <c r="L32" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.4914834587688413</v>
       </c>
       <c r="M32" s="10"/>
@@ -5401,67 +6705,67 @@
         <v>90</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.77791666666666737</v>
       </c>
       <c r="R32" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-1.1899083960510857</v>
       </c>
       <c r="S32" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.7457417293844206</v>
       </c>
       <c r="T32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>accept</v>
       </c>
       <c r="V32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="C33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-1</v>
       </c>
       <c r="D33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="E33">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="I33" s="15">
         <f t="shared" si="30"/>
-        <v>-1</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="30"/>
-        <v>-1</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="32"/>
-        <v>-1</v>
-      </c>
-      <c r="I33" s="15">
-        <f t="shared" si="28"/>
         <v>36.99</v>
       </c>
       <c r="J33" t="s">
         <v>91</v>
       </c>
       <c r="K33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-4.3998167921021709</v>
       </c>
       <c r="L33" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.4714834587688412</v>
       </c>
       <c r="M33" s="10"/>
@@ -5469,88 +6773,88 @@
         <v>92</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-0.23208333333333245</v>
       </c>
       <c r="R33" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-2.1999083960510855</v>
       </c>
       <c r="S33" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.7357417293844206</v>
       </c>
       <c r="T33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>accept</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B34">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-1</v>
       </c>
       <c r="C34">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="D34">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="E34">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="I34" s="15">
         <f t="shared" si="30"/>
-        <v>-1</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="31"/>
-        <v>-1</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="32"/>
-        <v>-1</v>
-      </c>
-      <c r="I34" s="15">
-        <f t="shared" si="28"/>
         <v>50.29</v>
       </c>
       <c r="M34" s="10"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B35">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="C35">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="D35">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="E35">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="I35" s="15">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="I35" s="15">
-        <f t="shared" si="28"/>
         <v>74.680000000000007</v>
       </c>
       <c r="M35" s="10"/>
@@ -5567,7 +6871,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.4">
       <c r="Q36">
         <v>1</v>
       </c>
@@ -5582,7 +6886,7 @@
         <v>78.956666666666649</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B37" t="str" cm="1">
         <f t="array" ref="B37:H38">TRANSPOSE(J11:K17)</f>
         <v>E1</v>
@@ -5606,7 +6910,7 @@
         <v>E123</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B38">
         <v>21.46916666666667</v>
       </c>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW13/hw_13.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW13/hw_13.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09E4785-5768-46AC-B0E8-2C46A20E73C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7FBBC4-98DD-4CE9-A1E6-BF2A34892E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F0E5C9FA-8923-4A07-87AD-C8184F88F5AB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{F0E5C9FA-8923-4A07-87AD-C8184F88F5AB}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="221">
   <si>
     <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -987,6 +987,14 @@
   </si>
   <si>
     <t>SS(between)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(y_ij-y_bar)^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1554,9 +1562,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
@@ -1814,15 +1819,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1874,17 +1870,29 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11314,15 +11322,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>231321</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152398</xdr:rowOff>
+      <xdr:colOff>277503</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>175489</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>81642</xdr:rowOff>
+      <xdr:colOff>209468</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104733</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11865,28 +11873,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E8708D-517C-4260-80E6-FB2ECBAC5C76}">
   <dimension ref="A1:AI57"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U40" sqref="U40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="9" max="9" width="12.125" customWidth="1"/>
-    <col min="10" max="10" width="13.75" customWidth="1"/>
-    <col min="11" max="11" width="16.125" customWidth="1"/>
-    <col min="12" max="14" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="12.08984375" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" customWidth="1"/>
+    <col min="11" max="11" width="16.08984375" customWidth="1"/>
+    <col min="12" max="14" width="13.453125" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="17" max="17" width="12.375" customWidth="1"/>
-    <col min="32" max="32" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.625" customWidth="1"/>
+    <col min="17" max="17" width="12.36328125" customWidth="1"/>
+    <col min="32" max="32" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -11960,7 +11968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>4</v>
       </c>
@@ -12045,7 +12053,7 @@
         <v>3.3017048961195758</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12133,7 +12141,7 @@
         <v>-2.7777834618357384</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>7</v>
       </c>
@@ -12224,7 +12232,7 @@
         <v>-1.171346530098841</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>6</v>
       </c>
@@ -12314,7 +12322,7 @@
         <v>0.82708217290775632</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -12351,13 +12359,13 @@
         <f>AVERAGE(J2:J9)</f>
         <v>10.893966666666602</v>
       </c>
-      <c r="L6" s="21" cm="1">
+      <c r="L6" s="20" cm="1">
         <f t="array" ref="L6">SUM((F2:H9)^2)</f>
         <v>67986.9421</v>
       </c>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
       <c r="P6" t="s">
         <v>16</v>
       </c>
@@ -12409,7 +12417,7 @@
         <v>3.9394847909951354</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -12502,7 +12510,7 @@
         <v>1.5304292368910388</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>8</v>
       </c>
@@ -12598,7 +12606,7 @@
         <v>-3.9394847909951127</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>3</v>
       </c>
@@ -12694,7 +12702,7 @@
         <v>-0.4925623772507744</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="L10" t="s">
         <v>24</v>
       </c>
@@ -12749,7 +12757,7 @@
         <v>1.1713465300988646</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -12850,7 +12858,7 @@
         <v>-1.5304292368910171</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B12">
         <f>C2</f>
         <v>-1</v>
@@ -12904,7 +12912,7 @@
       <c r="Q12">
         <v>7</v>
       </c>
-      <c r="R12" s="22">
+      <c r="R12" s="21">
         <v>8127.2251958333318</v>
       </c>
       <c r="S12">
@@ -12961,7 +12969,7 @@
         <v>6.3776205949555091</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B13">
         <f t="shared" ref="B13:D19" si="22">C3</f>
         <v>1</v>
@@ -13015,7 +13023,7 @@
       <c r="Q13">
         <v>16</v>
       </c>
-      <c r="R13" s="26">
+      <c r="R13" s="25">
         <v>174.30346666666688</v>
       </c>
       <c r="S13" s="2">
@@ -13066,7 +13074,7 @@
         <v>-1.9109201944016225</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14">
         <f t="shared" si="22"/>
         <v>-1</v>
@@ -13120,7 +13128,7 @@
       <c r="Q14" s="6">
         <v>23</v>
       </c>
-      <c r="R14" s="25">
+      <c r="R14" s="24">
         <v>8301.528662499999</v>
       </c>
       <c r="S14" s="6"/>
@@ -13171,7 +13179,7 @@
         <v>-0.16358717343096266</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -13264,7 +13272,7 @@
         <v>1.910920194401643</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B16">
         <f t="shared" si="22"/>
         <v>-1</v>
@@ -13382,7 +13390,7 @@
         <v>0.16358717343098547</v>
       </c>
     </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B17">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -13502,7 +13510,7 @@
         <v>2.3220376041503594</v>
       </c>
     </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B18">
         <f t="shared" si="22"/>
         <v>-1</v>
@@ -13613,7 +13621,7 @@
         <v>-0.827082172907735</v>
       </c>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B19">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -13735,7 +13743,7 @@
         <v>-2.3220376041503372</v>
       </c>
     </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B20">
         <f>C2</f>
         <v>-1</v>
@@ -13855,7 +13863,7 @@
         <v>-3.3017048961195545</v>
       </c>
     </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B21">
         <f t="shared" ref="B21:D27" si="42">C3</f>
         <v>1</v>
@@ -13975,7 +13983,7 @@
         <v>4.8035520548914157</v>
       </c>
     </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B22">
         <f t="shared" si="42"/>
         <v>-1</v>
@@ -14095,7 +14103,7 @@
         <v>-6.3776205949554976</v>
       </c>
     </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B23">
         <f t="shared" si="42"/>
         <v>1</v>
@@ -14215,7 +14223,7 @@
         <v>-4.8035520548913917</v>
       </c>
     </row>
-    <row r="24" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:35" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24">
         <f t="shared" si="42"/>
         <v>-1</v>
@@ -14335,7 +14343,7 @@
         <v>0.49256237725079627</v>
       </c>
     </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B25">
         <f t="shared" si="42"/>
         <v>1</v>
@@ -14443,7 +14451,7 @@
         <v>2.7777834618357606</v>
       </c>
     </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B26">
         <f t="shared" si="42"/>
         <v>-1</v>
@@ -14504,7 +14512,7 @@
         <v>1.0954200509634878E-14</v>
       </c>
     </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B27">
         <f t="shared" si="42"/>
         <v>1</v>
@@ -14576,7 +14584,7 @@
         <v>3.13114381563717</v>
       </c>
     </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B28">
         <f>C2</f>
         <v>-1</v>
@@ -14641,7 +14649,7 @@
         <v>accept</v>
       </c>
     </row>
-    <row r="29" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B29">
         <f t="shared" ref="B29:D35" si="58">C3</f>
         <v>1</v>
@@ -14709,7 +14717,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B30">
         <f t="shared" si="58"/>
         <v>-1</v>
@@ -14777,7 +14785,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B31">
         <f t="shared" si="58"/>
         <v>1</v>
@@ -14845,7 +14853,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B32">
         <f t="shared" si="58"/>
         <v>-1</v>
@@ -14913,7 +14921,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B33">
         <f t="shared" si="58"/>
         <v>1</v>
@@ -14978,7 +14986,7 @@
         <v>accept</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B34">
         <f t="shared" si="58"/>
         <v>-1</v>
@@ -15013,7 +15021,7 @@
       </c>
       <c r="M34" s="9"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B35">
         <f t="shared" si="58"/>
         <v>1</v>
@@ -15060,7 +15068,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.4">
       <c r="Q36">
         <v>1</v>
       </c>
@@ -15075,7 +15083,7 @@
         <v>78.956666666666649</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B37" t="str" cm="1">
         <f t="array" ref="B37:H38">TRANSPOSE(J11:K17)</f>
         <v>E1</v>
@@ -15099,7 +15107,7 @@
         <v>E123</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B38">
         <v>21.46916666666667</v>
       </c>
@@ -15122,7 +15130,7 @@
         <v>-0.4641666666666649</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>113</v>
       </c>
@@ -15138,13 +15146,13 @@
       <c r="F41" t="s">
         <v>115</v>
       </c>
-      <c r="Q41" s="20" t="s">
+      <c r="Q41" s="125" t="s">
         <v>103</v>
       </c>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
+      <c r="R41" s="125"/>
+      <c r="S41" s="125"/>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B42">
         <f>L4</f>
         <v>49.868749999999999</v>
@@ -15172,7 +15180,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>9</v>
       </c>
@@ -15201,7 +15209,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B44">
         <f>K2</f>
         <v>8</v>
@@ -15231,7 +15239,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>11</v>
       </c>
@@ -15260,7 +15268,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B46">
         <f>K4</f>
         <v>3</v>
@@ -15290,7 +15298,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.4">
       <c r="C47">
         <f t="shared" si="63"/>
         <v>-8.2420833333333334</v>
@@ -15316,7 +15324,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.4">
       <c r="C48">
         <f t="shared" si="63"/>
         <v>-1.5287499999999952</v>
@@ -15342,7 +15350,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C49">
         <f t="shared" si="63"/>
         <v>23.194583333333334</v>
@@ -15368,7 +15376,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>116</v>
       </c>
@@ -15393,16 +15401,16 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B51">
         <f>B44*B46*B42^2</f>
         <v>59685.413437499992</v>
       </c>
-      <c r="C51" s="22" cm="1">
+      <c r="C51" s="21" cm="1">
         <f t="array" ref="C51">B46*SUM((C42:C49)^2)</f>
         <v>8127.2251958333327</v>
       </c>
-      <c r="D51" s="26" cm="1">
+      <c r="D51" s="25" cm="1">
         <f t="array" ref="D51">SUM((D42:F49)^2)</f>
         <v>174.30346666666662</v>
       </c>
@@ -15410,7 +15418,7 @@
         <f>SUM(B51:D51)</f>
         <v>67986.942099999986</v>
       </c>
-      <c r="F51" s="24">
+      <c r="F51" s="23">
         <f>E51-B51</f>
         <v>8301.5286624999935</v>
       </c>
@@ -15421,7 +15429,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:19" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="Q52">
         <f>(L2-K2)*LN(K6)-SUM(Q43:Q50)</f>
         <v>5.2057980668508534</v>
@@ -15431,44 +15439,44 @@
         <v>1.1875</v>
       </c>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B53" s="32" t="s">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B53" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="D53" s="30" t="s">
+      <c r="D53" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="E53" s="30" t="s">
+      <c r="E53" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="F53" s="31" t="s">
+      <c r="F53" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="G53" s="23"/>
+      <c r="G53" s="22"/>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B54" s="33" t="s">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B54" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="C54" s="27">
+      <c r="C54" s="26">
         <f>B51</f>
         <v>59685.413437499992</v>
       </c>
-      <c r="D54" s="27">
-        <v>1</v>
-      </c>
-      <c r="E54" s="27">
+      <c r="D54" s="26">
+        <v>1</v>
+      </c>
+      <c r="E54" s="26">
         <f>C54/D54</f>
         <v>59685.413437499992</v>
       </c>
-      <c r="F54" s="28">
+      <c r="F54" s="27">
         <f>E54/E56</f>
         <v>5478.758588469459</v>
       </c>
-      <c r="G54" s="23"/>
+      <c r="G54" s="22"/>
       <c r="Q54" t="s">
         <v>110</v>
       </c>
@@ -15479,23 +15487,23 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B55" s="33" t="s">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B55" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="C55" s="27">
+      <c r="C55" s="26">
         <f>C51</f>
         <v>8127.2251958333327</v>
       </c>
-      <c r="D55" s="27">
+      <c r="D55" s="26">
         <f>B44-1</f>
         <v>7</v>
       </c>
-      <c r="E55" s="27">
+      <c r="E55" s="26">
         <f t="shared" ref="E55:E56" si="69">C55/D55</f>
         <v>1161.0321708333333</v>
       </c>
-      <c r="F55" s="28">
+      <c r="F55" s="27">
         <f>E55/E56</f>
         <v>106.5757043654133</v>
       </c>
@@ -15512,38 +15520,38 @@
         <v>accept</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B56" s="33" t="s">
+    <row r="56" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B56" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="27">
+      <c r="C56" s="26">
         <f>D51</f>
         <v>174.30346666666662</v>
       </c>
-      <c r="D56" s="27">
+      <c r="D56" s="26">
         <f>B44*(B46-1)</f>
         <v>16</v>
       </c>
-      <c r="E56" s="27">
+      <c r="E56" s="26">
         <f t="shared" si="69"/>
         <v>10.893966666666664</v>
       </c>
-      <c r="F56" s="28"/>
+      <c r="F56" s="27"/>
     </row>
-    <row r="57" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="35" t="s">
+    <row r="57" spans="2:19" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="36">
+      <c r="C57" s="35">
         <f>SUM(C54:C56)</f>
         <v>67986.942099999986</v>
       </c>
-      <c r="D57" s="36">
+      <c r="D57" s="35">
         <f>SUM(D54:D56)</f>
         <v>24</v>
       </c>
-      <c r="E57" s="36"/>
-      <c r="F57" s="37"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15574,23 +15582,23 @@
   <dimension ref="A1:AA54"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8" customWidth="1"/>
-    <col min="13" max="13" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -15618,20 +15626,20 @@
       <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="37" t="s">
         <v>4</v>
       </c>
       <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="64"/>
+      <c r="M1" s="63"/>
       <c r="N1" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="38" t="s">
         <v>8</v>
       </c>
       <c r="P1" t="s">
@@ -15645,7 +15653,7 @@
       </c>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>4</v>
       </c>
@@ -15677,23 +15685,23 @@
         <f>C2*D2*E2</f>
         <v>-1</v>
       </c>
-      <c r="J2" s="40">
+      <c r="J2" s="39">
         <v>61.43</v>
       </c>
-      <c r="K2" s="41">
+      <c r="K2" s="40">
         <v>58.58</v>
       </c>
-      <c r="L2" s="42">
+      <c r="L2" s="41">
         <v>57.07</v>
       </c>
-      <c r="M2" s="65" t="s">
+      <c r="M2" s="64" t="s">
         <v>154</v>
       </c>
       <c r="N2">
         <f>AVERAGE(J2:L2)</f>
         <v>59.026666666666664</v>
       </c>
-      <c r="O2" s="39">
+      <c r="O2" s="38">
         <f>VAR(J2:L2)</f>
         <v>4.9020333333333328</v>
       </c>
@@ -15706,19 +15714,8 @@
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="W2" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="X2" s="20"/>
-      <c r="Y2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z2">
-        <f>AVERAGE(J2:L9)</f>
-        <v>49.868749999999999</v>
-      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15750,23 +15747,23 @@
         <f t="shared" ref="I3:I9" si="3">C3*D3*E3</f>
         <v>1</v>
       </c>
-      <c r="J3" s="43">
+      <c r="J3" s="42">
         <v>75.62</v>
       </c>
-      <c r="K3" s="44">
+      <c r="K3" s="43">
         <v>77.569999999999993</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="44">
         <v>75.75</v>
       </c>
-      <c r="M3" s="66" t="s">
+      <c r="M3" s="65" t="s">
         <v>161</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N9" si="4">AVERAGE(J3:L3)</f>
         <v>76.313333333333333</v>
       </c>
-      <c r="O3" s="39">
+      <c r="O3" s="38">
         <f t="shared" ref="O3:O9" si="5">VAR(J3:L3)</f>
         <v>1.1886333333333217</v>
       </c>
@@ -15776,25 +15773,12 @@
       <c r="Q3" t="s">
         <v>113</v>
       </c>
-      <c r="S3" s="106" t="s">
+      <c r="S3" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="106"/>
-      <c r="W3" t="s">
-        <v>164</v>
-      </c>
-      <c r="X3">
-        <v>21.46916666666667</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z3" s="73">
-        <f>X3/2</f>
-        <v>10.734583333333335</v>
-      </c>
+      <c r="T3" s="105"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>7</v>
       </c>
@@ -15826,23 +15810,23 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J4" s="46">
+      <c r="J4" s="45">
         <v>27.51</v>
       </c>
-      <c r="K4" s="47">
+      <c r="K4" s="46">
         <v>34.03</v>
       </c>
-      <c r="L4" s="48">
+      <c r="L4" s="47">
         <v>25.07</v>
       </c>
-      <c r="M4" s="67" t="s">
+      <c r="M4" s="66" t="s">
         <v>155</v>
       </c>
       <c r="N4">
         <f t="shared" si="4"/>
         <v>28.870000000000005</v>
       </c>
-      <c r="O4" s="39">
+      <c r="O4" s="38">
         <f t="shared" si="5"/>
         <v>21.457599999999502</v>
       </c>
@@ -15859,21 +15843,8 @@
       <c r="T4" s="2">
         <v>0.98944603157237543</v>
       </c>
-      <c r="W4" t="s">
-        <v>100</v>
-      </c>
-      <c r="X4">
-        <v>1.1041666666666672</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" ref="Z4:Z9" si="6">X4/2</f>
-        <v>0.55208333333333359</v>
-      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>6</v>
       </c>
@@ -15905,23 +15876,23 @@
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="J5" s="49">
+      <c r="J5" s="48">
         <v>51.37</v>
       </c>
-      <c r="K5" s="50">
+      <c r="K5" s="49">
         <v>48.49</v>
       </c>
-      <c r="L5" s="51">
+      <c r="L5" s="50">
         <v>54.37</v>
       </c>
-      <c r="M5" s="68" t="s">
+      <c r="M5" s="67" t="s">
         <v>156</v>
       </c>
       <c r="N5">
         <f t="shared" si="4"/>
         <v>51.41</v>
       </c>
-      <c r="O5" s="39">
+      <c r="O5" s="38">
         <f t="shared" si="5"/>
         <v>8.6447999999999858</v>
       </c>
@@ -15937,21 +15908,8 @@
       <c r="T5" s="2">
         <v>0.97900344939432205</v>
       </c>
-      <c r="W5" t="s">
-        <v>101</v>
-      </c>
-      <c r="X5">
-        <v>-8.072499999999998</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z5" s="73">
-        <f t="shared" si="6"/>
-        <v>-4.036249999999999</v>
-      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -15983,23 +15941,23 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J6" s="52">
+      <c r="J6" s="51">
         <v>24.8</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="52">
         <v>20.69</v>
       </c>
-      <c r="L6" s="54">
+      <c r="L6" s="53">
         <v>15.41</v>
       </c>
-      <c r="M6" s="69" t="s">
+      <c r="M6" s="68" t="s">
         <v>157</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
         <v>20.3</v>
       </c>
-      <c r="O6" s="39">
+      <c r="O6" s="38">
         <f t="shared" si="5"/>
         <v>22.157100000000014</v>
       </c>
@@ -16007,32 +15965,19 @@
         <f>AVERAGE(O2:O9)</f>
         <v>10.893966666666602</v>
       </c>
-      <c r="Q6" s="21" cm="1">
+      <c r="Q6" s="20" cm="1">
         <f t="array" ref="Q6">SUM((J2:L9)^2)</f>
         <v>67986.9421</v>
       </c>
-      <c r="R6" s="21"/>
+      <c r="R6" s="20"/>
       <c r="S6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="T6" s="2">
         <v>0.96981745850433798</v>
       </c>
-      <c r="W6" t="s">
-        <v>102</v>
-      </c>
-      <c r="X6">
-        <v>2.1625000000000001</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="6"/>
-        <v>1.08125</v>
-      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -16064,23 +16009,23 @@
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="J7" s="55">
+      <c r="J7" s="54">
         <v>43.58</v>
       </c>
-      <c r="K7" s="56">
+      <c r="K7" s="55">
         <v>44.31</v>
       </c>
-      <c r="L7" s="57">
+      <c r="L7" s="56">
         <v>36.99</v>
       </c>
-      <c r="M7" s="70" t="s">
+      <c r="M7" s="69" t="s">
         <v>158</v>
       </c>
       <c r="N7">
         <f t="shared" si="4"/>
         <v>41.626666666666665</v>
       </c>
-      <c r="O7" s="39">
+      <c r="O7" s="38">
         <f t="shared" si="5"/>
         <v>16.257233333333328</v>
       </c>
@@ -16099,21 +16044,8 @@
       <c r="U7" s="3">
         <v>3.3006009553817135</v>
       </c>
-      <c r="W7" t="s">
-        <v>165</v>
-      </c>
-      <c r="X7">
-        <v>28.634166666666669</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z7" s="73">
-        <f t="shared" si="6"/>
-        <v>14.317083333333334</v>
-      </c>
     </row>
-    <row r="8" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>8</v>
       </c>
@@ -16145,23 +16077,23 @@
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="J8" s="58">
+      <c r="J8" s="57">
         <v>45.2</v>
       </c>
-      <c r="K8" s="59">
+      <c r="K8" s="58">
         <v>49.53</v>
       </c>
-      <c r="L8" s="60">
+      <c r="L8" s="59">
         <v>50.29</v>
       </c>
-      <c r="M8" s="71" t="s">
+      <c r="M8" s="70" t="s">
         <v>159</v>
       </c>
       <c r="N8">
         <f t="shared" si="4"/>
         <v>48.34</v>
       </c>
-      <c r="O8" s="39">
+      <c r="O8" s="38">
         <f t="shared" si="5"/>
         <v>7.5390999999999906</v>
       </c>
@@ -16183,21 +16115,8 @@
       <c r="U8" s="6">
         <v>24</v>
       </c>
-      <c r="W8" t="s">
-        <v>166</v>
-      </c>
-      <c r="X8">
-        <v>1.5558333333333347</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="6"/>
-        <v>0.77791666666666737</v>
-      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>3</v>
       </c>
@@ -16229,23 +16148,23 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J9" s="61">
+      <c r="J9" s="60">
         <v>70.510000000000005</v>
       </c>
-      <c r="K9" s="62">
+      <c r="K9" s="61">
         <v>74</v>
       </c>
-      <c r="L9" s="63">
+      <c r="L9" s="62">
         <v>74.680000000000007</v>
       </c>
-      <c r="M9" s="72" t="s">
+      <c r="M9" s="71" t="s">
         <v>160</v>
       </c>
       <c r="N9">
         <f t="shared" si="4"/>
         <v>73.063333333333333</v>
       </c>
-      <c r="O9" s="39">
+      <c r="O9" s="38">
         <f t="shared" si="5"/>
         <v>5.0052333333333312</v>
       </c>
@@ -16256,27 +16175,14 @@
         <f>P2*(P4-1)</f>
         <v>16</v>
       </c>
-      <c r="W9" t="s">
-        <v>167</v>
-      </c>
-      <c r="X9">
-        <v>-0.4641666666666649</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="6"/>
-        <v>-0.23208333333333245</v>
-      </c>
     </row>
-    <row r="10" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="M10" s="17"/>
       <c r="S10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -16314,6 +16220,17 @@
         <v>39.134166666666673</v>
       </c>
       <c r="M11" s="17"/>
+      <c r="N11" s="125" t="s">
+        <v>169</v>
+      </c>
+      <c r="O11" s="125"/>
+      <c r="P11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q11">
+        <f>AVERAGE(J2:L9)</f>
+        <v>49.868749999999999</v>
+      </c>
       <c r="S11" s="7"/>
       <c r="T11" s="7" t="s">
         <v>33</v>
@@ -16331,7 +16248,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12">
         <f>Q4</f>
         <v>49.868749999999999</v>
@@ -16356,7 +16273,7 @@
         <v>134</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12:H17" si="7">$Q$2/2*((J12-$Q$4)^2+(L12-$Q$4)^2)</f>
+        <f t="shared" ref="H12:H17" si="6">$Q$2/2*((J12-$Q$4)^2+(L12-$Q$4)^2)</f>
         <v>7.3151041666669183</v>
       </c>
       <c r="I12" t="s">
@@ -16374,13 +16291,26 @@
         <v>49.316666666666663</v>
       </c>
       <c r="M12" s="17"/>
+      <c r="N12" t="s">
+        <v>164</v>
+      </c>
+      <c r="O12">
+        <v>21.46916666666667</v>
+      </c>
+      <c r="P12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="72">
+        <f>O12/2</f>
+        <v>10.734583333333335</v>
+      </c>
       <c r="S12" t="s">
         <v>39</v>
       </c>
       <c r="T12">
         <v>7</v>
       </c>
-      <c r="U12" s="22">
+      <c r="U12" s="21">
         <v>8127.2251958333318</v>
       </c>
       <c r="V12">
@@ -16393,31 +16323,31 @@
         <v>3.2000830664664587E-12</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:B19" si="8">N3-$Q$4</f>
+        <f t="shared" ref="B13:B19" si="7">N3-$Q$4</f>
         <v>26.444583333333334</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:C19" si="9">J3-$N3</f>
+        <f t="shared" ref="C13:C19" si="8">J3-$N3</f>
         <v>-0.69333333333332803</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:D19" si="10">K3-$N3</f>
+        <f t="shared" ref="D13:D19" si="9">K3-$N3</f>
         <v>1.2566666666666606</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E19" si="11">L3-$N3</f>
+        <f t="shared" ref="E13:E19" si="10">L3-$N3</f>
         <v>-0.56333333333333258</v>
       </c>
       <c r="G13" t="s">
         <v>135</v>
       </c>
       <c r="H13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>390.99153749999914</v>
       </c>
       <c r="I13" t="s">
@@ -16435,45 +16365,58 @@
         <v>53.904999999999994</v>
       </c>
       <c r="M13" s="17"/>
+      <c r="N13" t="s">
+        <v>100</v>
+      </c>
+      <c r="O13">
+        <v>1.1041666666666672</v>
+      </c>
+      <c r="P13" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q13">
+        <f>O13/2</f>
+        <v>0.55208333333333359</v>
+      </c>
       <c r="S13" t="s">
         <v>41</v>
       </c>
       <c r="T13">
         <v>16</v>
       </c>
-      <c r="U13" s="26">
+      <c r="U13" s="25">
         <v>174.30346666666688</v>
       </c>
       <c r="V13" s="2">
         <v>10.89396666666668</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14">
         <f>P2</f>
         <v>8</v>
       </c>
       <c r="B14">
+        <f t="shared" si="7"/>
+        <v>-20.998749999999994</v>
+      </c>
+      <c r="C14">
         <f t="shared" si="8"/>
-        <v>-20.998749999999994</v>
-      </c>
-      <c r="C14">
+        <v>-1.360000000000003</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="9"/>
-        <v>-1.360000000000003</v>
-      </c>
-      <c r="D14">
+        <v>5.1599999999999966</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="10"/>
-        <v>5.1599999999999966</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="11"/>
         <v>-3.8000000000000043</v>
       </c>
       <c r="G14" t="s">
         <v>136</v>
       </c>
       <c r="H14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>28.058437500000402</v>
       </c>
       <c r="I14" t="s">
@@ -16491,44 +16434,57 @@
         <v>48.787499999999994</v>
       </c>
       <c r="M14" s="17"/>
+      <c r="N14" t="s">
+        <v>101</v>
+      </c>
+      <c r="O14">
+        <v>-8.072499999999998</v>
+      </c>
+      <c r="P14" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="72">
+        <f>O14/2</f>
+        <v>-4.036249999999999</v>
+      </c>
       <c r="S14" s="6" t="s">
         <v>43</v>
       </c>
       <c r="T14" s="6">
         <v>23</v>
       </c>
-      <c r="U14" s="25">
+      <c r="U14" s="24">
         <v>8301.528662499999</v>
       </c>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
     </row>
-    <row r="15" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15">
+        <f t="shared" si="7"/>
+        <v>1.541249999999998</v>
+      </c>
+      <c r="C15">
         <f t="shared" si="8"/>
-        <v>1.541249999999998</v>
-      </c>
-      <c r="C15">
+        <v>-3.9999999999999147E-2</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="9"/>
-        <v>-3.9999999999999147E-2</v>
-      </c>
-      <c r="D15">
+        <v>-2.9199999999999946</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="10"/>
-        <v>-2.9199999999999946</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="11"/>
         <v>2.9600000000000009</v>
       </c>
       <c r="G15" t="s">
         <v>137</v>
       </c>
       <c r="H15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4919.4930041666657</v>
       </c>
       <c r="I15" t="s">
@@ -16546,33 +16502,46 @@
         <v>35.551666666666669</v>
       </c>
       <c r="M15" s="17"/>
+      <c r="N15" t="s">
+        <v>102</v>
+      </c>
+      <c r="O15">
+        <v>2.1625000000000001</v>
+      </c>
+      <c r="P15" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q15">
+        <f>O15/2</f>
+        <v>1.08125</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16">
         <f>P4</f>
         <v>3</v>
       </c>
       <c r="B16">
+        <f t="shared" si="7"/>
+        <v>-29.568749999999998</v>
+      </c>
+      <c r="C16">
         <f t="shared" si="8"/>
-        <v>-29.568749999999998</v>
-      </c>
-      <c r="C16">
+        <v>4.5</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="9"/>
-        <v>4.5</v>
-      </c>
-      <c r="D16">
+        <v>0.39000000000000057</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="10"/>
-        <v>0.39000000000000057</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="11"/>
         <v>-4.8900000000000006</v>
       </c>
       <c r="G16" t="s">
         <v>138</v>
       </c>
       <c r="H16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>14.523704166666649</v>
       </c>
       <c r="I16" t="s">
@@ -16590,6 +16559,19 @@
         <v>49.090833333333336</v>
       </c>
       <c r="M16" s="17"/>
+      <c r="N16" t="s">
+        <v>165</v>
+      </c>
+      <c r="O16">
+        <v>28.634166666666669</v>
+      </c>
+      <c r="P16" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q16" s="72">
+        <f>O16/2</f>
+        <v>14.317083333333334</v>
+      </c>
       <c r="S16" s="7"/>
       <c r="T16" s="7" t="s">
         <v>46</v>
@@ -16616,28 +16598,28 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B17">
+        <f t="shared" si="7"/>
+        <v>-8.2420833333333334</v>
+      </c>
+      <c r="C17">
         <f t="shared" si="8"/>
-        <v>-8.2420833333333334</v>
-      </c>
-      <c r="C17">
+        <v>1.9533333333333331</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="9"/>
-        <v>1.9533333333333331</v>
-      </c>
-      <c r="D17">
+        <v>2.6833333333333371</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="10"/>
-        <v>2.6833333333333371</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="11"/>
         <v>-4.6366666666666632</v>
       </c>
       <c r="G17" t="s">
         <v>139</v>
       </c>
       <c r="H17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.2927041666665713</v>
       </c>
       <c r="I17" t="s">
@@ -16655,6 +16637,19 @@
         <v>50.100833333333327</v>
       </c>
       <c r="M17" s="17"/>
+      <c r="N17" t="s">
+        <v>166</v>
+      </c>
+      <c r="O17">
+        <v>1.5558333333333347</v>
+      </c>
+      <c r="P17" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q17">
+        <f>O17/2</f>
+        <v>0.77791666666666737</v>
+      </c>
       <c r="S17" t="s">
         <v>55</v>
       </c>
@@ -16683,21 +16678,21 @@
         <v>51.836575062717763</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B18">
+        <f t="shared" si="7"/>
+        <v>-1.5287499999999952</v>
+      </c>
+      <c r="C18">
         <f t="shared" si="8"/>
-        <v>-1.5287499999999952</v>
-      </c>
-      <c r="C18">
+        <v>-3.1400000000000006</v>
+      </c>
+      <c r="D18">
         <f t="shared" si="9"/>
-        <v>-3.1400000000000006</v>
-      </c>
-      <c r="D18">
+        <v>1.1899999999999977</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="10"/>
-        <v>1.1899999999999977</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="11"/>
         <v>1.9499999999999957</v>
       </c>
       <c r="G18" t="s">
@@ -16708,6 +16703,19 @@
         <v>174.30346666666662</v>
       </c>
       <c r="M18" s="17"/>
+      <c r="N18" t="s">
+        <v>167</v>
+      </c>
+      <c r="O18">
+        <v>-0.4641666666666649</v>
+      </c>
+      <c r="P18" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q18">
+        <f>O18/2</f>
+        <v>-0.23208333333333245</v>
+      </c>
       <c r="S18" t="s">
         <v>58</v>
       </c>
@@ -16736,21 +16744,21 @@
         <v>12.702408396051094</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B19">
+        <f t="shared" si="7"/>
+        <v>23.194583333333334</v>
+      </c>
+      <c r="C19">
         <f t="shared" si="8"/>
-        <v>23.194583333333334</v>
-      </c>
-      <c r="C19">
+        <v>-2.5533333333333275</v>
+      </c>
+      <c r="D19">
         <f t="shared" si="9"/>
-        <v>-2.5533333333333275</v>
-      </c>
-      <c r="D19">
+        <v>0.93666666666666742</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="10"/>
-        <v>0.93666666666666742</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="11"/>
         <v>1.6166666666666742</v>
       </c>
       <c r="M19" s="17"/>
@@ -16782,7 +16790,7 @@
         <v>2.5199083960510946</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -16827,16 +16835,16 @@
         <v>-2.0684249372822361</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A21">
         <f>A14*A16*A12^2</f>
         <v>59685.413437499992</v>
       </c>
-      <c r="B21" s="22" cm="1">
+      <c r="B21" s="21" cm="1">
         <f t="array" ref="B21">A16*SUM((B12:B19)^2)</f>
         <v>8127.2251958333327</v>
       </c>
-      <c r="C21" s="26" cm="1">
+      <c r="C21" s="25" cm="1">
         <f t="array" ref="C21">SUM((C12:E19)^2)</f>
         <v>174.30346666666662</v>
       </c>
@@ -16844,45 +16852,45 @@
         <f>SUM(A21:C21)</f>
         <v>67986.942099999986</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="23">
         <f>D21-A21</f>
         <v>8301.5286624999935</v>
       </c>
       <c r="F21" s="16"/>
-      <c r="G21" s="110" t="s">
+      <c r="G21" s="106" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="111" t="s">
+      <c r="H21" s="107" t="s">
         <v>119</v>
       </c>
-      <c r="I21" s="111" t="s">
+      <c r="I21" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="J21" s="111" t="s">
+      <c r="J21" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="K21" s="112" t="s">
+      <c r="K21" s="108" t="s">
         <v>132</v>
       </c>
-      <c r="L21" s="113" t="s">
+      <c r="L21" s="109" t="s">
         <v>174</v>
       </c>
-      <c r="M21" s="78" t="s">
+      <c r="M21" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="N21" s="79" t="s">
+      <c r="N21" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="O21" s="79" t="s">
+      <c r="O21" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="P21" s="79" t="s">
+      <c r="P21" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="Q21" s="80" t="s">
+      <c r="Q21" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="R21" s="81" t="s">
+      <c r="R21" s="80" t="s">
         <v>174</v>
       </c>
       <c r="S21" t="s">
@@ -16913,48 +16921,48 @@
         <v>3.0490750627177619</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G22" s="114" t="s">
+    <row r="22" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G22" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="115">
+      <c r="H22" s="111">
         <f>H11</f>
         <v>2765.5507041666647</v>
       </c>
-      <c r="I22" s="115">
-        <v>1</v>
-      </c>
-      <c r="J22" s="115">
+      <c r="I22" s="111">
+        <v>1</v>
+      </c>
+      <c r="J22" s="111">
         <f>H22/I22</f>
         <v>2765.5507041666647</v>
       </c>
-      <c r="K22" s="116">
+      <c r="K22" s="112">
         <f>J22/$J$29</f>
         <v>253.86076429154963</v>
       </c>
-      <c r="L22" s="117">
+      <c r="L22" s="113">
         <f>_xlfn.F.INV.RT(0.1,I22,$I$29)</f>
         <v>3.0481098110878739</v>
       </c>
-      <c r="M22" s="125" t="s">
+      <c r="M22" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="N22" s="83">
+      <c r="N22" s="82">
         <f>H22</f>
         <v>2765.5507041666647</v>
       </c>
-      <c r="O22" s="83">
-        <v>1</v>
-      </c>
-      <c r="P22" s="83">
+      <c r="O22" s="82">
+        <v>1</v>
+      </c>
+      <c r="P22" s="82">
         <f>N22/O22</f>
         <v>2765.5507041666647</v>
       </c>
-      <c r="Q22" s="84">
+      <c r="Q22" s="83">
         <f>P22/$J$29</f>
         <v>253.86076429154963</v>
       </c>
-      <c r="R22" s="85">
+      <c r="R22" s="84">
         <f>_xlfn.F.INV.RT(0.1,O22,$O$25)</f>
         <v>3.0481098110878739</v>
       </c>
@@ -16986,67 +16994,67 @@
         <v>16.284908396051097</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="78" t="s">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A23" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="79" t="s">
+      <c r="D23" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="E23" s="80" t="s">
+      <c r="E23" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="81" t="s">
+      <c r="F23" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="G23" s="114" t="s">
+      <c r="G23" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="115">
-        <f t="shared" ref="H23:H29" si="12">H12</f>
+      <c r="H23" s="111">
+        <f t="shared" ref="H23:H29" si="11">H12</f>
         <v>7.3151041666669183</v>
       </c>
-      <c r="I23" s="115">
-        <v>1</v>
-      </c>
-      <c r="J23" s="115">
-        <f t="shared" ref="J23:J29" si="13">H23/I23</f>
+      <c r="I23" s="111">
+        <v>1</v>
+      </c>
+      <c r="J23" s="111">
+        <f t="shared" ref="J23:J29" si="12">H23/I23</f>
         <v>7.3151041666669183</v>
       </c>
-      <c r="K23" s="116">
-        <f t="shared" ref="K23:K28" si="14">J23/$J$29</f>
+      <c r="K23" s="112">
+        <f t="shared" ref="K23:K28" si="13">J23/$J$29</f>
         <v>0.67148215067057793</v>
       </c>
-      <c r="L23" s="117">
-        <f t="shared" ref="L23:L28" si="15">_xlfn.F.INV.RT(0.1,I23,$I$29)</f>
+      <c r="L23" s="113">
+        <f t="shared" ref="L23:L28" si="14">_xlfn.F.INV.RT(0.1,I23,$I$29)</f>
         <v>3.0481098110878739</v>
       </c>
-      <c r="M23" s="125" t="s">
+      <c r="M23" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="N23" s="83">
+      <c r="N23" s="82">
         <f>H24</f>
         <v>390.99153749999914</v>
       </c>
-      <c r="O23" s="83">
-        <v>1</v>
-      </c>
-      <c r="P23" s="83">
-        <f t="shared" ref="P23:P24" si="16">N23/O23</f>
+      <c r="O23" s="82">
+        <v>1</v>
+      </c>
+      <c r="P23" s="82">
+        <f t="shared" ref="P23:P24" si="15">N23/O23</f>
         <v>390.99153749999914</v>
       </c>
-      <c r="Q23" s="84">
-        <f t="shared" ref="Q23:Q24" si="17">P23/$J$29</f>
+      <c r="Q23" s="83">
+        <f t="shared" ref="Q23:Q24" si="16">P23/$J$29</f>
         <v>35.890649334952919</v>
       </c>
-      <c r="R23" s="85">
-        <f t="shared" ref="R23:R24" si="18">_xlfn.F.INV.RT(0.1,O23,$O$25)</f>
+      <c r="R23" s="84">
+        <f t="shared" ref="R23:R24" si="17">_xlfn.F.INV.RT(0.1,O23,$O$25)</f>
         <v>3.0481098110878739</v>
       </c>
       <c r="S23" t="s">
@@ -17077,71 +17085,71 @@
         <v>2.7457417293844277</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="82" t="s">
+    <row r="24" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="B24" s="83">
+      <c r="B24" s="82">
         <f>A21</f>
         <v>59685.413437499992</v>
       </c>
-      <c r="C24" s="83">
-        <v>1</v>
-      </c>
-      <c r="D24" s="83">
+      <c r="C24" s="82">
+        <v>1</v>
+      </c>
+      <c r="D24" s="82">
         <f>B24/C24</f>
         <v>59685.413437499992</v>
       </c>
-      <c r="E24" s="84">
+      <c r="E24" s="83">
         <f>D24/D26</f>
         <v>5478.758588469459</v>
       </c>
-      <c r="F24" s="85">
+      <c r="F24" s="84">
         <f>_xlfn.F.INV.RT(0.1,C24,$C$26)</f>
         <v>3.0481098110878739</v>
       </c>
-      <c r="G24" s="114" t="s">
+      <c r="G24" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="115">
+      <c r="H24" s="111">
+        <f t="shared" si="11"/>
+        <v>390.99153749999914</v>
+      </c>
+      <c r="I24" s="111">
+        <v>1</v>
+      </c>
+      <c r="J24" s="111">
         <f t="shared" si="12"/>
         <v>390.99153749999914</v>
       </c>
-      <c r="I24" s="115">
-        <v>1</v>
-      </c>
-      <c r="J24" s="115">
+      <c r="K24" s="112">
         <f t="shared" si="13"/>
-        <v>390.99153749999914</v>
-      </c>
-      <c r="K24" s="116">
+        <v>35.890649334952919</v>
+      </c>
+      <c r="L24" s="113">
         <f t="shared" si="14"/>
-        <v>35.890649334952919</v>
-      </c>
-      <c r="L24" s="117">
-        <f t="shared" si="15"/>
         <v>3.0481098110878739</v>
       </c>
-      <c r="M24" s="125" t="s">
+      <c r="M24" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="N24" s="83">
+      <c r="N24" s="82">
         <f>H26</f>
         <v>4919.4930041666657</v>
       </c>
-      <c r="O24" s="83">
-        <v>1</v>
-      </c>
-      <c r="P24" s="83">
+      <c r="O24" s="82">
+        <v>1</v>
+      </c>
+      <c r="P24" s="82">
+        <f t="shared" si="15"/>
+        <v>4919.4930041666657</v>
+      </c>
+      <c r="Q24" s="83">
         <f t="shared" si="16"/>
-        <v>4919.4930041666657</v>
-      </c>
-      <c r="Q24" s="84">
+        <v>451.57959030839703</v>
+      </c>
+      <c r="R24" s="84">
         <f t="shared" si="17"/>
-        <v>451.57959030839703</v>
-      </c>
-      <c r="R24" s="85">
-        <f t="shared" si="18"/>
         <v>3.0481098110878739</v>
       </c>
       <c r="S24" s="6" t="s">
@@ -17172,288 +17180,288 @@
         <v>1.7357417293844271</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="82" t="s">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A25" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="B25" s="83">
+      <c r="B25" s="82">
         <f>B21</f>
         <v>8127.2251958333327</v>
       </c>
-      <c r="C25" s="83">
+      <c r="C25" s="82">
         <f>A14-1</f>
         <v>7</v>
       </c>
-      <c r="D25" s="83">
-        <f t="shared" ref="D25:D26" si="19">B25/C25</f>
+      <c r="D25" s="82">
+        <f t="shared" ref="D25:D26" si="18">B25/C25</f>
         <v>1161.0321708333333</v>
       </c>
-      <c r="E25" s="84">
+      <c r="E25" s="83">
         <f>D25/D26</f>
         <v>106.5757043654133</v>
       </c>
-      <c r="F25" s="85">
+      <c r="F25" s="84">
         <f>_xlfn.F.INV.RT(0.1,C25,$C$26)</f>
         <v>2.1280026088875497</v>
       </c>
-      <c r="G25" s="114" t="s">
+      <c r="G25" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="115">
+      <c r="H25" s="111">
+        <f t="shared" si="11"/>
+        <v>28.058437500000402</v>
+      </c>
+      <c r="I25" s="111">
+        <v>1</v>
+      </c>
+      <c r="J25" s="111">
         <f t="shared" si="12"/>
         <v>28.058437500000402</v>
       </c>
-      <c r="I25" s="115">
-        <v>1</v>
-      </c>
-      <c r="J25" s="115">
+      <c r="K25" s="112">
         <f t="shared" si="13"/>
-        <v>28.058437500000402</v>
-      </c>
-      <c r="K25" s="116">
+        <v>2.5755942126988098</v>
+      </c>
+      <c r="L25" s="113">
         <f t="shared" si="14"/>
-        <v>2.5755942126988098</v>
-      </c>
-      <c r="L25" s="117">
-        <f t="shared" si="15"/>
         <v>3.0481098110878739</v>
       </c>
-      <c r="M25" s="125" t="s">
+      <c r="M25" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="N25" s="83">
+      <c r="N25" s="82">
         <f>H29</f>
         <v>174.30346666666662</v>
       </c>
-      <c r="O25" s="83">
+      <c r="O25" s="82">
         <f>I29</f>
         <v>16</v>
       </c>
-      <c r="P25" s="83">
+      <c r="P25" s="82">
         <f>N25/O25</f>
         <v>10.893966666666664</v>
       </c>
-      <c r="Q25" s="84" t="s">
+      <c r="Q25" s="83" t="s">
         <v>175</v>
       </c>
-      <c r="R25" s="85" t="s">
+      <c r="R25" s="84" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="82" t="s">
+    <row r="26" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="83">
+      <c r="B26" s="82">
         <f>C21</f>
         <v>174.30346666666662</v>
       </c>
-      <c r="C26" s="83">
+      <c r="C26" s="82">
         <f>A14*(A16-1)</f>
         <v>16</v>
       </c>
-      <c r="D26" s="83">
-        <f t="shared" si="19"/>
+      <c r="D26" s="82">
+        <f t="shared" si="18"/>
         <v>10.893966666666664</v>
       </c>
-      <c r="E26" s="84" t="s">
+      <c r="E26" s="83" t="s">
         <v>175</v>
       </c>
-      <c r="F26" s="85" t="s">
+      <c r="F26" s="84" t="s">
         <v>176</v>
       </c>
-      <c r="G26" s="114" t="s">
+      <c r="G26" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="H26" s="115">
+      <c r="H26" s="111">
+        <f t="shared" si="11"/>
+        <v>4919.4930041666657</v>
+      </c>
+      <c r="I26" s="111">
+        <v>1</v>
+      </c>
+      <c r="J26" s="111">
         <f t="shared" si="12"/>
         <v>4919.4930041666657</v>
       </c>
-      <c r="I26" s="115">
-        <v>1</v>
-      </c>
-      <c r="J26" s="115">
+      <c r="K26" s="112">
         <f t="shared" si="13"/>
-        <v>4919.4930041666657</v>
-      </c>
-      <c r="K26" s="116">
+        <v>451.57959030839703</v>
+      </c>
+      <c r="L26" s="113">
         <f t="shared" si="14"/>
-        <v>451.57959030839703</v>
-      </c>
-      <c r="L26" s="117">
-        <f t="shared" si="15"/>
         <v>3.0481098110878739</v>
       </c>
-      <c r="M26" s="126" t="s">
+      <c r="M26" s="122" t="s">
         <v>163</v>
       </c>
-      <c r="N26" s="87">
+      <c r="N26" s="86">
         <f>SUM(N22:N25)</f>
         <v>8250.3387124999954</v>
       </c>
-      <c r="O26" s="87">
+      <c r="O26" s="86">
         <f>SUM(O22:O25)</f>
         <v>19</v>
       </c>
-      <c r="P26" s="87"/>
-      <c r="Q26" s="88">
+      <c r="P26" s="86"/>
+      <c r="Q26" s="87">
         <f>SUM(N22:N24)/N26</f>
         <v>0.97887317445493705</v>
       </c>
-      <c r="R26" s="89">
+      <c r="R26" s="88">
         <f>Q26^0.5</f>
         <v>0.98938019712087277</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="86" t="s">
+    <row r="27" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="87">
+      <c r="B27" s="86">
         <f>SUM(B24:B26)</f>
         <v>67986.942099999986</v>
       </c>
-      <c r="C27" s="87">
+      <c r="C27" s="86">
         <f>SUM(C24:C26)</f>
         <v>24</v>
       </c>
-      <c r="D27" s="87"/>
-      <c r="E27" s="88">
+      <c r="D27" s="86"/>
+      <c r="E27" s="87">
         <f>(B24+B25)/B27</f>
         <v>0.99743622140836563</v>
       </c>
-      <c r="F27" s="89">
+      <c r="F27" s="88">
         <f>E27^0.5</f>
         <v>0.9987172880291828</v>
       </c>
-      <c r="G27" s="114" t="s">
+      <c r="G27" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="115">
+      <c r="H27" s="111">
+        <f t="shared" si="11"/>
+        <v>14.523704166666649</v>
+      </c>
+      <c r="I27" s="111">
+        <v>1</v>
+      </c>
+      <c r="J27" s="111">
         <f t="shared" si="12"/>
         <v>14.523704166666649</v>
       </c>
-      <c r="I27" s="115">
-        <v>1</v>
-      </c>
-      <c r="J27" s="115">
+      <c r="K27" s="112">
         <f t="shared" si="13"/>
-        <v>14.523704166666649</v>
-      </c>
-      <c r="K27" s="116">
+        <v>1.3331878654545775</v>
+      </c>
+      <c r="L27" s="113">
         <f t="shared" si="14"/>
-        <v>1.3331878654545775</v>
-      </c>
-      <c r="L27" s="117">
-        <f t="shared" si="15"/>
         <v>3.0481098110878739</v>
       </c>
-      <c r="M27" s="125" t="s">
+      <c r="M27" s="121" t="s">
         <v>178</v>
       </c>
-      <c r="N27" s="90">
+      <c r="N27" s="89">
         <f>1-(N25/O25)/(N26/O26)</f>
         <v>0.97491189466523775</v>
       </c>
-      <c r="O27" s="90"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="90"/>
-      <c r="R27" s="90"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="89"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="82" t="s">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A28" s="81" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="90">
+      <c r="B28" s="89">
         <f>1-(B26/C26)/(B27/C27)</f>
         <v>0.99615433211254845</v>
       </c>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="114" t="s">
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="115">
+      <c r="H28" s="111">
+        <f t="shared" si="11"/>
+        <v>1.2927041666665713</v>
+      </c>
+      <c r="I28" s="111">
+        <v>1</v>
+      </c>
+      <c r="J28" s="111">
         <f t="shared" si="12"/>
         <v>1.2927041666665713</v>
       </c>
-      <c r="I28" s="115">
-        <v>1</v>
-      </c>
-      <c r="J28" s="115">
+      <c r="K28" s="112">
         <f t="shared" si="13"/>
-        <v>1.2927041666665713</v>
-      </c>
-      <c r="K28" s="116">
+        <v>0.11866239416924092</v>
+      </c>
+      <c r="L28" s="113">
         <f t="shared" si="14"/>
-        <v>0.11866239416924092</v>
-      </c>
-      <c r="L28" s="117">
-        <f t="shared" si="15"/>
         <v>3.0481098110878739</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G29" s="114" t="s">
+    <row r="29" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G29" s="110" t="s">
         <v>168</v>
       </c>
-      <c r="H29" s="115">
-        <f t="shared" si="12"/>
+      <c r="H29" s="111">
+        <f t="shared" si="11"/>
         <v>174.30346666666662</v>
       </c>
-      <c r="I29" s="115">
+      <c r="I29" s="111">
         <f>P2*(P4-1)</f>
         <v>16</v>
       </c>
-      <c r="J29" s="115">
-        <f t="shared" si="13"/>
+      <c r="J29" s="111">
+        <f t="shared" si="12"/>
         <v>10.893966666666664</v>
       </c>
-      <c r="K29" s="116" t="s">
+      <c r="K29" s="112" t="s">
         <v>175</v>
       </c>
-      <c r="L29" s="117" t="s">
+      <c r="L29" s="113" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="94" t="s">
+    <row r="30" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="95" t="s">
+      <c r="B30" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="95" t="s">
+      <c r="C30" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="95" t="s">
+      <c r="D30" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="95" t="s">
+      <c r="E30" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="F30" s="96" t="s">
+      <c r="F30" s="95" t="s">
         <v>174</v>
       </c>
-      <c r="G30" s="118" t="s">
+      <c r="G30" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="H30" s="119">
+      <c r="H30" s="115">
         <f>SUM(H22:H29)</f>
         <v>8301.5286624999972</v>
       </c>
-      <c r="I30" s="119">
+      <c r="I30" s="115">
         <f>SUM(I22:I29)</f>
         <v>23</v>
       </c>
-      <c r="J30" s="119"/>
-      <c r="K30" s="118">
+      <c r="J30" s="115"/>
+      <c r="K30" s="114">
         <f>SUM(H22,H24,H26)/H30</f>
         <v>0.97283712122981925</v>
       </c>
-      <c r="L30" s="120">
+      <c r="L30" s="116">
         <f>K30^0.5</f>
         <v>0.98632505860381503</v>
       </c>
@@ -17469,614 +17477,614 @@
       <c r="Q30" t="s">
         <v>4</v>
       </c>
-      <c r="S30" s="121" t="s">
+      <c r="S30" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="T30" s="121"/>
+      <c r="T30" s="117"/>
     </row>
-    <row r="31" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="97" t="s">
+    <row r="31" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="98">
+      <c r="B31" s="97">
         <f>B21</f>
         <v>8127.2251958333327</v>
       </c>
-      <c r="C31" s="98">
+      <c r="C31" s="97">
         <f>A14-1</f>
         <v>7</v>
       </c>
-      <c r="D31" s="98">
+      <c r="D31" s="97">
         <f>B31/C31</f>
         <v>1161.0321708333333</v>
       </c>
-      <c r="E31" s="98">
+      <c r="E31" s="97">
         <f>D31/D32</f>
         <v>106.5757043654133</v>
       </c>
-      <c r="F31" s="99">
+      <c r="F31" s="98">
         <f>_xlfn.F.INV.RT(0.1,C31,C32)</f>
         <v>2.1280026088875497</v>
       </c>
-      <c r="G31" s="116" t="s">
+      <c r="G31" s="112" t="s">
         <v>178</v>
       </c>
-      <c r="H31" s="98">
+      <c r="H31" s="97">
         <f>1-(H29/I29)/(H30/I30)</f>
         <v>0.96981745850433809</v>
       </c>
-      <c r="I31" s="121"/>
-      <c r="J31" s="121"/>
-      <c r="K31" s="121"/>
-      <c r="L31" s="121"/>
-      <c r="M31" s="107" t="s">
+      <c r="I31" s="117"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="117"/>
+      <c r="L31" s="117"/>
+      <c r="M31" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="N31" s="27">
+      <c r="N31" s="26">
         <f>C2</f>
         <v>-1</v>
       </c>
-      <c r="O31" s="27">
+      <c r="O31" s="26">
         <f>E2</f>
         <v>-1</v>
       </c>
-      <c r="P31" s="27">
+      <c r="P31" s="26">
         <f>G2</f>
         <v>1</v>
       </c>
-      <c r="Q31" s="27">
+      <c r="Q31" s="26">
         <v>61.43</v>
       </c>
-      <c r="S31" s="121"/>
-      <c r="T31" s="121"/>
+      <c r="S31" s="117"/>
+      <c r="T31" s="117"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="97" t="s">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A32" s="96" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="98">
+      <c r="B32" s="97">
         <f>C21</f>
         <v>174.30346666666662</v>
       </c>
-      <c r="C32" s="98">
+      <c r="C32" s="97">
         <f>A14*(A16-1)</f>
         <v>16</v>
       </c>
-      <c r="D32" s="98">
+      <c r="D32" s="97">
         <f>B32/C32</f>
         <v>10.893966666666664</v>
       </c>
-      <c r="E32" s="98"/>
-      <c r="F32" s="99"/>
-      <c r="M32" s="107"/>
-      <c r="N32" s="27">
-        <f t="shared" ref="N32:N38" si="20">C3</f>
-        <v>1</v>
-      </c>
-      <c r="O32" s="27">
-        <f t="shared" ref="O32:O38" si="21">E3</f>
+      <c r="E32" s="97"/>
+      <c r="F32" s="98"/>
+      <c r="M32" s="126"/>
+      <c r="N32" s="26">
+        <f t="shared" ref="N32:N38" si="19">C3</f>
+        <v>1</v>
+      </c>
+      <c r="O32" s="26">
+        <f t="shared" ref="O32:O38" si="20">E3</f>
         <v>-1</v>
       </c>
-      <c r="P32" s="27">
-        <f t="shared" ref="P32:P38" si="22">G3</f>
-        <v>1</v>
-      </c>
-      <c r="Q32" s="27">
+      <c r="P32" s="26">
+        <f t="shared" ref="P32:P38" si="21">G3</f>
+        <v>1</v>
+      </c>
+      <c r="Q32" s="26">
         <v>75.62</v>
       </c>
-      <c r="S32" s="122" t="s">
+      <c r="S32" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="T32" s="122"/>
+      <c r="T32" s="118"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="100" t="s">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A33" s="99" t="s">
         <v>163</v>
       </c>
-      <c r="B33" s="101">
+      <c r="B33" s="100">
         <f>B31+B32</f>
         <v>8301.528662499999</v>
       </c>
-      <c r="C33" s="101">
+      <c r="C33" s="100">
         <f>SUM(C31:C32)</f>
         <v>23</v>
       </c>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="102"/>
-      <c r="M33" s="107"/>
-      <c r="N33" s="27">
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="101"/>
+      <c r="M33" s="126"/>
+      <c r="N33" s="26">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="O33" s="26">
         <f t="shared" si="20"/>
         <v>-1</v>
       </c>
-      <c r="O33" s="27">
+      <c r="P33" s="26">
         <f t="shared" si="21"/>
         <v>-1</v>
       </c>
-      <c r="P33" s="27">
+      <c r="Q33" s="26">
+        <v>27.51</v>
+      </c>
+      <c r="S33" s="119" t="s">
+        <v>13</v>
+      </c>
+      <c r="T33" s="119">
+        <v>0.98632505860381514</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="102" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="103">
+        <f>B31/B33</f>
+        <v>0.97900344939432216</v>
+      </c>
+      <c r="C34" s="103" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="103">
+        <f>B34^0.5</f>
+        <v>0.98944603157237543</v>
+      </c>
+      <c r="E34" s="103" t="s">
+        <v>177</v>
+      </c>
+      <c r="F34" s="104">
+        <f>1-(B32/C32)/(B33/C33)</f>
+        <v>0.96981745850433809</v>
+      </c>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="M34" s="126"/>
+      <c r="N34" s="26">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="O34" s="26">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="P34" s="26">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="Q34" s="26">
+        <v>51.37</v>
+      </c>
+      <c r="S34" s="119" t="s">
+        <v>15</v>
+      </c>
+      <c r="T34" s="119">
+        <v>0.97283712122981936</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="M35" s="126"/>
+      <c r="N35" s="26">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="O35" s="26">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="P35" s="26">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="Q35" s="26">
+        <v>24.8</v>
+      </c>
+      <c r="S35" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="T35" s="119">
+        <v>0.96876268941429233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="B36" s="26"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="M36" s="126"/>
+      <c r="N36" s="26">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="O36" s="26">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="P36" s="26">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="Q36" s="26">
+        <v>43.58</v>
+      </c>
+      <c r="S36" s="119" t="s">
+        <v>47</v>
+      </c>
+      <c r="T36" s="119">
+        <v>3.3577776628796219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="26"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="M37" s="126"/>
+      <c r="N37" s="26">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="O37" s="26">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="P37" s="26">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Q37" s="26">
+        <v>45.2</v>
+      </c>
+      <c r="S37" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="T37" s="120">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="B38" s="26"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="M38" s="127"/>
+      <c r="N38" s="18">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="O38" s="18">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="P38" s="18">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Q38" s="18">
+        <v>70.510000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="M39" s="128" t="s">
+        <v>179</v>
+      </c>
+      <c r="N39" s="90">
+        <f>N31</f>
+        <v>-1</v>
+      </c>
+      <c r="O39" s="90">
+        <f>O31</f>
+        <v>-1</v>
+      </c>
+      <c r="P39" s="90">
+        <f>P31</f>
+        <v>1</v>
+      </c>
+      <c r="Q39" s="90">
+        <v>58.58</v>
+      </c>
+      <c r="S39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="M40" s="126"/>
+      <c r="N40" s="26">
+        <f t="shared" ref="N40:P46" si="22">N32</f>
+        <v>1</v>
+      </c>
+      <c r="O40" s="26">
         <f t="shared" si="22"/>
         <v>-1</v>
       </c>
-      <c r="Q33" s="27">
-        <v>27.51</v>
-      </c>
-      <c r="S33" s="123" t="s">
-        <v>13</v>
-      </c>
-      <c r="T33" s="123">
-        <v>0.98632505860381514</v>
+      <c r="P40" s="26">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="Q40" s="26">
+        <v>77.569999999999993</v>
+      </c>
+      <c r="S40" s="75"/>
+      <c r="T40" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="U40" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="V40" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="W40" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="X40" s="75" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="103" t="s">
-        <v>175</v>
-      </c>
-      <c r="B34" s="104">
-        <f>B31/B33</f>
-        <v>0.97900344939432216</v>
-      </c>
-      <c r="C34" s="104" t="s">
-        <v>176</v>
-      </c>
-      <c r="D34" s="104">
-        <f>B34^0.5</f>
-        <v>0.98944603157237543</v>
-      </c>
-      <c r="E34" s="104" t="s">
-        <v>177</v>
-      </c>
-      <c r="F34" s="105">
-        <f>1-(B32/C32)/(B33/C33)</f>
-        <v>0.96981745850433809</v>
-      </c>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="M34" s="107"/>
-      <c r="N34" s="27">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="O34" s="27">
-        <f t="shared" si="21"/>
-        <v>-1</v>
-      </c>
-      <c r="P34" s="27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="M41" s="126"/>
+      <c r="N41" s="26">
         <f t="shared" si="22"/>
         <v>-1</v>
       </c>
-      <c r="Q34" s="27">
-        <v>51.37</v>
-      </c>
-      <c r="S34" s="123" t="s">
-        <v>15</v>
-      </c>
-      <c r="T34" s="123">
-        <v>0.97283712122981936</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="M35" s="107"/>
-      <c r="N35" s="27">
-        <f t="shared" si="20"/>
-        <v>-1</v>
-      </c>
-      <c r="O35" s="27">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="P35" s="27">
+      <c r="O41" s="26">
         <f t="shared" si="22"/>
         <v>-1</v>
       </c>
-      <c r="Q35" s="27">
-        <v>24.8</v>
-      </c>
-      <c r="S35" s="123" t="s">
-        <v>16</v>
-      </c>
-      <c r="T35" s="123">
-        <v>0.96876268941429233</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B36" s="27"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="M36" s="107"/>
-      <c r="N36" s="27">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="O36" s="27">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="P36" s="27">
+      <c r="P41" s="26">
         <f t="shared" si="22"/>
         <v>-1</v>
       </c>
-      <c r="Q36" s="27">
-        <v>43.58</v>
-      </c>
-      <c r="S36" s="123" t="s">
+      <c r="Q41" s="26">
+        <v>34.03</v>
+      </c>
+      <c r="S41" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="T41" s="73">
+        <v>3</v>
+      </c>
+      <c r="U41" s="73">
+        <v>8076.0352458333318</v>
+      </c>
+      <c r="V41" s="73">
+        <v>2692.0117486111108</v>
+      </c>
+      <c r="W41" s="73">
+        <v>238.76632749687312</v>
+      </c>
+      <c r="X41" s="73">
+        <v>7.9899884231460721E-16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="M42" s="126"/>
+      <c r="N42" s="26">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="O42" s="26">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="P42" s="26">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="Q42" s="26">
+        <v>48.49</v>
+      </c>
+      <c r="R42" s="76"/>
+      <c r="S42" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="T42" s="73">
+        <v>20</v>
+      </c>
+      <c r="U42" s="73">
+        <v>225.49341666666675</v>
+      </c>
+      <c r="V42" s="73">
+        <v>11.274670833333337</v>
+      </c>
+      <c r="W42" s="73"/>
+      <c r="X42" s="73"/>
+    </row>
+    <row r="43" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M43" s="126"/>
+      <c r="N43" s="26">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="O43" s="26">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="P43" s="26">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="Q43" s="26">
+        <v>20.69</v>
+      </c>
+      <c r="R43" s="73"/>
+      <c r="S43" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="T43" s="74">
+        <v>23</v>
+      </c>
+      <c r="U43" s="74">
+        <v>8301.528662499999</v>
+      </c>
+      <c r="V43" s="74"/>
+      <c r="W43" s="74"/>
+      <c r="X43" s="74"/>
+    </row>
+    <row r="44" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M44" s="126"/>
+      <c r="N44" s="26">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="O44" s="26">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="P44" s="26">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="Q44" s="26">
+        <v>44.31</v>
+      </c>
+      <c r="R44" s="73"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="M45" s="126"/>
+      <c r="N45" s="26">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="O45" s="26">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="P45" s="26">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="Q45" s="26">
+        <v>49.53</v>
+      </c>
+      <c r="R45" s="73"/>
+      <c r="S45" s="75"/>
+      <c r="T45" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="U45" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="T36" s="123">
-        <v>3.3577776628796219</v>
+      <c r="V45" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="W45" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="X45" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y45" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z45" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA45" s="75" t="s">
+        <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="27"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="M37" s="107"/>
-      <c r="N37" s="27">
-        <f t="shared" si="20"/>
-        <v>-1</v>
-      </c>
-      <c r="O37" s="27">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="P37" s="27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="M46" s="127"/>
+      <c r="N46" s="18">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="Q37" s="27">
-        <v>45.2</v>
-      </c>
-      <c r="S37" s="124" t="s">
-        <v>21</v>
-      </c>
-      <c r="T37" s="124">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B38" s="27"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="M38" s="108"/>
-      <c r="N38" s="18">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="O38" s="18">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="P38" s="18">
+      <c r="O46" s="18">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="Q38" s="18">
-        <v>70.510000000000005</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="M39" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="N39" s="91">
-        <f>N31</f>
-        <v>-1</v>
-      </c>
-      <c r="O39" s="91">
-        <f>O31</f>
-        <v>-1</v>
-      </c>
-      <c r="P39" s="91">
-        <f>P31</f>
-        <v>1</v>
-      </c>
-      <c r="Q39" s="91">
-        <v>58.58</v>
-      </c>
-      <c r="S39" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="M40" s="107"/>
-      <c r="N40" s="27">
-        <f t="shared" ref="N40:P46" si="23">N32</f>
-        <v>1</v>
-      </c>
-      <c r="O40" s="27">
-        <f t="shared" si="23"/>
-        <v>-1</v>
-      </c>
-      <c r="P40" s="27">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="Q40" s="27">
-        <v>77.569999999999993</v>
-      </c>
-      <c r="S40" s="76"/>
-      <c r="T40" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="U40" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="V40" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="W40" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="X40" s="76" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="M41" s="107"/>
-      <c r="N41" s="27">
-        <f t="shared" si="23"/>
-        <v>-1</v>
-      </c>
-      <c r="O41" s="27">
-        <f t="shared" si="23"/>
-        <v>-1</v>
-      </c>
-      <c r="P41" s="27">
-        <f t="shared" si="23"/>
-        <v>-1</v>
-      </c>
-      <c r="Q41" s="27">
-        <v>34.03</v>
-      </c>
-      <c r="S41" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="T41" s="74">
-        <v>3</v>
-      </c>
-      <c r="U41" s="74">
-        <v>8076.0352458333318</v>
-      </c>
-      <c r="V41" s="74">
-        <v>2692.0117486111108</v>
-      </c>
-      <c r="W41" s="74">
-        <v>238.76632749687312</v>
-      </c>
-      <c r="X41" s="74">
-        <v>7.9899884231460721E-16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="M42" s="107"/>
-      <c r="N42" s="27">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="O42" s="27">
-        <f t="shared" si="23"/>
-        <v>-1</v>
-      </c>
-      <c r="P42" s="27">
-        <f t="shared" si="23"/>
-        <v>-1</v>
-      </c>
-      <c r="Q42" s="27">
-        <v>48.49</v>
-      </c>
-      <c r="R42" s="77"/>
-      <c r="S42" s="74" t="s">
-        <v>41</v>
-      </c>
-      <c r="T42" s="74">
-        <v>20</v>
-      </c>
-      <c r="U42" s="74">
-        <v>225.49341666666675</v>
-      </c>
-      <c r="V42" s="74">
-        <v>11.274670833333337</v>
-      </c>
-      <c r="W42" s="74"/>
-      <c r="X42" s="74"/>
-    </row>
-    <row r="43" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M43" s="107"/>
-      <c r="N43" s="27">
-        <f t="shared" si="23"/>
-        <v>-1</v>
-      </c>
-      <c r="O43" s="27">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="P43" s="27">
-        <f t="shared" si="23"/>
-        <v>-1</v>
-      </c>
-      <c r="Q43" s="27">
-        <v>20.69</v>
-      </c>
-      <c r="R43" s="74"/>
-      <c r="S43" s="75" t="s">
-        <v>43</v>
-      </c>
-      <c r="T43" s="75">
-        <v>23</v>
-      </c>
-      <c r="U43" s="75">
-        <v>8301.528662499999</v>
-      </c>
-      <c r="V43" s="75"/>
-      <c r="W43" s="75"/>
-      <c r="X43" s="75"/>
-    </row>
-    <row r="44" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M44" s="107"/>
-      <c r="N44" s="27">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="O44" s="27">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="P44" s="27">
-        <f t="shared" si="23"/>
-        <v>-1</v>
-      </c>
-      <c r="Q44" s="27">
-        <v>44.31</v>
-      </c>
-      <c r="R44" s="74"/>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="M45" s="107"/>
-      <c r="N45" s="27">
-        <f t="shared" si="23"/>
-        <v>-1</v>
-      </c>
-      <c r="O45" s="27">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="P45" s="27">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="Q45" s="27">
-        <v>49.53</v>
-      </c>
-      <c r="R45" s="74"/>
-      <c r="S45" s="76"/>
-      <c r="T45" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="U45" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="V45" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="W45" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="X45" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y45" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z45" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA45" s="76" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="M46" s="108"/>
-      <c r="N46" s="18">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="O46" s="18">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
       <c r="P46" s="18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="Q46" s="18">
         <v>74</v>
       </c>
-      <c r="R46" s="74"/>
-      <c r="S46" s="74" t="s">
+      <c r="R46" s="73"/>
+      <c r="S46" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="T46" s="74">
+      <c r="T46" s="73">
         <v>49.868750000000006</v>
       </c>
-      <c r="U46" s="74">
+      <c r="U46" s="73">
         <v>0.68540349531417566</v>
       </c>
-      <c r="V46" s="74">
+      <c r="V46" s="73">
         <v>72.758237069014569</v>
       </c>
-      <c r="W46" s="74">
+      <c r="W46" s="73">
         <v>1.0069842215203724E-25</v>
       </c>
-      <c r="X46" s="74">
+      <c r="X46" s="73">
         <v>48.439023362146372</v>
       </c>
-      <c r="Y46" s="74">
+      <c r="Y46" s="73">
         <v>51.298476637853639</v>
       </c>
-      <c r="Z46" s="74">
+      <c r="Z46" s="73">
         <v>48.439023362146372</v>
       </c>
-      <c r="AA46" s="74">
+      <c r="AA46" s="73">
         <v>51.298476637853639</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="M47" s="20" t="s">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="M47" s="125" t="s">
         <v>179</v>
       </c>
       <c r="N47">
@@ -18091,215 +18099,215 @@
         <f>P31</f>
         <v>1</v>
       </c>
-      <c r="Q47" s="27">
+      <c r="Q47" s="26">
         <v>57.07</v>
       </c>
-      <c r="R47" s="27"/>
-      <c r="S47" s="74" t="s">
+      <c r="R47" s="26"/>
+      <c r="S47" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="T47" s="74">
+      <c r="T47" s="73">
         <v>10.734583333333335</v>
       </c>
-      <c r="U47" s="74">
+      <c r="U47" s="73">
         <v>0.68540349531417566</v>
       </c>
-      <c r="V47" s="74">
+      <c r="V47" s="73">
         <v>15.661699140318522</v>
       </c>
-      <c r="W47" s="74">
+      <c r="W47" s="73">
         <v>1.0827628580791364E-12</v>
       </c>
-      <c r="X47" s="74">
+      <c r="X47" s="73">
         <v>9.3048566954797032</v>
       </c>
-      <c r="Y47" s="74">
+      <c r="Y47" s="73">
         <v>12.164309971186967</v>
       </c>
-      <c r="Z47" s="74">
+      <c r="Z47" s="73">
         <v>9.3048566954797032</v>
       </c>
-      <c r="AA47" s="74">
+      <c r="AA47" s="73">
         <v>12.164309971186967</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="M48" s="20"/>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="M48" s="125"/>
       <c r="N48">
-        <f t="shared" ref="N48:O54" si="24">N40</f>
+        <f t="shared" ref="N48:O54" si="23">N40</f>
         <v>1</v>
       </c>
       <c r="O48">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="P48">
+        <f t="shared" ref="P48:P54" si="24">P32</f>
+        <v>1</v>
+      </c>
+      <c r="Q48" s="26">
+        <v>75.75</v>
+      </c>
+      <c r="R48" s="26"/>
+      <c r="S48" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="T48" s="73">
+        <v>-4.0362499999999972</v>
+      </c>
+      <c r="U48" s="73">
+        <v>0.68540349531417544</v>
+      </c>
+      <c r="V48" s="73">
+        <v>-5.8888669631745314</v>
+      </c>
+      <c r="W48" s="73">
+        <v>9.2515289397680043E-6</v>
+      </c>
+      <c r="X48" s="73">
+        <v>-5.4659766378536272</v>
+      </c>
+      <c r="Y48" s="73">
+        <v>-2.6065233621463668</v>
+      </c>
+      <c r="Z48" s="73">
+        <v>-5.4659766378536272</v>
+      </c>
+      <c r="AA48" s="73">
+        <v>-2.6065233621463668</v>
+      </c>
+    </row>
+    <row r="49" spans="13:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M49" s="125"/>
+      <c r="N49">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="P49">
         <f t="shared" si="24"/>
         <v>-1</v>
       </c>
-      <c r="P48">
-        <f t="shared" ref="P48:P54" si="25">P32</f>
-        <v>1</v>
-      </c>
-      <c r="Q48" s="27">
-        <v>75.75</v>
-      </c>
-      <c r="R48" s="27"/>
-      <c r="S48" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="T48" s="74">
-        <v>-4.0362499999999972</v>
-      </c>
-      <c r="U48" s="74">
-        <v>0.68540349531417544</v>
-      </c>
-      <c r="V48" s="74">
-        <v>-5.8888669631745314</v>
-      </c>
-      <c r="W48" s="74">
-        <v>9.2515289397680043E-6</v>
-      </c>
-      <c r="X48" s="74">
-        <v>-5.4659766378536272</v>
-      </c>
-      <c r="Y48" s="74">
-        <v>-2.6065233621463668</v>
-      </c>
-      <c r="Z48" s="74">
-        <v>-5.4659766378536272</v>
-      </c>
-      <c r="AA48" s="74">
-        <v>-2.6065233621463668</v>
+      <c r="Q49" s="26">
+        <v>25.07</v>
+      </c>
+      <c r="R49" s="26"/>
+      <c r="S49" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="T49" s="74">
+        <v>14.317083333333333</v>
+      </c>
+      <c r="U49" s="74">
+        <v>0.68540349531417566</v>
+      </c>
+      <c r="V49" s="74">
+        <v>20.888547302739767</v>
+      </c>
+      <c r="W49" s="74">
+        <v>4.7024726858451465E-15</v>
+      </c>
+      <c r="X49" s="74">
+        <v>12.887356695479703</v>
+      </c>
+      <c r="Y49" s="74">
+        <v>15.746809971186963</v>
+      </c>
+      <c r="Z49" s="74">
+        <v>12.887356695479703</v>
+      </c>
+      <c r="AA49" s="74">
+        <v>15.746809971186963</v>
       </c>
     </row>
-    <row r="49" spans="13:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M49" s="20"/>
-      <c r="N49">
+    <row r="50" spans="13:27" x14ac:dyDescent="0.4">
+      <c r="M50" s="125"/>
+      <c r="N50">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="P50">
         <f t="shared" si="24"/>
         <v>-1</v>
       </c>
-      <c r="O49">
+      <c r="Q50" s="26">
+        <v>54.37</v>
+      </c>
+      <c r="R50" s="26"/>
+    </row>
+    <row r="51" spans="13:27" x14ac:dyDescent="0.4">
+      <c r="M51" s="125"/>
+      <c r="N51">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="P51">
         <f t="shared" si="24"/>
         <v>-1</v>
       </c>
-      <c r="P49">
-        <f t="shared" si="25"/>
-        <v>-1</v>
-      </c>
-      <c r="Q49" s="27">
-        <v>25.07</v>
-      </c>
-      <c r="R49" s="27"/>
-      <c r="S49" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="T49" s="75">
-        <v>14.317083333333333</v>
-      </c>
-      <c r="U49" s="75">
-        <v>0.68540349531417566</v>
-      </c>
-      <c r="V49" s="75">
-        <v>20.888547302739767</v>
-      </c>
-      <c r="W49" s="75">
-        <v>4.7024726858451465E-15</v>
-      </c>
-      <c r="X49" s="75">
-        <v>12.887356695479703</v>
-      </c>
-      <c r="Y49" s="75">
-        <v>15.746809971186963</v>
-      </c>
-      <c r="Z49" s="75">
-        <v>12.887356695479703</v>
-      </c>
-      <c r="AA49" s="75">
-        <v>15.746809971186963</v>
+      <c r="Q51">
+        <v>15.41</v>
       </c>
     </row>
-    <row r="50" spans="13:27" x14ac:dyDescent="0.25">
-      <c r="M50" s="20"/>
-      <c r="N50">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="O50">
+    <row r="52" spans="13:27" x14ac:dyDescent="0.4">
+      <c r="M52" s="125"/>
+      <c r="N52">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="P52">
         <f t="shared" si="24"/>
         <v>-1</v>
       </c>
-      <c r="P50">
-        <f t="shared" si="25"/>
-        <v>-1</v>
-      </c>
-      <c r="Q50" s="27">
-        <v>54.37</v>
-      </c>
-      <c r="R50" s="27"/>
-    </row>
-    <row r="51" spans="13:27" x14ac:dyDescent="0.25">
-      <c r="M51" s="20"/>
-      <c r="N51">
-        <f t="shared" si="24"/>
-        <v>-1</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="25"/>
-        <v>-1</v>
-      </c>
-      <c r="Q51">
-        <v>15.41</v>
-      </c>
-    </row>
-    <row r="52" spans="13:27" x14ac:dyDescent="0.25">
-      <c r="M52" s="20"/>
-      <c r="N52">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="P52">
-        <f t="shared" si="25"/>
-        <v>-1</v>
-      </c>
       <c r="Q52">
         <v>36.99</v>
       </c>
     </row>
-    <row r="53" spans="13:27" x14ac:dyDescent="0.25">
-      <c r="M53" s="20"/>
+    <row r="53" spans="13:27" x14ac:dyDescent="0.4">
+      <c r="M53" s="125"/>
       <c r="N53">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="P53">
         <f t="shared" si="24"/>
-        <v>-1</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="P53">
-        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="Q53">
         <v>50.29</v>
       </c>
     </row>
-    <row r="54" spans="13:27" x14ac:dyDescent="0.25">
-      <c r="M54" s="20"/>
+    <row r="54" spans="13:27" x14ac:dyDescent="0.4">
+      <c r="M54" s="125"/>
       <c r="N54">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="P54">
         <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="Q54">
@@ -18308,7 +18316,7 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="N11:O11"/>
     <mergeCell ref="M31:M38"/>
     <mergeCell ref="M39:M46"/>
     <mergeCell ref="M47:M54"/>
@@ -18331,20 +18339,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23ED07D0-0378-48DE-A771-39BD13989BC5}">
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="12" width="9" customWidth="1"/>
-    <col min="15" max="15" width="11.75" customWidth="1"/>
-    <col min="17" max="17" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="11.7265625" customWidth="1"/>
+    <col min="20" max="20" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>182</v>
       </c>
@@ -18381,7 +18390,7 @@
       <c r="L1" t="s">
         <v>186</v>
       </c>
-      <c r="M1" s="130" t="s">
+      <c r="M1" s="124" t="s">
         <v>187</v>
       </c>
       <c r="N1" s="5" t="s">
@@ -18390,11 +18399,16 @@
       <c r="O1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="P1" s="129" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="T1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18433,7 +18447,7 @@
         <f t="shared" ref="L2:L19" si="1">(_xlfn.VAR.S(H2:J2))^0.5</f>
         <v>35.907288025320618</v>
       </c>
-      <c r="M2" s="130">
+      <c r="M2" s="124">
         <f t="shared" ref="M2:M19" si="2">10*LOG10(K2^2/L2^2)</f>
         <v>34.866131758820949</v>
       </c>
@@ -18443,26 +18457,38 @@
       <c r="O2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="P2" s="3">
+        <f>(H2-$K2)^2</f>
+        <v>1653.777777777784</v>
+      </c>
+      <c r="Q2" s="3">
+        <f t="shared" ref="Q2:R2" si="3">(I2-$K2)^2</f>
+        <v>177.77777777777575</v>
+      </c>
+      <c r="R2" s="3">
+        <f t="shared" si="3"/>
+        <v>747.11111111110699</v>
+      </c>
+      <c r="T2" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="U2" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="V2" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="W2" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="U2" s="30" t="s">
+      <c r="X2" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="V2" s="31" t="s">
+      <c r="Y2" s="30" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18501,7 +18527,7 @@
         <f t="shared" si="1"/>
         <v>94.99649116327052</v>
       </c>
-      <c r="M3" s="130">
+      <c r="M3" s="124">
         <f t="shared" si="2"/>
         <v>34.880962165031875</v>
       </c>
@@ -18512,21 +18538,42 @@
         <f>18</f>
         <v>18</v>
       </c>
-      <c r="Q3" s="33" t="s">
+      <c r="P3" s="3">
+        <f t="shared" ref="P3:P19" si="4">(H3-$K3)^2</f>
+        <v>11165.444444444509</v>
+      </c>
+      <c r="Q3" s="3">
+        <f t="shared" ref="Q3:Q19" si="5">(I3-$K3)^2</f>
+        <v>6136.111111111064</v>
+      </c>
+      <c r="R3" s="3">
+        <f t="shared" ref="R3:R19" si="6">(J3-$K3)^2</f>
+        <v>747.11111111109449</v>
+      </c>
+      <c r="T3" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="R3" s="27">
+      <c r="U3" s="26">
         <f>E24</f>
         <v>81.56784307394885</v>
       </c>
-      <c r="S3" s="27">
+      <c r="V3" s="26">
         <v>2</v>
       </c>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="28"/>
+      <c r="W3" s="26">
+        <f>U3/V3</f>
+        <v>40.783921536974425</v>
+      </c>
+      <c r="X3" s="26">
+        <f>W3/$W$9</f>
+        <v>40.783921536974425</v>
+      </c>
+      <c r="Y3" s="27" t="e">
+        <f>_xlfn.F.INV.RT(0.1,2,0)</f>
+        <v>#NUM!</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18565,7 +18612,7 @@
         <f t="shared" si="1"/>
         <v>61.441028637222537</v>
       </c>
-      <c r="M4" s="130">
+      <c r="M4" s="124">
         <f t="shared" si="2"/>
         <v>39.675797239784998</v>
       </c>
@@ -18575,21 +18622,39 @@
       <c r="O4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="33" t="s">
+      <c r="P4" s="3">
+        <f t="shared" si="4"/>
+        <v>4900</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" si="5"/>
+        <v>625</v>
+      </c>
+      <c r="R4" s="3">
+        <f t="shared" si="6"/>
+        <v>2025</v>
+      </c>
+      <c r="T4" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="R4" s="27">
+      <c r="U4" s="26">
         <f>E26</f>
         <v>174.73674565798535</v>
       </c>
-      <c r="S4" s="27">
+      <c r="V4" s="26">
         <v>2</v>
       </c>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="28"/>
+      <c r="W4" s="26">
+        <f t="shared" ref="W4:W9" si="7">U4/V4</f>
+        <v>87.368372828992676</v>
+      </c>
+      <c r="X4" s="26">
+        <f t="shared" ref="X4:X8" si="8">W4/$W$9</f>
+        <v>87.368372828992676</v>
+      </c>
+      <c r="Y4" s="27"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -18628,7 +18693,7 @@
         <f t="shared" si="1"/>
         <v>9.5043849529221696</v>
       </c>
-      <c r="M5" s="130">
+      <c r="M5" s="124">
         <f t="shared" si="2"/>
         <v>46.921678295653393</v>
       </c>
@@ -18638,21 +18703,39 @@
       <c r="O5" s="3">
         <v>3</v>
       </c>
-      <c r="Q5" s="33" t="s">
+      <c r="P5" s="3">
+        <f t="shared" si="4"/>
+        <v>87.111111111113942</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" si="5"/>
+        <v>0.11111111111121216</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" si="6"/>
+        <v>93.444444444441515</v>
+      </c>
+      <c r="T5" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="R5" s="27">
+      <c r="U5" s="26">
         <f>E28</f>
         <v>38.711288673239395</v>
       </c>
-      <c r="S5" s="27">
+      <c r="V5" s="26">
         <v>2</v>
       </c>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="28"/>
+      <c r="W5" s="26">
+        <f t="shared" si="7"/>
+        <v>19.355644336619697</v>
+      </c>
+      <c r="X5" s="26">
+        <f t="shared" si="8"/>
+        <v>19.355644336619697</v>
+      </c>
+      <c r="Y5" s="27"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -18691,7 +18774,7 @@
         <f t="shared" si="1"/>
         <v>36.896250938724563</v>
       </c>
-      <c r="M6" s="130">
+      <c r="M6" s="124">
         <f t="shared" si="2"/>
         <v>41.005955010313386</v>
       </c>
@@ -18701,21 +18784,39 @@
       <c r="O6" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Q6" s="33" t="s">
+      <c r="P6" s="3">
+        <f t="shared" si="4"/>
+        <v>1653.7777777778024</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="5"/>
+        <v>87.111111111105458</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" si="6"/>
+        <v>981.77777777775873</v>
+      </c>
+      <c r="T6" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="R6" s="27">
+      <c r="U6" s="26">
         <f>E30</f>
         <v>117.1146523333019</v>
       </c>
-      <c r="S6" s="17">
+      <c r="V6" s="17">
         <v>2</v>
       </c>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="28"/>
+      <c r="W6" s="26">
+        <f t="shared" si="7"/>
+        <v>58.557326166650952</v>
+      </c>
+      <c r="X6" s="26">
+        <f t="shared" si="8"/>
+        <v>58.557326166650952</v>
+      </c>
+      <c r="Y6" s="27"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -18754,7 +18855,7 @@
         <f t="shared" si="1"/>
         <v>58.226568964119238</v>
       </c>
-      <c r="M7" s="130">
+      <c r="M7" s="124">
         <f t="shared" si="2"/>
         <v>34.110685078975358</v>
       </c>
@@ -18766,21 +18867,39 @@
         <f>O3*O5</f>
         <v>54</v>
       </c>
-      <c r="Q7" s="33" t="s">
+      <c r="P7" s="3">
+        <f t="shared" si="4"/>
+        <v>4400.1111111111313</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="5"/>
+        <v>560.11111111110392</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="6"/>
+        <v>1820.4444444444316</v>
+      </c>
+      <c r="T7" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="R7" s="27">
+      <c r="U7" s="26">
         <f>E32</f>
         <v>573.32057693741103</v>
       </c>
-      <c r="S7" s="17">
+      <c r="V7" s="17">
         <v>2</v>
       </c>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="28"/>
+      <c r="W7" s="26">
+        <f t="shared" si="7"/>
+        <v>286.66028846870552</v>
+      </c>
+      <c r="X7" s="26">
+        <f t="shared" si="8"/>
+        <v>286.66028846870552</v>
+      </c>
+      <c r="Y7" s="27"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -18819,25 +18938,43 @@
         <f t="shared" si="1"/>
         <v>7.5718777944003648</v>
       </c>
-      <c r="M8" s="130">
+      <c r="M8" s="124">
         <f t="shared" si="2"/>
         <v>52.054330830149752</v>
       </c>
-      <c r="Q8" s="33" t="s">
+      <c r="P8" s="3">
+        <f t="shared" si="4"/>
+        <v>11.111111111112121</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" si="5"/>
+        <v>75.111111111108485</v>
+      </c>
+      <c r="R8" s="3">
+        <f t="shared" si="6"/>
+        <v>28.444444444446063</v>
+      </c>
+      <c r="T8" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="R8" s="27">
+      <c r="U8" s="26">
         <f>E34</f>
         <v>9.9659815459927596</v>
       </c>
-      <c r="S8" s="17">
+      <c r="V8" s="17">
         <v>2</v>
       </c>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="28"/>
+      <c r="W8" s="26">
+        <f t="shared" si="7"/>
+        <v>4.9829907729963798</v>
+      </c>
+      <c r="X8" s="26">
+        <f t="shared" si="8"/>
+        <v>4.9829907729963798</v>
+      </c>
+      <c r="Y8" s="27"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -18876,20 +19013,39 @@
         <f t="shared" si="1"/>
         <v>187.68857184176133</v>
       </c>
-      <c r="M9" s="130">
+      <c r="M9" s="124">
         <f t="shared" si="2"/>
         <v>27.605139312389344</v>
       </c>
-      <c r="Q9" s="33" t="s">
+      <c r="P9" s="3">
+        <f t="shared" si="4"/>
+        <v>40804</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" si="5"/>
+        <v>1089</v>
+      </c>
+      <c r="R9" s="3">
+        <f t="shared" si="6"/>
+        <v>28561</v>
+      </c>
+      <c r="T9" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="28"/>
+      <c r="U9" s="26">
+        <v>0</v>
+      </c>
+      <c r="V9" s="26">
+        <f>N3*(N5-1)</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="26">
+        <v>1</v>
+      </c>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="27"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -18928,20 +19084,35 @@
         <f t="shared" si="1"/>
         <v>19.295940851208403</v>
       </c>
-      <c r="M10" s="130">
+      <c r="M10" s="124">
         <f t="shared" si="2"/>
         <v>45.985595164418541</v>
       </c>
-      <c r="Q10" s="93" t="s">
+      <c r="P10" s="3">
+        <f t="shared" si="4"/>
+        <v>235.11111111111575</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" si="5"/>
+        <v>469.44444444443786</v>
+      </c>
+      <c r="R10" s="3">
+        <f t="shared" si="6"/>
+        <v>40.111111111113033</v>
+      </c>
+      <c r="T10" s="92" t="s">
         <v>163</v>
       </c>
-      <c r="R10" s="91"/>
-      <c r="S10" s="91"/>
-      <c r="T10" s="91"/>
-      <c r="U10" s="91"/>
-      <c r="V10" s="92"/>
+      <c r="U10" s="90">
+        <f>SUM(U3:U9)</f>
+        <v>995.41708822187934</v>
+      </c>
+      <c r="V10" s="90"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="90"/>
+      <c r="Y10" s="91"/>
     </row>
-    <row r="11" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -18980,18 +19151,30 @@
         <f t="shared" si="1"/>
         <v>18.610033136277146</v>
       </c>
-      <c r="M11" s="130">
+      <c r="M11" s="124">
         <f t="shared" si="2"/>
         <v>44.77475363828033</v>
       </c>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
+      <c r="P11" s="3">
+        <f t="shared" si="4"/>
+        <v>5.4444444444451516</v>
+      </c>
+      <c r="Q11" s="3">
+        <f t="shared" si="5"/>
+        <v>386.7777777777718</v>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" si="6"/>
+        <v>300.44444444444969</v>
+      </c>
+      <c r="T11" s="33"/>
       <c r="U11" s="6"/>
-      <c r="V11" s="29"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="28"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -19030,12 +19213,24 @@
         <f t="shared" si="1"/>
         <v>12.701705922171765</v>
       </c>
-      <c r="M12" s="130">
+      <c r="M12" s="124">
         <f t="shared" si="2"/>
         <v>45.903535532871814</v>
       </c>
+      <c r="P12" s="3">
+        <f t="shared" si="4"/>
+        <v>215.11111111110665</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" si="5"/>
+        <v>53.777777777780003</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" si="6"/>
+        <v>53.777777777780003</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -19074,15 +19269,27 @@
         <f t="shared" si="1"/>
         <v>77.500537632543782</v>
       </c>
-      <c r="M13" s="130">
+      <c r="M13" s="124">
         <f t="shared" si="2"/>
         <v>37.547614394875183</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="P13" s="3">
+        <f t="shared" si="4"/>
+        <v>5980.444444444398</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="5"/>
+        <v>6032.1111111111586</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="6"/>
+        <v>0.111111111110909</v>
+      </c>
+      <c r="T13" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -19121,30 +19328,42 @@
         <f t="shared" si="1"/>
         <v>38.017539811688678</v>
       </c>
-      <c r="M14" s="130">
+      <c r="M14" s="124">
         <f t="shared" si="2"/>
         <v>37.197495663907716</v>
       </c>
-      <c r="Q14" s="32" t="s">
+      <c r="P14" s="3">
+        <f t="shared" si="4"/>
+        <v>1495.1111111110995</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" si="5"/>
+        <v>1.777777777778182</v>
+      </c>
+      <c r="R14" s="3">
+        <f t="shared" si="6"/>
+        <v>1393.7777777777892</v>
+      </c>
+      <c r="T14" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="R14" s="30" t="s">
+      <c r="U14" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="S14" s="30" t="s">
+      <c r="V14" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="T14" s="30" t="s">
+      <c r="W14" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="U14" s="30" t="s">
+      <c r="X14" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="V14" s="31" t="s">
+      <c r="Y14" s="30" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -19183,25 +19402,46 @@
         <f t="shared" si="1"/>
         <v>15.14375558880073</v>
       </c>
-      <c r="M15" s="130">
+      <c r="M15" s="124">
         <f t="shared" si="2"/>
         <v>45.499333710234126</v>
       </c>
-      <c r="Q15" s="33" t="s">
+      <c r="P15" s="3">
+        <f t="shared" si="4"/>
+        <v>113.77777777777455</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="5"/>
+        <v>300.44444444444969</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="6"/>
+        <v>44.444444444442425</v>
+      </c>
+      <c r="T15" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="R15" s="27">
+      <c r="U15" s="26">
         <f>L24</f>
         <v>11504394.481481489</v>
       </c>
-      <c r="S15" s="27">
+      <c r="V15" s="26">
         <v>2</v>
       </c>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="28"/>
+      <c r="W15" s="26">
+        <f>U15/V15</f>
+        <v>5752197.2407407444</v>
+      </c>
+      <c r="X15" s="26">
+        <f>W15/$W$21</f>
+        <v>1209.7531994609801</v>
+      </c>
+      <c r="Y15" s="27">
+        <f>_xlfn.F.INV.RT(0.1,V15,$V$21)</f>
+        <v>2.4563459949430451</v>
+      </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -19240,25 +19480,46 @@
         <f t="shared" si="1"/>
         <v>48.686069191641806</v>
       </c>
-      <c r="M16" s="130">
+      <c r="M16" s="124">
         <f t="shared" si="2"/>
         <v>36.255720134339221</v>
       </c>
-      <c r="Q16" s="33" t="s">
+      <c r="P16" s="3">
+        <f t="shared" si="4"/>
+        <v>2952.1111111111277</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" si="5"/>
+        <v>215.11111111110665</v>
+      </c>
+      <c r="R16" s="3">
+        <f t="shared" si="6"/>
+        <v>1573.4444444444325</v>
+      </c>
+      <c r="T16" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="R16" s="27">
+      <c r="U16" s="26">
         <f>L26</f>
         <v>21897229.148148157</v>
       </c>
-      <c r="S16" s="27">
+      <c r="V16" s="26">
         <v>2</v>
       </c>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="28"/>
+      <c r="W16" s="26">
+        <f t="shared" ref="W16:W21" si="9">U16/V16</f>
+        <v>10948614.574074078</v>
+      </c>
+      <c r="X16" s="26">
+        <f t="shared" ref="X16:X20" si="10">W16/$W$21</f>
+        <v>2302.6194958755586</v>
+      </c>
+      <c r="Y16" s="27">
+        <f t="shared" ref="Y16:Y20" si="11">_xlfn.F.INV.RT(0.1,V16,$V$21)</f>
+        <v>2.4563459949430451</v>
+      </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -19297,25 +19558,46 @@
         <f t="shared" si="1"/>
         <v>6.110100926607787</v>
       </c>
-      <c r="M17" s="130">
+      <c r="M17" s="124">
         <f t="shared" si="2"/>
         <v>53.863818299568003</v>
       </c>
-      <c r="Q17" s="33" t="s">
+      <c r="P17" s="3">
+        <f t="shared" si="4"/>
+        <v>28.444444444446063</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="5"/>
+        <v>44.444444444442425</v>
+      </c>
+      <c r="R17" s="3">
+        <f t="shared" si="6"/>
+        <v>1.777777777778182</v>
+      </c>
+      <c r="T17" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="R17" s="27">
+      <c r="U17" s="26">
         <f>L28</f>
         <v>11053419.148148151</v>
       </c>
-      <c r="S17" s="27">
+      <c r="V17" s="26">
         <v>2</v>
       </c>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="28"/>
+      <c r="W17" s="26">
+        <f t="shared" si="9"/>
+        <v>5526709.5740740756</v>
+      </c>
+      <c r="X17" s="26">
+        <f t="shared" si="10"/>
+        <v>1162.3305512497957</v>
+      </c>
+      <c r="Y17" s="27">
+        <f t="shared" si="11"/>
+        <v>2.4563459949430451</v>
+      </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -19354,25 +19636,46 @@
         <f t="shared" si="1"/>
         <v>142.78071765239636</v>
       </c>
-      <c r="M18" s="130">
+      <c r="M18" s="124">
         <f t="shared" si="2"/>
         <v>29.245916237207055</v>
       </c>
-      <c r="Q18" s="33" t="s">
+      <c r="P18" s="3">
+        <f t="shared" si="4"/>
+        <v>18860.444444444362</v>
+      </c>
+      <c r="Q18" s="3">
+        <f t="shared" si="5"/>
+        <v>106.77777777777152</v>
+      </c>
+      <c r="R18" s="3">
+        <f t="shared" si="6"/>
+        <v>21805.444444444533</v>
+      </c>
+      <c r="T18" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="R18" s="27">
+      <c r="U18" s="26">
         <f>L30</f>
         <v>18775153.925925925</v>
       </c>
-      <c r="S18" s="27">
+      <c r="V18" s="26">
         <v>2</v>
       </c>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="28"/>
+      <c r="W18" s="26">
+        <f t="shared" si="9"/>
+        <v>9387576.9629629627</v>
+      </c>
+      <c r="X18" s="26">
+        <f t="shared" si="10"/>
+        <v>1974.3153426130034</v>
+      </c>
+      <c r="Y18" s="27">
+        <f t="shared" si="11"/>
+        <v>2.4563459949430451</v>
+      </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -19411,93 +19714,146 @@
         <f t="shared" si="1"/>
         <v>4.1633319989322661</v>
       </c>
-      <c r="M19" s="130">
+      <c r="M19" s="124">
         <f t="shared" si="2"/>
         <v>57.504472774037666</v>
       </c>
-      <c r="Q19" s="33" t="s">
+      <c r="P19" s="3">
+        <f t="shared" si="4"/>
+        <v>1.777777777778182</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" si="5"/>
+        <v>21.777777777776365</v>
+      </c>
+      <c r="R19" s="3">
+        <f t="shared" si="6"/>
+        <v>11.111111111112121</v>
+      </c>
+      <c r="T19" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="R19" s="27">
+      <c r="U19" s="26">
         <f>L32</f>
         <v>852755.70370370476</v>
       </c>
-      <c r="S19" s="27">
+      <c r="V19" s="26">
         <v>2</v>
       </c>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="28"/>
+      <c r="W19" s="26">
+        <f t="shared" si="9"/>
+        <v>426377.85185185238</v>
+      </c>
+      <c r="X19" s="26">
+        <f t="shared" si="10"/>
+        <v>89.672163326349022</v>
+      </c>
+      <c r="Y19" s="27">
+        <f t="shared" si="11"/>
+        <v>2.4563459949430451</v>
+      </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M20" s="130" t="s">
+      <c r="M20" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="Q20" s="33" t="s">
+      <c r="P20" s="125" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q20" s="125"/>
+      <c r="R20" s="125"/>
+      <c r="T20" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="R20" s="27">
+      <c r="U20" s="26">
         <f>L34</f>
         <v>4453178.9259259272</v>
       </c>
-      <c r="S20" s="27">
+      <c r="V20" s="26">
         <v>2</v>
       </c>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="28"/>
+      <c r="W20" s="26">
+        <f t="shared" si="9"/>
+        <v>2226589.4629629636</v>
+      </c>
+      <c r="X20" s="26">
+        <f t="shared" si="10"/>
+        <v>468.27735802026791</v>
+      </c>
+      <c r="Y20" s="27">
+        <f t="shared" si="11"/>
+        <v>2.4563459949430451</v>
+      </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H21" s="129"/>
-      <c r="I21" s="129"/>
-      <c r="J21" s="129">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123">
         <f>AVERAGE(H2:J19)</f>
         <v>3577.0925925925926</v>
       </c>
-      <c r="M21" s="130">
+      <c r="M21" s="124">
         <f>AVERAGE(M2:M19)</f>
         <v>41.383274180047714</v>
       </c>
-      <c r="Q21" s="33" t="s">
+      <c r="P21" s="125">
+        <f>SUM(P2:R19)</f>
+        <v>171174.66666666669</v>
+      </c>
+      <c r="Q21" s="125"/>
+      <c r="R21" s="125"/>
+      <c r="T21" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="28"/>
+      <c r="U21" s="26">
+        <f>P21</f>
+        <v>171174.66666666669</v>
+      </c>
+      <c r="V21" s="26">
+        <f>O3*(O5-1)</f>
+        <v>36</v>
+      </c>
+      <c r="W21" s="26">
+        <f t="shared" si="9"/>
+        <v>4754.8518518518522</v>
+      </c>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="27"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="127" t="s">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A22" s="130" t="s">
         <v>188</v>
       </c>
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="H22" s="128" t="s">
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="H22" s="129" t="s">
         <v>189</v>
       </c>
-      <c r="I22" s="128"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="128"/>
-      <c r="Q22" s="93" t="s">
+      <c r="I22" s="129"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="129"/>
+      <c r="L22" s="129"/>
+      <c r="T22" s="92" t="s">
         <v>163</v>
       </c>
-      <c r="R22" s="91"/>
-      <c r="S22" s="91"/>
-      <c r="T22" s="91"/>
-      <c r="U22" s="91"/>
-      <c r="V22" s="92"/>
+      <c r="U22" s="90">
+        <f>SUM(U15:U21)</f>
+        <v>68707306.00000003</v>
+      </c>
+      <c r="V22" s="90"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="91"/>
     </row>
-    <row r="23" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>195</v>
       </c>
@@ -19531,14 +19887,14 @@
       <c r="L23" t="s">
         <v>211</v>
       </c>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
+      <c r="T23" s="33"/>
       <c r="U23" s="6"/>
-      <c r="V23" s="29"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="28"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A24">
         <f>AVERAGE(M2,M3,M4,M11,M12,M13)</f>
         <v>39.60813245494419</v>
@@ -19582,7 +19938,7 @@
         <v>11504394.481481489</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>198</v>
       </c>
@@ -19617,7 +19973,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A26">
         <f>AVERAGE(M2,M5,M8,M11,M14,M17)</f>
         <v>44.946368081063355</v>
@@ -19657,7 +20013,7 @@
         <v>21897229.148148157</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>201</v>
       </c>
@@ -19689,7 +20045,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A28">
         <f>AVERAGE(M2,M5,M10,M12,M16,M18)</f>
         <v>39.863096187218495</v>
@@ -19729,7 +20085,7 @@
         <v>11053419.148148151</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>204</v>
       </c>
@@ -19761,7 +20117,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A30">
         <f>AVERAGE(M2,M7,M8,M12,M15,M19)</f>
         <v>44.989748280848268</v>
@@ -19801,7 +20157,7 @@
         <v>18775153.925925925</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -19833,7 +20189,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A32">
         <f>AVERAGE(M2,M7,M9,M13,M14,M18)</f>
         <v>33.428830407695934</v>
@@ -19873,7 +20229,7 @@
         <v>852755.70370370476</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>207</v>
       </c>
@@ -19905,7 +20261,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34">
         <f>AVERAGE(M2,M6,M9,M11,M16,M19)</f>
         <v>40.33536210469682</v>
@@ -19946,9 +20302,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="H22:L22"/>
     <mergeCell ref="A22:F22"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="P21:R21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW13/hw_13.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW13/hw_13.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7FBBC4-98DD-4CE9-A1E6-BF2A34892E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D52BC23-0098-4CD8-8F15-C1076843D929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{F0E5C9FA-8923-4A07-87AD-C8184F88F5AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F0E5C9FA-8923-4A07-87AD-C8184F88F5AB}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="4" r:id="rId3"/>
+    <sheet name="工作表2" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'1-1'!$Q$36:$S$36</definedName>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -105,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="231">
   <si>
     <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -995,6 +996,44 @@
   </si>
   <si>
     <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thickness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>SSA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS(error)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1173,7 +1212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1494,13 +1533,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1893,6 +1969,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11877,24 +11971,24 @@
       <selection activeCell="U40" sqref="U40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="9" max="9" width="12.08984375" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" customWidth="1"/>
-    <col min="11" max="11" width="16.08984375" customWidth="1"/>
-    <col min="12" max="14" width="13.453125" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1"/>
+    <col min="11" max="11" width="16.125" customWidth="1"/>
+    <col min="12" max="14" width="13.5" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="17" max="17" width="12.36328125" customWidth="1"/>
-    <col min="32" max="32" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.6328125" customWidth="1"/>
+    <col min="17" max="17" width="12.375" customWidth="1"/>
+    <col min="32" max="32" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -11968,7 +12062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -12053,7 +12147,7 @@
         <v>3.3017048961195758</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12141,7 +12235,7 @@
         <v>-2.7777834618357384</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7</v>
       </c>
@@ -12232,7 +12326,7 @@
         <v>-1.171346530098841</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -12322,7 +12416,7 @@
         <v>0.82708217290775632</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -12417,7 +12511,7 @@
         <v>3.9394847909951354</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -12510,7 +12604,7 @@
         <v>1.5304292368910388</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -12606,7 +12700,7 @@
         <v>-3.9394847909951127</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -12702,7 +12796,7 @@
         <v>-0.4925623772507744</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L10" t="s">
         <v>24</v>
       </c>
@@ -12757,7 +12851,7 @@
         <v>1.1713465300988646</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -12858,7 +12952,7 @@
         <v>-1.5304292368910171</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B12">
         <f>C2</f>
         <v>-1</v>
@@ -12969,7 +13063,7 @@
         <v>6.3776205949555091</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" ref="B13:D19" si="22">C3</f>
         <v>1</v>
@@ -13074,7 +13168,7 @@
         <v>-1.9109201944016225</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14">
         <f t="shared" si="22"/>
         <v>-1</v>
@@ -13179,7 +13273,7 @@
         <v>-0.16358717343096266</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -13272,7 +13366,7 @@
         <v>1.910920194401643</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" si="22"/>
         <v>-1</v>
@@ -13390,7 +13484,7 @@
         <v>0.16358717343098547</v>
       </c>
     </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -13510,7 +13604,7 @@
         <v>2.3220376041503594</v>
       </c>
     </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" si="22"/>
         <v>-1</v>
@@ -13621,7 +13715,7 @@
         <v>-0.827082172907735</v>
       </c>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -13743,7 +13837,7 @@
         <v>-2.3220376041503372</v>
       </c>
     </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>C2</f>
         <v>-1</v>
@@ -13863,7 +13957,7 @@
         <v>-3.3017048961195545</v>
       </c>
     </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B21">
         <f t="shared" ref="B21:D27" si="42">C3</f>
         <v>1</v>
@@ -13983,7 +14077,7 @@
         <v>4.8035520548914157</v>
       </c>
     </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B22">
         <f t="shared" si="42"/>
         <v>-1</v>
@@ -14103,7 +14197,7 @@
         <v>-6.3776205949554976</v>
       </c>
     </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B23">
         <f t="shared" si="42"/>
         <v>1</v>
@@ -14223,7 +14317,7 @@
         <v>-4.8035520548913917</v>
       </c>
     </row>
-    <row r="24" spans="2:35" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24">
         <f t="shared" si="42"/>
         <v>-1</v>
@@ -14343,7 +14437,7 @@
         <v>0.49256237725079627</v>
       </c>
     </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" si="42"/>
         <v>1</v>
@@ -14451,7 +14545,7 @@
         <v>2.7777834618357606</v>
       </c>
     </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="42"/>
         <v>-1</v>
@@ -14512,7 +14606,7 @@
         <v>1.0954200509634878E-14</v>
       </c>
     </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="42"/>
         <v>1</v>
@@ -14584,7 +14678,7 @@
         <v>3.13114381563717</v>
       </c>
     </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B28">
         <f>C2</f>
         <v>-1</v>
@@ -14649,7 +14743,7 @@
         <v>accept</v>
       </c>
     </row>
-    <row r="29" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" ref="B29:D35" si="58">C3</f>
         <v>1</v>
@@ -14717,7 +14811,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" si="58"/>
         <v>-1</v>
@@ -14785,7 +14879,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" si="58"/>
         <v>1</v>
@@ -14853,7 +14947,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" si="58"/>
         <v>-1</v>
@@ -14921,7 +15015,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" si="58"/>
         <v>1</v>
@@ -14986,7 +15080,7 @@
         <v>accept</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" si="58"/>
         <v>-1</v>
@@ -15021,7 +15115,7 @@
       </c>
       <c r="M34" s="9"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" si="58"/>
         <v>1</v>
@@ -15068,7 +15162,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q36">
         <v>1</v>
       </c>
@@ -15083,7 +15177,7 @@
         <v>78.956666666666649</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" t="str" cm="1">
         <f t="array" ref="B37:H38">TRANSPOSE(J11:K17)</f>
         <v>E1</v>
@@ -15107,7 +15201,7 @@
         <v>E123</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>21.46916666666667</v>
       </c>
@@ -15130,7 +15224,7 @@
         <v>-0.4641666666666649</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>113</v>
       </c>
@@ -15152,7 +15246,7 @@
       <c r="R41" s="125"/>
       <c r="S41" s="125"/>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42">
         <f>L4</f>
         <v>49.868749999999999</v>
@@ -15180,7 +15274,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>9</v>
       </c>
@@ -15209,7 +15303,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44">
         <f>K2</f>
         <v>8</v>
@@ -15239,7 +15333,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>11</v>
       </c>
@@ -15268,7 +15362,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46">
         <f>K4</f>
         <v>3</v>
@@ -15298,7 +15392,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C47">
         <f t="shared" si="63"/>
         <v>-8.2420833333333334</v>
@@ -15324,7 +15418,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C48">
         <f t="shared" si="63"/>
         <v>-1.5287499999999952</v>
@@ -15350,7 +15444,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C49">
         <f t="shared" si="63"/>
         <v>23.194583333333334</v>
@@ -15376,7 +15470,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>116</v>
       </c>
@@ -15401,7 +15495,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B51">
         <f>B44*B46*B42^2</f>
         <v>59685.413437499992</v>
@@ -15429,7 +15523,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="2:19" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q52">
         <f>(L2-K2)*LN(K6)-SUM(Q43:Q50)</f>
         <v>5.2057980668508534</v>
@@ -15439,7 +15533,7 @@
         <v>1.1875</v>
       </c>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B53" s="31" t="s">
         <v>122</v>
       </c>
@@ -15457,7 +15551,7 @@
       </c>
       <c r="G53" s="22"/>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B54" s="32" t="s">
         <v>123</v>
       </c>
@@ -15487,7 +15581,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B55" s="32" t="s">
         <v>125</v>
       </c>
@@ -15520,7 +15614,7 @@
         <v>accept</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B56" s="32" t="s">
         <v>127</v>
       </c>
@@ -15538,7 +15632,7 @@
       </c>
       <c r="F56" s="27"/>
     </row>
-    <row r="57" spans="2:19" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="34" t="s">
         <v>119</v>
       </c>
@@ -15585,20 +15679,20 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8" customWidth="1"/>
-    <col min="13" max="13" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -15653,7 +15747,7 @@
       </c>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -15715,7 +15809,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15778,7 +15872,7 @@
       </c>
       <c r="T3" s="105"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7</v>
       </c>
@@ -15844,7 +15938,7 @@
         <v>0.98944603157237543</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -15909,7 +16003,7 @@
         <v>0.97900344939432205</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -15977,7 +16071,7 @@
         <v>0.96981745850433798</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -16045,7 +16139,7 @@
         <v>3.3006009553817135</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -16116,7 +16210,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -16176,13 +16270,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M10" s="17"/>
       <c r="S10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -16248,7 +16342,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>Q4</f>
         <v>49.868749999999999</v>
@@ -16301,7 +16395,7 @@
         <v>79</v>
       </c>
       <c r="Q12" s="72">
-        <f>O12/2</f>
+        <f t="shared" ref="Q12:Q18" si="7">O12/2</f>
         <v>10.734583333333335</v>
       </c>
       <c r="S12" t="s">
@@ -16323,24 +16417,24 @@
         <v>3.2000830664664587E-12</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:B19" si="7">N3-$Q$4</f>
+        <f t="shared" ref="B13:B19" si="8">N3-$Q$4</f>
         <v>26.444583333333334</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:C19" si="8">J3-$N3</f>
+        <f t="shared" ref="C13:C19" si="9">J3-$N3</f>
         <v>-0.69333333333332803</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:D19" si="9">K3-$N3</f>
+        <f t="shared" ref="D13:D19" si="10">K3-$N3</f>
         <v>1.2566666666666606</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E19" si="10">L3-$N3</f>
+        <f t="shared" ref="E13:E19" si="11">L3-$N3</f>
         <v>-0.56333333333333258</v>
       </c>
       <c r="G13" t="s">
@@ -16375,7 +16469,7 @@
         <v>81</v>
       </c>
       <c r="Q13">
-        <f>O13/2</f>
+        <f t="shared" si="7"/>
         <v>0.55208333333333359</v>
       </c>
       <c r="S13" t="s">
@@ -16391,25 +16485,25 @@
         <v>10.89396666666668</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>P2</f>
         <v>8</v>
       </c>
       <c r="B14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-20.998749999999994</v>
       </c>
       <c r="C14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.360000000000003</v>
       </c>
       <c r="D14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.1599999999999966</v>
       </c>
       <c r="E14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-3.8000000000000043</v>
       </c>
       <c r="G14" t="s">
@@ -16444,7 +16538,7 @@
         <v>83</v>
       </c>
       <c r="Q14" s="72">
-        <f>O14/2</f>
+        <f t="shared" si="7"/>
         <v>-4.036249999999999</v>
       </c>
       <c r="S14" s="6" t="s">
@@ -16460,24 +16554,24 @@
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
     </row>
-    <row r="15" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.541249999999998</v>
       </c>
       <c r="C15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-3.9999999999999147E-2</v>
       </c>
       <c r="D15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2.9199999999999946</v>
       </c>
       <c r="E15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.9600000000000009</v>
       </c>
       <c r="G15" t="s">
@@ -16512,29 +16606,29 @@
         <v>170</v>
       </c>
       <c r="Q15">
-        <f>O15/2</f>
+        <f t="shared" si="7"/>
         <v>1.08125</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>P4</f>
         <v>3</v>
       </c>
       <c r="B16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-29.568749999999998</v>
       </c>
       <c r="C16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.5</v>
       </c>
       <c r="D16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.39000000000000057</v>
       </c>
       <c r="E16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-4.8900000000000006</v>
       </c>
       <c r="G16" t="s">
@@ -16569,7 +16663,7 @@
         <v>171</v>
       </c>
       <c r="Q16" s="72">
-        <f>O16/2</f>
+        <f t="shared" si="7"/>
         <v>14.317083333333334</v>
       </c>
       <c r="S16" s="7"/>
@@ -16598,21 +16692,21 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-8.2420833333333334</v>
       </c>
       <c r="C17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9533333333333331</v>
       </c>
       <c r="D17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.6833333333333371</v>
       </c>
       <c r="E17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-4.6366666666666632</v>
       </c>
       <c r="G17" t="s">
@@ -16647,7 +16741,7 @@
         <v>172</v>
       </c>
       <c r="Q17">
-        <f>O17/2</f>
+        <f t="shared" si="7"/>
         <v>0.77791666666666737</v>
       </c>
       <c r="S17" t="s">
@@ -16678,21 +16772,21 @@
         <v>51.836575062717763</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1.5287499999999952</v>
       </c>
       <c r="C18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-3.1400000000000006</v>
       </c>
       <c r="D18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1899999999999977</v>
       </c>
       <c r="E18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.9499999999999957</v>
       </c>
       <c r="G18" t="s">
@@ -16713,7 +16807,7 @@
         <v>173</v>
       </c>
       <c r="Q18">
-        <f>O18/2</f>
+        <f t="shared" si="7"/>
         <v>-0.23208333333333245</v>
       </c>
       <c r="S18" t="s">
@@ -16744,21 +16838,21 @@
         <v>12.702408396051094</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23.194583333333334</v>
       </c>
       <c r="C19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-2.5533333333333275</v>
       </c>
       <c r="D19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.93666666666666742</v>
       </c>
       <c r="E19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.6166666666666742</v>
       </c>
       <c r="M19" s="17"/>
@@ -16790,7 +16884,7 @@
         <v>2.5199083960510946</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -16835,7 +16929,7 @@
         <v>-2.0684249372822361</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>A14*A16*A12^2</f>
         <v>59685.413437499992</v>
@@ -16921,7 +17015,7 @@
         <v>3.0490750627177619</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G22" s="110" t="s">
         <v>32</v>
       </c>
@@ -16994,7 +17088,7 @@
         <v>16.284908396051097</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="77" t="s">
         <v>122</v>
       </c>
@@ -17017,22 +17111,22 @@
         <v>38</v>
       </c>
       <c r="H23" s="111">
-        <f t="shared" ref="H23:H29" si="11">H12</f>
+        <f t="shared" ref="H23:H29" si="12">H12</f>
         <v>7.3151041666669183</v>
       </c>
       <c r="I23" s="111">
         <v>1</v>
       </c>
       <c r="J23" s="111">
-        <f t="shared" ref="J23:J29" si="12">H23/I23</f>
+        <f t="shared" ref="J23:J29" si="13">H23/I23</f>
         <v>7.3151041666669183</v>
       </c>
       <c r="K23" s="112">
-        <f t="shared" ref="K23:K28" si="13">J23/$J$29</f>
+        <f t="shared" ref="K23:K28" si="14">J23/$J$29</f>
         <v>0.67148215067057793</v>
       </c>
       <c r="L23" s="113">
-        <f t="shared" ref="L23:L28" si="14">_xlfn.F.INV.RT(0.1,I23,$I$29)</f>
+        <f t="shared" ref="L23:L28" si="15">_xlfn.F.INV.RT(0.1,I23,$I$29)</f>
         <v>3.0481098110878739</v>
       </c>
       <c r="M23" s="121" t="s">
@@ -17046,15 +17140,15 @@
         <v>1</v>
       </c>
       <c r="P23" s="82">
-        <f t="shared" ref="P23:P24" si="15">N23/O23</f>
+        <f t="shared" ref="P23:P24" si="16">N23/O23</f>
         <v>390.99153749999914</v>
       </c>
       <c r="Q23" s="83">
-        <f t="shared" ref="Q23:Q24" si="16">P23/$J$29</f>
+        <f t="shared" ref="Q23:Q24" si="17">P23/$J$29</f>
         <v>35.890649334952919</v>
       </c>
       <c r="R23" s="84">
-        <f t="shared" ref="R23:R24" si="17">_xlfn.F.INV.RT(0.1,O23,$O$25)</f>
+        <f t="shared" ref="R23:R24" si="18">_xlfn.F.INV.RT(0.1,O23,$O$25)</f>
         <v>3.0481098110878739</v>
       </c>
       <c r="S23" t="s">
@@ -17085,7 +17179,7 @@
         <v>2.7457417293844277</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="81" t="s">
         <v>123</v>
       </c>
@@ -17112,22 +17206,22 @@
         <v>40</v>
       </c>
       <c r="H24" s="111">
-        <f t="shared" si="11"/>
-        <v>390.99153749999914</v>
-      </c>
-      <c r="I24" s="111">
-        <v>1</v>
-      </c>
-      <c r="J24" s="111">
         <f t="shared" si="12"/>
         <v>390.99153749999914</v>
       </c>
+      <c r="I24" s="111">
+        <v>1</v>
+      </c>
+      <c r="J24" s="111">
+        <f t="shared" si="13"/>
+        <v>390.99153749999914</v>
+      </c>
       <c r="K24" s="112">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>35.890649334952919</v>
       </c>
       <c r="L24" s="113">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0481098110878739</v>
       </c>
       <c r="M24" s="121" t="s">
@@ -17141,15 +17235,15 @@
         <v>1</v>
       </c>
       <c r="P24" s="82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4919.4930041666657</v>
       </c>
       <c r="Q24" s="83">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>451.57959030839703</v>
       </c>
       <c r="R24" s="84">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.0481098110878739</v>
       </c>
       <c r="S24" s="6" t="s">
@@ -17180,7 +17274,7 @@
         <v>1.7357417293844271</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="81" t="s">
         <v>125</v>
       </c>
@@ -17193,7 +17287,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="82">
-        <f t="shared" ref="D25:D26" si="18">B25/C25</f>
+        <f t="shared" ref="D25:D26" si="19">B25/C25</f>
         <v>1161.0321708333333</v>
       </c>
       <c r="E25" s="83">
@@ -17208,22 +17302,22 @@
         <v>42</v>
       </c>
       <c r="H25" s="111">
-        <f t="shared" si="11"/>
-        <v>28.058437500000402</v>
-      </c>
-      <c r="I25" s="111">
-        <v>1</v>
-      </c>
-      <c r="J25" s="111">
         <f t="shared" si="12"/>
         <v>28.058437500000402</v>
       </c>
+      <c r="I25" s="111">
+        <v>1</v>
+      </c>
+      <c r="J25" s="111">
+        <f t="shared" si="13"/>
+        <v>28.058437500000402</v>
+      </c>
       <c r="K25" s="112">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.5755942126988098</v>
       </c>
       <c r="L25" s="113">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0481098110878739</v>
       </c>
       <c r="M25" s="121" t="s">
@@ -17248,7 +17342,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="81" t="s">
         <v>127</v>
       </c>
@@ -17261,7 +17355,7 @@
         <v>16</v>
       </c>
       <c r="D26" s="82">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10.893966666666664</v>
       </c>
       <c r="E26" s="83" t="s">
@@ -17274,22 +17368,22 @@
         <v>44</v>
       </c>
       <c r="H26" s="111">
-        <f t="shared" si="11"/>
-        <v>4919.4930041666657</v>
-      </c>
-      <c r="I26" s="111">
-        <v>1</v>
-      </c>
-      <c r="J26" s="111">
         <f t="shared" si="12"/>
         <v>4919.4930041666657</v>
       </c>
+      <c r="I26" s="111">
+        <v>1</v>
+      </c>
+      <c r="J26" s="111">
+        <f t="shared" si="13"/>
+        <v>4919.4930041666657</v>
+      </c>
       <c r="K26" s="112">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>451.57959030839703</v>
       </c>
       <c r="L26" s="113">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0481098110878739</v>
       </c>
       <c r="M26" s="122" t="s">
@@ -17313,7 +17407,7 @@
         <v>0.98938019712087277</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="85" t="s">
         <v>119</v>
       </c>
@@ -17338,22 +17432,22 @@
         <v>45</v>
       </c>
       <c r="H27" s="111">
-        <f t="shared" si="11"/>
-        <v>14.523704166666649</v>
-      </c>
-      <c r="I27" s="111">
-        <v>1</v>
-      </c>
-      <c r="J27" s="111">
         <f t="shared" si="12"/>
         <v>14.523704166666649</v>
       </c>
+      <c r="I27" s="111">
+        <v>1</v>
+      </c>
+      <c r="J27" s="111">
+        <f t="shared" si="13"/>
+        <v>14.523704166666649</v>
+      </c>
       <c r="K27" s="112">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.3331878654545775</v>
       </c>
       <c r="L27" s="113">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0481098110878739</v>
       </c>
       <c r="M27" s="121" t="s">
@@ -17368,7 +17462,7 @@
       <c r="Q27" s="89"/>
       <c r="R27" s="89"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="81" t="s">
         <v>178</v>
       </c>
@@ -17384,31 +17478,31 @@
         <v>54</v>
       </c>
       <c r="H28" s="111">
-        <f t="shared" si="11"/>
-        <v>1.2927041666665713</v>
-      </c>
-      <c r="I28" s="111">
-        <v>1</v>
-      </c>
-      <c r="J28" s="111">
         <f t="shared" si="12"/>
         <v>1.2927041666665713</v>
       </c>
+      <c r="I28" s="111">
+        <v>1</v>
+      </c>
+      <c r="J28" s="111">
+        <f t="shared" si="13"/>
+        <v>1.2927041666665713</v>
+      </c>
       <c r="K28" s="112">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.11866239416924092</v>
       </c>
       <c r="L28" s="113">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0481098110878739</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G29" s="110" t="s">
         <v>168</v>
       </c>
       <c r="H29" s="111">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>174.30346666666662</v>
       </c>
       <c r="I29" s="111">
@@ -17416,7 +17510,7 @@
         <v>16</v>
       </c>
       <c r="J29" s="111">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10.893966666666664</v>
       </c>
       <c r="K29" s="112" t="s">
@@ -17426,7 +17520,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="93" t="s">
         <v>121</v>
       </c>
@@ -17482,7 +17576,7 @@
       </c>
       <c r="T30" s="117"/>
     </row>
-    <row r="31" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="96" t="s">
         <v>124</v>
       </c>
@@ -17538,7 +17632,7 @@
       <c r="S31" s="117"/>
       <c r="T31" s="117"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="96" t="s">
         <v>126</v>
       </c>
@@ -17558,15 +17652,15 @@
       <c r="F32" s="98"/>
       <c r="M32" s="126"/>
       <c r="N32" s="26">
-        <f t="shared" ref="N32:N38" si="19">C3</f>
+        <f t="shared" ref="N32:N38" si="20">C3</f>
         <v>1</v>
       </c>
       <c r="O32" s="26">
-        <f t="shared" ref="O32:O38" si="20">E3</f>
+        <f t="shared" ref="O32:O38" si="21">E3</f>
         <v>-1</v>
       </c>
       <c r="P32" s="26">
-        <f t="shared" ref="P32:P38" si="21">G3</f>
+        <f t="shared" ref="P32:P38" si="22">G3</f>
         <v>1</v>
       </c>
       <c r="Q32" s="26">
@@ -17577,7 +17671,7 @@
       </c>
       <c r="T32" s="118"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="99" t="s">
         <v>163</v>
       </c>
@@ -17594,17 +17688,17 @@
       <c r="F33" s="101"/>
       <c r="M33" s="126"/>
       <c r="N33" s="26">
-        <f t="shared" si="19"/>
-        <v>-1</v>
-      </c>
-      <c r="O33" s="26">
         <f t="shared" si="20"/>
         <v>-1</v>
       </c>
-      <c r="P33" s="26">
+      <c r="O33" s="26">
         <f t="shared" si="21"/>
         <v>-1</v>
       </c>
+      <c r="P33" s="26">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
       <c r="Q33" s="26">
         <v>27.51</v>
       </c>
@@ -17615,7 +17709,7 @@
         <v>0.98632505860381514</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="102" t="s">
         <v>175</v>
       </c>
@@ -17643,17 +17737,17 @@
       <c r="J34" s="26"/>
       <c r="M34" s="126"/>
       <c r="N34" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O34" s="26">
-        <f t="shared" si="20"/>
-        <v>-1</v>
-      </c>
-      <c r="P34" s="26">
         <f t="shared" si="21"/>
         <v>-1</v>
       </c>
+      <c r="P34" s="26">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
       <c r="Q34" s="26">
         <v>51.37</v>
       </c>
@@ -17664,7 +17758,7 @@
         <v>0.97283712122981936</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
@@ -17676,15 +17770,15 @@
       <c r="J35" s="26"/>
       <c r="M35" s="126"/>
       <c r="N35" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-1</v>
       </c>
       <c r="O35" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="P35" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-1</v>
       </c>
       <c r="Q35" s="26">
@@ -17697,7 +17791,7 @@
         <v>0.96876268941429233</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B36" s="26"/>
       <c r="C36" s="76"/>
       <c r="D36" s="76"/>
@@ -17709,15 +17803,15 @@
       <c r="J36" s="26"/>
       <c r="M36" s="126"/>
       <c r="N36" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O36" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="P36" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-1</v>
       </c>
       <c r="Q36" s="26">
@@ -17730,7 +17824,7 @@
         <v>3.3577776628796219</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="26"/>
       <c r="C37" s="73"/>
       <c r="D37" s="73"/>
@@ -17742,15 +17836,15 @@
       <c r="J37" s="26"/>
       <c r="M37" s="126"/>
       <c r="N37" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-1</v>
       </c>
       <c r="O37" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="P37" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="Q37" s="26">
@@ -17763,7 +17857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B38" s="26"/>
       <c r="C38" s="73"/>
       <c r="D38" s="73"/>
@@ -17775,22 +17869,22 @@
       <c r="J38" s="26"/>
       <c r="M38" s="127"/>
       <c r="N38" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O38" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="P38" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="Q38" s="18">
         <v>70.510000000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
@@ -17822,7 +17916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B40" s="26"/>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
@@ -17834,15 +17928,15 @@
       <c r="J40" s="26"/>
       <c r="M40" s="126"/>
       <c r="N40" s="26">
-        <f t="shared" ref="N40:P46" si="22">N32</f>
+        <f t="shared" ref="N40:P46" si="23">N32</f>
         <v>1</v>
       </c>
       <c r="O40" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="P40" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="Q40" s="26">
@@ -17865,7 +17959,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
@@ -17877,15 +17971,15 @@
       <c r="J41" s="26"/>
       <c r="M41" s="126"/>
       <c r="N41" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="O41" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="P41" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="Q41" s="26">
@@ -17910,18 +18004,18 @@
         <v>7.9899884231460721E-16</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="M42" s="126"/>
       <c r="N42" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="O42" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="P42" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="Q42" s="26">
@@ -17943,18 +18037,18 @@
       <c r="W42" s="73"/>
       <c r="X42" s="73"/>
     </row>
-    <row r="43" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M43" s="126"/>
       <c r="N43" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="O43" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="P43" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="Q43" s="26">
@@ -17974,18 +18068,18 @@
       <c r="W43" s="74"/>
       <c r="X43" s="74"/>
     </row>
-    <row r="44" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M44" s="126"/>
       <c r="N44" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="O44" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="P44" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="Q44" s="26">
@@ -17993,18 +18087,18 @@
       </c>
       <c r="R44" s="73"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="M45" s="126"/>
       <c r="N45" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="O45" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="P45" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="Q45" s="26">
@@ -18037,18 +18131,18 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="M46" s="127"/>
       <c r="N46" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="O46" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="P46" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="Q46" s="18">
@@ -18083,7 +18177,7 @@
         <v>51.298476637853639</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="M47" s="125" t="s">
         <v>179</v>
       </c>
@@ -18131,18 +18225,18 @@
         <v>12.164309971186967</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="M48" s="125"/>
       <c r="N48">
-        <f t="shared" ref="N48:O54" si="23">N40</f>
+        <f t="shared" ref="N48:O54" si="24">N40</f>
         <v>1</v>
       </c>
       <c r="O48">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="P48">
-        <f t="shared" ref="P48:P54" si="24">P32</f>
+        <f t="shared" ref="P48:P54" si="25">P32</f>
         <v>1</v>
       </c>
       <c r="Q48" s="26">
@@ -18177,18 +18271,18 @@
         <v>-2.6065233621463668</v>
       </c>
     </row>
-    <row r="49" spans="13:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="13:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M49" s="125"/>
       <c r="N49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="O49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="P49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-1</v>
       </c>
       <c r="Q49" s="26">
@@ -18223,91 +18317,91 @@
         <v>15.746809971186963</v>
       </c>
     </row>
-    <row r="50" spans="13:27" x14ac:dyDescent="0.4">
+    <row r="50" spans="13:27" x14ac:dyDescent="0.25">
       <c r="M50" s="125"/>
       <c r="N50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="O50">
-        <f t="shared" si="23"/>
-        <v>-1</v>
-      </c>
-      <c r="P50">
         <f t="shared" si="24"/>
         <v>-1</v>
       </c>
+      <c r="P50">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
       <c r="Q50" s="26">
         <v>54.37</v>
       </c>
       <c r="R50" s="26"/>
     </row>
-    <row r="51" spans="13:27" x14ac:dyDescent="0.4">
+    <row r="51" spans="13:27" x14ac:dyDescent="0.25">
       <c r="M51" s="125"/>
       <c r="N51">
-        <f t="shared" si="23"/>
-        <v>-1</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="P51">
         <f t="shared" si="24"/>
         <v>-1</v>
       </c>
+      <c r="O51">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
       <c r="Q51">
         <v>15.41</v>
       </c>
     </row>
-    <row r="52" spans="13:27" x14ac:dyDescent="0.4">
+    <row r="52" spans="13:27" x14ac:dyDescent="0.25">
       <c r="M52" s="125"/>
       <c r="N52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="O52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="P52">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="Q52">
+        <v>36.99</v>
+      </c>
+    </row>
+    <row r="53" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M53" s="125"/>
+      <c r="N53">
         <f t="shared" si="24"/>
         <v>-1</v>
       </c>
-      <c r="Q52">
-        <v>36.99</v>
-      </c>
-    </row>
-    <row r="53" spans="13:27" x14ac:dyDescent="0.4">
-      <c r="M53" s="125"/>
-      <c r="N53">
-        <f t="shared" si="23"/>
-        <v>-1</v>
-      </c>
       <c r="O53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="P53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="Q53">
         <v>50.29</v>
       </c>
     </row>
-    <row r="54" spans="13:27" x14ac:dyDescent="0.4">
+    <row r="54" spans="13:27" x14ac:dyDescent="0.25">
       <c r="M54" s="125"/>
       <c r="N54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="O54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="P54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="Q54">
@@ -18341,19 +18435,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23ED07D0-0378-48DE-A771-39BD13989BC5}">
   <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="12" width="9" customWidth="1"/>
-    <col min="15" max="18" width="11.7265625" customWidth="1"/>
-    <col min="20" max="20" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="11.75" customWidth="1"/>
+    <col min="20" max="20" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>182</v>
       </c>
@@ -18408,7 +18502,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18488,7 +18582,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18573,7 +18667,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18645,7 +18739,7 @@
         <v>2</v>
       </c>
       <c r="W4" s="26">
-        <f t="shared" ref="W4:W9" si="7">U4/V4</f>
+        <f t="shared" ref="W4:W8" si="7">U4/V4</f>
         <v>87.368372828992676</v>
       </c>
       <c r="X4" s="26">
@@ -18654,7 +18748,7 @@
       </c>
       <c r="Y4" s="27"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -18735,7 +18829,7 @@
       </c>
       <c r="Y5" s="27"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -18816,7 +18910,7 @@
       </c>
       <c r="Y6" s="27"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -18899,7 +18993,7 @@
       </c>
       <c r="Y7" s="27"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -18974,7 +19068,7 @@
       </c>
       <c r="Y8" s="27"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -19045,7 +19139,7 @@
       <c r="X9" s="26"/>
       <c r="Y9" s="27"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -19112,7 +19206,7 @@
       <c r="X10" s="90"/>
       <c r="Y10" s="91"/>
     </row>
-    <row r="11" spans="1:25" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -19174,7 +19268,7 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="28"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -19230,7 +19324,7 @@
         <v>53.777777777780003</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -19289,7 +19383,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -19363,7 +19457,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -19441,7 +19535,7 @@
         <v>2.4563459949430451</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -19519,7 +19613,7 @@
         <v>2.4563459949430451</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -19597,7 +19691,7 @@
         <v>2.4563459949430451</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -19675,7 +19769,7 @@
         <v>2.4563459949430451</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -19753,7 +19847,7 @@
         <v>2.4563459949430451</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
@@ -19790,7 +19884,7 @@
         <v>2.4563459949430451</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="H21" s="123"/>
       <c r="I21" s="123"/>
       <c r="J21" s="123">
@@ -19825,7 +19919,7 @@
       <c r="X21" s="26"/>
       <c r="Y21" s="27"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="130" t="s">
         <v>188</v>
       </c>
@@ -19853,7 +19947,7 @@
       <c r="X22" s="90"/>
       <c r="Y22" s="91"/>
     </row>
-    <row r="23" spans="1:25" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>195</v>
       </c>
@@ -19894,7 +19988,7 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="28"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>AVERAGE(M2,M3,M4,M11,M12,M13)</f>
         <v>39.60813245494419</v>
@@ -19938,7 +20032,7 @@
         <v>11504394.481481489</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>198</v>
       </c>
@@ -19973,7 +20067,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>AVERAGE(M2,M5,M8,M11,M14,M17)</f>
         <v>44.946368081063355</v>
@@ -20013,7 +20107,7 @@
         <v>21897229.148148157</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>201</v>
       </c>
@@ -20045,7 +20139,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>AVERAGE(M2,M5,M10,M12,M16,M18)</f>
         <v>39.863096187218495</v>
@@ -20085,7 +20179,7 @@
         <v>11053419.148148151</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>204</v>
       </c>
@@ -20117,7 +20211,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>AVERAGE(M2,M7,M8,M12,M15,M19)</f>
         <v>44.989748280848268</v>
@@ -20157,7 +20251,7 @@
         <v>18775153.925925925</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -20189,7 +20283,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>AVERAGE(M2,M7,M9,M13,M14,M18)</f>
         <v>33.428830407695934</v>
@@ -20229,7 +20323,7 @@
         <v>852755.70370370476</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>207</v>
       </c>
@@ -20261,7 +20355,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>AVERAGE(M2,M6,M9,M11,M16,M19)</f>
         <v>40.33536210469682</v>
@@ -20312,4 +20406,2548 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502AF91F-0A1E-4C29-9B45-AC33A2A62027}">
+  <dimension ref="A1:Z44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="Z44" sqref="Z44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="125" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" s="125"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="W20" s="37"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" t="s">
+        <v>187</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="I21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J21" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="L21" t="s">
+        <v>222</v>
+      </c>
+      <c r="M21" t="s">
+        <v>223</v>
+      </c>
+      <c r="N21" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="O21" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="P21" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q21" s="131" t="s">
+        <v>204</v>
+      </c>
+      <c r="R21" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="S21" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="T21" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="U21" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="V21" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="W21" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="X21" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y21" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z21" s="37"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>2029</v>
+      </c>
+      <c r="C22">
+        <v>1975</v>
+      </c>
+      <c r="D22">
+        <v>1961</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E22:E39" si="0">AVERAGE(B22:D22)</f>
+        <v>1988.3333333333333</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22:F39" si="1">(_xlfn.VAR.S(B22:D22))^0.5</f>
+        <v>35.907288025320618</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22:G39" si="2">10*LOG10(E22^2/F22^2)</f>
+        <v>34.866131758820949</v>
+      </c>
+      <c r="H22" s="37">
+        <f>IF(A2=1,$G22,0)</f>
+        <v>34.866131758820949</v>
+      </c>
+      <c r="I22">
+        <f>IF(A2=2,$G22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f>IF(A2=3,$G22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="37">
+        <f>IF(B2=1,$G22,0)</f>
+        <v>34.866131758820949</v>
+      </c>
+      <c r="L22">
+        <f>IF(B2=2,$G22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f>IF(B2=3,$G22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="37">
+        <f>IF(C2=1,$G22,0)</f>
+        <v>34.866131758820949</v>
+      </c>
+      <c r="O22">
+        <f>IF(C2=2,$G22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f>IF(C2=3,$G22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="37">
+        <f>IF(D2=1,$G22,0)</f>
+        <v>34.866131758820949</v>
+      </c>
+      <c r="R22">
+        <f>IF(D2=2,$G22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f>IF(D2=3,$G22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="37">
+        <f>IF(E2=1,$G22,0)</f>
+        <v>34.866131758820949</v>
+      </c>
+      <c r="U22">
+        <f>IF(E2=2,$G22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <f>IF(E2=3,$G22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="37">
+        <f>IF(F2=1,$G22,0)</f>
+        <v>34.866131758820949</v>
+      </c>
+      <c r="X22">
+        <f>IF(F2=2,$G22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <f>IF(F2=3,$G22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="37"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>5375</v>
+      </c>
+      <c r="C23">
+        <v>5191</v>
+      </c>
+      <c r="D23">
+        <v>5242</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>5269.333333333333</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>94.99649116327052</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>34.880962165031875</v>
+      </c>
+      <c r="H23" s="37">
+        <f t="shared" ref="H23:H39" si="3">IF(A3=1,$G23,0)</f>
+        <v>34.880962165031875</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ref="I23:I39" si="4">IF(A3=2,$G23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J23:J39" si="5">IF(A3=3,$G23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="37">
+        <f t="shared" ref="K23:K39" si="6">IF(B3=1,$G23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ref="L23:L39" si="7">IF(B3=2,$G23,0)</f>
+        <v>34.880962165031875</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ref="M23:M39" si="8">IF(B3=3,$G23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="37">
+        <f t="shared" ref="N23:N39" si="9">IF(C3=1,$G23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ref="O23:O39" si="10">IF(C3=2,$G23,0)</f>
+        <v>34.880962165031875</v>
+      </c>
+      <c r="P23">
+        <f t="shared" ref="P23:P39" si="11">IF(C3=3,$G23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="37">
+        <f t="shared" ref="Q23:Q39" si="12">IF(D3=1,$G23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" ref="R23:R39" si="13">IF(D3=2,$G23,0)</f>
+        <v>34.880962165031875</v>
+      </c>
+      <c r="S23">
+        <f t="shared" ref="S23:S39" si="14">IF(D3=3,$G23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="37">
+        <f t="shared" ref="T23:T39" si="15">IF(E3=1,$G23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f t="shared" ref="U23:U39" si="16">IF(E3=2,$G23,0)</f>
+        <v>34.880962165031875</v>
+      </c>
+      <c r="V23">
+        <f t="shared" ref="V23:V39" si="17">IF(E3=3,$G23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="37">
+        <f t="shared" ref="W23:W39" si="18">IF(F3=1,$G23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <f t="shared" ref="X23:X39" si="19">IF(F3=2,$G23,0)</f>
+        <v>34.880962165031875</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" ref="Y23:Y39" si="20">IF(F3=3,$G23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="37"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>5989</v>
+      </c>
+      <c r="C24">
+        <v>5894</v>
+      </c>
+      <c r="D24">
+        <v>5874</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>5919</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>61.441028637222537</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>39.675797239784998</v>
+      </c>
+      <c r="H24" s="37">
+        <f t="shared" si="3"/>
+        <v>39.675797239784998</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="8"/>
+        <v>39.675797239784998</v>
+      </c>
+      <c r="N24" s="37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="11"/>
+        <v>39.675797239784998</v>
+      </c>
+      <c r="Q24" s="37">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="14"/>
+        <v>39.675797239784998</v>
+      </c>
+      <c r="T24" s="37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="17"/>
+        <v>39.675797239784998</v>
+      </c>
+      <c r="W24" s="37">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="20"/>
+        <v>39.675797239784998</v>
+      </c>
+      <c r="Z24" s="37"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>2118</v>
+      </c>
+      <c r="C25">
+        <v>2109</v>
+      </c>
+      <c r="D25">
+        <v>2099</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>2108.6666666666665</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>9.5043849529221696</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>46.921678295653393</v>
+      </c>
+      <c r="H25" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>46.921678295653393</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="37">
+        <f t="shared" si="6"/>
+        <v>46.921678295653393</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="37">
+        <f t="shared" si="9"/>
+        <v>46.921678295653393</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="37">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="13"/>
+        <v>46.921678295653393</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="16"/>
+        <v>46.921678295653393</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="37">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="20"/>
+        <v>46.921678295653393</v>
+      </c>
+      <c r="Z25" s="37"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>4102</v>
+      </c>
+      <c r="C26">
+        <v>4152</v>
+      </c>
+      <c r="D26">
+        <v>4174</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>4142.666666666667</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>36.896250938724563</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>41.005955010313386</v>
+      </c>
+      <c r="H26" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>41.005955010313386</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="7"/>
+        <v>41.005955010313386</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="10"/>
+        <v>41.005955010313386</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="37">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="14"/>
+        <v>41.005955010313386</v>
+      </c>
+      <c r="T26" s="37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="17"/>
+        <v>41.005955010313386</v>
+      </c>
+      <c r="W26" s="37">
+        <f t="shared" si="18"/>
+        <v>41.005955010313386</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="37"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>3022</v>
+      </c>
+      <c r="C27">
+        <v>2932</v>
+      </c>
+      <c r="D27">
+        <v>2913</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>2955.6666666666665</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>58.226568964119238</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>34.110685078975358</v>
+      </c>
+      <c r="H27" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>34.110685078975358</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="8"/>
+        <v>34.110685078975358</v>
+      </c>
+      <c r="N27" s="37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="11"/>
+        <v>34.110685078975358</v>
+      </c>
+      <c r="Q27" s="37">
+        <f t="shared" si="12"/>
+        <v>34.110685078975358</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="37">
+        <f t="shared" si="15"/>
+        <v>34.110685078975358</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="37">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="19"/>
+        <v>34.110685078975358</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="37"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>3030</v>
+      </c>
+      <c r="C28">
+        <v>3042</v>
+      </c>
+      <c r="D28">
+        <v>3028</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>3033.3333333333335</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>7.5718777944003648</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>52.054330830149752</v>
+      </c>
+      <c r="H28" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>52.054330830149752</v>
+      </c>
+      <c r="K28" s="37">
+        <f t="shared" si="6"/>
+        <v>52.054330830149752</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="10"/>
+        <v>52.054330830149752</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="37">
+        <f t="shared" si="12"/>
+        <v>52.054330830149752</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="17"/>
+        <v>52.054330830149752</v>
+      </c>
+      <c r="W28" s="37">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="20"/>
+        <v>52.054330830149752</v>
+      </c>
+      <c r="Z28" s="37"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>4707</v>
+      </c>
+      <c r="C29">
+        <v>4472</v>
+      </c>
+      <c r="D29">
+        <v>4336</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>4505</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>187.68857184176133</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>27.605139312389344</v>
+      </c>
+      <c r="H29" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>27.605139312389344</v>
+      </c>
+      <c r="K29" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="7"/>
+        <v>27.605139312389344</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="11"/>
+        <v>27.605139312389344</v>
+      </c>
+      <c r="Q29" s="37">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="13"/>
+        <v>27.605139312389344</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="37">
+        <f t="shared" si="15"/>
+        <v>27.605139312389344</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="37">
+        <f t="shared" si="18"/>
+        <v>27.605139312389344</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="37"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>3859</v>
+      </c>
+      <c r="C30">
+        <v>3822</v>
+      </c>
+      <c r="D30">
+        <v>3850</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>3843.6666666666665</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>19.295940851208403</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>45.985595164418541</v>
+      </c>
+      <c r="H30" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>45.985595164418541</v>
+      </c>
+      <c r="K30" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="8"/>
+        <v>45.985595164418541</v>
+      </c>
+      <c r="N30" s="37">
+        <f t="shared" si="9"/>
+        <v>45.985595164418541</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="37">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="14"/>
+        <v>45.985595164418541</v>
+      </c>
+      <c r="T30" s="37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="16"/>
+        <v>45.985595164418541</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="37">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="19"/>
+        <v>45.985595164418541</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="37"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>3227</v>
+      </c>
+      <c r="C31">
+        <v>3205</v>
+      </c>
+      <c r="D31">
+        <v>3242</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>3224.6666666666665</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>18.610033136277146</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>44.77475363828033</v>
+      </c>
+      <c r="H31" s="37">
+        <f t="shared" si="3"/>
+        <v>44.77475363828033</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="37">
+        <f t="shared" si="6"/>
+        <v>44.77475363828033</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="11"/>
+        <v>44.77475363828033</v>
+      </c>
+      <c r="Q31" s="37">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="14"/>
+        <v>44.77475363828033</v>
+      </c>
+      <c r="T31" s="37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="16"/>
+        <v>44.77475363828033</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="37">
+        <f t="shared" si="18"/>
+        <v>44.77475363828033</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="37"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>2521</v>
+      </c>
+      <c r="C32">
+        <v>2499</v>
+      </c>
+      <c r="D32">
+        <v>2499</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>2506.3333333333335</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>12.701705922171765</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>45.903535532871814</v>
+      </c>
+      <c r="H32" s="37">
+        <f t="shared" si="3"/>
+        <v>45.903535532871814</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="7"/>
+        <v>45.903535532871814</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="37">
+        <f t="shared" si="9"/>
+        <v>45.903535532871814</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="37">
+        <f t="shared" si="12"/>
+        <v>45.903535532871814</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="17"/>
+        <v>45.903535532871814</v>
+      </c>
+      <c r="W32" s="37">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="19"/>
+        <v>45.903535532871814</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="37"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>5921</v>
+      </c>
+      <c r="C33">
+        <v>5766</v>
+      </c>
+      <c r="D33">
+        <v>5844</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>5843.666666666667</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>77.500537632543782</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>37.547614394875183</v>
+      </c>
+      <c r="H33" s="37">
+        <f t="shared" si="3"/>
+        <v>37.547614394875183</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="8"/>
+        <v>37.547614394875183</v>
+      </c>
+      <c r="N33" s="37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="10"/>
+        <v>37.547614394875183</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="37">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="13"/>
+        <v>37.547614394875183</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="37">
+        <f t="shared" si="15"/>
+        <v>37.547614394875183</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="37">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="20"/>
+        <v>37.547614394875183</v>
+      </c>
+      <c r="Z33" s="37"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>2792</v>
+      </c>
+      <c r="C34">
+        <v>2752</v>
+      </c>
+      <c r="D34">
+        <v>2716</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>2753.3333333333335</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>38.017539811688678</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>37.197495663907716</v>
+      </c>
+      <c r="H34" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
+        <v>37.197495663907716</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="37">
+        <f t="shared" si="6"/>
+        <v>37.197495663907716</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="10"/>
+        <v>37.197495663907716</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="37">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="14"/>
+        <v>37.197495663907716</v>
+      </c>
+      <c r="T34" s="37">
+        <f t="shared" si="15"/>
+        <v>37.197495663907716</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="37">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="19"/>
+        <v>37.197495663907716</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="37"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>14</v>
+      </c>
+      <c r="B35">
+        <v>2863</v>
+      </c>
+      <c r="C35">
+        <v>2835</v>
+      </c>
+      <c r="D35">
+        <v>2859</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>2852.3333333333335</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>15.14375558880073</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>45.499333710234126</v>
+      </c>
+      <c r="H35" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="4"/>
+        <v>45.499333710234126</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="7"/>
+        <v>45.499333710234126</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="11"/>
+        <v>45.499333710234126</v>
+      </c>
+      <c r="Q35" s="37">
+        <f t="shared" si="12"/>
+        <v>45.499333710234126</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="16"/>
+        <v>45.499333710234126</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="37">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="20"/>
+        <v>45.499333710234126</v>
+      </c>
+      <c r="Z35" s="37"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>15</v>
+      </c>
+      <c r="B36">
+        <v>3218</v>
+      </c>
+      <c r="C36">
+        <v>3149</v>
+      </c>
+      <c r="D36">
+        <v>3124</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>3163.6666666666665</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>48.686069191641806</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>36.255720134339221</v>
+      </c>
+      <c r="H36" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="4"/>
+        <v>36.255720134339221</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="8"/>
+        <v>36.255720134339221</v>
+      </c>
+      <c r="N36" s="37">
+        <f t="shared" si="9"/>
+        <v>36.255720134339221</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="37">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="13"/>
+        <v>36.255720134339221</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="17"/>
+        <v>36.255720134339221</v>
+      </c>
+      <c r="W36" s="37">
+        <f t="shared" si="18"/>
+        <v>36.255720134339221</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="37"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>16</v>
+      </c>
+      <c r="B37">
+        <v>3020</v>
+      </c>
+      <c r="C37">
+        <v>3008</v>
+      </c>
+      <c r="D37">
+        <v>3016</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>3014.6666666666665</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>6.110100926607787</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>53.863818299568003</v>
+      </c>
+      <c r="H37" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>53.863818299568003</v>
+      </c>
+      <c r="K37" s="37">
+        <f t="shared" si="6"/>
+        <v>53.863818299568003</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="11"/>
+        <v>53.863818299568003</v>
+      </c>
+      <c r="Q37" s="37">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="13"/>
+        <v>53.863818299568003</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="17"/>
+        <v>53.863818299568003</v>
+      </c>
+      <c r="W37" s="37">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="19"/>
+        <v>53.863818299568003</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="37"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>17</v>
+      </c>
+      <c r="B38">
+        <v>4277</v>
+      </c>
+      <c r="C38">
+        <v>4150</v>
+      </c>
+      <c r="D38">
+        <v>3992</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>4139.666666666667</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>142.78071765239636</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>29.245916237207055</v>
+      </c>
+      <c r="H38" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>29.245916237207055</v>
+      </c>
+      <c r="K38" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="7"/>
+        <v>29.245916237207055</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="37">
+        <f t="shared" si="9"/>
+        <v>29.245916237207055</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="37">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="14"/>
+        <v>29.245916237207055</v>
+      </c>
+      <c r="T38" s="37">
+        <f t="shared" si="15"/>
+        <v>29.245916237207055</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="37">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="20"/>
+        <v>29.245916237207055</v>
+      </c>
+      <c r="Z38" s="37"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>18</v>
+      </c>
+      <c r="B39">
+        <v>3125</v>
+      </c>
+      <c r="C39">
+        <v>3119</v>
+      </c>
+      <c r="D39">
+        <v>3127</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>3123.6666666666665</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>4.1633319989322661</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>57.504472774037666</v>
+      </c>
+      <c r="H39" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>57.504472774037666</v>
+      </c>
+      <c r="K39" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="8"/>
+        <v>57.504472774037666</v>
+      </c>
+      <c r="N39" s="37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="10"/>
+        <v>57.504472774037666</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="37">
+        <f t="shared" si="12"/>
+        <v>57.504472774037666</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="16"/>
+        <v>57.504472774037666</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W39" s="37">
+        <f t="shared" si="18"/>
+        <v>57.504472774037666</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z39" s="37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="G40" s="133" t="s">
+        <v>187</v>
+      </c>
+      <c r="H40" s="133">
+        <f>SUM(H22:H39)/6</f>
+        <v>39.60813245494419</v>
+      </c>
+      <c r="I40" s="133">
+        <f t="shared" ref="I40:Y40" si="21">SUM(I22:I39)/6</f>
+        <v>40.165144648903869</v>
+      </c>
+      <c r="J40" s="133">
+        <f t="shared" si="21"/>
+        <v>44.376545436295061</v>
+      </c>
+      <c r="K40" s="133">
+        <f t="shared" si="21"/>
+        <v>44.946368081063355</v>
+      </c>
+      <c r="L40" s="133">
+        <f t="shared" si="21"/>
+        <v>37.356806994674599</v>
+      </c>
+      <c r="M40" s="133">
+        <f t="shared" si="21"/>
+        <v>41.846647464405159</v>
+      </c>
+      <c r="N40" s="133">
+        <f t="shared" si="21"/>
+        <v>39.863096187218495</v>
+      </c>
+      <c r="O40" s="133">
+        <f t="shared" si="21"/>
+        <v>43.365138473052589</v>
+      </c>
+      <c r="P40" s="133">
+        <f t="shared" si="21"/>
+        <v>40.921587879872028</v>
+      </c>
+      <c r="Q40" s="133">
+        <f t="shared" si="21"/>
+        <v>44.989748280848268</v>
+      </c>
+      <c r="R40" s="133">
+        <f t="shared" si="21"/>
+        <v>39.512488766976169</v>
+      </c>
+      <c r="S40" s="133">
+        <f t="shared" si="21"/>
+        <v>39.647585492318676</v>
+      </c>
+      <c r="T40" s="133">
+        <f t="shared" si="21"/>
+        <v>33.428830407695934</v>
+      </c>
+      <c r="U40" s="133">
+        <f t="shared" si="21"/>
+        <v>45.927799291275988</v>
+      </c>
+      <c r="V40" s="133">
+        <f t="shared" si="21"/>
+        <v>44.793192841171191</v>
+      </c>
+      <c r="W40" s="133">
+        <f t="shared" si="21"/>
+        <v>40.33536210469682</v>
+      </c>
+      <c r="X40" s="133">
+        <f t="shared" si="21"/>
+        <v>41.990348650795553</v>
+      </c>
+      <c r="Y40" s="133">
+        <f t="shared" si="21"/>
+        <v>41.824111784650746</v>
+      </c>
+      <c r="Z40" s="136">
+        <f>AVERAGE(H40:Y40)</f>
+        <v>41.383274180047707</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="133" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="134">
+        <v>18</v>
+      </c>
+      <c r="C41" s="134" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="134">
+        <v>6</v>
+      </c>
+      <c r="E41" s="134" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="135">
+        <f>B41*D41</f>
+        <v>108</v>
+      </c>
+      <c r="G41" s="17"/>
+      <c r="H41" s="128" t="s">
+        <v>224</v>
+      </c>
+      <c r="I41" s="128"/>
+      <c r="J41" s="128"/>
+      <c r="K41" s="128" t="s">
+        <v>225</v>
+      </c>
+      <c r="L41" s="128"/>
+      <c r="M41" s="128"/>
+      <c r="N41" s="128" t="s">
+        <v>226</v>
+      </c>
+      <c r="O41" s="128"/>
+      <c r="P41" s="128"/>
+      <c r="Q41" s="128" t="s">
+        <v>227</v>
+      </c>
+      <c r="R41" s="128"/>
+      <c r="S41" s="128"/>
+      <c r="T41" s="128" t="s">
+        <v>228</v>
+      </c>
+      <c r="U41" s="128"/>
+      <c r="V41" s="128"/>
+      <c r="W41" s="128" t="s">
+        <v>229</v>
+      </c>
+      <c r="X41" s="128"/>
+      <c r="Y41" s="128"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="H42" s="125">
+        <f>((H40-$Z$40)^2+(I40-$Z$40)^2+(J40-$Z$40)^2)*$F$41/$D$41</f>
+        <v>244.70352922184657</v>
+      </c>
+      <c r="I42" s="125"/>
+      <c r="J42" s="125"/>
+      <c r="K42" s="125">
+        <f t="shared" ref="K42" si="22">((K40-$Z$40)^2+(L40-$Z$40)^2+(M40-$Z$40)^2)*$F$41/$D$41</f>
+        <v>524.21023697395594</v>
+      </c>
+      <c r="L42" s="125"/>
+      <c r="M42" s="125"/>
+      <c r="N42" s="125">
+        <f t="shared" ref="N42" si="23">((N40-$Z$40)^2+(O40-$Z$40)^2+(P40-$Z$40)^2)*$F$41/$D$41</f>
+        <v>116.13386601971818</v>
+      </c>
+      <c r="O42" s="125"/>
+      <c r="P42" s="125"/>
+      <c r="Q42" s="125">
+        <f t="shared" ref="Q42" si="24">((Q40-$Z$40)^2+(R40-$Z$40)^2+(S40-$Z$40)^2)*$F$41/$D$41</f>
+        <v>351.34395699990569</v>
+      </c>
+      <c r="R42" s="125"/>
+      <c r="S42" s="125"/>
+      <c r="T42" s="125">
+        <f t="shared" ref="T42" si="25">((T40-$Z$40)^2+(U40-$Z$40)^2+(V40-$Z$40)^2)*$F$41/$D$41</f>
+        <v>1719.9617308122331</v>
+      </c>
+      <c r="U42" s="125"/>
+      <c r="V42" s="125"/>
+      <c r="W42" s="125">
+        <f t="shared" ref="W42" si="26">((W40-$Z$40)^2+(X40-$Z$40)^2+(Y40-$Z$40)^2)*$F$41/$D$41</f>
+        <v>29.897944637978281</v>
+      </c>
+      <c r="X42" s="125"/>
+      <c r="Y42" s="125"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z43" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="H44" cm="1">
+        <f t="array" ref="H44">SUMPRODUCT((H22:H39&gt;0)*((H22:H39)-H40)^2)</f>
+        <v>115.40909711651943</v>
+      </c>
+      <c r="I44" cm="1">
+        <f t="array" ref="I44">SUMPRODUCT((I22:I39&gt;0)*((I22:I39)-I40)^2)</f>
+        <v>135.55830314265407</v>
+      </c>
+      <c r="J44" cm="1">
+        <f t="array" ref="J44">SUMPRODUCT((J22:J39&gt;0)*((J22:J39)-J40)^2)</f>
+        <v>834.10425548218427</v>
+      </c>
+      <c r="K44" cm="1">
+        <f t="array" ref="K44">SUMPRODUCT((K22:K39&gt;0)*((K22:K39)-K40)^2)</f>
+        <v>295.63154285235453</v>
+      </c>
+      <c r="L44" cm="1">
+        <f t="array" ref="L44">SUMPRODUCT((L22:L39&gt;0)*((L22:L39)-L40)^2)</f>
+        <v>319.6749703450435</v>
+      </c>
+      <c r="M44" cm="1">
+        <f t="array" ref="M44">SUMPRODUCT((M22:M39&gt;0)*((M22:M39)-M40)^2)</f>
+        <v>376.59623995992308</v>
+      </c>
+      <c r="N44" cm="1">
+        <f t="array" ref="N44">SUMPRODUCT((N22:N39&gt;0)*((N22:N39)-N40)^2)</f>
+        <v>274.50280817233175</v>
+      </c>
+      <c r="O44" cm="1">
+        <f t="array" ref="O44">SUMPRODUCT((O22:O39&gt;0)*((O22:O39)-O40)^2)</f>
+        <v>424.8532367514614</v>
+      </c>
+      <c r="P44" cm="1">
+        <f t="array" ref="P44">SUMPRODUCT((P22:P39&gt;0)*((P22:P39)-P40)^2)</f>
+        <v>428.57216521827377</v>
+      </c>
+      <c r="Q44" cm="1">
+        <f t="array" ref="Q44">SUMPRODUCT((Q22:Q39&gt;0)*((Q22:Q39)-Q40)^2)</f>
+        <v>428.4629678235425</v>
+      </c>
+      <c r="R44" cm="1">
+        <f t="array" ref="R44">SUMPRODUCT((R22:R39&gt;0)*((R22:R39)-R40)^2)</f>
+        <v>438.56003174773679</v>
+      </c>
+      <c r="S44" cm="1">
+        <f t="array" ref="S44">SUMPRODUCT((S22:S39&gt;0)*((S22:S39)-S40)^2)</f>
+        <v>182.50184691072477</v>
+      </c>
+      <c r="T44" cm="1">
+        <f t="array" ref="T44">SUMPRODUCT((T22:T39&gt;0)*((T22:T39)-T40)^2)</f>
+        <v>85.110129244343312</v>
+      </c>
+      <c r="U44" cm="1">
+        <f t="array" ref="U44">SUMPRODUCT((U22:U39&gt;0)*((U22:U39)-U40)^2)</f>
+        <v>258.55621229056698</v>
+      </c>
+      <c r="V44" cm="1">
+        <f t="array" ref="V44">SUMPRODUCT((V22:V39&gt;0)*((V22:V39)-V40)^2)</f>
+        <v>249.65258034298506</v>
+      </c>
+      <c r="W44" cm="1">
+        <f t="array" ref="W44">SUMPRODUCT((W22:W39&gt;0)*((W22:W39)-W40)^2)</f>
+        <v>523.55078473392734</v>
+      </c>
+      <c r="X44" cm="1">
+        <f t="array" ref="X44">SUMPRODUCT((X22:X39&gt;0)*((X22:X39)-X40)^2)</f>
+        <v>307.85822174194004</v>
+      </c>
+      <c r="Y44" cm="1">
+        <f t="array" ref="Y44">SUMPRODUCT((Y22:Y39&gt;0)*((Y22:Y39)-Y40)^2)</f>
+        <v>325.26451079344633</v>
+      </c>
+      <c r="Z44">
+        <f>SUM(H44:Y44)</f>
+        <v>6004.4199046699596</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="W41:Y41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="T41:V41"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/統計管制與最佳化方法概論/homework/my_homework/HW13/hw_13.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW13/hw_13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D52BC23-0098-4CD8-8F15-C1076843D929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A767900-2E65-4530-A390-1E496C77241C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F0E5C9FA-8923-4A07-87AD-C8184F88F5AB}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F0E5C9FA-8923-4A07-87AD-C8184F88F5AB}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="232">
   <si>
     <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1036,6 +1036,10 @@
     <t>SS(error)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">average thickness </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1212,7 +1216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1570,13 +1574,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1952,6 +1967,36 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1970,29 +2015,82 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="24" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2047,8 +2145,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF9999FF"/>
       <color rgb="FFFF66FF"/>
-      <color rgb="FF9999FF"/>
       <color rgb="FF3399FF"/>
       <color rgb="FF66FFCC"/>
       <color rgb="FF66FF66"/>
@@ -15240,11 +15338,11 @@
       <c r="F41" t="s">
         <v>115</v>
       </c>
-      <c r="Q41" s="125" t="s">
+      <c r="Q41" s="135" t="s">
         <v>103</v>
       </c>
-      <c r="R41" s="125"/>
-      <c r="S41" s="125"/>
+      <c r="R41" s="135"/>
+      <c r="S41" s="135"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42">
@@ -15653,15 +15751,15 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K19:K25">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
       <formula>$L$19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
       <formula>$M$19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S55">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="reject">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="reject">
       <formula>NOT(ISERROR(SEARCH("reject",S55)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15676,7 +15774,7 @@
   <dimension ref="A1:AA54"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G22" sqref="G22:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -16314,10 +16412,10 @@
         <v>39.134166666666673</v>
       </c>
       <c r="M11" s="17"/>
-      <c r="N11" s="125" t="s">
+      <c r="N11" s="135" t="s">
         <v>169</v>
       </c>
-      <c r="O11" s="125"/>
+      <c r="O11" s="135"/>
       <c r="P11" t="s">
         <v>77</v>
       </c>
@@ -17611,7 +17709,7 @@
       <c r="J31" s="117"/>
       <c r="K31" s="117"/>
       <c r="L31" s="117"/>
-      <c r="M31" s="126" t="s">
+      <c r="M31" s="136" t="s">
         <v>179</v>
       </c>
       <c r="N31" s="26">
@@ -17650,7 +17748,7 @@
       </c>
       <c r="E32" s="97"/>
       <c r="F32" s="98"/>
-      <c r="M32" s="126"/>
+      <c r="M32" s="136"/>
       <c r="N32" s="26">
         <f t="shared" ref="N32:N38" si="20">C3</f>
         <v>1</v>
@@ -17686,7 +17784,7 @@
       <c r="D33" s="100"/>
       <c r="E33" s="100"/>
       <c r="F33" s="101"/>
-      <c r="M33" s="126"/>
+      <c r="M33" s="136"/>
       <c r="N33" s="26">
         <f t="shared" si="20"/>
         <v>-1</v>
@@ -17735,7 +17833,7 @@
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
-      <c r="M34" s="126"/>
+      <c r="M34" s="136"/>
       <c r="N34" s="26">
         <f t="shared" si="20"/>
         <v>1</v>
@@ -17768,7 +17866,7 @@
       <c r="H35" s="26"/>
       <c r="I35" s="26"/>
       <c r="J35" s="26"/>
-      <c r="M35" s="126"/>
+      <c r="M35" s="136"/>
       <c r="N35" s="26">
         <f t="shared" si="20"/>
         <v>-1</v>
@@ -17801,7 +17899,7 @@
       <c r="H36" s="26"/>
       <c r="I36" s="26"/>
       <c r="J36" s="26"/>
-      <c r="M36" s="126"/>
+      <c r="M36" s="136"/>
       <c r="N36" s="26">
         <f t="shared" si="20"/>
         <v>1</v>
@@ -17834,7 +17932,7 @@
       <c r="H37" s="26"/>
       <c r="I37" s="26"/>
       <c r="J37" s="26"/>
-      <c r="M37" s="126"/>
+      <c r="M37" s="136"/>
       <c r="N37" s="26">
         <f t="shared" si="20"/>
         <v>-1</v>
@@ -17867,7 +17965,7 @@
       <c r="H38" s="26"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
-      <c r="M38" s="127"/>
+      <c r="M38" s="137"/>
       <c r="N38" s="18">
         <f t="shared" si="20"/>
         <v>1</v>
@@ -17894,7 +17992,7 @@
       <c r="H39" s="26"/>
       <c r="I39" s="26"/>
       <c r="J39" s="26"/>
-      <c r="M39" s="128" t="s">
+      <c r="M39" s="138" t="s">
         <v>179</v>
       </c>
       <c r="N39" s="90">
@@ -17926,7 +18024,7 @@
       <c r="H40" s="26"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
-      <c r="M40" s="126"/>
+      <c r="M40" s="136"/>
       <c r="N40" s="26">
         <f t="shared" ref="N40:P46" si="23">N32</f>
         <v>1</v>
@@ -17969,7 +18067,7 @@
       <c r="H41" s="26"/>
       <c r="I41" s="26"/>
       <c r="J41" s="26"/>
-      <c r="M41" s="126"/>
+      <c r="M41" s="136"/>
       <c r="N41" s="26">
         <f t="shared" si="23"/>
         <v>-1</v>
@@ -18005,7 +18103,7 @@
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="M42" s="126"/>
+      <c r="M42" s="136"/>
       <c r="N42" s="26">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -18038,7 +18136,7 @@
       <c r="X42" s="73"/>
     </row>
     <row r="43" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M43" s="126"/>
+      <c r="M43" s="136"/>
       <c r="N43" s="26">
         <f t="shared" si="23"/>
         <v>-1</v>
@@ -18069,7 +18167,7 @@
       <c r="X43" s="74"/>
     </row>
     <row r="44" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M44" s="126"/>
+      <c r="M44" s="136"/>
       <c r="N44" s="26">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -18088,7 +18186,7 @@
       <c r="R44" s="73"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="M45" s="126"/>
+      <c r="M45" s="136"/>
       <c r="N45" s="26">
         <f t="shared" si="23"/>
         <v>-1</v>
@@ -18132,7 +18230,7 @@
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="M46" s="127"/>
+      <c r="M46" s="137"/>
       <c r="N46" s="18">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -18178,7 +18276,7 @@
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="M47" s="125" t="s">
+      <c r="M47" s="135" t="s">
         <v>179</v>
       </c>
       <c r="N47">
@@ -18226,7 +18324,7 @@
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="M48" s="125"/>
+      <c r="M48" s="135"/>
       <c r="N48">
         <f t="shared" ref="N48:O54" si="24">N40</f>
         <v>1</v>
@@ -18272,7 +18370,7 @@
       </c>
     </row>
     <row r="49" spans="13:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M49" s="125"/>
+      <c r="M49" s="135"/>
       <c r="N49">
         <f t="shared" si="24"/>
         <v>-1</v>
@@ -18318,7 +18416,7 @@
       </c>
     </row>
     <row r="50" spans="13:27" x14ac:dyDescent="0.25">
-      <c r="M50" s="125"/>
+      <c r="M50" s="135"/>
       <c r="N50">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -18337,7 +18435,7 @@
       <c r="R50" s="26"/>
     </row>
     <row r="51" spans="13:27" x14ac:dyDescent="0.25">
-      <c r="M51" s="125"/>
+      <c r="M51" s="135"/>
       <c r="N51">
         <f t="shared" si="24"/>
         <v>-1</v>
@@ -18355,7 +18453,7 @@
       </c>
     </row>
     <row r="52" spans="13:27" x14ac:dyDescent="0.25">
-      <c r="M52" s="125"/>
+      <c r="M52" s="135"/>
       <c r="N52">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -18373,7 +18471,7 @@
       </c>
     </row>
     <row r="53" spans="13:27" x14ac:dyDescent="0.25">
-      <c r="M53" s="125"/>
+      <c r="M53" s="135"/>
       <c r="N53">
         <f t="shared" si="24"/>
         <v>-1</v>
@@ -18391,7 +18489,7 @@
       </c>
     </row>
     <row r="54" spans="13:27" x14ac:dyDescent="0.25">
-      <c r="M54" s="125"/>
+      <c r="M54" s="135"/>
       <c r="N54">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -18417,12 +18515,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K22:K28">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>$L$22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22:Q24">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18493,11 +18591,11 @@
       <c r="O1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="P1" s="129" t="s">
+      <c r="P1" s="139" t="s">
         <v>219</v>
       </c>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="129"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
       <c r="T1" t="s">
         <v>187</v>
       </c>
@@ -19856,11 +19954,11 @@
       <c r="M20" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="P20" s="125" t="s">
+      <c r="P20" s="135" t="s">
         <v>220</v>
       </c>
-      <c r="Q20" s="125"/>
-      <c r="R20" s="125"/>
+      <c r="Q20" s="135"/>
+      <c r="R20" s="135"/>
       <c r="T20" s="32" t="s">
         <v>132</v>
       </c>
@@ -19895,12 +19993,12 @@
         <f>AVERAGE(M2:M19)</f>
         <v>41.383274180047714</v>
       </c>
-      <c r="P21" s="125">
+      <c r="P21" s="135">
         <f>SUM(P2:R19)</f>
         <v>171174.66666666669</v>
       </c>
-      <c r="Q21" s="125"/>
-      <c r="R21" s="125"/>
+      <c r="Q21" s="135"/>
+      <c r="R21" s="135"/>
       <c r="T21" s="32" t="s">
         <v>168</v>
       </c>
@@ -19920,21 +20018,21 @@
       <c r="Y21" s="27"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="130" t="s">
+      <c r="A22" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="B22" s="130"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
-      <c r="H22" s="129" t="s">
+      <c r="B22" s="140"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="H22" s="139" t="s">
         <v>189</v>
       </c>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="129"/>
-      <c r="L22" s="129"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="139"/>
+      <c r="K22" s="139"/>
+      <c r="L22" s="139"/>
       <c r="T22" s="92" t="s">
         <v>163</v>
       </c>
@@ -20410,15 +20508,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502AF91F-0A1E-4C29-9B45-AC33A2A62027}">
-  <dimension ref="A1:Z44"/>
+  <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="Z44" sqref="Z44"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>190</v>
       </c>
@@ -20438,7 +20543,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20457,8 +20562,44 @@
       <c r="F2">
         <v>1</v>
       </c>
+      <c r="I2" s="106" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="107" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" s="107" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="N2" s="133" t="s">
+        <v>174</v>
+      </c>
+      <c r="P2" s="148" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q2" s="149" t="s">
+        <v>119</v>
+      </c>
+      <c r="R2" s="149" t="s">
+        <v>129</v>
+      </c>
+      <c r="S2" s="149" t="s">
+        <v>130</v>
+      </c>
+      <c r="T2" s="149" t="s">
+        <v>132</v>
+      </c>
+      <c r="U2" s="150" t="s">
+        <v>174</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -20477,8 +20618,52 @@
       <c r="F3">
         <v>2</v>
       </c>
+      <c r="I3" s="110" t="s">
+        <v>190</v>
+      </c>
+      <c r="J3" s="111">
+        <f>H42</f>
+        <v>489.40705844369313</v>
+      </c>
+      <c r="K3" s="111">
+        <v>2</v>
+      </c>
+      <c r="L3" s="111">
+        <f>J3/K3</f>
+        <v>244.70352922184657</v>
+      </c>
+      <c r="M3" s="111">
+        <f>L3/$L$9</f>
+        <v>3.6678510130241682</v>
+      </c>
+      <c r="N3" s="131">
+        <f>_xlfn.F.INV.RT(0.1,K3,$K$9)</f>
+        <v>2.3625128374979787</v>
+      </c>
+      <c r="P3" s="151" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q3" s="153">
+        <f>H67</f>
+        <v>23008788.962962922</v>
+      </c>
+      <c r="R3" s="153">
+        <v>2</v>
+      </c>
+      <c r="S3" s="153">
+        <f>Q3/R3</f>
+        <v>11504394.481481461</v>
+      </c>
+      <c r="T3" s="153">
+        <f>S3/$S$9</f>
+        <v>8.7259654006231244</v>
+      </c>
+      <c r="U3" s="154">
+        <f>_xlfn.F.INV.RT(0.1,R3,$R$9)</f>
+        <v>2.3625128374979787</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -20497,8 +20682,52 @@
       <c r="F4">
         <v>3</v>
       </c>
+      <c r="I4" s="110" t="s">
+        <v>191</v>
+      </c>
+      <c r="J4" s="111">
+        <f>K42</f>
+        <v>1048.4204739479119</v>
+      </c>
+      <c r="K4" s="111">
+        <v>2</v>
+      </c>
+      <c r="L4" s="111">
+        <f t="shared" ref="L4:L9" si="0">J4/K4</f>
+        <v>524.21023697395594</v>
+      </c>
+      <c r="M4" s="111">
+        <f t="shared" ref="M4:M8" si="1">L4/$L$9</f>
+        <v>7.8573654202569108</v>
+      </c>
+      <c r="N4" s="131">
+        <f t="shared" ref="N4:N8" si="2">_xlfn.F.INV.RT(0.1,K4,$K$9)</f>
+        <v>2.3625128374979787</v>
+      </c>
+      <c r="P4" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q4" s="153">
+        <f>K67</f>
+        <v>43794458.296296306</v>
+      </c>
+      <c r="R4" s="153">
+        <v>2</v>
+      </c>
+      <c r="S4" s="153">
+        <f t="shared" ref="S4:S9" si="3">Q4/R4</f>
+        <v>21897229.148148153</v>
+      </c>
+      <c r="T4" s="153">
+        <f t="shared" ref="T4:T8" si="4">S4/$S$9</f>
+        <v>16.608824064910859</v>
+      </c>
+      <c r="U4" s="154">
+        <f t="shared" ref="U4:U8" si="5">_xlfn.F.INV.RT(0.1,R4,$R$9)</f>
+        <v>2.3625128374979787</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -20517,8 +20746,52 @@
       <c r="F5">
         <v>3</v>
       </c>
+      <c r="I5" s="110" t="s">
+        <v>192</v>
+      </c>
+      <c r="J5" s="111">
+        <f>N42</f>
+        <v>232.26773203943637</v>
+      </c>
+      <c r="K5" s="111">
+        <v>2</v>
+      </c>
+      <c r="L5" s="111">
+        <f t="shared" si="0"/>
+        <v>116.13386601971818</v>
+      </c>
+      <c r="M5" s="111">
+        <f t="shared" si="1"/>
+        <v>1.7407256833662679</v>
+      </c>
+      <c r="N5" s="131">
+        <f t="shared" si="2"/>
+        <v>2.3625128374979787</v>
+      </c>
+      <c r="P5" s="151" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q5" s="153">
+        <f>N67</f>
+        <v>22106838.296296302</v>
+      </c>
+      <c r="R5" s="153">
+        <v>2</v>
+      </c>
+      <c r="S5" s="153">
+        <f t="shared" si="3"/>
+        <v>11053419.148148151</v>
+      </c>
+      <c r="T5" s="153">
+        <f t="shared" si="4"/>
+        <v>8.3839052286136031</v>
+      </c>
+      <c r="U5" s="154">
+        <f t="shared" si="5"/>
+        <v>2.3625128374979787</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -20537,8 +20810,52 @@
       <c r="F6">
         <v>1</v>
       </c>
+      <c r="I6" s="110" t="s">
+        <v>193</v>
+      </c>
+      <c r="J6" s="111">
+        <f>Q42</f>
+        <v>702.68791399981137</v>
+      </c>
+      <c r="K6" s="111">
+        <v>2</v>
+      </c>
+      <c r="L6" s="111">
+        <f t="shared" si="0"/>
+        <v>351.34395699990569</v>
+      </c>
+      <c r="M6" s="111">
+        <f t="shared" si="1"/>
+        <v>5.2662799457776428</v>
+      </c>
+      <c r="N6" s="131">
+        <f t="shared" si="2"/>
+        <v>2.3625128374979787</v>
+      </c>
+      <c r="P6" s="151" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q6" s="153">
+        <f>Q67</f>
+        <v>37550307.851851873</v>
+      </c>
+      <c r="R6" s="153">
+        <v>2</v>
+      </c>
+      <c r="S6" s="153">
+        <f t="shared" si="3"/>
+        <v>18775153.925925937</v>
+      </c>
+      <c r="T6" s="153">
+        <f t="shared" si="4"/>
+        <v>14.240761981234323</v>
+      </c>
+      <c r="U6" s="154">
+        <f t="shared" si="5"/>
+        <v>2.3625128374979787</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -20557,8 +20874,52 @@
       <c r="F7">
         <v>2</v>
       </c>
+      <c r="I7" s="110" t="s">
+        <v>194</v>
+      </c>
+      <c r="J7" s="111">
+        <f>T42</f>
+        <v>3439.9234616244662</v>
+      </c>
+      <c r="K7" s="111">
+        <v>2</v>
+      </c>
+      <c r="L7" s="111">
+        <f t="shared" si="0"/>
+        <v>1719.9617308122331</v>
+      </c>
+      <c r="M7" s="111">
+        <f t="shared" si="1"/>
+        <v>25.780434784833652</v>
+      </c>
+      <c r="N7" s="131">
+        <f t="shared" si="2"/>
+        <v>2.3625128374979787</v>
+      </c>
+      <c r="P7" s="151" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q7" s="153">
+        <f>T67</f>
+        <v>1705511.407407413</v>
+      </c>
+      <c r="R7" s="153">
+        <v>2</v>
+      </c>
+      <c r="S7" s="153">
+        <f t="shared" si="3"/>
+        <v>852755.7037037065</v>
+      </c>
+      <c r="T7" s="153">
+        <f t="shared" si="4"/>
+        <v>0.64680646840478906</v>
+      </c>
+      <c r="U7" s="154">
+        <f t="shared" si="5"/>
+        <v>2.3625128374979787</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -20577,8 +20938,52 @@
       <c r="F8">
         <v>3</v>
       </c>
+      <c r="I8" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" s="111">
+        <f>W42</f>
+        <v>59.795889275956561</v>
+      </c>
+      <c r="K8" s="111">
+        <v>2</v>
+      </c>
+      <c r="L8" s="111">
+        <f t="shared" si="0"/>
+        <v>29.897944637978281</v>
+      </c>
+      <c r="M8" s="111">
+        <f t="shared" si="1"/>
+        <v>0.44813904759146744</v>
+      </c>
+      <c r="N8" s="131">
+        <f t="shared" si="2"/>
+        <v>2.3625128374979787</v>
+      </c>
+      <c r="P8" s="151" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q8" s="153">
+        <f>W67</f>
+        <v>8906357.8518518526</v>
+      </c>
+      <c r="R8" s="153">
+        <v>2</v>
+      </c>
+      <c r="S8" s="153">
+        <f t="shared" si="3"/>
+        <v>4453178.9259259263</v>
+      </c>
+      <c r="T8" s="153">
+        <f t="shared" si="4"/>
+        <v>3.3776906114410088</v>
+      </c>
+      <c r="U8" s="154">
+        <f t="shared" si="5"/>
+        <v>2.3625128374979787</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -20597,8 +21002,42 @@
       <c r="F9">
         <v>1</v>
       </c>
+      <c r="I9" s="110" t="s">
+        <v>168</v>
+      </c>
+      <c r="J9" s="111">
+        <f>Z43</f>
+        <v>6004.4199046699596</v>
+      </c>
+      <c r="K9" s="111">
+        <f>B41*(D41-1)</f>
+        <v>90</v>
+      </c>
+      <c r="L9" s="111">
+        <f t="shared" si="0"/>
+        <v>66.715776718555105</v>
+      </c>
+      <c r="M9" s="111"/>
+      <c r="N9" s="131"/>
+      <c r="P9" s="151" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q9" s="153">
+        <f>Z68</f>
+        <v>118656842.62962966</v>
+      </c>
+      <c r="R9" s="153">
+        <f>B41*(D41-1)</f>
+        <v>90</v>
+      </c>
+      <c r="S9" s="153">
+        <f t="shared" si="3"/>
+        <v>1318409.3625514407</v>
+      </c>
+      <c r="T9" s="153"/>
+      <c r="U9" s="154"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -20617,8 +21056,36 @@
       <c r="F10">
         <v>2</v>
       </c>
+      <c r="I10" s="130" t="s">
+        <v>163</v>
+      </c>
+      <c r="J10" s="115">
+        <f>SUM(J3:J9)</f>
+        <v>11976.922434001235</v>
+      </c>
+      <c r="K10" s="115">
+        <f>SUM(K3:K9)</f>
+        <v>102</v>
+      </c>
+      <c r="L10" s="115"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="132"/>
+      <c r="P10" s="152" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q10" s="156">
+        <f>SUM(Q3:Q9)</f>
+        <v>255729105.29629636</v>
+      </c>
+      <c r="R10" s="156">
+        <f>SUM(R3:R9)</f>
+        <v>102</v>
+      </c>
+      <c r="S10" s="156"/>
+      <c r="T10" s="157"/>
+      <c r="U10" s="155"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -20638,7 +21105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -20657,8 +21124,17 @@
       <c r="F12">
         <v>2</v>
       </c>
+      <c r="J12" t="s">
+        <v>175</v>
+      </c>
+      <c r="K12" t="s">
+        <v>176</v>
+      </c>
+      <c r="L12" t="s">
+        <v>178</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -20677,8 +21153,20 @@
       <c r="F13">
         <v>3</v>
       </c>
+      <c r="J13">
+        <f>(J4+J6+J7+J3)/J10</f>
+        <v>0.4742820152103272</v>
+      </c>
+      <c r="K13">
+        <f>J13^0.5</f>
+        <v>0.68868135970877509</v>
+      </c>
+      <c r="L13">
+        <f>1-(J9/K9)/(J10/K10)</f>
+        <v>0.43182321979693972</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -20698,7 +21186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -20718,7 +21206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -20799,21 +21287,35 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="125" t="s">
+      <c r="A20" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="B20" s="125"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="W20" s="37"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="146" t="s">
+        <v>187</v>
+      </c>
+      <c r="I20" s="136"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="136"/>
+      <c r="Q20" s="136"/>
+      <c r="R20" s="136"/>
+      <c r="S20" s="136"/>
+      <c r="T20" s="136"/>
+      <c r="U20" s="136"/>
+      <c r="V20" s="136"/>
+      <c r="W20" s="136"/>
+      <c r="X20" s="136"/>
+      <c r="Y20" s="136"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -20864,7 +21366,7 @@
       <c r="P21" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="Q21" s="131" t="s">
+      <c r="Q21" s="125" t="s">
         <v>204</v>
       </c>
       <c r="R21" s="17" t="s">
@@ -20907,15 +21409,15 @@
         <v>1961</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22:E39" si="0">AVERAGE(B22:D22)</f>
+        <f t="shared" ref="E22:E39" si="6">AVERAGE(B22:D22)</f>
         <v>1988.3333333333333</v>
       </c>
       <c r="F22">
-        <f t="shared" ref="F22:F39" si="1">(_xlfn.VAR.S(B22:D22))^0.5</f>
+        <f t="shared" ref="F22:F39" si="7">(_xlfn.VAR.S(B22:D22))^0.5</f>
         <v>35.907288025320618</v>
       </c>
       <c r="G22">
-        <f t="shared" ref="G22:G39" si="2">10*LOG10(E22^2/F22^2)</f>
+        <f t="shared" ref="G22:G39" si="8">10*LOG10(E22^2/F22^2)</f>
         <v>34.866131758820949</v>
       </c>
       <c r="H22" s="37">
@@ -21006,87 +21508,87 @@
         <v>5242</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5269.333333333333</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>94.99649116327052</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>34.880962165031875</v>
       </c>
       <c r="H23" s="37">
-        <f t="shared" ref="H23:H39" si="3">IF(A3=1,$G23,0)</f>
+        <f t="shared" ref="H23:H39" si="9">IF(A3=1,$G23,0)</f>
         <v>34.880962165031875</v>
       </c>
       <c r="I23">
-        <f t="shared" ref="I23:I39" si="4">IF(A3=2,$G23,0)</f>
+        <f t="shared" ref="I23:I39" si="10">IF(A3=2,$G23,0)</f>
         <v>0</v>
       </c>
       <c r="J23">
-        <f t="shared" ref="J23:J39" si="5">IF(A3=3,$G23,0)</f>
+        <f t="shared" ref="J23:J39" si="11">IF(A3=3,$G23,0)</f>
         <v>0</v>
       </c>
       <c r="K23" s="37">
-        <f t="shared" ref="K23:K39" si="6">IF(B3=1,$G23,0)</f>
+        <f t="shared" ref="K23:K39" si="12">IF(B3=1,$G23,0)</f>
         <v>0</v>
       </c>
       <c r="L23">
-        <f t="shared" ref="L23:L39" si="7">IF(B3=2,$G23,0)</f>
+        <f t="shared" ref="L23:L39" si="13">IF(B3=2,$G23,0)</f>
         <v>34.880962165031875</v>
       </c>
       <c r="M23">
-        <f t="shared" ref="M23:M39" si="8">IF(B3=3,$G23,0)</f>
+        <f t="shared" ref="M23:M39" si="14">IF(B3=3,$G23,0)</f>
         <v>0</v>
       </c>
       <c r="N23" s="37">
-        <f t="shared" ref="N23:N39" si="9">IF(C3=1,$G23,0)</f>
+        <f t="shared" ref="N23:N39" si="15">IF(C3=1,$G23,0)</f>
         <v>0</v>
       </c>
       <c r="O23">
-        <f t="shared" ref="O23:O39" si="10">IF(C3=2,$G23,0)</f>
+        <f t="shared" ref="O23:O39" si="16">IF(C3=2,$G23,0)</f>
         <v>34.880962165031875</v>
       </c>
       <c r="P23">
-        <f t="shared" ref="P23:P39" si="11">IF(C3=3,$G23,0)</f>
+        <f t="shared" ref="P23:P39" si="17">IF(C3=3,$G23,0)</f>
         <v>0</v>
       </c>
       <c r="Q23" s="37">
-        <f t="shared" ref="Q23:Q39" si="12">IF(D3=1,$G23,0)</f>
+        <f t="shared" ref="Q23:Q39" si="18">IF(D3=1,$G23,0)</f>
         <v>0</v>
       </c>
       <c r="R23">
-        <f t="shared" ref="R23:R39" si="13">IF(D3=2,$G23,0)</f>
+        <f t="shared" ref="R23:R39" si="19">IF(D3=2,$G23,0)</f>
         <v>34.880962165031875</v>
       </c>
       <c r="S23">
-        <f t="shared" ref="S23:S39" si="14">IF(D3=3,$G23,0)</f>
+        <f t="shared" ref="S23:S39" si="20">IF(D3=3,$G23,0)</f>
         <v>0</v>
       </c>
       <c r="T23" s="37">
-        <f t="shared" ref="T23:T39" si="15">IF(E3=1,$G23,0)</f>
+        <f t="shared" ref="T23:T39" si="21">IF(E3=1,$G23,0)</f>
         <v>0</v>
       </c>
       <c r="U23">
-        <f t="shared" ref="U23:U39" si="16">IF(E3=2,$G23,0)</f>
+        <f t="shared" ref="U23:U39" si="22">IF(E3=2,$G23,0)</f>
         <v>34.880962165031875</v>
       </c>
       <c r="V23">
-        <f t="shared" ref="V23:V39" si="17">IF(E3=3,$G23,0)</f>
+        <f t="shared" ref="V23:V39" si="23">IF(E3=3,$G23,0)</f>
         <v>0</v>
       </c>
       <c r="W23" s="37">
-        <f t="shared" ref="W23:W39" si="18">IF(F3=1,$G23,0)</f>
+        <f t="shared" ref="W23:W39" si="24">IF(F3=1,$G23,0)</f>
         <v>0</v>
       </c>
       <c r="X23">
-        <f t="shared" ref="X23:X39" si="19">IF(F3=2,$G23,0)</f>
+        <f t="shared" ref="X23:X39" si="25">IF(F3=2,$G23,0)</f>
         <v>34.880962165031875</v>
       </c>
       <c r="Y23">
-        <f t="shared" ref="Y23:Y39" si="20">IF(F3=3,$G23,0)</f>
+        <f t="shared" ref="Y23:Y39" si="26">IF(F3=3,$G23,0)</f>
         <v>0</v>
       </c>
       <c r="Z23" s="37"/>
@@ -21105,87 +21607,87 @@
         <v>5874</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5919</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>61.441028637222537</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
-        <v>39.675797239784998</v>
-      </c>
-      <c r="H24" s="37">
-        <f t="shared" si="3"/>
-        <v>39.675797239784998</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="37">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M24">
         <f t="shared" si="8"/>
         <v>39.675797239784998</v>
       </c>
-      <c r="N24" s="37">
+      <c r="H24" s="37">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O24">
+        <v>39.675797239784998</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P24">
+      <c r="J24">
         <f t="shared" si="11"/>
-        <v>39.675797239784998</v>
-      </c>
-      <c r="Q24" s="37">
+        <v>0</v>
+      </c>
+      <c r="K24" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R24">
+      <c r="L24">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S24">
+      <c r="M24">
         <f t="shared" si="14"/>
         <v>39.675797239784998</v>
       </c>
-      <c r="T24" s="37">
+      <c r="N24" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="U24">
+      <c r="O24">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="V24">
+      <c r="P24">
         <f t="shared" si="17"/>
         <v>39.675797239784998</v>
       </c>
+      <c r="Q24" s="37">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="20"/>
+        <v>39.675797239784998</v>
+      </c>
+      <c r="T24" s="37">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="23"/>
+        <v>39.675797239784998</v>
+      </c>
       <c r="W24" s="37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="X24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>39.675797239784998</v>
       </c>
       <c r="Z24" s="37"/>
@@ -21204,87 +21706,87 @@
         <v>2099</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2108.6666666666665</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>9.5043849529221696</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>46.921678295653393</v>
       </c>
       <c r="H25" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>46.921678295653393</v>
       </c>
       <c r="J25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K25" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>46.921678295653393</v>
       </c>
       <c r="L25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N25" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>46.921678295653393</v>
       </c>
       <c r="O25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q25" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>46.921678295653393</v>
       </c>
       <c r="S25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T25" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>46.921678295653393</v>
       </c>
       <c r="V25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W25" s="37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="X25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>46.921678295653393</v>
       </c>
       <c r="Z25" s="37"/>
@@ -21303,87 +21805,87 @@
         <v>4174</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4142.666666666667</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>36.896250938724563</v>
       </c>
       <c r="G26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>41.005955010313386</v>
       </c>
       <c r="H26" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I26">
-        <f t="shared" si="4"/>
-        <v>41.005955010313386</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="37">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="7"/>
-        <v>41.005955010313386</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="37">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O26">
         <f t="shared" si="10"/>
         <v>41.005955010313386</v>
       </c>
+      <c r="J26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="37">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="13"/>
+        <v>41.005955010313386</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="16"/>
+        <v>41.005955010313386</v>
+      </c>
       <c r="P26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q26" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>41.005955010313386</v>
       </c>
       <c r="T26" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>41.005955010313386</v>
       </c>
       <c r="W26" s="37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>41.005955010313386</v>
       </c>
       <c r="X26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z26" s="37"/>
@@ -21402,87 +21904,87 @@
         <v>2913</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2955.6666666666665</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>58.226568964119238</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
-        <v>34.110685078975358</v>
-      </c>
-      <c r="H27" s="37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="4"/>
-        <v>34.110685078975358</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="37">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M27">
         <f t="shared" si="8"/>
         <v>34.110685078975358</v>
       </c>
+      <c r="H27" s="37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="10"/>
+        <v>34.110685078975358</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="37">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="14"/>
+        <v>34.110685078975358</v>
+      </c>
       <c r="N27" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>34.110685078975358</v>
       </c>
       <c r="Q27" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>34.110685078975358</v>
       </c>
       <c r="R27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T27" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>34.110685078975358</v>
       </c>
       <c r="U27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W27" s="37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="X27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>34.110685078975358</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z27" s="37"/>
@@ -21501,87 +22003,87 @@
         <v>3028</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3033.3333333333335</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>7.5718777944003648</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>52.054330830149752</v>
       </c>
       <c r="H28" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>52.054330830149752</v>
       </c>
       <c r="K28" s="37">
-        <f t="shared" si="6"/>
-        <v>52.054330830149752</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="37">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="10"/>
-        <v>52.054330830149752</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="37">
         <f t="shared" si="12"/>
         <v>52.054330830149752</v>
       </c>
+      <c r="L28">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="16"/>
+        <v>52.054330830149752</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="37">
+        <f t="shared" si="18"/>
+        <v>52.054330830149752</v>
+      </c>
       <c r="R28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T28" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>52.054330830149752</v>
       </c>
       <c r="W28" s="37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="X28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>52.054330830149752</v>
       </c>
       <c r="Z28" s="37"/>
@@ -21600,87 +22102,87 @@
         <v>4336</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4505</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>187.68857184176133</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>27.605139312389344</v>
       </c>
       <c r="H29" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J29">
-        <f t="shared" si="5"/>
-        <v>27.605139312389344</v>
-      </c>
-      <c r="K29" s="37">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="7"/>
-        <v>27.605139312389344</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="37">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P29">
         <f t="shared" si="11"/>
         <v>27.605139312389344</v>
       </c>
-      <c r="Q29" s="37">
+      <c r="K29" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R29">
+      <c r="L29">
         <f t="shared" si="13"/>
         <v>27.605139312389344</v>
       </c>
+      <c r="M29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="17"/>
+        <v>27.605139312389344</v>
+      </c>
+      <c r="Q29" s="37">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="19"/>
+        <v>27.605139312389344</v>
+      </c>
       <c r="S29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T29" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>27.605139312389344</v>
       </c>
       <c r="U29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W29" s="37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>27.605139312389344</v>
       </c>
       <c r="X29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z29" s="37"/>
@@ -21699,87 +22201,87 @@
         <v>3850</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3843.6666666666665</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>19.295940851208403</v>
       </c>
       <c r="G30">
-        <f t="shared" si="2"/>
-        <v>45.985595164418541</v>
-      </c>
-      <c r="H30" s="37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="5"/>
-        <v>45.985595164418541</v>
-      </c>
-      <c r="K30" s="37">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M30">
         <f t="shared" si="8"/>
         <v>45.985595164418541</v>
       </c>
-      <c r="N30" s="37">
+      <c r="H30" s="37">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="11"/>
         <v>45.985595164418541</v>
       </c>
-      <c r="O30">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="37">
+      <c r="K30" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R30">
+      <c r="L30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S30">
+      <c r="M30">
         <f t="shared" si="14"/>
         <v>45.985595164418541</v>
       </c>
+      <c r="N30" s="37">
+        <f t="shared" si="15"/>
+        <v>45.985595164418541</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="37">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="20"/>
+        <v>45.985595164418541</v>
+      </c>
       <c r="T30" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>45.985595164418541</v>
       </c>
       <c r="V30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W30" s="37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="X30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>45.985595164418541</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z30" s="37"/>
@@ -21798,87 +22300,87 @@
         <v>3242</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3224.6666666666665</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>18.610033136277146</v>
       </c>
       <c r="G31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>44.77475363828033</v>
       </c>
       <c r="H31" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>44.77475363828033</v>
       </c>
       <c r="I31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K31" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>44.77475363828033</v>
       </c>
       <c r="L31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N31" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>44.77475363828033</v>
       </c>
       <c r="Q31" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>44.77475363828033</v>
       </c>
       <c r="T31" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>44.77475363828033</v>
       </c>
       <c r="V31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W31" s="37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>44.77475363828033</v>
       </c>
       <c r="X31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z31" s="37"/>
@@ -21897,87 +22399,87 @@
         <v>2499</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2506.3333333333335</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>12.701705922171765</v>
       </c>
       <c r="G32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>45.903535532871814</v>
       </c>
       <c r="H32" s="37">
-        <f t="shared" si="3"/>
-        <v>45.903535532871814</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="37">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="7"/>
-        <v>45.903535532871814</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="37">
         <f t="shared" si="9"/>
         <v>45.903535532871814</v>
       </c>
+      <c r="I32">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="37">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="13"/>
+        <v>45.903535532871814</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="37">
+        <f t="shared" si="15"/>
+        <v>45.903535532871814</v>
+      </c>
       <c r="O32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q32" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>45.903535532871814</v>
       </c>
       <c r="R32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T32" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>45.903535532871814</v>
       </c>
       <c r="W32" s="37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="X32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>45.903535532871814</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z32" s="37"/>
@@ -21996,87 +22498,87 @@
         <v>5844</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5843.666666666667</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>77.500537632543782</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
-        <v>37.547614394875183</v>
-      </c>
-      <c r="H33" s="37">
-        <f t="shared" si="3"/>
-        <v>37.547614394875183</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="37">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M33">
         <f t="shared" si="8"/>
         <v>37.547614394875183</v>
       </c>
+      <c r="H33" s="37">
+        <f t="shared" si="9"/>
+        <v>37.547614394875183</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="37">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="14"/>
+        <v>37.547614394875183</v>
+      </c>
       <c r="N33" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>37.547614394875183</v>
       </c>
       <c r="P33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q33" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>37.547614394875183</v>
       </c>
       <c r="S33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T33" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>37.547614394875183</v>
       </c>
       <c r="U33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W33" s="37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="X33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>37.547614394875183</v>
       </c>
       <c r="Z33" s="37"/>
@@ -22095,87 +22597,87 @@
         <v>2716</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2753.3333333333335</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>38.017539811688678</v>
       </c>
       <c r="G34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>37.197495663907716</v>
       </c>
       <c r="H34" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I34">
-        <f t="shared" si="4"/>
-        <v>37.197495663907716</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="37">
-        <f t="shared" si="6"/>
-        <v>37.197495663907716</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="37">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O34">
         <f t="shared" si="10"/>
         <v>37.197495663907716</v>
       </c>
+      <c r="J34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="37">
+        <f t="shared" si="12"/>
+        <v>37.197495663907716</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="16"/>
+        <v>37.197495663907716</v>
+      </c>
       <c r="P34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q34" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>37.197495663907716</v>
       </c>
       <c r="T34" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>37.197495663907716</v>
       </c>
       <c r="U34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W34" s="37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="X34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>37.197495663907716</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z34" s="37"/>
@@ -22194,87 +22696,87 @@
         <v>2859</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2852.3333333333335</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>15.14375558880073</v>
       </c>
       <c r="G35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>45.499333710234126</v>
       </c>
       <c r="H35" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45.499333710234126</v>
       </c>
       <c r="J35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K35" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>45.499333710234126</v>
       </c>
       <c r="M35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N35" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>45.499333710234126</v>
       </c>
       <c r="Q35" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>45.499333710234126</v>
       </c>
       <c r="R35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T35" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>45.499333710234126</v>
       </c>
       <c r="V35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W35" s="37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="X35">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>45.499333710234126</v>
       </c>
       <c r="Z35" s="37"/>
@@ -22293,87 +22795,87 @@
         <v>3124</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3163.6666666666665</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>48.686069191641806</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
-        <v>36.255720134339221</v>
-      </c>
-      <c r="H36" s="37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="4"/>
-        <v>36.255720134339221</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="37">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M36">
         <f t="shared" si="8"/>
         <v>36.255720134339221</v>
       </c>
+      <c r="H36" s="37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="10"/>
+        <v>36.255720134339221</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="37">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="14"/>
+        <v>36.255720134339221</v>
+      </c>
       <c r="N36" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>36.255720134339221</v>
       </c>
       <c r="O36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q36" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>36.255720134339221</v>
       </c>
       <c r="S36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T36" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>36.255720134339221</v>
       </c>
       <c r="W36" s="37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>36.255720134339221</v>
       </c>
       <c r="X36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z36" s="37"/>
@@ -22392,87 +22894,87 @@
         <v>3016</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3014.6666666666665</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6.110100926607787</v>
       </c>
       <c r="G37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>53.863818299568003</v>
       </c>
       <c r="H37" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J37">
-        <f t="shared" si="5"/>
-        <v>53.863818299568003</v>
-      </c>
-      <c r="K37" s="37">
-        <f t="shared" si="6"/>
-        <v>53.863818299568003</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="37">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P37">
         <f t="shared" si="11"/>
         <v>53.863818299568003</v>
       </c>
-      <c r="Q37" s="37">
+      <c r="K37" s="37">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="R37">
+        <v>53.863818299568003</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="13"/>
-        <v>53.863818299568003</v>
-      </c>
-      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="M37">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T37" s="37">
+      <c r="N37" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="U37">
+      <c r="O37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="V37">
+      <c r="P37">
         <f t="shared" si="17"/>
         <v>53.863818299568003</v>
       </c>
-      <c r="W37" s="37">
+      <c r="Q37" s="37">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="X37">
+      <c r="R37">
         <f t="shared" si="19"/>
         <v>53.863818299568003</v>
       </c>
+      <c r="S37">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="37">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="23"/>
+        <v>53.863818299568003</v>
+      </c>
+      <c r="W37" s="37">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="25"/>
+        <v>53.863818299568003</v>
+      </c>
       <c r="Y37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z37" s="37"/>
@@ -22491,87 +22993,87 @@
         <v>3992</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4139.666666666667</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>142.78071765239636</v>
       </c>
       <c r="G38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>29.245916237207055</v>
       </c>
       <c r="H38" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>29.245916237207055</v>
       </c>
       <c r="K38" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>29.245916237207055</v>
       </c>
       <c r="M38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N38" s="37">
-        <f t="shared" si="9"/>
-        <v>29.245916237207055</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="37">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <f t="shared" si="14"/>
-        <v>29.245916237207055</v>
-      </c>
-      <c r="T38" s="37">
         <f t="shared" si="15"/>
         <v>29.245916237207055</v>
       </c>
+      <c r="O38">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="37">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="20"/>
+        <v>29.245916237207055</v>
+      </c>
+      <c r="T38" s="37">
+        <f t="shared" si="21"/>
+        <v>29.245916237207055</v>
+      </c>
       <c r="U38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W38" s="37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="X38">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Y38">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>29.245916237207055</v>
       </c>
       <c r="Z38" s="37"/>
@@ -22590,87 +23092,87 @@
         <v>3127</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3123.6666666666665</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4.1633319989322661</v>
       </c>
       <c r="G39">
-        <f t="shared" si="2"/>
-        <v>57.504472774037666</v>
-      </c>
-      <c r="H39" s="37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="5"/>
-        <v>57.504472774037666</v>
-      </c>
-      <c r="K39" s="37">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M39">
         <f t="shared" si="8"/>
         <v>57.504472774037666</v>
       </c>
+      <c r="H39" s="37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="11"/>
+        <v>57.504472774037666</v>
+      </c>
+      <c r="K39" s="37">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="14"/>
+        <v>57.504472774037666</v>
+      </c>
       <c r="N39" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O39">
-        <f t="shared" si="10"/>
-        <v>57.504472774037666</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="37">
-        <f t="shared" si="12"/>
-        <v>57.504472774037666</v>
-      </c>
-      <c r="R39">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T39" s="37">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U39">
         <f t="shared" si="16"/>
         <v>57.504472774037666</v>
       </c>
-      <c r="V39">
+      <c r="P39">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="W39" s="37">
+      <c r="Q39" s="37">
         <f t="shared" si="18"/>
         <v>57.504472774037666</v>
       </c>
+      <c r="R39">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="37">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="22"/>
+        <v>57.504472774037666</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="W39" s="37">
+        <f t="shared" si="24"/>
+        <v>57.504472774037666</v>
+      </c>
       <c r="X39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Y39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z39" s="37" t="s">
@@ -22678,276 +23180,2021 @@
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="G40" s="133" t="s">
+      <c r="G40" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="H40" s="133">
+      <c r="H40" s="126">
         <f>SUM(H22:H39)/6</f>
         <v>39.60813245494419</v>
       </c>
-      <c r="I40" s="133">
-        <f t="shared" ref="I40:Y40" si="21">SUM(I22:I39)/6</f>
+      <c r="I40" s="126">
+        <f t="shared" ref="I40:Y40" si="27">SUM(I22:I39)/6</f>
         <v>40.165144648903869</v>
       </c>
-      <c r="J40" s="133">
-        <f t="shared" si="21"/>
+      <c r="J40" s="126">
+        <f t="shared" si="27"/>
         <v>44.376545436295061</v>
       </c>
-      <c r="K40" s="133">
-        <f t="shared" si="21"/>
+      <c r="K40" s="126">
+        <f t="shared" si="27"/>
         <v>44.946368081063355</v>
       </c>
-      <c r="L40" s="133">
-        <f t="shared" si="21"/>
+      <c r="L40" s="126">
+        <f t="shared" si="27"/>
         <v>37.356806994674599</v>
       </c>
-      <c r="M40" s="133">
-        <f t="shared" si="21"/>
+      <c r="M40" s="126">
+        <f t="shared" si="27"/>
         <v>41.846647464405159</v>
       </c>
-      <c r="N40" s="133">
-        <f t="shared" si="21"/>
+      <c r="N40" s="126">
+        <f t="shared" si="27"/>
         <v>39.863096187218495</v>
       </c>
-      <c r="O40" s="133">
-        <f t="shared" si="21"/>
+      <c r="O40" s="126">
+        <f t="shared" si="27"/>
         <v>43.365138473052589</v>
       </c>
-      <c r="P40" s="133">
-        <f t="shared" si="21"/>
+      <c r="P40" s="126">
+        <f t="shared" si="27"/>
         <v>40.921587879872028</v>
       </c>
-      <c r="Q40" s="133">
-        <f t="shared" si="21"/>
+      <c r="Q40" s="126">
+        <f t="shared" si="27"/>
         <v>44.989748280848268</v>
       </c>
-      <c r="R40" s="133">
-        <f t="shared" si="21"/>
+      <c r="R40" s="126">
+        <f t="shared" si="27"/>
         <v>39.512488766976169</v>
       </c>
-      <c r="S40" s="133">
-        <f t="shared" si="21"/>
+      <c r="S40" s="126">
+        <f t="shared" si="27"/>
         <v>39.647585492318676</v>
       </c>
-      <c r="T40" s="133">
-        <f t="shared" si="21"/>
+      <c r="T40" s="126">
+        <f t="shared" si="27"/>
         <v>33.428830407695934</v>
       </c>
-      <c r="U40" s="133">
-        <f t="shared" si="21"/>
+      <c r="U40" s="126">
+        <f t="shared" si="27"/>
         <v>45.927799291275988</v>
       </c>
-      <c r="V40" s="133">
-        <f t="shared" si="21"/>
+      <c r="V40" s="126">
+        <f t="shared" si="27"/>
         <v>44.793192841171191</v>
       </c>
-      <c r="W40" s="133">
-        <f t="shared" si="21"/>
+      <c r="W40" s="126">
+        <f t="shared" si="27"/>
         <v>40.33536210469682</v>
       </c>
-      <c r="X40" s="133">
-        <f t="shared" si="21"/>
+      <c r="X40" s="126">
+        <f t="shared" si="27"/>
         <v>41.990348650795553</v>
       </c>
-      <c r="Y40" s="133">
-        <f t="shared" si="21"/>
+      <c r="Y40" s="126">
+        <f t="shared" si="27"/>
         <v>41.824111784650746</v>
       </c>
-      <c r="Z40" s="136">
+      <c r="Z40" s="129">
         <f>AVERAGE(H40:Y40)</f>
         <v>41.383274180047707</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="133" t="s">
+      <c r="A41" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="134">
+      <c r="B41" s="127">
         <v>18</v>
       </c>
-      <c r="C41" s="134" t="s">
+      <c r="C41" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="134">
+      <c r="D41" s="127">
         <v>6</v>
       </c>
-      <c r="E41" s="134" t="s">
+      <c r="E41" s="127" t="s">
         <v>105</v>
       </c>
-      <c r="F41" s="135">
+      <c r="F41" s="128">
         <f>B41*D41</f>
         <v>108</v>
       </c>
       <c r="G41" s="17"/>
-      <c r="H41" s="128" t="s">
+      <c r="H41" s="138" t="s">
         <v>224</v>
       </c>
-      <c r="I41" s="128"/>
-      <c r="J41" s="128"/>
-      <c r="K41" s="128" t="s">
+      <c r="I41" s="138"/>
+      <c r="J41" s="138"/>
+      <c r="K41" s="144" t="s">
         <v>225</v>
       </c>
-      <c r="L41" s="128"/>
-      <c r="M41" s="128"/>
-      <c r="N41" s="128" t="s">
+      <c r="L41" s="138"/>
+      <c r="M41" s="138"/>
+      <c r="N41" s="144" t="s">
         <v>226</v>
       </c>
-      <c r="O41" s="128"/>
-      <c r="P41" s="128"/>
-      <c r="Q41" s="128" t="s">
+      <c r="O41" s="138"/>
+      <c r="P41" s="138"/>
+      <c r="Q41" s="144" t="s">
         <v>227</v>
       </c>
-      <c r="R41" s="128"/>
-      <c r="S41" s="128"/>
-      <c r="T41" s="128" t="s">
+      <c r="R41" s="138"/>
+      <c r="S41" s="138"/>
+      <c r="T41" s="144" t="s">
         <v>228</v>
       </c>
-      <c r="U41" s="128"/>
-      <c r="V41" s="128"/>
-      <c r="W41" s="128" t="s">
+      <c r="U41" s="138"/>
+      <c r="V41" s="138"/>
+      <c r="W41" s="144" t="s">
         <v>229</v>
       </c>
-      <c r="X41" s="128"/>
-      <c r="Y41" s="128"/>
+      <c r="X41" s="138"/>
+      <c r="Y41" s="138"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H42" s="125">
-        <f>((H40-$Z$40)^2+(I40-$Z$40)^2+(J40-$Z$40)^2)*$F$41/$D$41</f>
-        <v>244.70352922184657</v>
-      </c>
-      <c r="I42" s="125"/>
-      <c r="J42" s="125"/>
-      <c r="K42" s="125">
-        <f t="shared" ref="K42" si="22">((K40-$Z$40)^2+(L40-$Z$40)^2+(M40-$Z$40)^2)*$F$41/$D$41</f>
-        <v>524.21023697395594</v>
-      </c>
-      <c r="L42" s="125"/>
-      <c r="M42" s="125"/>
-      <c r="N42" s="125">
-        <f t="shared" ref="N42" si="23">((N40-$Z$40)^2+(O40-$Z$40)^2+(P40-$Z$40)^2)*$F$41/$D$41</f>
-        <v>116.13386601971818</v>
-      </c>
-      <c r="O42" s="125"/>
-      <c r="P42" s="125"/>
-      <c r="Q42" s="125">
-        <f t="shared" ref="Q42" si="24">((Q40-$Z$40)^2+(R40-$Z$40)^2+(S40-$Z$40)^2)*$F$41/$D$41</f>
-        <v>351.34395699990569</v>
-      </c>
-      <c r="R42" s="125"/>
-      <c r="S42" s="125"/>
-      <c r="T42" s="125">
-        <f t="shared" ref="T42" si="25">((T40-$Z$40)^2+(U40-$Z$40)^2+(V40-$Z$40)^2)*$F$41/$D$41</f>
-        <v>1719.9617308122331</v>
-      </c>
-      <c r="U42" s="125"/>
-      <c r="V42" s="125"/>
-      <c r="W42" s="125">
-        <f t="shared" ref="W42" si="26">((W40-$Z$40)^2+(X40-$Z$40)^2+(Y40-$Z$40)^2)*$F$41/$D$41</f>
-        <v>29.897944637978281</v>
-      </c>
-      <c r="X42" s="125"/>
-      <c r="Y42" s="125"/>
+      <c r="H42" s="147">
+        <f>((H40-$Z$40)^2+(I40-$Z$40)^2+(J40-$Z$40)^2)*$F$41/3</f>
+        <v>489.40705844369313</v>
+      </c>
+      <c r="I42" s="147"/>
+      <c r="J42" s="147"/>
+      <c r="K42" s="147">
+        <f t="shared" ref="K42" si="28">((K40-$Z$40)^2+(L40-$Z$40)^2+(M40-$Z$40)^2)*$F$41/3</f>
+        <v>1048.4204739479119</v>
+      </c>
+      <c r="L42" s="147"/>
+      <c r="M42" s="147"/>
+      <c r="N42" s="147">
+        <f t="shared" ref="N42" si="29">((N40-$Z$40)^2+(O40-$Z$40)^2+(P40-$Z$40)^2)*$F$41/3</f>
+        <v>232.26773203943637</v>
+      </c>
+      <c r="O42" s="147"/>
+      <c r="P42" s="147"/>
+      <c r="Q42" s="147">
+        <f t="shared" ref="Q42" si="30">((Q40-$Z$40)^2+(R40-$Z$40)^2+(S40-$Z$40)^2)*$F$41/3</f>
+        <v>702.68791399981137</v>
+      </c>
+      <c r="R42" s="147"/>
+      <c r="S42" s="147"/>
+      <c r="T42" s="147">
+        <f t="shared" ref="T42" si="31">((T40-$Z$40)^2+(U40-$Z$40)^2+(V40-$Z$40)^2)*$F$41/3</f>
+        <v>3439.9234616244662</v>
+      </c>
+      <c r="U42" s="147"/>
+      <c r="V42" s="147"/>
+      <c r="W42" s="147">
+        <f t="shared" ref="W42" si="32">((W40-$Z$40)^2+(X40-$Z$40)^2+(Y40-$Z$40)^2)*$F$41/3</f>
+        <v>59.795889275956561</v>
+      </c>
+      <c r="X42" s="147"/>
+      <c r="Y42" s="147"/>
+      <c r="Z42" s="37" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Z43" t="s">
+      <c r="H43" cm="1">
+        <f t="array" ref="H43">SUMPRODUCT((H22:H39&gt;0)*((H22:H39)-H40)^2)</f>
+        <v>115.40909711651943</v>
+      </c>
+      <c r="I43" cm="1">
+        <f t="array" ref="I43">SUMPRODUCT((I22:I39&gt;0)*((I22:I39)-I40)^2)</f>
+        <v>135.55830314265407</v>
+      </c>
+      <c r="J43" cm="1">
+        <f t="array" ref="J43">SUMPRODUCT((J22:J39&gt;0)*((J22:J39)-J40)^2)</f>
+        <v>834.10425548218427</v>
+      </c>
+      <c r="K43" cm="1">
+        <f t="array" ref="K43">SUMPRODUCT((K22:K39&gt;0)*((K22:K39)-K40)^2)</f>
+        <v>295.63154285235453</v>
+      </c>
+      <c r="L43" cm="1">
+        <f t="array" ref="L43">SUMPRODUCT((L22:L39&gt;0)*((L22:L39)-L40)^2)</f>
+        <v>319.6749703450435</v>
+      </c>
+      <c r="M43" cm="1">
+        <f t="array" ref="M43">SUMPRODUCT((M22:M39&gt;0)*((M22:M39)-M40)^2)</f>
+        <v>376.59623995992308</v>
+      </c>
+      <c r="N43" cm="1">
+        <f t="array" ref="N43">SUMPRODUCT((N22:N39&gt;0)*((N22:N39)-N40)^2)</f>
+        <v>274.50280817233175</v>
+      </c>
+      <c r="O43" cm="1">
+        <f t="array" ref="O43">SUMPRODUCT((O22:O39&gt;0)*((O22:O39)-O40)^2)</f>
+        <v>424.8532367514614</v>
+      </c>
+      <c r="P43" cm="1">
+        <f t="array" ref="P43">SUMPRODUCT((P22:P39&gt;0)*((P22:P39)-P40)^2)</f>
+        <v>428.57216521827377</v>
+      </c>
+      <c r="Q43" cm="1">
+        <f t="array" ref="Q43">SUMPRODUCT((Q22:Q39&gt;0)*((Q22:Q39)-Q40)^2)</f>
+        <v>428.4629678235425</v>
+      </c>
+      <c r="R43" cm="1">
+        <f t="array" ref="R43">SUMPRODUCT((R22:R39&gt;0)*((R22:R39)-R40)^2)</f>
+        <v>438.56003174773679</v>
+      </c>
+      <c r="S43" cm="1">
+        <f t="array" ref="S43">SUMPRODUCT((S22:S39&gt;0)*((S22:S39)-S40)^2)</f>
+        <v>182.50184691072477</v>
+      </c>
+      <c r="T43" cm="1">
+        <f t="array" ref="T43">SUMPRODUCT((T22:T39&gt;0)*((T22:T39)-T40)^2)</f>
+        <v>85.110129244343312</v>
+      </c>
+      <c r="U43" cm="1">
+        <f t="array" ref="U43">SUMPRODUCT((U22:U39&gt;0)*((U22:U39)-U40)^2)</f>
+        <v>258.55621229056698</v>
+      </c>
+      <c r="V43" cm="1">
+        <f t="array" ref="V43">SUMPRODUCT((V22:V39&gt;0)*((V22:V39)-V40)^2)</f>
+        <v>249.65258034298506</v>
+      </c>
+      <c r="W43" cm="1">
+        <f t="array" ref="W43">SUMPRODUCT((W22:W39&gt;0)*((W22:W39)-W40)^2)</f>
+        <v>523.55078473392734</v>
+      </c>
+      <c r="X43" cm="1">
+        <f t="array" ref="X43">SUMPRODUCT((X22:X39&gt;0)*((X22:X39)-X40)^2)</f>
+        <v>307.85822174194004</v>
+      </c>
+      <c r="Y43" cm="1">
+        <f t="array" ref="Y43">SUMPRODUCT((Y22:Y39&gt;0)*((Y22:Y39)-Y40)^2)</f>
+        <v>325.26451079344633</v>
+      </c>
+      <c r="Z43" s="134">
+        <f>SUM(H43:Y43)</f>
+        <v>6004.4199046699596</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="H45" s="135" t="s">
+        <v>231</v>
+      </c>
+      <c r="I45" s="135"/>
+      <c r="J45" s="135"/>
+      <c r="K45" s="135"/>
+      <c r="L45" s="135"/>
+      <c r="M45" s="135"/>
+      <c r="N45" s="135"/>
+      <c r="O45" s="135"/>
+      <c r="P45" s="135"/>
+      <c r="Q45" s="135"/>
+      <c r="R45" s="135"/>
+      <c r="S45" s="135"/>
+      <c r="T45" s="135"/>
+      <c r="U45" s="135"/>
+      <c r="V45" s="135"/>
+      <c r="W45" s="135"/>
+      <c r="X45" s="135"/>
+      <c r="Y45" s="135"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="H46" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="I46" t="s">
+        <v>196</v>
+      </c>
+      <c r="J46" t="s">
+        <v>197</v>
+      </c>
+      <c r="K46" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="L46" t="s">
+        <v>222</v>
+      </c>
+      <c r="M46" t="s">
+        <v>223</v>
+      </c>
+      <c r="N46" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="O46" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="P46" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q46" s="125" t="s">
+        <v>204</v>
+      </c>
+      <c r="R46" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="S46" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="T46" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="U46" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="V46" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="W46" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="X46" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y46" s="26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" s="37">
+        <f>IF(A2=1,$E22,0)</f>
+        <v>1988.3333333333333</v>
+      </c>
+      <c r="I47">
+        <f>IF(A2=2,$E22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f>IF(A2=3,$E22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="37">
+        <f>IF($B2=1,$E22,0)</f>
+        <v>1988.3333333333333</v>
+      </c>
+      <c r="L47">
+        <f>IF($B2=2,$E22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <f>IF($B2=3,$E22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="37">
+        <f>IF($C2=1,$E22,0)</f>
+        <v>1988.3333333333333</v>
+      </c>
+      <c r="O47">
+        <f>IF($C2=2,$E22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f>IF($C2=3,$E22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="37">
+        <f>IF($D2=2,$E22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <f t="shared" ref="R47" si="33">IF($D2=1,$E22,0)</f>
+        <v>1988.3333333333333</v>
+      </c>
+      <c r="S47">
+        <f>IF($D2=3,$E22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T47" s="37">
+        <f>IF($E2=1,$E22,0)</f>
+        <v>1988.3333333333333</v>
+      </c>
+      <c r="U47">
+        <f>IF($E2=2,$E22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <f>IF($E2=3,$E22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="37">
+        <f>IF($F2=1,$E22,0)</f>
+        <v>1988.3333333333333</v>
+      </c>
+      <c r="X47">
+        <f>IF($F2=2,$E22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <f>IF($F2=3,$E22,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48" s="37">
+        <f t="shared" ref="H48:H64" si="34">IF(A3=1,E23,0)</f>
+        <v>5269.333333333333</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ref="I48:I64" si="35">IF(A3=2,$E23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <f t="shared" ref="J48:J64" si="36">IF(A3=3,$E23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K48" s="37">
+        <f t="shared" ref="K48:K64" si="37">IF($B3=1,$E23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <f t="shared" ref="L48:L64" si="38">IF($B3=2,$E23,0)</f>
+        <v>5269.333333333333</v>
+      </c>
+      <c r="M48">
+        <f t="shared" ref="M48:M64" si="39">IF($B3=3,$E23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="37">
+        <f t="shared" ref="N48:N64" si="40">IF($C3=1,$E23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="shared" ref="O48:O64" si="41">IF($C3=2,$E23,0)</f>
+        <v>5269.333333333333</v>
+      </c>
+      <c r="P48">
+        <f t="shared" ref="P48:P64" si="42">IF($C3=3,$E23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="37">
+        <f t="shared" ref="Q48:Q64" si="43">IF($D3=2,$E23,0)</f>
+        <v>5269.333333333333</v>
+      </c>
+      <c r="R48">
+        <f t="shared" ref="R48" si="44">IF($D3=1,$E23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <f t="shared" ref="S48:S64" si="45">IF($D3=3,$E23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T48" s="37">
+        <f t="shared" ref="T48:T64" si="46">IF($E3=1,$E23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <f t="shared" ref="U48:U64" si="47">IF($E3=2,$E23,0)</f>
+        <v>5269.333333333333</v>
+      </c>
+      <c r="V48">
+        <f t="shared" ref="V48:V64" si="48">IF($E3=3,$E23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="37">
+        <f t="shared" ref="W48:W64" si="49">IF($F3=1,$E23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <f t="shared" ref="X48:X64" si="50">IF($F3=2,$E23,0)</f>
+        <v>5269.333333333333</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" ref="Y48:Y64" si="51">IF($F3=3,$E23,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49" s="37">
+        <f t="shared" si="34"/>
+        <v>5919</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="37">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="39"/>
+        <v>5919</v>
+      </c>
+      <c r="N49" s="37">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="42"/>
+        <v>5919</v>
+      </c>
+      <c r="Q49" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <f t="shared" ref="R49" si="52">IF($D4=1,$E24,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="45"/>
+        <v>5919</v>
+      </c>
+      <c r="T49" s="37">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="48"/>
+        <v>5919</v>
+      </c>
+      <c r="W49" s="37">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="51"/>
+        <v>5919</v>
+      </c>
+    </row>
+    <row r="50" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="H50" s="37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="35"/>
+        <v>2108.6666666666665</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="37">
+        <f t="shared" si="37"/>
+        <v>2108.6666666666665</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="37">
+        <f t="shared" si="40"/>
+        <v>2108.6666666666665</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="37">
+        <f t="shared" si="43"/>
+        <v>2108.6666666666665</v>
+      </c>
+      <c r="R50">
+        <f t="shared" ref="R50" si="53">IF($D5=1,$E25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="37">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="47"/>
+        <v>2108.6666666666665</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="W50" s="37">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="51"/>
+        <v>2108.6666666666665</v>
+      </c>
+    </row>
+    <row r="51" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="H51" s="37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="35"/>
+        <v>4142.666666666667</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="37">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="38"/>
+        <v>4142.666666666667</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="37">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="41"/>
+        <v>4142.666666666667</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <f t="shared" ref="R51" si="54">IF($D6=1,$E26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="45"/>
+        <v>4142.666666666667</v>
+      </c>
+      <c r="T51" s="37">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="48"/>
+        <v>4142.666666666667</v>
+      </c>
+      <c r="W51" s="37">
+        <f t="shared" si="49"/>
+        <v>4142.666666666667</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>6</v>
+      </c>
+      <c r="H52" s="37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="35"/>
+        <v>2955.6666666666665</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="37">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="39"/>
+        <v>2955.6666666666665</v>
+      </c>
+      <c r="N52" s="37">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="42"/>
+        <v>2955.6666666666665</v>
+      </c>
+      <c r="Q52" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <f t="shared" ref="R52" si="55">IF($D7=1,$E27,0)</f>
+        <v>2955.6666666666665</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="37">
+        <f t="shared" si="46"/>
+        <v>2955.6666666666665</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="W52" s="37">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="50"/>
+        <v>2955.6666666666665</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>7</v>
+      </c>
+      <c r="H53" s="37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="36"/>
+        <v>3033.3333333333335</v>
+      </c>
+      <c r="K53" s="37">
+        <f t="shared" si="37"/>
+        <v>3033.3333333333335</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="37">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="41"/>
+        <v>3033.3333333333335</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <f t="shared" ref="R53" si="56">IF($D8=1,$E28,0)</f>
+        <v>3033.3333333333335</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="T53" s="37">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="48"/>
+        <v>3033.3333333333335</v>
+      </c>
+      <c r="W53" s="37">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="51"/>
+        <v>3033.3333333333335</v>
+      </c>
+    </row>
+    <row r="54" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>8</v>
+      </c>
+      <c r="H54" s="37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="36"/>
+        <v>4505</v>
+      </c>
+      <c r="K54" s="37">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="38"/>
+        <v>4505</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="37">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="42"/>
+        <v>4505</v>
+      </c>
+      <c r="Q54" s="37">
+        <f t="shared" si="43"/>
+        <v>4505</v>
+      </c>
+      <c r="R54">
+        <f t="shared" ref="R54" si="57">IF($D9=1,$E29,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="T54" s="37">
+        <f t="shared" si="46"/>
+        <v>4505</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="W54" s="37">
+        <f t="shared" si="49"/>
+        <v>4505</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>9</v>
+      </c>
+      <c r="H55" s="37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="36"/>
+        <v>3843.6666666666665</v>
+      </c>
+      <c r="K55" s="37">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="39"/>
+        <v>3843.6666666666665</v>
+      </c>
+      <c r="N55" s="37">
+        <f t="shared" si="40"/>
+        <v>3843.6666666666665</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <f t="shared" ref="R55" si="58">IF($D10=1,$E30,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="45"/>
+        <v>3843.6666666666665</v>
+      </c>
+      <c r="T55" s="37">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="47"/>
+        <v>3843.6666666666665</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="W55" s="37">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="50"/>
+        <v>3843.6666666666665</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>10</v>
+      </c>
+      <c r="H56" s="37">
+        <f t="shared" si="34"/>
+        <v>3224.6666666666665</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="37">
+        <f t="shared" si="37"/>
+        <v>3224.6666666666665</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="37">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="42"/>
+        <v>3224.6666666666665</v>
+      </c>
+      <c r="Q56" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <f t="shared" ref="R56" si="59">IF($D11=1,$E31,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="45"/>
+        <v>3224.6666666666665</v>
+      </c>
+      <c r="T56" s="37">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="47"/>
+        <v>3224.6666666666665</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="W56" s="37">
+        <f t="shared" si="49"/>
+        <v>3224.6666666666665</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>11</v>
+      </c>
+      <c r="H57" s="37">
+        <f t="shared" si="34"/>
+        <v>2506.3333333333335</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="37">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="38"/>
+        <v>2506.3333333333335</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="37">
+        <f t="shared" si="40"/>
+        <v>2506.3333333333335</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <f t="shared" ref="R57" si="60">IF($D12=1,$E32,0)</f>
+        <v>2506.3333333333335</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="T57" s="37">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="48"/>
+        <v>2506.3333333333335</v>
+      </c>
+      <c r="W57" s="37">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="50"/>
+        <v>2506.3333333333335</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>12</v>
+      </c>
+      <c r="H58" s="37">
+        <f t="shared" si="34"/>
+        <v>5843.666666666667</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="37">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="39"/>
+        <v>5843.666666666667</v>
+      </c>
+      <c r="N58" s="37">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="41"/>
+        <v>5843.666666666667</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="37">
+        <f t="shared" si="43"/>
+        <v>5843.666666666667</v>
+      </c>
+      <c r="R58">
+        <f t="shared" ref="R58" si="61">IF($D13=1,$E33,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="T58" s="37">
+        <f t="shared" si="46"/>
+        <v>5843.666666666667</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="W58" s="37">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="51"/>
+        <v>5843.666666666667</v>
+      </c>
+    </row>
+    <row r="59" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>13</v>
+      </c>
+      <c r="H59" s="37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="35"/>
+        <v>2753.3333333333335</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="37">
+        <f t="shared" si="37"/>
+        <v>2753.3333333333335</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="37">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="41"/>
+        <v>2753.3333333333335</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <f t="shared" ref="R59" si="62">IF($D14=1,$E34,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="45"/>
+        <v>2753.3333333333335</v>
+      </c>
+      <c r="T59" s="37">
+        <f t="shared" si="46"/>
+        <v>2753.3333333333335</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="W59" s="37">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="50"/>
+        <v>2753.3333333333335</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>14</v>
+      </c>
+      <c r="H60" s="37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="35"/>
+        <v>2852.3333333333335</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="37">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="38"/>
+        <v>2852.3333333333335</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="37">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="42"/>
+        <v>2852.3333333333335</v>
+      </c>
+      <c r="Q60" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <f t="shared" ref="R60" si="63">IF($D15=1,$E35,0)</f>
+        <v>2852.3333333333335</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="T60" s="37">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="47"/>
+        <v>2852.3333333333335</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="W60" s="37">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="51"/>
+        <v>2852.3333333333335</v>
+      </c>
+    </row>
+    <row r="61" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>15</v>
+      </c>
+      <c r="H61" s="37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="35"/>
+        <v>3163.6666666666665</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="37">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="39"/>
+        <v>3163.6666666666665</v>
+      </c>
+      <c r="N61" s="37">
+        <f t="shared" si="40"/>
+        <v>3163.6666666666665</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="37">
+        <f t="shared" si="43"/>
+        <v>3163.6666666666665</v>
+      </c>
+      <c r="R61">
+        <f t="shared" ref="R61" si="64">IF($D16=1,$E36,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="T61" s="37">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="48"/>
+        <v>3163.6666666666665</v>
+      </c>
+      <c r="W61" s="37">
+        <f t="shared" si="49"/>
+        <v>3163.6666666666665</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>16</v>
+      </c>
+      <c r="H62" s="37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="36"/>
+        <v>3014.6666666666665</v>
+      </c>
+      <c r="K62" s="37">
+        <f t="shared" si="37"/>
+        <v>3014.6666666666665</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="N62" s="37">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="42"/>
+        <v>3014.6666666666665</v>
+      </c>
+      <c r="Q62" s="37">
+        <f t="shared" si="43"/>
+        <v>3014.6666666666665</v>
+      </c>
+      <c r="R62">
+        <f t="shared" ref="R62" si="65">IF($D17=1,$E37,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="T62" s="37">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="48"/>
+        <v>3014.6666666666665</v>
+      </c>
+      <c r="W62" s="37">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="50"/>
+        <v>3014.6666666666665</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>17</v>
+      </c>
+      <c r="H63" s="37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="36"/>
+        <v>4139.666666666667</v>
+      </c>
+      <c r="K63" s="37">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="38"/>
+        <v>4139.666666666667</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="N63" s="37">
+        <f t="shared" si="40"/>
+        <v>4139.666666666667</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <f t="shared" ref="R63" si="66">IF($D18=1,$E38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="45"/>
+        <v>4139.666666666667</v>
+      </c>
+      <c r="T63" s="37">
+        <f t="shared" si="46"/>
+        <v>4139.666666666667</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="W63" s="37">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="51"/>
+        <v>4139.666666666667</v>
+      </c>
+    </row>
+    <row r="64" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>18</v>
+      </c>
+      <c r="H64" s="37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="36"/>
+        <v>3123.6666666666665</v>
+      </c>
+      <c r="K64" s="37">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="39"/>
+        <v>3123.6666666666665</v>
+      </c>
+      <c r="N64" s="37">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="41"/>
+        <v>3123.6666666666665</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <f t="shared" ref="R64" si="67">IF($D19=1,$E39,0)</f>
+        <v>3123.6666666666665</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="T64" s="37">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="47"/>
+        <v>3123.6666666666665</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="W64" s="37">
+        <f t="shared" si="49"/>
+        <v>3123.6666666666665</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="Z64" s="37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" s="37">
+        <f>SUM(H47:H64)/6</f>
+        <v>4125.2222222222217</v>
+      </c>
+      <c r="I65" s="37">
+        <f t="shared" ref="I65:Y65" si="68">SUM(I47:I64)/6</f>
+        <v>2996.0555555555561</v>
+      </c>
+      <c r="J65" s="37">
+        <f t="shared" si="68"/>
+        <v>3610</v>
+      </c>
+      <c r="K65" s="37">
+        <f t="shared" si="68"/>
+        <v>2687.1666666666665</v>
+      </c>
+      <c r="L65" s="37">
+        <f t="shared" si="68"/>
+        <v>3902.5555555555552</v>
+      </c>
+      <c r="M65" s="37">
+        <f t="shared" si="68"/>
+        <v>4141.5555555555557</v>
+      </c>
+      <c r="N65" s="37">
+        <f t="shared" si="68"/>
+        <v>2958.3888888888887</v>
+      </c>
+      <c r="O65" s="37">
+        <f t="shared" si="68"/>
+        <v>4027.6666666666665</v>
+      </c>
+      <c r="P65" s="37">
+        <f t="shared" si="68"/>
+        <v>3745.2222222222222</v>
+      </c>
+      <c r="Q65" s="37">
+        <f t="shared" si="68"/>
+        <v>3984.1666666666674</v>
+      </c>
+      <c r="R65" s="37">
+        <f t="shared" si="68"/>
+        <v>2743.2777777777778</v>
+      </c>
+      <c r="S65" s="37">
+        <f t="shared" si="68"/>
+        <v>4003.8333333333335</v>
+      </c>
+      <c r="T65" s="37">
+        <f t="shared" si="68"/>
+        <v>3697.6111111111113</v>
+      </c>
+      <c r="U65" s="37">
+        <f t="shared" si="68"/>
+        <v>3403.7222222222222</v>
+      </c>
+      <c r="V65" s="37">
+        <f t="shared" si="68"/>
+        <v>3629.9444444444453</v>
+      </c>
+      <c r="W65" s="37">
+        <f t="shared" si="68"/>
+        <v>3358</v>
+      </c>
+      <c r="X65" s="37">
+        <f t="shared" si="68"/>
+        <v>3390.5</v>
+      </c>
+      <c r="Y65" s="37">
+        <f t="shared" si="68"/>
+        <v>3982.7777777777778</v>
+      </c>
+      <c r="Z65" s="37">
+        <f>AVERAGE(H65:Y65)</f>
+        <v>3577.0925925925931</v>
+      </c>
+    </row>
+    <row r="66" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="H66" s="138" t="s">
+        <v>224</v>
+      </c>
+      <c r="I66" s="138"/>
+      <c r="J66" s="138"/>
+      <c r="K66" s="144" t="s">
+        <v>225</v>
+      </c>
+      <c r="L66" s="138"/>
+      <c r="M66" s="138"/>
+      <c r="N66" s="144" t="s">
+        <v>226</v>
+      </c>
+      <c r="O66" s="138"/>
+      <c r="P66" s="138"/>
+      <c r="Q66" s="144" t="s">
+        <v>227</v>
+      </c>
+      <c r="R66" s="138"/>
+      <c r="S66" s="138"/>
+      <c r="T66" s="144" t="s">
+        <v>228</v>
+      </c>
+      <c r="U66" s="138"/>
+      <c r="V66" s="138"/>
+      <c r="W66" s="144" t="s">
+        <v>229</v>
+      </c>
+      <c r="X66" s="138"/>
+      <c r="Y66" s="138"/>
+    </row>
+    <row r="67" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="H67" s="141">
+        <f>((H65-$Z$65)^2+(I65-$Z$65)^2+(J65-$Z$65)^2)*$F$41/3</f>
+        <v>23008788.962962922</v>
+      </c>
+      <c r="I67" s="142"/>
+      <c r="J67" s="143"/>
+      <c r="K67" s="141">
+        <f t="shared" ref="K67" si="69">((K65-$Z$65)^2+(L65-$Z$65)^2+(M65-$Z$65)^2)*$F$41/3</f>
+        <v>43794458.296296306</v>
+      </c>
+      <c r="L67" s="142"/>
+      <c r="M67" s="143"/>
+      <c r="N67" s="141">
+        <f t="shared" ref="N67" si="70">((N65-$Z$65)^2+(O65-$Z$65)^2+(P65-$Z$65)^2)*$F$41/3</f>
+        <v>22106838.296296302</v>
+      </c>
+      <c r="O67" s="142"/>
+      <c r="P67" s="143"/>
+      <c r="Q67" s="141">
+        <f t="shared" ref="Q67" si="71">((Q65-$Z$65)^2+(R65-$Z$65)^2+(S65-$Z$65)^2)*$F$41/3</f>
+        <v>37550307.851851873</v>
+      </c>
+      <c r="R67" s="142"/>
+      <c r="S67" s="143"/>
+      <c r="T67" s="141">
+        <f t="shared" ref="T67" si="72">((T65-$Z$65)^2+(U65-$Z$65)^2+(V65-$Z$65)^2)*$F$41/3</f>
+        <v>1705511.407407413</v>
+      </c>
+      <c r="U67" s="142"/>
+      <c r="V67" s="143"/>
+      <c r="W67" s="141">
+        <f t="shared" ref="W67" si="73">((W65-$Z$65)^2+(X65-$Z$65)^2+(Y65-$Z$65)^2)*$F$41/3</f>
+        <v>8906357.8518518526</v>
+      </c>
+      <c r="X67" s="142"/>
+      <c r="Y67" s="143"/>
+      <c r="Z67" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H44" cm="1">
-        <f t="array" ref="H44">SUMPRODUCT((H22:H39&gt;0)*((H22:H39)-H40)^2)</f>
-        <v>115.40909711651943</v>
-      </c>
-      <c r="I44" cm="1">
-        <f t="array" ref="I44">SUMPRODUCT((I22:I39&gt;0)*((I22:I39)-I40)^2)</f>
-        <v>135.55830314265407</v>
-      </c>
-      <c r="J44" cm="1">
-        <f t="array" ref="J44">SUMPRODUCT((J22:J39&gt;0)*((J22:J39)-J40)^2)</f>
-        <v>834.10425548218427</v>
-      </c>
-      <c r="K44" cm="1">
-        <f t="array" ref="K44">SUMPRODUCT((K22:K39&gt;0)*((K22:K39)-K40)^2)</f>
-        <v>295.63154285235453</v>
-      </c>
-      <c r="L44" cm="1">
-        <f t="array" ref="L44">SUMPRODUCT((L22:L39&gt;0)*((L22:L39)-L40)^2)</f>
-        <v>319.6749703450435</v>
-      </c>
-      <c r="M44" cm="1">
-        <f t="array" ref="M44">SUMPRODUCT((M22:M39&gt;0)*((M22:M39)-M40)^2)</f>
-        <v>376.59623995992308</v>
-      </c>
-      <c r="N44" cm="1">
-        <f t="array" ref="N44">SUMPRODUCT((N22:N39&gt;0)*((N22:N39)-N40)^2)</f>
-        <v>274.50280817233175</v>
-      </c>
-      <c r="O44" cm="1">
-        <f t="array" ref="O44">SUMPRODUCT((O22:O39&gt;0)*((O22:O39)-O40)^2)</f>
-        <v>424.8532367514614</v>
-      </c>
-      <c r="P44" cm="1">
-        <f t="array" ref="P44">SUMPRODUCT((P22:P39&gt;0)*((P22:P39)-P40)^2)</f>
-        <v>428.57216521827377</v>
-      </c>
-      <c r="Q44" cm="1">
-        <f t="array" ref="Q44">SUMPRODUCT((Q22:Q39&gt;0)*((Q22:Q39)-Q40)^2)</f>
-        <v>428.4629678235425</v>
-      </c>
-      <c r="R44" cm="1">
-        <f t="array" ref="R44">SUMPRODUCT((R22:R39&gt;0)*((R22:R39)-R40)^2)</f>
-        <v>438.56003174773679</v>
-      </c>
-      <c r="S44" cm="1">
-        <f t="array" ref="S44">SUMPRODUCT((S22:S39&gt;0)*((S22:S39)-S40)^2)</f>
-        <v>182.50184691072477</v>
-      </c>
-      <c r="T44" cm="1">
-        <f t="array" ref="T44">SUMPRODUCT((T22:T39&gt;0)*((T22:T39)-T40)^2)</f>
-        <v>85.110129244343312</v>
-      </c>
-      <c r="U44" cm="1">
-        <f t="array" ref="U44">SUMPRODUCT((U22:U39&gt;0)*((U22:U39)-U40)^2)</f>
-        <v>258.55621229056698</v>
-      </c>
-      <c r="V44" cm="1">
-        <f t="array" ref="V44">SUMPRODUCT((V22:V39&gt;0)*((V22:V39)-V40)^2)</f>
-        <v>249.65258034298506</v>
-      </c>
-      <c r="W44" cm="1">
-        <f t="array" ref="W44">SUMPRODUCT((W22:W39&gt;0)*((W22:W39)-W40)^2)</f>
-        <v>523.55078473392734</v>
-      </c>
-      <c r="X44" cm="1">
-        <f t="array" ref="X44">SUMPRODUCT((X22:X39&gt;0)*((X22:X39)-X40)^2)</f>
-        <v>307.85822174194004</v>
-      </c>
-      <c r="Y44" cm="1">
-        <f t="array" ref="Y44">SUMPRODUCT((Y22:Y39&gt;0)*((Y22:Y39)-Y40)^2)</f>
-        <v>325.26451079344633</v>
-      </c>
-      <c r="Z44">
-        <f>SUM(H44:Y44)</f>
-        <v>6004.4199046699596</v>
-      </c>
+    <row r="68" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="H68" cm="1">
+        <f t="array" ref="H68">SUMPRODUCT((H47:H64&gt;0)*((H47:H64)-H65)^2)</f>
+        <v>15477775.925925925</v>
+      </c>
+      <c r="I68" cm="1">
+        <f t="array" ref="I68">SUMPRODUCT((I47:I64&gt;0)*((I47:I64)-I65)^2)</f>
+        <v>2211470.9814814823</v>
+      </c>
+      <c r="J68" cm="1">
+        <f t="array" ref="J68">SUMPRODUCT((J47:J64&gt;0)*((J47:J64)-J65)^2)</f>
+        <v>2059658.2222222227</v>
+      </c>
+      <c r="K68" cm="1">
+        <f t="array" ref="K68">SUMPRODUCT((K47:K64&gt;0)*((K47:K64)-K65)^2)</f>
+        <v>1343402.1666666667</v>
+      </c>
+      <c r="L68" cm="1">
+        <f t="array" ref="L68">SUMPRODUCT((L47:L64&gt;0)*((L47:L64)-L65)^2)</f>
+        <v>5397299.0370370355</v>
+      </c>
+      <c r="M68" cm="1">
+        <f t="array" ref="M68">SUMPRODUCT((M47:M64&gt;0)*((M47:M64)-M65)^2)</f>
+        <v>9543925.7037037052</v>
+      </c>
+      <c r="N68" cm="1">
+        <f t="array" ref="N68">SUMPRODUCT((N47:N64&gt;0)*((N47:N64)-N65)^2)</f>
+        <v>4088662.7592592603</v>
+      </c>
+      <c r="O68" cm="1">
+        <f t="array" ref="O68">SUMPRODUCT((O47:O64&gt;0)*((O47:O64)-O65)^2)</f>
+        <v>8282657.333333334</v>
+      </c>
+      <c r="P68" cm="1">
+        <f t="array" ref="P68">SUMPRODUCT((P47:P64&gt;0)*((P47:P64)-P65)^2)</f>
+        <v>7527910.1481481483</v>
+      </c>
+      <c r="Q68" cm="1">
+        <f t="array" ref="Q68">SUMPRODUCT((Q47:Q64&gt;0)*((Q47:Q64)-Q65)^2)</f>
+        <v>10511311.722222224</v>
+      </c>
+      <c r="R68" cm="1">
+        <f t="array" ref="R68">SUMPRODUCT((R47:R64&gt;0)*((R47:R64)-R65)^2)</f>
+        <v>911913.87037037034</v>
+      </c>
+      <c r="S68" cm="1">
+        <f t="array" ref="S68">SUMPRODUCT((S47:S64&gt;0)*((S47:S64)-S65)^2)</f>
+        <v>5902093.055555555</v>
+      </c>
+      <c r="T68" cm="1">
+        <f t="array" ref="T68">SUMPRODUCT((T47:T64&gt;0)*((T47:T64)-T65)^2)</f>
+        <v>9816616.9814814851</v>
+      </c>
+      <c r="U68" cm="1">
+        <f t="array" ref="U68">SUMPRODUCT((U47:U64&gt;0)*((U47:U64)-U65)^2)</f>
+        <v>5765746.5370370364</v>
+      </c>
+      <c r="V68" cm="1">
+        <f t="array" ref="V68">SUMPRODUCT((V47:V64&gt;0)*((V47:V64)-V65)^2)</f>
+        <v>7717087.8703703694</v>
+      </c>
+      <c r="W68" cm="1">
+        <f t="array" ref="W68">SUMPRODUCT((W47:W64&gt;0)*((W47:W64)-W65)^2)</f>
+        <v>3917752.8888888895</v>
+      </c>
+      <c r="X68" cm="1">
+        <f t="array" ref="X68">SUMPRODUCT((X47:X64&gt;0)*((X47:X64)-X65)^2)</f>
+        <v>5253437.4999999991</v>
+      </c>
+      <c r="Y68" cm="1">
+        <f t="array" ref="Y68">SUMPRODUCT((Y47:Y64&gt;0)*((Y47:Y64)-Y65)^2)</f>
+        <v>12928119.925925927</v>
+      </c>
+      <c r="Z68" s="58">
+        <f>SUM(H68:Y68)</f>
+        <v>118656842.62962966</v>
+      </c>
+    </row>
+    <row r="69" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="H69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="N69" s="37"/>
+      <c r="Q69" s="37"/>
+      <c r="T69" s="37"/>
+      <c r="W69" s="37"/>
+    </row>
+    <row r="70" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="H70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="N70" s="37"/>
+      <c r="Q70" s="37"/>
+      <c r="T70" s="37"/>
+      <c r="W70" s="37"/>
+    </row>
+    <row r="71" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="H71" s="37"/>
+      <c r="K71" s="37"/>
+      <c r="N71" s="37"/>
+      <c r="Q71" s="37"/>
+      <c r="T71" s="37"/>
+      <c r="W71" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="W41:Y41"/>
+  <mergeCells count="27">
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="T41:V41"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="K42:M42"/>
     <mergeCell ref="N42:P42"/>
     <mergeCell ref="Q42:S42"/>
     <mergeCell ref="T42:V42"/>
-    <mergeCell ref="W42:Y42"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="H41:J41"/>
     <mergeCell ref="K41:M41"/>
     <mergeCell ref="N41:P41"/>
     <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="H20:Y20"/>
+    <mergeCell ref="W41:Y41"/>
+    <mergeCell ref="H45:Y45"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="T66:V66"/>
+    <mergeCell ref="W66:Y66"/>
+    <mergeCell ref="W67:Y67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="T67:V67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="M3:M8">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>$N$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:T8">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$U$3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/統計管制與最佳化方法概論/homework/my_homework/HW13/hw_13.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW13/hw_13.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A438B270-7D60-4B3E-A9A6-A07C99D23867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657DB9A7-2DF8-471C-A4CA-65418032D223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{F0E5C9FA-8923-4A07-87AD-C8184F88F5AB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{F0E5C9FA-8923-4A07-87AD-C8184F88F5AB}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="239">
   <si>
     <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1057,6 +1057,18 @@
     <t>Thickness(W3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>SS(Total)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad R^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1245,7 +1257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1614,13 +1626,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2056,6 +2099,66 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2094,24 +2197,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12112,28 +12197,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E8708D-517C-4260-80E6-FB2ECBAC5C76}">
   <dimension ref="A1:AI57"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="9" max="9" width="12.125" customWidth="1"/>
-    <col min="10" max="10" width="13.75" customWidth="1"/>
-    <col min="11" max="11" width="16.125" customWidth="1"/>
-    <col min="12" max="14" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="12.08984375" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" customWidth="1"/>
+    <col min="11" max="11" width="16.08984375" customWidth="1"/>
+    <col min="12" max="14" width="13.453125" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="17" max="17" width="12.375" customWidth="1"/>
-    <col min="32" max="32" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.625" customWidth="1"/>
+    <col min="17" max="17" width="12.36328125" customWidth="1"/>
+    <col min="32" max="32" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -12207,7 +12292,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>4</v>
       </c>
@@ -12292,7 +12377,7 @@
         <v>3.3017048961195758</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12380,7 +12465,7 @@
         <v>-2.7777834618357384</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>7</v>
       </c>
@@ -12471,7 +12556,7 @@
         <v>-1.171346530098841</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>6</v>
       </c>
@@ -12561,7 +12646,7 @@
         <v>0.82708217290775632</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -12656,7 +12741,7 @@
         <v>3.9394847909951354</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -12749,7 +12834,7 @@
         <v>1.5304292368910388</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>8</v>
       </c>
@@ -12845,7 +12930,7 @@
         <v>-3.9394847909951127</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>3</v>
       </c>
@@ -12941,7 +13026,7 @@
         <v>-0.4925623772507744</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="L10" t="s">
         <v>24</v>
       </c>
@@ -12996,7 +13081,7 @@
         <v>1.1713465300988646</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -13097,7 +13182,7 @@
         <v>-1.5304292368910171</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B12">
         <f>C2</f>
         <v>-1</v>
@@ -13208,7 +13293,7 @@
         <v>6.3776205949555091</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B13">
         <f t="shared" ref="B13:D19" si="22">C3</f>
         <v>1</v>
@@ -13313,7 +13398,7 @@
         <v>-1.9109201944016225</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14">
         <f t="shared" si="22"/>
         <v>-1</v>
@@ -13418,7 +13503,7 @@
         <v>-0.16358717343096266</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -13511,7 +13596,7 @@
         <v>1.910920194401643</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B16">
         <f t="shared" si="22"/>
         <v>-1</v>
@@ -13629,7 +13714,7 @@
         <v>0.16358717343098547</v>
       </c>
     </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B17">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -13749,7 +13834,7 @@
         <v>2.3220376041503594</v>
       </c>
     </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B18">
         <f t="shared" si="22"/>
         <v>-1</v>
@@ -13860,7 +13945,7 @@
         <v>-0.827082172907735</v>
       </c>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B19">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -13982,7 +14067,7 @@
         <v>-2.3220376041503372</v>
       </c>
     </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B20">
         <f>C2</f>
         <v>-1</v>
@@ -14102,7 +14187,7 @@
         <v>-3.3017048961195545</v>
       </c>
     </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B21">
         <f t="shared" ref="B21:D27" si="42">C3</f>
         <v>1</v>
@@ -14222,7 +14307,7 @@
         <v>4.8035520548914157</v>
       </c>
     </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B22">
         <f t="shared" si="42"/>
         <v>-1</v>
@@ -14342,7 +14427,7 @@
         <v>-6.3776205949554976</v>
       </c>
     </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B23">
         <f t="shared" si="42"/>
         <v>1</v>
@@ -14462,7 +14547,7 @@
         <v>-4.8035520548913917</v>
       </c>
     </row>
-    <row r="24" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:35" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24">
         <f t="shared" si="42"/>
         <v>-1</v>
@@ -14582,7 +14667,7 @@
         <v>0.49256237725079627</v>
       </c>
     </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B25">
         <f t="shared" si="42"/>
         <v>1</v>
@@ -14690,7 +14775,7 @@
         <v>2.7777834618357606</v>
       </c>
     </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B26">
         <f t="shared" si="42"/>
         <v>-1</v>
@@ -14751,7 +14836,7 @@
         <v>1.0954200509634878E-14</v>
       </c>
     </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B27">
         <f t="shared" si="42"/>
         <v>1</v>
@@ -14823,7 +14908,7 @@
         <v>3.13114381563717</v>
       </c>
     </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B28">
         <f>C2</f>
         <v>-1</v>
@@ -14888,7 +14973,7 @@
         <v>accept</v>
       </c>
     </row>
-    <row r="29" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B29">
         <f t="shared" ref="B29:D35" si="58">C3</f>
         <v>1</v>
@@ -14956,7 +15041,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B30">
         <f t="shared" si="58"/>
         <v>-1</v>
@@ -15024,7 +15109,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B31">
         <f t="shared" si="58"/>
         <v>1</v>
@@ -15092,7 +15177,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B32">
         <f t="shared" si="58"/>
         <v>-1</v>
@@ -15160,7 +15245,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B33">
         <f t="shared" si="58"/>
         <v>1</v>
@@ -15225,7 +15310,7 @@
         <v>accept</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B34">
         <f t="shared" si="58"/>
         <v>-1</v>
@@ -15260,7 +15345,7 @@
       </c>
       <c r="M34" s="9"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B35">
         <f t="shared" si="58"/>
         <v>1</v>
@@ -15307,7 +15392,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.4">
       <c r="Q36">
         <v>1</v>
       </c>
@@ -15322,7 +15407,7 @@
         <v>78.956666666666649</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B37" t="str" cm="1">
         <f t="array" ref="B37:H38">TRANSPOSE(J11:K17)</f>
         <v>E1</v>
@@ -15346,7 +15431,7 @@
         <v>E123</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B38">
         <v>21.46916666666667</v>
       </c>
@@ -15369,7 +15454,7 @@
         <v>-0.4641666666666649</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>113</v>
       </c>
@@ -15385,13 +15470,13 @@
       <c r="F41" t="s">
         <v>115</v>
       </c>
-      <c r="Q41" s="145" t="s">
+      <c r="Q41" s="165" t="s">
         <v>103</v>
       </c>
-      <c r="R41" s="145"/>
-      <c r="S41" s="145"/>
+      <c r="R41" s="165"/>
+      <c r="S41" s="165"/>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B42">
         <f>L4</f>
         <v>49.868749999999999</v>
@@ -15419,7 +15504,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>9</v>
       </c>
@@ -15448,7 +15533,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B44">
         <f>K2</f>
         <v>8</v>
@@ -15478,7 +15563,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>11</v>
       </c>
@@ -15507,7 +15592,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B46">
         <f>K4</f>
         <v>3</v>
@@ -15537,7 +15622,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.4">
       <c r="C47">
         <f t="shared" si="63"/>
         <v>-8.2420833333333334</v>
@@ -15563,7 +15648,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.4">
       <c r="C48">
         <f t="shared" si="63"/>
         <v>-1.5287499999999952</v>
@@ -15589,7 +15674,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C49">
         <f t="shared" si="63"/>
         <v>23.194583333333334</v>
@@ -15615,7 +15700,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>116</v>
       </c>
@@ -15640,7 +15725,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B51">
         <f>B44*B46*B42^2</f>
         <v>59685.413437499992</v>
@@ -15668,7 +15753,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:19" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="Q52">
         <f>(L2-K2)*LN(K6)-SUM(Q43:Q50)</f>
         <v>5.2057980668508534</v>
@@ -15678,7 +15763,7 @@
         <v>1.1875</v>
       </c>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B53" s="31" t="s">
         <v>122</v>
       </c>
@@ -15696,7 +15781,7 @@
       </c>
       <c r="G53" s="22"/>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B54" s="32" t="s">
         <v>123</v>
       </c>
@@ -15726,7 +15811,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B55" s="32" t="s">
         <v>125</v>
       </c>
@@ -15759,7 +15844,7 @@
         <v>accept</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B56" s="32" t="s">
         <v>127</v>
       </c>
@@ -15777,7 +15862,7 @@
       </c>
       <c r="F56" s="27"/>
     </row>
-    <row r="57" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:19" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B57" s="34" t="s">
         <v>119</v>
       </c>
@@ -15820,24 +15905,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB5EC86-FC72-4B52-9483-A8FAFAA06644}">
   <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22:G30"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8" customWidth="1"/>
-    <col min="13" max="13" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -15892,7 +15977,7 @@
       </c>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>4</v>
       </c>
@@ -15954,7 +16039,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16017,7 +16102,7 @@
       </c>
       <c r="T3" s="105"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>7</v>
       </c>
@@ -16083,7 +16168,7 @@
         <v>0.98944603157237543</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>6</v>
       </c>
@@ -16148,7 +16233,7 @@
         <v>0.97900344939432205</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -16216,7 +16301,7 @@
         <v>0.96981745850433798</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -16284,7 +16369,7 @@
         <v>3.3006009553817135</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>8</v>
       </c>
@@ -16355,7 +16440,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>3</v>
       </c>
@@ -16415,13 +16500,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M10" s="17"/>
+    <row r="10" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G10" s="151"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="152"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="153" t="s">
+        <v>129</v>
+      </c>
       <c r="S10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -16437,32 +16530,35 @@
       <c r="E11" t="s">
         <v>115</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="154" t="s">
         <v>133</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="26">
         <f>$Q$2/2*((J11-$Q$4)^2+(L11-$Q$4)^2)</f>
         <v>2765.5507041666647</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="26">
         <f>AVERAGE(J3:L3,J5:L5,J7:L7,J9:L9)</f>
         <v>60.603333333333332</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="26">
         <f>AVERAGE(J2:L2,J4:L4,J6:L6,J8:L8)</f>
         <v>39.134166666666673</v>
       </c>
-      <c r="M11" s="17"/>
-      <c r="N11" s="145" t="s">
+      <c r="M11" s="155">
+        <f>2-1</f>
+        <v>1</v>
+      </c>
+      <c r="N11" s="165" t="s">
         <v>169</v>
       </c>
-      <c r="O11" s="145"/>
+      <c r="O11" s="165"/>
       <c r="P11" t="s">
         <v>77</v>
       </c>
@@ -16487,7 +16583,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12">
         <f>Q4</f>
         <v>49.868749999999999</v>
@@ -16508,28 +16604,31 @@
         <f>L2-$N2</f>
         <v>-1.9566666666666634</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="154" t="s">
         <v>134</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="26">
         <f t="shared" ref="H12:H17" si="6">$Q$2/2*((J12-$Q$4)^2+(L12-$Q$4)^2)</f>
         <v>7.3151041666669183</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="26">
         <f>AVERAGE(J4:L4,J5:L5,J8:L8,J9:L9)</f>
         <v>50.420833333333348</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="26">
         <f>AVERAGE(J2:L2,J3:L3,J6:L6,J7:L7)</f>
         <v>49.316666666666663</v>
       </c>
-      <c r="M12" s="17"/>
+      <c r="M12" s="155">
+        <f t="shared" ref="M12:M17" si="7">2-1</f>
+        <v>1</v>
+      </c>
       <c r="N12" t="s">
         <v>164</v>
       </c>
@@ -16540,7 +16639,7 @@
         <v>79</v>
       </c>
       <c r="Q12" s="72">
-        <f t="shared" ref="Q12:Q18" si="7">O12/2</f>
+        <f t="shared" ref="Q12:Q18" si="8">O12/2</f>
         <v>10.734583333333335</v>
       </c>
       <c r="S12" t="s">
@@ -16562,48 +16661,51 @@
         <v>3.2000830664664587E-12</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:B19" si="8">N3-$Q$4</f>
+        <f t="shared" ref="B13:B19" si="9">N3-$Q$4</f>
         <v>26.444583333333334</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:C19" si="9">J3-$N3</f>
+        <f t="shared" ref="C13:C19" si="10">J3-$N3</f>
         <v>-0.69333333333332803</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:D19" si="10">K3-$N3</f>
+        <f t="shared" ref="D13:D19" si="11">K3-$N3</f>
         <v>1.2566666666666606</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E19" si="11">L3-$N3</f>
+        <f t="shared" ref="E13:E19" si="12">L3-$N3</f>
         <v>-0.56333333333333258</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="154" t="s">
         <v>135</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="26">
         <f t="shared" si="6"/>
         <v>390.99153749999914</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="26">
         <f>AVERAGE(J6:L6,J7:L7,J8:L8,J9:L9)</f>
         <v>45.832500000000003</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="26">
         <f>AVERAGE(J2:L2,J3:L3,J4:L4,J5:L5)</f>
         <v>53.904999999999994</v>
       </c>
-      <c r="M13" s="17"/>
+      <c r="M13" s="155">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="N13" t="s">
         <v>100</v>
       </c>
@@ -16614,7 +16716,7 @@
         <v>81</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.55208333333333359</v>
       </c>
       <c r="S13" t="s">
@@ -16630,49 +16732,52 @@
         <v>10.89396666666668</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14">
         <f>P2</f>
         <v>8</v>
       </c>
       <c r="B14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-20.998749999999994</v>
       </c>
       <c r="C14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1.360000000000003</v>
       </c>
       <c r="D14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.1599999999999966</v>
       </c>
       <c r="E14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-3.8000000000000043</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="154" t="s">
         <v>136</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="26">
         <f t="shared" si="6"/>
         <v>28.058437500000402</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="26">
         <f>AVERAGE(J2:L2,J5:L5,J6:L6,J9:L9)</f>
         <v>50.95000000000001</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="26">
         <f>AVERAGE(J3:L3,J4:L4,J7:L7,J8:L8)</f>
         <v>48.787499999999994</v>
       </c>
-      <c r="M14" s="17"/>
+      <c r="M14" s="155">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="N14" t="s">
         <v>101</v>
       </c>
@@ -16683,7 +16788,7 @@
         <v>83</v>
       </c>
       <c r="Q14" s="72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-4.036249999999999</v>
       </c>
       <c r="S14" s="6" t="s">
@@ -16699,48 +16804,51 @@
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
     </row>
-    <row r="15" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.541249999999998</v>
       </c>
       <c r="C15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-3.9999999999999147E-2</v>
       </c>
       <c r="D15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-2.9199999999999946</v>
       </c>
       <c r="E15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.9600000000000009</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="154" t="s">
         <v>137</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="26">
         <f t="shared" si="6"/>
         <v>4919.4930041666657</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="26">
         <f>AVERAGE(J2:L2,J3:L3,J8:L8,J9:L9)</f>
         <v>64.185833333333335</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="26">
         <f>AVERAGE(J4:L4,J5:L5,J6:L6,J7:L7)</f>
         <v>35.551666666666669</v>
       </c>
-      <c r="M15" s="17"/>
+      <c r="M15" s="155">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="N15" t="s">
         <v>102</v>
       </c>
@@ -16751,53 +16859,56 @@
         <v>170</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.08125</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16">
         <f>P4</f>
         <v>3</v>
       </c>
       <c r="B16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-29.568749999999998</v>
       </c>
       <c r="C16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.5</v>
       </c>
       <c r="D16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.39000000000000057</v>
       </c>
       <c r="E16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-4.8900000000000006</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="154" t="s">
         <v>138</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="26">
         <f t="shared" si="6"/>
         <v>14.523704166666649</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="26">
         <f>AVERAGE(J2:L2,J4:L4,J7:L7,J9:L9)</f>
         <v>50.646666666666668</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="26">
         <f>AVERAGE(J3:L3,J5:L5,J6:L6,J8:L8)</f>
         <v>49.090833333333336</v>
       </c>
-      <c r="M16" s="17"/>
+      <c r="M16" s="155">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="N16" t="s">
         <v>165</v>
       </c>
@@ -16808,7 +16919,7 @@
         <v>171</v>
       </c>
       <c r="Q16" s="72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14.317083333333334</v>
       </c>
       <c r="S16" s="7"/>
@@ -16837,45 +16948,48 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-8.2420833333333334</v>
       </c>
       <c r="C17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.9533333333333331</v>
       </c>
       <c r="D17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.6833333333333371</v>
       </c>
       <c r="E17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-4.6366666666666632</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="154" t="s">
         <v>139</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="26">
         <f t="shared" si="6"/>
         <v>1.2927041666665713</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="26">
         <f>AVERAGE(J3:L3,J4:L4,J6:L6,J9:L9)</f>
         <v>49.636666666666677</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="26">
         <f>AVERAGE(J2:L2,J5:L5,J7:L7,J8:L8)</f>
         <v>50.100833333333327</v>
       </c>
-      <c r="M17" s="17"/>
+      <c r="M17" s="155">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="N17" t="s">
         <v>166</v>
       </c>
@@ -16886,7 +17000,7 @@
         <v>172</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.77791666666666737</v>
       </c>
       <c r="S17" t="s">
@@ -16917,31 +17031,46 @@
         <v>51.836575062717763</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.5287499999999952</v>
       </c>
       <c r="C18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-3.1400000000000006</v>
       </c>
       <c r="D18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1899999999999977</v>
       </c>
       <c r="E18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.9499999999999957</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="154" t="s">
         <v>162</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="26">
         <f>C21</f>
         <v>174.30346666666662</v>
       </c>
-      <c r="M18" s="17"/>
+      <c r="I18" s="161" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" s="162" t="s">
+        <v>238</v>
+      </c>
+      <c r="K18" s="158" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" s="109" t="s">
+        <v>238</v>
+      </c>
+      <c r="M18" s="155">
+        <f>P2*(P4-1)</f>
+        <v>16</v>
+      </c>
       <c r="N18" t="s">
         <v>167</v>
       </c>
@@ -16952,7 +17081,7 @@
         <v>173</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.23208333333333245</v>
       </c>
       <c r="S18" t="s">
@@ -16983,24 +17112,50 @@
         <v>12.702408396051094</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>23.194583333333334</v>
       </c>
       <c r="C19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2.5533333333333275</v>
       </c>
       <c r="D19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.93666666666666742</v>
       </c>
       <c r="E19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.6166666666666742</v>
       </c>
-      <c r="M19" s="17"/>
+      <c r="G19" s="156" t="s">
+        <v>237</v>
+      </c>
+      <c r="H19" s="6" cm="1">
+        <f t="array" ref="H19">SUM(((J2:L9)-Q4)^2)</f>
+        <v>8301.528662499999</v>
+      </c>
+      <c r="I19" s="163">
+        <f>SUM(H11:H17)/H19</f>
+        <v>0.97900344939432182</v>
+      </c>
+      <c r="J19" s="164">
+        <f>1-(H18/M18)/(H19/M19)</f>
+        <v>0.96981745850433809</v>
+      </c>
+      <c r="K19" s="159">
+        <f>SUM(H11,H13,H15)/H19</f>
+        <v>0.97283712122981902</v>
+      </c>
+      <c r="L19" s="160">
+        <f>1-((H18+H17+H16+H14+H12)/(M18+M17+M16+M14+M12))/(H19/M19)</f>
+        <v>0.96876268941429233</v>
+      </c>
+      <c r="M19" s="157">
+        <f>P2*P4-1</f>
+        <v>23</v>
+      </c>
       <c r="S19" t="s">
         <v>60</v>
       </c>
@@ -17029,7 +17184,7 @@
         <v>2.5199083960510946</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -17074,7 +17229,7 @@
         <v>-2.0684249372822361</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A21">
         <f>A14*A16*A12^2</f>
         <v>59685.413437499992</v>
@@ -17160,7 +17315,7 @@
         <v>3.0490750627177619</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G22" s="110" t="s">
         <v>32</v>
       </c>
@@ -17233,7 +17388,7 @@
         <v>16.284908396051097</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A23" s="77" t="s">
         <v>122</v>
       </c>
@@ -17256,22 +17411,22 @@
         <v>38</v>
       </c>
       <c r="H23" s="111">
-        <f t="shared" ref="H23:H29" si="12">H12</f>
+        <f t="shared" ref="H23:H29" si="13">H12</f>
         <v>7.3151041666669183</v>
       </c>
       <c r="I23" s="111">
         <v>1</v>
       </c>
       <c r="J23" s="111">
-        <f t="shared" ref="J23:J29" si="13">H23/I23</f>
+        <f t="shared" ref="J23:J29" si="14">H23/I23</f>
         <v>7.3151041666669183</v>
       </c>
       <c r="K23" s="112">
-        <f t="shared" ref="K23:K28" si="14">J23/$J$29</f>
+        <f t="shared" ref="K23:K28" si="15">J23/$J$29</f>
         <v>0.67148215067057793</v>
       </c>
       <c r="L23" s="113">
-        <f t="shared" ref="L23:L28" si="15">_xlfn.F.INV.RT(0.1,I23,$I$29)</f>
+        <f t="shared" ref="L23:L28" si="16">_xlfn.F.INV.RT(0.1,I23,$I$29)</f>
         <v>3.0481098110878739</v>
       </c>
       <c r="M23" s="121" t="s">
@@ -17285,15 +17440,15 @@
         <v>1</v>
       </c>
       <c r="P23" s="82">
-        <f t="shared" ref="P23:P24" si="16">N23/O23</f>
+        <f t="shared" ref="P23:P24" si="17">N23/O23</f>
         <v>390.99153749999914</v>
       </c>
       <c r="Q23" s="83">
-        <f t="shared" ref="Q23:Q24" si="17">P23/$J$29</f>
+        <f t="shared" ref="Q23:Q24" si="18">P23/$J$29</f>
         <v>35.890649334952919</v>
       </c>
       <c r="R23" s="84">
-        <f t="shared" ref="R23:R24" si="18">_xlfn.F.INV.RT(0.1,O23,$O$25)</f>
+        <f t="shared" ref="R23:R24" si="19">_xlfn.F.INV.RT(0.1,O23,$O$25)</f>
         <v>3.0481098110878739</v>
       </c>
       <c r="S23" t="s">
@@ -17324,7 +17479,7 @@
         <v>2.7457417293844277</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="81" t="s">
         <v>123</v>
       </c>
@@ -17351,22 +17506,22 @@
         <v>40</v>
       </c>
       <c r="H24" s="111">
-        <f t="shared" si="12"/>
-        <v>390.99153749999914</v>
-      </c>
-      <c r="I24" s="111">
-        <v>1</v>
-      </c>
-      <c r="J24" s="111">
         <f t="shared" si="13"/>
         <v>390.99153749999914</v>
       </c>
+      <c r="I24" s="111">
+        <v>1</v>
+      </c>
+      <c r="J24" s="111">
+        <f t="shared" si="14"/>
+        <v>390.99153749999914</v>
+      </c>
       <c r="K24" s="112">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>35.890649334952919</v>
       </c>
       <c r="L24" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.0481098110878739</v>
       </c>
       <c r="M24" s="121" t="s">
@@ -17380,15 +17535,15 @@
         <v>1</v>
       </c>
       <c r="P24" s="82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4919.4930041666657</v>
       </c>
       <c r="Q24" s="83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>451.57959030839703</v>
       </c>
       <c r="R24" s="84">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.0481098110878739</v>
       </c>
       <c r="S24" s="6" t="s">
@@ -17419,7 +17574,7 @@
         <v>1.7357417293844271</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A25" s="81" t="s">
         <v>125</v>
       </c>
@@ -17432,7 +17587,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="82">
-        <f t="shared" ref="D25:D26" si="19">B25/C25</f>
+        <f t="shared" ref="D25:D26" si="20">B25/C25</f>
         <v>1161.0321708333333</v>
       </c>
       <c r="E25" s="83">
@@ -17447,22 +17602,22 @@
         <v>42</v>
       </c>
       <c r="H25" s="111">
-        <f t="shared" si="12"/>
-        <v>28.058437500000402</v>
-      </c>
-      <c r="I25" s="111">
-        <v>1</v>
-      </c>
-      <c r="J25" s="111">
         <f t="shared" si="13"/>
         <v>28.058437500000402</v>
       </c>
+      <c r="I25" s="111">
+        <v>1</v>
+      </c>
+      <c r="J25" s="111">
+        <f t="shared" si="14"/>
+        <v>28.058437500000402</v>
+      </c>
       <c r="K25" s="112">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.5755942126988098</v>
       </c>
       <c r="L25" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.0481098110878739</v>
       </c>
       <c r="M25" s="121" t="s">
@@ -17487,7 +17642,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="81" t="s">
         <v>127</v>
       </c>
@@ -17500,7 +17655,7 @@
         <v>16</v>
       </c>
       <c r="D26" s="82">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10.893966666666664</v>
       </c>
       <c r="E26" s="83" t="s">
@@ -17513,22 +17668,22 @@
         <v>44</v>
       </c>
       <c r="H26" s="111">
-        <f t="shared" si="12"/>
-        <v>4919.4930041666657</v>
-      </c>
-      <c r="I26" s="111">
-        <v>1</v>
-      </c>
-      <c r="J26" s="111">
         <f t="shared" si="13"/>
         <v>4919.4930041666657</v>
       </c>
+      <c r="I26" s="111">
+        <v>1</v>
+      </c>
+      <c r="J26" s="111">
+        <f t="shared" si="14"/>
+        <v>4919.4930041666657</v>
+      </c>
       <c r="K26" s="112">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>451.57959030839703</v>
       </c>
       <c r="L26" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.0481098110878739</v>
       </c>
       <c r="M26" s="122" t="s">
@@ -17552,7 +17707,7 @@
         <v>0.98938019712087277</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="85" t="s">
         <v>119</v>
       </c>
@@ -17577,22 +17732,22 @@
         <v>45</v>
       </c>
       <c r="H27" s="111">
-        <f t="shared" si="12"/>
-        <v>14.523704166666649</v>
-      </c>
-      <c r="I27" s="111">
-        <v>1</v>
-      </c>
-      <c r="J27" s="111">
         <f t="shared" si="13"/>
         <v>14.523704166666649</v>
       </c>
+      <c r="I27" s="111">
+        <v>1</v>
+      </c>
+      <c r="J27" s="111">
+        <f t="shared" si="14"/>
+        <v>14.523704166666649</v>
+      </c>
       <c r="K27" s="112">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.3331878654545775</v>
       </c>
       <c r="L27" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.0481098110878739</v>
       </c>
       <c r="M27" s="121" t="s">
@@ -17607,7 +17762,7 @@
       <c r="Q27" s="89"/>
       <c r="R27" s="89"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A28" s="81" t="s">
         <v>178</v>
       </c>
@@ -17623,31 +17778,31 @@
         <v>54</v>
       </c>
       <c r="H28" s="111">
-        <f t="shared" si="12"/>
-        <v>1.2927041666665713</v>
-      </c>
-      <c r="I28" s="111">
-        <v>1</v>
-      </c>
-      <c r="J28" s="111">
         <f t="shared" si="13"/>
         <v>1.2927041666665713</v>
       </c>
+      <c r="I28" s="111">
+        <v>1</v>
+      </c>
+      <c r="J28" s="111">
+        <f t="shared" si="14"/>
+        <v>1.2927041666665713</v>
+      </c>
       <c r="K28" s="112">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.11866239416924092</v>
       </c>
       <c r="L28" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.0481098110878739</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G29" s="110" t="s">
         <v>168</v>
       </c>
       <c r="H29" s="111">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>174.30346666666662</v>
       </c>
       <c r="I29" s="111">
@@ -17655,7 +17810,7 @@
         <v>16</v>
       </c>
       <c r="J29" s="111">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10.893966666666664</v>
       </c>
       <c r="K29" s="112" t="s">
@@ -17665,7 +17820,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="93" t="s">
         <v>121</v>
       </c>
@@ -17721,7 +17876,7 @@
       </c>
       <c r="T30" s="117"/>
     </row>
-    <row r="31" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="96" t="s">
         <v>124</v>
       </c>
@@ -17756,7 +17911,7 @@
       <c r="J31" s="117"/>
       <c r="K31" s="117"/>
       <c r="L31" s="117"/>
-      <c r="M31" s="146" t="s">
+      <c r="M31" s="166" t="s">
         <v>179</v>
       </c>
       <c r="N31" s="26">
@@ -17777,7 +17932,7 @@
       <c r="S31" s="117"/>
       <c r="T31" s="117"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A32" s="96" t="s">
         <v>126</v>
       </c>
@@ -17795,17 +17950,17 @@
       </c>
       <c r="E32" s="97"/>
       <c r="F32" s="98"/>
-      <c r="M32" s="146"/>
+      <c r="M32" s="166"/>
       <c r="N32" s="26">
-        <f t="shared" ref="N32:N38" si="20">C3</f>
+        <f t="shared" ref="N32:N38" si="21">C3</f>
         <v>1</v>
       </c>
       <c r="O32" s="26">
-        <f t="shared" ref="O32:O38" si="21">E3</f>
+        <f t="shared" ref="O32:O38" si="22">E3</f>
         <v>-1</v>
       </c>
       <c r="P32" s="26">
-        <f t="shared" ref="P32:P38" si="22">G3</f>
+        <f t="shared" ref="P32:P38" si="23">G3</f>
         <v>1</v>
       </c>
       <c r="Q32" s="26">
@@ -17816,7 +17971,7 @@
       </c>
       <c r="T32" s="118"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A33" s="99" t="s">
         <v>163</v>
       </c>
@@ -17831,19 +17986,19 @@
       <c r="D33" s="100"/>
       <c r="E33" s="100"/>
       <c r="F33" s="101"/>
-      <c r="M33" s="146"/>
+      <c r="M33" s="166"/>
       <c r="N33" s="26">
-        <f t="shared" si="20"/>
-        <v>-1</v>
-      </c>
-      <c r="O33" s="26">
         <f t="shared" si="21"/>
         <v>-1</v>
       </c>
-      <c r="P33" s="26">
+      <c r="O33" s="26">
         <f t="shared" si="22"/>
         <v>-1</v>
       </c>
+      <c r="P33" s="26">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
       <c r="Q33" s="26">
         <v>27.51</v>
       </c>
@@ -17854,7 +18009,7 @@
         <v>0.98632505860381514</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="102" t="s">
         <v>175</v>
       </c>
@@ -17880,19 +18035,19 @@
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
-      <c r="M34" s="146"/>
+      <c r="M34" s="166"/>
       <c r="N34" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="O34" s="26">
-        <f t="shared" si="21"/>
-        <v>-1</v>
-      </c>
-      <c r="P34" s="26">
         <f t="shared" si="22"/>
         <v>-1</v>
       </c>
+      <c r="P34" s="26">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
       <c r="Q34" s="26">
         <v>51.37</v>
       </c>
@@ -17903,7 +18058,7 @@
         <v>0.97283712122981936</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
@@ -17913,17 +18068,17 @@
       <c r="H35" s="26"/>
       <c r="I35" s="26"/>
       <c r="J35" s="26"/>
-      <c r="M35" s="146"/>
+      <c r="M35" s="166"/>
       <c r="N35" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-1</v>
       </c>
       <c r="O35" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="P35" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="Q35" s="26">
@@ -17936,7 +18091,7 @@
         <v>0.96876268941429233</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B36" s="26"/>
       <c r="C36" s="76"/>
       <c r="D36" s="76"/>
@@ -17946,17 +18101,17 @@
       <c r="H36" s="26"/>
       <c r="I36" s="26"/>
       <c r="J36" s="26"/>
-      <c r="M36" s="146"/>
+      <c r="M36" s="166"/>
       <c r="N36" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="O36" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="P36" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="Q36" s="26">
@@ -17969,7 +18124,7 @@
         <v>3.3577776628796219</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="26"/>
       <c r="C37" s="73"/>
       <c r="D37" s="73"/>
@@ -17979,17 +18134,17 @@
       <c r="H37" s="26"/>
       <c r="I37" s="26"/>
       <c r="J37" s="26"/>
-      <c r="M37" s="146"/>
+      <c r="M37" s="166"/>
       <c r="N37" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-1</v>
       </c>
       <c r="O37" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="P37" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="Q37" s="26">
@@ -18002,7 +18157,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B38" s="26"/>
       <c r="C38" s="73"/>
       <c r="D38" s="73"/>
@@ -18012,24 +18167,24 @@
       <c r="H38" s="26"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
-      <c r="M38" s="147"/>
+      <c r="M38" s="167"/>
       <c r="N38" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="O38" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="P38" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="Q38" s="18">
         <v>70.510000000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
@@ -18039,7 +18194,7 @@
       <c r="H39" s="26"/>
       <c r="I39" s="26"/>
       <c r="J39" s="26"/>
-      <c r="M39" s="148" t="s">
+      <c r="M39" s="168" t="s">
         <v>179</v>
       </c>
       <c r="N39" s="90">
@@ -18061,7 +18216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B40" s="26"/>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
@@ -18071,17 +18226,17 @@
       <c r="H40" s="26"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
-      <c r="M40" s="146"/>
+      <c r="M40" s="166"/>
       <c r="N40" s="26">
-        <f t="shared" ref="N40:P46" si="23">N32</f>
+        <f t="shared" ref="N40:P46" si="24">N32</f>
         <v>1</v>
       </c>
       <c r="O40" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="P40" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="Q40" s="26">
@@ -18104,7 +18259,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
@@ -18114,17 +18269,17 @@
       <c r="H41" s="26"/>
       <c r="I41" s="26"/>
       <c r="J41" s="26"/>
-      <c r="M41" s="146"/>
+      <c r="M41" s="166"/>
       <c r="N41" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="O41" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="P41" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="Q41" s="26">
@@ -18149,18 +18304,18 @@
         <v>7.9899884231460721E-16</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="M42" s="146"/>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="M42" s="166"/>
       <c r="N42" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="O42" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="P42" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="Q42" s="26">
@@ -18182,18 +18337,18 @@
       <c r="W42" s="73"/>
       <c r="X42" s="73"/>
     </row>
-    <row r="43" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M43" s="146"/>
+    <row r="43" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M43" s="166"/>
       <c r="N43" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="O43" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="P43" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="Q43" s="26">
@@ -18213,18 +18368,18 @@
       <c r="W43" s="74"/>
       <c r="X43" s="74"/>
     </row>
-    <row r="44" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M44" s="146"/>
+    <row r="44" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M44" s="166"/>
       <c r="N44" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="O44" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="P44" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="Q44" s="26">
@@ -18232,18 +18387,18 @@
       </c>
       <c r="R44" s="73"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="M45" s="146"/>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="M45" s="166"/>
       <c r="N45" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="O45" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="P45" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="Q45" s="26">
@@ -18276,18 +18431,18 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="M46" s="147"/>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="M46" s="167"/>
       <c r="N46" s="18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="O46" s="18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="P46" s="18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="Q46" s="18">
@@ -18322,8 +18477,8 @@
         <v>51.298476637853639</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="M47" s="145" t="s">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="M47" s="165" t="s">
         <v>179</v>
       </c>
       <c r="N47">
@@ -18370,18 +18525,18 @@
         <v>12.164309971186967</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="M48" s="145"/>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="M48" s="165"/>
       <c r="N48">
-        <f t="shared" ref="N48:O54" si="24">N40</f>
+        <f t="shared" ref="N48:O54" si="25">N40</f>
         <v>1</v>
       </c>
       <c r="O48">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-1</v>
       </c>
       <c r="P48">
-        <f t="shared" ref="P48:P54" si="25">P32</f>
+        <f t="shared" ref="P48:P54" si="26">P32</f>
         <v>1</v>
       </c>
       <c r="Q48" s="26">
@@ -18416,18 +18571,18 @@
         <v>-2.6065233621463668</v>
       </c>
     </row>
-    <row r="49" spans="13:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M49" s="145"/>
+    <row r="49" spans="13:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M49" s="165"/>
       <c r="N49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-1</v>
       </c>
       <c r="O49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-1</v>
       </c>
       <c r="P49">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-1</v>
       </c>
       <c r="Q49" s="26">
@@ -18462,91 +18617,91 @@
         <v>15.746809971186963</v>
       </c>
     </row>
-    <row r="50" spans="13:27" x14ac:dyDescent="0.25">
-      <c r="M50" s="145"/>
+    <row r="50" spans="13:27" x14ac:dyDescent="0.4">
+      <c r="M50" s="165"/>
       <c r="N50">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O50">
-        <f t="shared" si="24"/>
-        <v>-1</v>
-      </c>
-      <c r="P50">
         <f t="shared" si="25"/>
         <v>-1</v>
       </c>
+      <c r="P50">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
       <c r="Q50" s="26">
         <v>54.37</v>
       </c>
       <c r="R50" s="26"/>
     </row>
-    <row r="51" spans="13:27" x14ac:dyDescent="0.25">
-      <c r="M51" s="145"/>
+    <row r="51" spans="13:27" x14ac:dyDescent="0.4">
+      <c r="M51" s="165"/>
       <c r="N51">
-        <f t="shared" si="24"/>
-        <v>-1</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="P51">
         <f t="shared" si="25"/>
         <v>-1</v>
       </c>
+      <c r="O51">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
       <c r="Q51">
         <v>15.41</v>
       </c>
     </row>
-    <row r="52" spans="13:27" x14ac:dyDescent="0.25">
-      <c r="M52" s="145"/>
+    <row r="52" spans="13:27" x14ac:dyDescent="0.4">
+      <c r="M52" s="165"/>
       <c r="N52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="P52">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="Q52">
+        <v>36.99</v>
+      </c>
+    </row>
+    <row r="53" spans="13:27" x14ac:dyDescent="0.4">
+      <c r="M53" s="165"/>
+      <c r="N53">
         <f t="shared" si="25"/>
         <v>-1</v>
       </c>
-      <c r="Q52">
-        <v>36.99</v>
-      </c>
-    </row>
-    <row r="53" spans="13:27" x14ac:dyDescent="0.25">
-      <c r="M53" s="145"/>
-      <c r="N53">
-        <f t="shared" si="24"/>
-        <v>-1</v>
-      </c>
       <c r="O53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="P53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q53">
         <v>50.29</v>
       </c>
     </row>
-    <row r="54" spans="13:27" x14ac:dyDescent="0.25">
-      <c r="M54" s="145"/>
+    <row r="54" spans="13:27" x14ac:dyDescent="0.4">
+      <c r="M54" s="165"/>
       <c r="N54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="P54">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q54">
@@ -18573,6 +18728,9 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="L14" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -18580,19 +18738,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23ED07D0-0378-48DE-A771-39BD13989BC5}">
   <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="12" width="9" customWidth="1"/>
-    <col min="15" max="18" width="11.75" customWidth="1"/>
-    <col min="20" max="20" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="11.7265625" customWidth="1"/>
+    <col min="20" max="20" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>182</v>
       </c>
@@ -18638,16 +18796,16 @@
       <c r="O1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="P1" s="149" t="s">
+      <c r="P1" s="169" t="s">
         <v>219</v>
       </c>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="169"/>
       <c r="T1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18727,7 +18885,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18812,7 +18970,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18893,7 +19051,7 @@
       </c>
       <c r="Y4" s="27"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -18974,7 +19132,7 @@
       </c>
       <c r="Y5" s="27"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -19055,7 +19213,7 @@
       </c>
       <c r="Y6" s="27"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -19138,7 +19296,7 @@
       </c>
       <c r="Y7" s="27"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -19213,7 +19371,7 @@
       </c>
       <c r="Y8" s="27"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -19284,7 +19442,7 @@
       <c r="X9" s="26"/>
       <c r="Y9" s="27"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -19351,7 +19509,7 @@
       <c r="X10" s="90"/>
       <c r="Y10" s="91"/>
     </row>
-    <row r="11" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -19413,7 +19571,7 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="28"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -19469,7 +19627,7 @@
         <v>53.777777777780003</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -19528,7 +19686,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -19602,7 +19760,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -19680,7 +19838,7 @@
         <v>2.4563459949430451</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -19758,7 +19916,7 @@
         <v>2.4563459949430451</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -19836,7 +19994,7 @@
         <v>2.4563459949430451</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -19914,7 +20072,7 @@
         <v>2.4563459949430451</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -19992,7 +20150,7 @@
         <v>2.4563459949430451</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
@@ -20001,11 +20159,11 @@
       <c r="M20" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="P20" s="145" t="s">
+      <c r="P20" s="165" t="s">
         <v>220</v>
       </c>
-      <c r="Q20" s="145"/>
-      <c r="R20" s="145"/>
+      <c r="Q20" s="165"/>
+      <c r="R20" s="165"/>
       <c r="T20" s="32" t="s">
         <v>132</v>
       </c>
@@ -20029,7 +20187,7 @@
         <v>2.4563459949430451</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
       <c r="H21" s="123"/>
       <c r="I21" s="123"/>
       <c r="J21" s="123">
@@ -20040,12 +20198,12 @@
         <f>AVERAGE(M2:M19)</f>
         <v>41.383274180047714</v>
       </c>
-      <c r="P21" s="145">
+      <c r="P21" s="165">
         <f>SUM(P2:R19)</f>
         <v>171174.66666666669</v>
       </c>
-      <c r="Q21" s="145"/>
-      <c r="R21" s="145"/>
+      <c r="Q21" s="165"/>
+      <c r="R21" s="165"/>
       <c r="T21" s="32" t="s">
         <v>168</v>
       </c>
@@ -20064,22 +20222,22 @@
       <c r="X21" s="26"/>
       <c r="Y21" s="27"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="150" t="s">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A22" s="170" t="s">
         <v>188</v>
       </c>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="H22" s="149" t="s">
+      <c r="B22" s="170"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="H22" s="169" t="s">
         <v>189</v>
       </c>
-      <c r="I22" s="149"/>
-      <c r="J22" s="149"/>
-      <c r="K22" s="149"/>
-      <c r="L22" s="149"/>
+      <c r="I22" s="169"/>
+      <c r="J22" s="169"/>
+      <c r="K22" s="169"/>
+      <c r="L22" s="169"/>
       <c r="T22" s="92" t="s">
         <v>163</v>
       </c>
@@ -20092,7 +20250,7 @@
       <c r="X22" s="90"/>
       <c r="Y22" s="91"/>
     </row>
-    <row r="23" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>195</v>
       </c>
@@ -20133,7 +20291,7 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="28"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A24">
         <f>AVERAGE(M2,M3,M4,M11,M12,M13)</f>
         <v>39.60813245494419</v>
@@ -20177,7 +20335,7 @@
         <v>11504394.481481489</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>198</v>
       </c>
@@ -20212,7 +20370,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A26">
         <f>AVERAGE(M2,M5,M8,M11,M14,M17)</f>
         <v>44.946368081063355</v>
@@ -20252,7 +20410,7 @@
         <v>21897229.148148157</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>201</v>
       </c>
@@ -20284,7 +20442,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A28">
         <f>AVERAGE(M2,M5,M10,M12,M16,M18)</f>
         <v>39.863096187218495</v>
@@ -20324,7 +20482,7 @@
         <v>11053419.148148151</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>204</v>
       </c>
@@ -20356,7 +20514,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A30">
         <f>AVERAGE(M2,M7,M8,M12,M15,M19)</f>
         <v>44.989748280848268</v>
@@ -20396,7 +20554,7 @@
         <v>18775153.925925925</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -20428,7 +20586,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A32">
         <f>AVERAGE(M2,M7,M9,M13,M14,M18)</f>
         <v>33.428830407695934</v>
@@ -20468,7 +20626,7 @@
         <v>852755.70370370476</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>207</v>
       </c>
@@ -20500,7 +20658,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34">
         <f>AVERAGE(M2,M6,M9,M11,M16,M19)</f>
         <v>40.33536210469682</v>
@@ -20558,19 +20716,19 @@
   <dimension ref="A1:Z71"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>190</v>
       </c>
@@ -20590,7 +20748,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20646,7 +20804,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -20710,7 +20868,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -20774,7 +20932,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -20838,7 +20996,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2</v>
       </c>
@@ -20902,7 +21060,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2</v>
       </c>
@@ -20966,7 +21124,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>3</v>
       </c>
@@ -21030,7 +21188,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>3</v>
       </c>
@@ -21084,7 +21242,7 @@
       <c r="T9" s="140"/>
       <c r="U9" s="141"/>
     </row>
-    <row r="10" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>3</v>
       </c>
@@ -21132,7 +21290,7 @@
       <c r="T10" s="144"/>
       <c r="U10" s="142"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1</v>
       </c>
@@ -21152,7 +21310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1</v>
       </c>
@@ -21181,7 +21339,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1</v>
       </c>
@@ -21213,7 +21371,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>2</v>
       </c>
@@ -21233,7 +21391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>2</v>
       </c>
@@ -21253,7 +21411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>2</v>
       </c>
@@ -21273,7 +21431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>3</v>
       </c>
@@ -21293,7 +21451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>3</v>
       </c>
@@ -21313,7 +21471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>3</v>
       </c>
@@ -21333,38 +21491,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="145" t="s">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A20" s="165" t="s">
         <v>221</v>
       </c>
-      <c r="B20" s="145"/>
-      <c r="C20" s="145"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="154" t="s">
+      <c r="B20" s="165"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="174" t="s">
         <v>187</v>
       </c>
-      <c r="I20" s="146"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="146"/>
-      <c r="L20" s="146"/>
-      <c r="M20" s="146"/>
-      <c r="N20" s="146"/>
-      <c r="O20" s="146"/>
-      <c r="P20" s="146"/>
-      <c r="Q20" s="146"/>
-      <c r="R20" s="146"/>
-      <c r="S20" s="146"/>
-      <c r="T20" s="146"/>
-      <c r="U20" s="146"/>
-      <c r="V20" s="146"/>
-      <c r="W20" s="146"/>
-      <c r="X20" s="146"/>
-      <c r="Y20" s="146"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="166"/>
+      <c r="K20" s="166"/>
+      <c r="L20" s="166"/>
+      <c r="M20" s="166"/>
+      <c r="N20" s="166"/>
+      <c r="O20" s="166"/>
+      <c r="P20" s="166"/>
+      <c r="Q20" s="166"/>
+      <c r="R20" s="166"/>
+      <c r="S20" s="166"/>
+      <c r="T20" s="166"/>
+      <c r="U20" s="166"/>
+      <c r="V20" s="166"/>
+      <c r="W20" s="166"/>
+      <c r="X20" s="166"/>
+      <c r="Y20" s="166"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>182</v>
       </c>
@@ -21442,7 +21600,7 @@
       </c>
       <c r="Z21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1</v>
       </c>
@@ -21541,7 +21699,7 @@
       </c>
       <c r="Z22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>2</v>
       </c>
@@ -21563,7 +21721,7 @@
         <v>94.99649116327052</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G22:G39" si="8">10*LOG10(E23^2/F23^2)</f>
+        <f t="shared" ref="G23:G39" si="8">10*LOG10(E23^2/F23^2)</f>
         <v>34.880962165031875</v>
       </c>
       <c r="H23" s="37">
@@ -21640,7 +21798,7 @@
       </c>
       <c r="Z23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>3</v>
       </c>
@@ -21739,7 +21897,7 @@
       </c>
       <c r="Z24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>4</v>
       </c>
@@ -21838,7 +21996,7 @@
       </c>
       <c r="Z25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>5</v>
       </c>
@@ -21937,7 +22095,7 @@
       </c>
       <c r="Z26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>6</v>
       </c>
@@ -22036,7 +22194,7 @@
       </c>
       <c r="Z27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>7</v>
       </c>
@@ -22135,7 +22293,7 @@
       </c>
       <c r="Z28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>8</v>
       </c>
@@ -22234,7 +22392,7 @@
       </c>
       <c r="Z29" s="37"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>9</v>
       </c>
@@ -22333,7 +22491,7 @@
       </c>
       <c r="Z30" s="37"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>10</v>
       </c>
@@ -22432,7 +22590,7 @@
       </c>
       <c r="Z31" s="37"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>11</v>
       </c>
@@ -22531,7 +22689,7 @@
       </c>
       <c r="Z32" s="37"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>12</v>
       </c>
@@ -22630,7 +22788,7 @@
       </c>
       <c r="Z33" s="37"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>13</v>
       </c>
@@ -22729,7 +22887,7 @@
       </c>
       <c r="Z34" s="37"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>14</v>
       </c>
@@ -22828,7 +22986,7 @@
       </c>
       <c r="Z35" s="37"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>15</v>
       </c>
@@ -22927,7 +23085,7 @@
       </c>
       <c r="Z36" s="37"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>16</v>
       </c>
@@ -23026,7 +23184,7 @@
       </c>
       <c r="Z37" s="37"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>17</v>
       </c>
@@ -23125,7 +23283,7 @@
       </c>
       <c r="Z38" s="37"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>18</v>
       </c>
@@ -23226,7 +23384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.4">
       <c r="G40" s="126" t="s">
         <v>187</v>
       </c>
@@ -23307,7 +23465,7 @@
         <v>41.383274180047707</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A41" s="126" t="s">
         <v>9</v>
       </c>
@@ -23327,79 +23485,79 @@
         <v>18</v>
       </c>
       <c r="G41" s="17"/>
-      <c r="H41" s="148" t="s">
+      <c r="H41" s="168" t="s">
         <v>224</v>
       </c>
-      <c r="I41" s="148"/>
-      <c r="J41" s="148"/>
-      <c r="K41" s="152" t="s">
+      <c r="I41" s="168"/>
+      <c r="J41" s="168"/>
+      <c r="K41" s="172" t="s">
         <v>225</v>
       </c>
-      <c r="L41" s="148"/>
-      <c r="M41" s="148"/>
-      <c r="N41" s="152" t="s">
+      <c r="L41" s="168"/>
+      <c r="M41" s="168"/>
+      <c r="N41" s="172" t="s">
         <v>226</v>
       </c>
-      <c r="O41" s="148"/>
-      <c r="P41" s="148"/>
-      <c r="Q41" s="152" t="s">
+      <c r="O41" s="168"/>
+      <c r="P41" s="168"/>
+      <c r="Q41" s="172" t="s">
         <v>227</v>
       </c>
-      <c r="R41" s="148"/>
-      <c r="S41" s="148"/>
-      <c r="T41" s="152" t="s">
+      <c r="R41" s="168"/>
+      <c r="S41" s="168"/>
+      <c r="T41" s="172" t="s">
         <v>228</v>
       </c>
-      <c r="U41" s="148"/>
-      <c r="V41" s="148"/>
-      <c r="W41" s="152" t="s">
+      <c r="U41" s="168"/>
+      <c r="V41" s="168"/>
+      <c r="W41" s="172" t="s">
         <v>229</v>
       </c>
-      <c r="X41" s="148"/>
-      <c r="Y41" s="148"/>
+      <c r="X41" s="168"/>
+      <c r="Y41" s="168"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H42" s="151">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="H42" s="171">
         <f>((H40-$Z$40)^2+(I40-$Z$40)^2+(J40-$Z$40)^2)*$F$41/3</f>
         <v>81.56784307394885</v>
       </c>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151">
+      <c r="I42" s="171"/>
+      <c r="J42" s="171"/>
+      <c r="K42" s="171">
         <f t="shared" ref="K42" si="28">((K40-$Z$40)^2+(L40-$Z$40)^2+(M40-$Z$40)^2)*$F$41/3</f>
         <v>174.73674565798532</v>
       </c>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
-      <c r="N42" s="151">
+      <c r="L42" s="171"/>
+      <c r="M42" s="171"/>
+      <c r="N42" s="171">
         <f t="shared" ref="N42" si="29">((N40-$Z$40)^2+(O40-$Z$40)^2+(P40-$Z$40)^2)*$F$41/3</f>
         <v>38.711288673239387</v>
       </c>
-      <c r="O42" s="151"/>
-      <c r="P42" s="151"/>
-      <c r="Q42" s="151">
+      <c r="O42" s="171"/>
+      <c r="P42" s="171"/>
+      <c r="Q42" s="171">
         <f t="shared" ref="Q42" si="30">((Q40-$Z$40)^2+(R40-$Z$40)^2+(S40-$Z$40)^2)*$F$41/3</f>
         <v>117.11465233330189</v>
       </c>
-      <c r="R42" s="151"/>
-      <c r="S42" s="151"/>
-      <c r="T42" s="151">
+      <c r="R42" s="171"/>
+      <c r="S42" s="171"/>
+      <c r="T42" s="171">
         <f t="shared" ref="T42" si="31">((T40-$Z$40)^2+(U40-$Z$40)^2+(V40-$Z$40)^2)*$F$41/3</f>
         <v>573.32057693741103</v>
       </c>
-      <c r="U42" s="151"/>
-      <c r="V42" s="151"/>
-      <c r="W42" s="151">
+      <c r="U42" s="171"/>
+      <c r="V42" s="171"/>
+      <c r="W42" s="171">
         <f t="shared" ref="W42" si="32">((W40-$Z$40)^2+(X40-$Z$40)^2+(Y40-$Z$40)^2)*$F$41/3</f>
         <v>9.9659815459927596</v>
       </c>
-      <c r="X42" s="151"/>
-      <c r="Y42" s="151"/>
+      <c r="X42" s="171"/>
+      <c r="Y42" s="171"/>
       <c r="Z42" s="37" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.4">
       <c r="H43" cm="1">
         <f t="array" ref="H43">SUMPRODUCT((H22:H39&gt;0)*((H22:H39)-H40)^2)</f>
         <v>115.40909711651943</v>
@@ -23477,29 +23635,29 @@
         <v>6004.4199046699596</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H45" s="145" t="s">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="H45" s="165" t="s">
         <v>231</v>
       </c>
-      <c r="I45" s="145"/>
-      <c r="J45" s="145"/>
-      <c r="K45" s="145"/>
-      <c r="L45" s="145"/>
-      <c r="M45" s="145"/>
-      <c r="N45" s="145"/>
-      <c r="O45" s="145"/>
-      <c r="P45" s="145"/>
-      <c r="Q45" s="145"/>
-      <c r="R45" s="145"/>
-      <c r="S45" s="145"/>
-      <c r="T45" s="145"/>
-      <c r="U45" s="145"/>
-      <c r="V45" s="145"/>
-      <c r="W45" s="145"/>
-      <c r="X45" s="145"/>
-      <c r="Y45" s="145"/>
+      <c r="I45" s="165"/>
+      <c r="J45" s="165"/>
+      <c r="K45" s="165"/>
+      <c r="L45" s="165"/>
+      <c r="M45" s="165"/>
+      <c r="N45" s="165"/>
+      <c r="O45" s="165"/>
+      <c r="P45" s="165"/>
+      <c r="Q45" s="165"/>
+      <c r="R45" s="165"/>
+      <c r="S45" s="165"/>
+      <c r="T45" s="165"/>
+      <c r="U45" s="165"/>
+      <c r="V45" s="165"/>
+      <c r="W45" s="165"/>
+      <c r="X45" s="165"/>
+      <c r="Y45" s="165"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.4">
       <c r="H46" s="37" t="s">
         <v>195</v>
       </c>
@@ -23555,7 +23713,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.4">
       <c r="G47">
         <v>1</v>
       </c>
@@ -23632,7 +23790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.4">
       <c r="G48">
         <v>2</v>
       </c>
@@ -23709,7 +23867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="7:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G49">
         <v>3</v>
       </c>
@@ -23786,7 +23944,7 @@
         <v>5919</v>
       </c>
     </row>
-    <row r="50" spans="7:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G50">
         <v>4</v>
       </c>
@@ -23863,7 +24021,7 @@
         <v>2108.6666666666665</v>
       </c>
     </row>
-    <row r="51" spans="7:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G51">
         <v>5</v>
       </c>
@@ -23940,7 +24098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="7:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G52">
         <v>6</v>
       </c>
@@ -24017,7 +24175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="7:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G53">
         <v>7</v>
       </c>
@@ -24094,7 +24252,7 @@
         <v>3033.3333333333335</v>
       </c>
     </row>
-    <row r="54" spans="7:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G54">
         <v>8</v>
       </c>
@@ -24171,7 +24329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="7:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G55">
         <v>9</v>
       </c>
@@ -24248,7 +24406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="7:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G56">
         <v>10</v>
       </c>
@@ -24325,7 +24483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="7:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G57">
         <v>11</v>
       </c>
@@ -24402,7 +24560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="7:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G58">
         <v>12</v>
       </c>
@@ -24479,7 +24637,7 @@
         <v>5843.666666666667</v>
       </c>
     </row>
-    <row r="59" spans="7:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G59">
         <v>13</v>
       </c>
@@ -24556,7 +24714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="7:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G60">
         <v>14</v>
       </c>
@@ -24633,7 +24791,7 @@
         <v>2852.3333333333335</v>
       </c>
     </row>
-    <row r="61" spans="7:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G61">
         <v>15</v>
       </c>
@@ -24710,7 +24868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="7:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G62">
         <v>16</v>
       </c>
@@ -24787,7 +24945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="7:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G63">
         <v>17</v>
       </c>
@@ -24864,7 +25022,7 @@
         <v>4139.666666666667</v>
       </c>
     </row>
-    <row r="64" spans="7:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G64">
         <v>18</v>
       </c>
@@ -24944,7 +25102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="7:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="7:26" x14ac:dyDescent="0.4">
       <c r="G65" t="s">
         <v>7</v>
       </c>
@@ -25025,80 +25183,80 @@
         <v>3577.0925925925931</v>
       </c>
     </row>
-    <row r="66" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="H66" s="148" t="s">
+    <row r="66" spans="7:26" x14ac:dyDescent="0.4">
+      <c r="H66" s="168" t="s">
         <v>224</v>
       </c>
-      <c r="I66" s="148"/>
-      <c r="J66" s="148"/>
-      <c r="K66" s="152" t="s">
+      <c r="I66" s="168"/>
+      <c r="J66" s="168"/>
+      <c r="K66" s="172" t="s">
         <v>225</v>
       </c>
-      <c r="L66" s="148"/>
-      <c r="M66" s="148"/>
-      <c r="N66" s="152" t="s">
+      <c r="L66" s="168"/>
+      <c r="M66" s="168"/>
+      <c r="N66" s="172" t="s">
         <v>226</v>
       </c>
-      <c r="O66" s="148"/>
-      <c r="P66" s="148"/>
-      <c r="Q66" s="152" t="s">
+      <c r="O66" s="168"/>
+      <c r="P66" s="168"/>
+      <c r="Q66" s="172" t="s">
         <v>227</v>
       </c>
-      <c r="R66" s="148"/>
-      <c r="S66" s="148"/>
-      <c r="T66" s="152" t="s">
+      <c r="R66" s="168"/>
+      <c r="S66" s="168"/>
+      <c r="T66" s="172" t="s">
         <v>228</v>
       </c>
-      <c r="U66" s="148"/>
-      <c r="V66" s="148"/>
-      <c r="W66" s="152" t="s">
+      <c r="U66" s="168"/>
+      <c r="V66" s="168"/>
+      <c r="W66" s="172" t="s">
         <v>229</v>
       </c>
-      <c r="X66" s="148"/>
-      <c r="Y66" s="148"/>
+      <c r="X66" s="168"/>
+      <c r="Y66" s="168"/>
     </row>
-    <row r="67" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="H67" s="155">
+    <row r="67" spans="7:26" x14ac:dyDescent="0.4">
+      <c r="H67" s="175">
         <f>((H65-$Z$65)^2+(I65-$Z$65)^2+(J65-$Z$65)^2)*$F$41/3</f>
         <v>3834798.1604938204</v>
       </c>
-      <c r="I67" s="156"/>
-      <c r="J67" s="157"/>
-      <c r="K67" s="155">
+      <c r="I67" s="176"/>
+      <c r="J67" s="177"/>
+      <c r="K67" s="175">
         <f t="shared" ref="K67" si="69">((K65-$Z$65)^2+(L65-$Z$65)^2+(M65-$Z$65)^2)*$F$41/3</f>
         <v>7299076.3827160513</v>
       </c>
-      <c r="L67" s="156"/>
-      <c r="M67" s="157"/>
-      <c r="N67" s="155">
+      <c r="L67" s="176"/>
+      <c r="M67" s="177"/>
+      <c r="N67" s="175">
         <f t="shared" ref="N67" si="70">((N65-$Z$65)^2+(O65-$Z$65)^2+(P65-$Z$65)^2)*$F$41/3</f>
         <v>3684473.0493827169</v>
       </c>
-      <c r="O67" s="156"/>
-      <c r="P67" s="157"/>
-      <c r="Q67" s="155">
+      <c r="O67" s="176"/>
+      <c r="P67" s="177"/>
+      <c r="Q67" s="175">
         <f t="shared" ref="Q67" si="71">((Q65-$Z$65)^2+(R65-$Z$65)^2+(S65-$Z$65)^2)*$F$41/3</f>
         <v>6258384.6419753134</v>
       </c>
-      <c r="R67" s="156"/>
-      <c r="S67" s="157"/>
-      <c r="T67" s="155">
+      <c r="R67" s="176"/>
+      <c r="S67" s="177"/>
+      <c r="T67" s="175">
         <f t="shared" ref="T67" si="72">((T65-$Z$65)^2+(U65-$Z$65)^2+(V65-$Z$65)^2)*$F$41/3</f>
         <v>284251.9012345688</v>
       </c>
-      <c r="U67" s="156"/>
-      <c r="V67" s="157"/>
-      <c r="W67" s="155">
+      <c r="U67" s="176"/>
+      <c r="V67" s="177"/>
+      <c r="W67" s="175">
         <f t="shared" ref="W67" si="73">((W65-$Z$65)^2+(X65-$Z$65)^2+(Y65-$Z$65)^2)*$F$41/3</f>
         <v>1484392.9753086425</v>
       </c>
-      <c r="X67" s="156"/>
-      <c r="Y67" s="157"/>
+      <c r="X67" s="176"/>
+      <c r="Y67" s="177"/>
       <c r="Z67" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="68" spans="7:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="7:26" x14ac:dyDescent="0.4">
       <c r="H68" cm="1">
         <f t="array" ref="H68">SUMPRODUCT((H47:H64&gt;0)*((H47:H64)-H65)^2)</f>
         <v>15477775.925925925</v>
@@ -25176,7 +25334,7 @@
         <v>118656842.62962966</v>
       </c>
     </row>
-    <row r="69" spans="7:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="7:26" x14ac:dyDescent="0.4">
       <c r="H69" s="37"/>
       <c r="K69" s="37"/>
       <c r="N69" s="37"/>
@@ -25184,7 +25342,7 @@
       <c r="T69" s="37"/>
       <c r="W69" s="37"/>
     </row>
-    <row r="70" spans="7:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="7:26" x14ac:dyDescent="0.4">
       <c r="H70" s="37"/>
       <c r="K70" s="37"/>
       <c r="N70" s="37"/>
@@ -25192,7 +25350,7 @@
       <c r="T70" s="37"/>
       <c r="W70" s="37"/>
     </row>
-    <row r="71" spans="7:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="7:26" x14ac:dyDescent="0.4">
       <c r="H71" s="37"/>
       <c r="K71" s="37"/>
       <c r="N71" s="37"/>
@@ -25249,13 +25407,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1511793D-0401-43D8-8F7C-86CB9932ECDE}">
   <dimension ref="A1:Z82"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B75" sqref="B75:D75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>190</v>
       </c>
@@ -25275,7 +25433,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -25295,7 +25453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -25315,7 +25473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -25335,7 +25493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -25355,7 +25513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2</v>
       </c>
@@ -25375,7 +25533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2</v>
       </c>
@@ -25395,7 +25553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>3</v>
       </c>
@@ -25415,7 +25573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>3</v>
       </c>
@@ -25435,7 +25593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>3</v>
       </c>
@@ -25455,7 +25613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1</v>
       </c>
@@ -25475,7 +25633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1</v>
       </c>
@@ -25495,7 +25653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1</v>
       </c>
@@ -25515,7 +25673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>2</v>
       </c>
@@ -25535,7 +25693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>2</v>
       </c>
@@ -25555,7 +25713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>2</v>
       </c>
@@ -25575,7 +25733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>3</v>
       </c>
@@ -25595,7 +25753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>3</v>
       </c>
@@ -25615,7 +25773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>3</v>
       </c>
@@ -25689,38 +25847,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="145" t="s">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A20" s="165" t="s">
         <v>233</v>
       </c>
-      <c r="B20" s="145"/>
-      <c r="C20" s="145"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="154" t="s">
+      <c r="B20" s="165"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="174" t="s">
         <v>187</v>
       </c>
-      <c r="I20" s="146"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="146"/>
-      <c r="L20" s="146"/>
-      <c r="M20" s="146"/>
-      <c r="N20" s="146"/>
-      <c r="O20" s="146"/>
-      <c r="P20" s="146"/>
-      <c r="Q20" s="146"/>
-      <c r="R20" s="146"/>
-      <c r="S20" s="146"/>
-      <c r="T20" s="146"/>
-      <c r="U20" s="146"/>
-      <c r="V20" s="146"/>
-      <c r="W20" s="146"/>
-      <c r="X20" s="146"/>
-      <c r="Y20" s="146"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="166"/>
+      <c r="K20" s="166"/>
+      <c r="L20" s="166"/>
+      <c r="M20" s="166"/>
+      <c r="N20" s="166"/>
+      <c r="O20" s="166"/>
+      <c r="P20" s="166"/>
+      <c r="Q20" s="166"/>
+      <c r="R20" s="166"/>
+      <c r="S20" s="166"/>
+      <c r="T20" s="166"/>
+      <c r="U20" s="166"/>
+      <c r="V20" s="166"/>
+      <c r="W20" s="166"/>
+      <c r="X20" s="166"/>
+      <c r="Y20" s="166"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>182</v>
       </c>
@@ -25797,7 +25955,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1</v>
       </c>
@@ -25895,7 +26053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>2</v>
       </c>
@@ -25917,7 +26075,7 @@
         <v>94.99649116327052</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23:G40" si="2">10*LOG10(E23^2/F23^2)</f>
+        <f t="shared" ref="G23:G39" si="2">10*LOG10(E23^2/F23^2)</f>
         <v>34.880962165031875</v>
       </c>
       <c r="H23" s="37">
@@ -25993,7 +26151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>3</v>
       </c>
@@ -26091,7 +26249,7 @@
         <v>39.675797239784998</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>4</v>
       </c>
@@ -26189,7 +26347,7 @@
         <v>46.921678295653393</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>5</v>
       </c>
@@ -26287,7 +26445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>6</v>
       </c>
@@ -26385,7 +26543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>7</v>
       </c>
@@ -26483,7 +26641,7 @@
         <v>52.054330830149752</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>8</v>
       </c>
@@ -26581,7 +26739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>9</v>
       </c>
@@ -26679,7 +26837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>10</v>
       </c>
@@ -26777,7 +26935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>11</v>
       </c>
@@ -26875,7 +27033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>12</v>
       </c>
@@ -26973,7 +27131,7 @@
         <v>37.547614394875183</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>13</v>
       </c>
@@ -27071,7 +27229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>14</v>
       </c>
@@ -27169,7 +27327,7 @@
         <v>45.499333710234126</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>15</v>
       </c>
@@ -27267,7 +27425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>16</v>
       </c>
@@ -27365,7 +27523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>17</v>
       </c>
@@ -27463,7 +27621,7 @@
         <v>29.245916237207055</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>18</v>
       </c>
@@ -27561,39 +27719,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="145" t="s">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A40" s="165" t="s">
         <v>234</v>
       </c>
-      <c r="B40" s="145"/>
-      <c r="C40" s="145"/>
-      <c r="D40" s="145"/>
-      <c r="E40" s="145"/>
-      <c r="F40" s="145"/>
-      <c r="G40" s="153"/>
-      <c r="H40" s="154" t="s">
+      <c r="B40" s="165"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
+      <c r="E40" s="165"/>
+      <c r="F40" s="165"/>
+      <c r="G40" s="173"/>
+      <c r="H40" s="174" t="s">
         <v>187</v>
       </c>
-      <c r="I40" s="146"/>
-      <c r="J40" s="146"/>
-      <c r="K40" s="146"/>
-      <c r="L40" s="146"/>
-      <c r="M40" s="146"/>
-      <c r="N40" s="146"/>
-      <c r="O40" s="146"/>
-      <c r="P40" s="146"/>
-      <c r="Q40" s="146"/>
-      <c r="R40" s="146"/>
-      <c r="S40" s="146"/>
-      <c r="T40" s="146"/>
-      <c r="U40" s="146"/>
-      <c r="V40" s="146"/>
-      <c r="W40" s="146"/>
-      <c r="X40" s="146"/>
-      <c r="Y40" s="146"/>
+      <c r="I40" s="166"/>
+      <c r="J40" s="166"/>
+      <c r="K40" s="166"/>
+      <c r="L40" s="166"/>
+      <c r="M40" s="166"/>
+      <c r="N40" s="166"/>
+      <c r="O40" s="166"/>
+      <c r="P40" s="166"/>
+      <c r="Q40" s="166"/>
+      <c r="R40" s="166"/>
+      <c r="S40" s="166"/>
+      <c r="T40" s="166"/>
+      <c r="U40" s="166"/>
+      <c r="V40" s="166"/>
+      <c r="W40" s="166"/>
+      <c r="X40" s="166"/>
+      <c r="Y40" s="166"/>
       <c r="Z40" s="26"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>182</v>
       </c>
@@ -27671,7 +27829,7 @@
       </c>
       <c r="Z41" s="26"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>1</v>
       </c>
@@ -27769,7 +27927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>2</v>
       </c>
@@ -27867,7 +28025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>3</v>
       </c>
@@ -27965,7 +28123,7 @@
         <v>32.183450849934765</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>4</v>
       </c>
@@ -28063,7 +28221,7 @@
         <v>42.45640242438639</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>5</v>
       </c>
@@ -28161,7 +28319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>6</v>
       </c>
@@ -28259,7 +28417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>7</v>
       </c>
@@ -28357,7 +28515,7 @@
         <v>33.99316557417508</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>8</v>
       </c>
@@ -28455,7 +28613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>9</v>
       </c>
@@ -28553,7 +28711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>10</v>
       </c>
@@ -28651,7 +28809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>11</v>
       </c>
@@ -28749,7 +28907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>12</v>
       </c>
@@ -28847,7 +29005,7 @@
         <v>39.464560440993274</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>13</v>
       </c>
@@ -28945,7 +29103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>14</v>
       </c>
@@ -29043,7 +29201,7 @@
         <v>43.959758231365825</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>15</v>
       </c>
@@ -29141,7 +29299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>16</v>
       </c>
@@ -29239,7 +29397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>17</v>
       </c>
@@ -29337,7 +29495,7 @@
         <v>27.28586929693104</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>18</v>
       </c>
@@ -29435,38 +29593,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="145" t="s">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A60" s="165" t="s">
         <v>235</v>
       </c>
-      <c r="B60" s="145"/>
-      <c r="C60" s="145"/>
-      <c r="D60" s="145"/>
-      <c r="E60" s="145"/>
-      <c r="F60" s="145"/>
-      <c r="G60" s="153"/>
-      <c r="H60" s="154" t="s">
+      <c r="B60" s="165"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
+      <c r="E60" s="165"/>
+      <c r="F60" s="165"/>
+      <c r="G60" s="173"/>
+      <c r="H60" s="174" t="s">
         <v>187</v>
       </c>
-      <c r="I60" s="146"/>
-      <c r="J60" s="146"/>
-      <c r="K60" s="146"/>
-      <c r="L60" s="146"/>
-      <c r="M60" s="146"/>
-      <c r="N60" s="146"/>
-      <c r="O60" s="146"/>
-      <c r="P60" s="146"/>
-      <c r="Q60" s="146"/>
-      <c r="R60" s="146"/>
-      <c r="S60" s="146"/>
-      <c r="T60" s="146"/>
-      <c r="U60" s="146"/>
-      <c r="V60" s="146"/>
-      <c r="W60" s="146"/>
-      <c r="X60" s="146"/>
-      <c r="Y60" s="146"/>
+      <c r="I60" s="166"/>
+      <c r="J60" s="166"/>
+      <c r="K60" s="166"/>
+      <c r="L60" s="166"/>
+      <c r="M60" s="166"/>
+      <c r="N60" s="166"/>
+      <c r="O60" s="166"/>
+      <c r="P60" s="166"/>
+      <c r="Q60" s="166"/>
+      <c r="R60" s="166"/>
+      <c r="S60" s="166"/>
+      <c r="T60" s="166"/>
+      <c r="U60" s="166"/>
+      <c r="V60" s="166"/>
+      <c r="W60" s="166"/>
+      <c r="X60" s="166"/>
+      <c r="Y60" s="166"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>182</v>
       </c>
@@ -29543,7 +29701,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>1</v>
       </c>
@@ -29641,7 +29799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>2</v>
       </c>
@@ -29739,7 +29897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>3</v>
       </c>
@@ -29837,7 +29995,7 @@
         <v>38.346955002008265</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>4</v>
       </c>
@@ -29935,7 +30093,7 @@
         <v>40.992520049718173</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>5</v>
       </c>
@@ -30033,7 +30191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>6</v>
       </c>
@@ -30131,7 +30289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>7</v>
       </c>
@@ -30229,7 +30387,7 @@
         <v>45.727159268045511</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>8</v>
       </c>
@@ -30327,7 +30485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>9</v>
       </c>
@@ -30425,7 +30583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>10</v>
       </c>
@@ -30523,7 +30681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>11</v>
       </c>
@@ -30621,7 +30779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>12</v>
       </c>
@@ -30719,7 +30877,7 @@
         <v>42.441368657218362</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>13</v>
       </c>
@@ -30817,7 +30975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>14</v>
       </c>
@@ -30915,7 +31073,7 @@
         <v>40.167203490921317</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>15</v>
       </c>
@@ -31013,7 +31171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>16</v>
       </c>
@@ -31111,7 +31269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>17</v>
       </c>
@@ -31209,7 +31367,7 @@
         <v>26.914936065947259</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>18</v>
       </c>
@@ -31307,29 +31465,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H80" s="145" t="s">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="H80" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="I80" s="145"/>
-      <c r="J80" s="145"/>
-      <c r="K80" s="145"/>
-      <c r="L80" s="145"/>
-      <c r="M80" s="145"/>
-      <c r="N80" s="145"/>
-      <c r="O80" s="145"/>
-      <c r="P80" s="145"/>
-      <c r="Q80" s="145"/>
-      <c r="R80" s="145"/>
-      <c r="S80" s="145"/>
-      <c r="T80" s="145"/>
-      <c r="U80" s="145"/>
-      <c r="V80" s="145"/>
-      <c r="W80" s="145"/>
-      <c r="X80" s="145"/>
-      <c r="Y80" s="145"/>
+      <c r="I80" s="165"/>
+      <c r="J80" s="165"/>
+      <c r="K80" s="165"/>
+      <c r="L80" s="165"/>
+      <c r="M80" s="165"/>
+      <c r="N80" s="165"/>
+      <c r="O80" s="165"/>
+      <c r="P80" s="165"/>
+      <c r="Q80" s="165"/>
+      <c r="R80" s="165"/>
+      <c r="S80" s="165"/>
+      <c r="T80" s="165"/>
+      <c r="U80" s="165"/>
+      <c r="V80" s="165"/>
+      <c r="W80" s="165"/>
+      <c r="X80" s="165"/>
+      <c r="Y80" s="165"/>
     </row>
-    <row r="81" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="8:25" x14ac:dyDescent="0.4">
       <c r="H81">
         <v>1</v>
       </c>
@@ -31385,7 +31543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="8:25" x14ac:dyDescent="0.4">
       <c r="H82">
         <f>SUM(H22:H39,H42:H59,H62:H79)/18</f>
         <v>39.806159580104378</v>
@@ -31476,2919 +31634,3010 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D48A67-5712-4F2C-8063-33839C03190A}">
-  <dimension ref="A1:AL43"/>
+  <dimension ref="A1:AL42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="7" max="7" width="9" style="37"/>
+    <col min="20" max="20" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G1" s="26"/>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="G1" s="165" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="173"/>
+      <c r="T1">
+        <v>1</v>
+      </c>
+      <c r="U1">
+        <v>2</v>
+      </c>
+      <c r="V1">
+        <v>3</v>
+      </c>
+      <c r="W1">
+        <v>1</v>
+      </c>
+      <c r="X1">
+        <v>2</v>
+      </c>
+      <c r="Y1">
+        <v>3</v>
+      </c>
+      <c r="Z1">
+        <v>1</v>
+      </c>
+      <c r="AA1">
+        <v>2</v>
+      </c>
+      <c r="AB1">
+        <v>3</v>
+      </c>
+      <c r="AC1">
+        <v>1</v>
+      </c>
+      <c r="AD1">
+        <v>2</v>
+      </c>
+      <c r="AE1">
+        <v>3</v>
+      </c>
+      <c r="AF1">
+        <v>1</v>
+      </c>
+      <c r="AG1">
+        <v>2</v>
+      </c>
+      <c r="AH1">
+        <v>3</v>
+      </c>
+      <c r="AI1">
+        <v>1</v>
+      </c>
+      <c r="AJ1">
+        <v>2</v>
+      </c>
+      <c r="AK1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G2" s="26"/>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="174" t="s">
+        <v>183</v>
+      </c>
+      <c r="I2" s="166"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="174" t="s">
+        <v>184</v>
+      </c>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="174" t="s">
+        <v>185</v>
+      </c>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" t="s">
+        <v>186</v>
+      </c>
+      <c r="S2" t="s">
+        <v>187</v>
+      </c>
+      <c r="T2" t="s">
+        <v>195</v>
+      </c>
+      <c r="U2" t="s">
+        <v>196</v>
+      </c>
+      <c r="V2" t="s">
+        <v>232</v>
+      </c>
+      <c r="W2" t="s">
+        <v>198</v>
+      </c>
+      <c r="X2" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>209</v>
+      </c>
     </row>
-    <row r="3" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G3" s="26"/>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="37">
+        <v>1</v>
+      </c>
+      <c r="H3" s="37">
+        <v>2029</v>
+      </c>
+      <c r="I3" s="26">
+        <v>1975</v>
+      </c>
+      <c r="J3" s="38">
+        <v>1952</v>
+      </c>
+      <c r="K3" s="37">
+        <v>1975</v>
+      </c>
+      <c r="L3" s="26">
+        <v>1934</v>
+      </c>
+      <c r="M3" s="26">
+        <v>1941</v>
+      </c>
+      <c r="N3" s="37">
+        <v>1961</v>
+      </c>
+      <c r="O3" s="26">
+        <v>1907</v>
+      </c>
+      <c r="P3" s="26">
+        <v>1949</v>
+      </c>
+      <c r="Q3" s="37">
+        <f>AVERAGE(H3:P3)</f>
+        <v>1958.1111111111111</v>
+      </c>
+      <c r="R3">
+        <f>_xlfn.STDEV.S(H3:P3)</f>
+        <v>33.931712469474789</v>
+      </c>
+      <c r="S3">
+        <f>10*LOG10(Q3^2/R3^2)</f>
+        <v>35.224631071270984</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:V20" si="0">IF($A3=T$1,$S3,0)</f>
+        <v>35.224631071270984</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:Y20" si="1">IF($B3=W$1,$S3,0)</f>
+        <v>35.224631071270984</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:AB20" si="2">IF($C3=Z$1,$S3,0)</f>
+        <v>35.224631071270984</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AE20" si="3">IF($D3=AC$1,$S3,0)</f>
+        <v>35.224631071270984</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AH20" si="4">IF($E3=AF$1,$S3,0)</f>
+        <v>35.224631071270984</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" ref="AI3:AK20" si="5">IF($F3=AI$1,$S3,0)</f>
+        <v>35.224631071270984</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G4" s="26"/>
-    </row>
-    <row r="5" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G5" s="26"/>
-    </row>
-    <row r="6" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="26"/>
-    </row>
-    <row r="7" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G7" s="26"/>
-    </row>
-    <row r="8" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G8" s="26"/>
-    </row>
-    <row r="9" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G9" s="26"/>
-    </row>
-    <row r="10" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G10" s="26"/>
-    </row>
-    <row r="11" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G12" s="26"/>
-    </row>
-    <row r="13" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G13" s="26"/>
-    </row>
-    <row r="14" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G14" s="26"/>
-    </row>
-    <row r="15" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G15" s="26"/>
-    </row>
-    <row r="16" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G16" s="26"/>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="G17" s="26"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="G18" s="26"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="G19" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="145"/>
-      <c r="K19" s="145"/>
-      <c r="L19" s="145"/>
-      <c r="M19" s="145"/>
-      <c r="N19" s="145"/>
-      <c r="O19" s="145"/>
-      <c r="P19" s="145"/>
-      <c r="Q19" s="145"/>
-      <c r="R19" s="145"/>
-      <c r="S19" s="153"/>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="V19">
-        <v>3</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="X19">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="Y19">
-        <v>3</v>
-      </c>
-      <c r="Z19">
-        <v>1</v>
-      </c>
-      <c r="AA19">
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="AB19">
-        <v>3</v>
-      </c>
-      <c r="AC19">
-        <v>1</v>
-      </c>
-      <c r="AD19">
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="AE19">
-        <v>3</v>
-      </c>
-      <c r="AF19">
-        <v>1</v>
-      </c>
-      <c r="AG19">
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="AH19">
-        <v>3</v>
-      </c>
-      <c r="AI19">
-        <v>1</v>
-      </c>
-      <c r="AJ19">
+      <c r="G4" s="37">
         <v>2</v>
       </c>
-      <c r="AK19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>190</v>
-      </c>
-      <c r="B20" t="s">
-        <v>191</v>
-      </c>
-      <c r="C20" t="s">
-        <v>192</v>
-      </c>
-      <c r="D20" t="s">
-        <v>193</v>
-      </c>
-      <c r="E20" t="s">
-        <v>194</v>
-      </c>
-      <c r="F20" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="H20" s="154" t="s">
-        <v>183</v>
-      </c>
-      <c r="I20" s="146"/>
-      <c r="J20" s="153"/>
-      <c r="K20" s="154" t="s">
-        <v>184</v>
-      </c>
-      <c r="L20" s="146"/>
-      <c r="M20" s="146"/>
-      <c r="N20" s="154" t="s">
-        <v>185</v>
-      </c>
-      <c r="O20" s="146"/>
-      <c r="P20" s="146"/>
-      <c r="Q20" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="R20" t="s">
-        <v>186</v>
-      </c>
-      <c r="S20" t="s">
-        <v>187</v>
-      </c>
-      <c r="T20" t="s">
-        <v>195</v>
-      </c>
-      <c r="U20" t="s">
-        <v>196</v>
-      </c>
-      <c r="V20" t="s">
-        <v>232</v>
-      </c>
-      <c r="W20" t="s">
-        <v>198</v>
-      </c>
-      <c r="X20" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>206</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>208</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" s="37">
-        <v>1</v>
-      </c>
-      <c r="H21" s="37">
-        <v>2029</v>
-      </c>
-      <c r="I21" s="26">
-        <v>1975</v>
-      </c>
-      <c r="J21" s="38">
-        <v>1952</v>
-      </c>
-      <c r="K21" s="37">
-        <v>1975</v>
-      </c>
-      <c r="L21" s="26">
-        <v>1934</v>
-      </c>
-      <c r="M21" s="26">
-        <v>1941</v>
-      </c>
-      <c r="N21" s="37">
-        <v>1961</v>
-      </c>
-      <c r="O21" s="26">
-        <v>1907</v>
-      </c>
-      <c r="P21" s="26">
-        <v>1949</v>
-      </c>
-      <c r="Q21" s="37">
-        <f>AVERAGE(H21:P21)</f>
-        <v>1958.1111111111111</v>
-      </c>
-      <c r="R21">
-        <f>_xlfn.STDEV.S(H21:P21)</f>
-        <v>33.931712469474789</v>
-      </c>
-      <c r="S21">
-        <f>10*LOG10(Q21^2/R21^2)</f>
-        <v>35.224631071270984</v>
-      </c>
-      <c r="T21">
-        <f>IF($A21=T$19,$S21,0)</f>
-        <v>35.224631071270984</v>
-      </c>
-      <c r="U21">
-        <f t="shared" ref="U21:V36" si="0">IF($A21=U$19,$S21,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V21">
+      <c r="H4" s="37">
+        <v>5375</v>
+      </c>
+      <c r="I4" s="26">
+        <v>5201</v>
+      </c>
+      <c r="J4" s="38">
+        <v>5323</v>
+      </c>
+      <c r="K4" s="37">
+        <v>5191</v>
+      </c>
+      <c r="L4" s="26">
+        <v>5254</v>
+      </c>
+      <c r="M4" s="26">
+        <v>5307</v>
+      </c>
+      <c r="N4" s="37">
+        <v>5242</v>
+      </c>
+      <c r="O4" s="26">
+        <v>5309</v>
+      </c>
+      <c r="P4" s="26">
+        <v>5091</v>
+      </c>
+      <c r="Q4" s="37">
+        <f t="shared" ref="Q4:Q20" si="6">AVERAGE(H4:P4)</f>
+        <v>5254.7777777777774</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R20" si="7">_xlfn.STDEV.S(H4:P4)</f>
+        <v>85.674934750161583</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S20" si="8">10*LOG10(Q4^2/R4^2)</f>
+        <v>35.75401144574402</v>
+      </c>
+      <c r="T4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <f>IF($B21=W$19,$S21,0)</f>
-        <v>35.224631071270984</v>
-      </c>
-      <c r="X21">
-        <f t="shared" ref="X21:Y36" si="1">IF($B21=X$19,$S21,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y21">
+        <v>35.75401144574402</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z21">
-        <f>IF($C21=Z$19,$S21,0)</f>
-        <v>35.224631071270984</v>
-      </c>
-      <c r="AA21">
-        <f t="shared" ref="AA21:AB36" si="2">IF($C21=AA$19,$S21,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <f>IF($D21=AC$19,$S21,0)</f>
-        <v>35.224631071270984</v>
-      </c>
-      <c r="AD21">
-        <f t="shared" ref="AD21:AE36" si="3">IF($D21=AD$19,$S21,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <f>IF($E21=AF$19,$S21,0)</f>
-        <v>35.224631071270984</v>
-      </c>
-      <c r="AG21">
-        <f t="shared" ref="AG21:AH36" si="4">IF($E21=AG$19,$S21,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <f>IF($F21=AI$19,$S21,0)</f>
-        <v>35.224631071270984</v>
-      </c>
-      <c r="AJ21">
-        <f t="shared" ref="AJ21:AK36" si="5">IF($F21=AJ$19,$S21,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22" s="37">
-        <v>2</v>
-      </c>
-      <c r="H22" s="37">
-        <v>5375</v>
-      </c>
-      <c r="I22" s="26">
-        <v>5201</v>
-      </c>
-      <c r="J22" s="38">
-        <v>5323</v>
-      </c>
-      <c r="K22" s="37">
-        <v>5191</v>
-      </c>
-      <c r="L22" s="26">
-        <v>5254</v>
-      </c>
-      <c r="M22" s="26">
-        <v>5307</v>
-      </c>
-      <c r="N22" s="37">
-        <v>5242</v>
-      </c>
-      <c r="O22" s="26">
-        <v>5309</v>
-      </c>
-      <c r="P22" s="26">
-        <v>5091</v>
-      </c>
-      <c r="Q22" s="37">
-        <f t="shared" ref="Q22:Q38" si="6">AVERAGE(H22:P22)</f>
-        <v>5254.7777777777774</v>
-      </c>
-      <c r="R22">
-        <f t="shared" ref="R22:R38" si="7">_xlfn.STDEV.S(H22:P22)</f>
-        <v>85.674934750161583</v>
-      </c>
-      <c r="S22">
-        <f t="shared" ref="S22:S38" si="8">10*LOG10(Q22^2/R22^2)</f>
-        <v>35.75401144574402</v>
-      </c>
-      <c r="T22">
-        <f t="shared" ref="T22:V38" si="9">IF($A22=T$19,$S22,0)</f>
-        <v>35.75401144574402</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <f t="shared" ref="W22:Y38" si="10">IF($B22=W$19,$S22,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X22">
+      <c r="X4">
         <f t="shared" si="1"/>
         <v>35.75401144574402</v>
       </c>
-      <c r="Y22">
+      <c r="Y4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z22">
-        <f t="shared" ref="Z22:AB38" si="11">IF($C22=Z$19,$S22,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA22">
+      <c r="Z4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA4">
         <f t="shared" si="2"/>
         <v>35.75401144574402</v>
       </c>
-      <c r="AB22">
+      <c r="AB4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC22">
-        <f t="shared" ref="AC22:AE38" si="12">IF($D22=AC$19,$S22,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD22">
+      <c r="AC4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD4">
         <f t="shared" si="3"/>
         <v>35.75401144574402</v>
       </c>
-      <c r="AE22">
+      <c r="AE4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF22">
-        <f t="shared" ref="AF22:AH38" si="13">IF($E22=AF$19,$S22,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AG22">
+      <c r="AF4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG4">
         <f t="shared" si="4"/>
         <v>35.75401144574402</v>
       </c>
-      <c r="AH22">
+      <c r="AH4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI22">
-        <f t="shared" ref="AI22:AK38" si="14">IF($F22=AI$19,$S22,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ22">
+      <c r="AI4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ4">
         <f t="shared" si="5"/>
         <v>35.75401144574402</v>
       </c>
-      <c r="AK22">
+      <c r="AK4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C23">
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="D23">
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="E23">
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="F23">
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G5" s="37">
         <v>3</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H5" s="37">
         <v>5989</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I5" s="26">
         <v>6152</v>
       </c>
-      <c r="J23" s="38">
+      <c r="J5" s="38">
         <v>6077</v>
       </c>
-      <c r="K23" s="37">
+      <c r="K5" s="37">
         <v>5894</v>
       </c>
-      <c r="L23" s="26">
+      <c r="L5" s="26">
         <v>5910</v>
       </c>
-      <c r="M23" s="26">
+      <c r="M5" s="26">
         <v>5943</v>
       </c>
-      <c r="N23" s="37">
+      <c r="N5" s="37">
         <v>5874</v>
       </c>
-      <c r="O23" s="26">
+      <c r="O5" s="26">
         <v>5886</v>
       </c>
-      <c r="P23" s="26">
+      <c r="P5" s="26">
         <v>5962</v>
       </c>
-      <c r="Q23" s="37">
+      <c r="Q5" s="37">
         <f t="shared" si="6"/>
         <v>5965.2222222222226</v>
       </c>
-      <c r="R23">
+      <c r="R5">
         <f t="shared" si="7"/>
         <v>94.319639759937814</v>
       </c>
-      <c r="S23">
+      <c r="S5">
         <f t="shared" si="8"/>
         <v>36.020489873988573</v>
       </c>
-      <c r="T23">
-        <f t="shared" si="9"/>
+      <c r="T5">
+        <f t="shared" si="0"/>
         <v>36.020489873988573</v>
       </c>
-      <c r="U23">
+      <c r="U5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V23">
+      <c r="V5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X23">
+      <c r="W5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y23">
+      <c r="X5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y5">
         <f t="shared" si="1"/>
         <v>36.020489873988573</v>
       </c>
-      <c r="Z23">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA23">
+      <c r="Z5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB23">
+      <c r="AA5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB5">
         <f t="shared" si="2"/>
         <v>36.020489873988573</v>
       </c>
-      <c r="AC23">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD23">
+      <c r="AC5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE23">
+      <c r="AD5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE5">
         <f t="shared" si="3"/>
         <v>36.020489873988573</v>
       </c>
-      <c r="AF23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG23">
+      <c r="AF5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH23">
+      <c r="AG5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH5">
         <f t="shared" si="4"/>
         <v>36.020489873988573</v>
       </c>
-      <c r="AI23">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AJ23">
+      <c r="AI5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK23">
+      <c r="AJ5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AK5">
         <f t="shared" si="5"/>
         <v>36.020489873988573</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="E24">
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="F24">
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G6" s="37">
         <v>4</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H6" s="37">
         <v>2118</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I6" s="26">
         <v>2140</v>
       </c>
-      <c r="J24" s="38">
+      <c r="J6" s="38">
         <v>2149</v>
       </c>
-      <c r="K24" s="37">
+      <c r="K6" s="37">
         <v>2109</v>
       </c>
-      <c r="L24" s="26">
+      <c r="L6" s="26">
         <v>2125</v>
       </c>
-      <c r="M24" s="26">
+      <c r="M6" s="26">
         <v>2130</v>
       </c>
-      <c r="N24" s="37">
+      <c r="N6" s="37">
         <v>2099</v>
       </c>
-      <c r="O24" s="26">
+      <c r="O6" s="26">
         <v>2108</v>
       </c>
-      <c r="P24" s="26">
+      <c r="P6" s="26">
         <v>2111</v>
       </c>
-      <c r="Q24" s="37">
+      <c r="Q6" s="37">
         <f t="shared" si="6"/>
         <v>2121</v>
       </c>
-      <c r="R24">
+      <c r="R6">
         <f t="shared" si="7"/>
         <v>16.385969608173941</v>
       </c>
-      <c r="S24">
+      <c r="S6">
         <f t="shared" si="8"/>
         <v>42.241370469975486</v>
       </c>
-      <c r="T24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U24">
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6">
         <f t="shared" si="0"/>
         <v>42.241370469975486</v>
       </c>
-      <c r="V24">
+      <c r="V6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W24">
-        <f t="shared" si="10"/>
+      <c r="W6">
+        <f t="shared" si="1"/>
         <v>42.241370469975486</v>
       </c>
-      <c r="X24">
+      <c r="X6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y24">
+      <c r="Y6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z24">
-        <f t="shared" si="11"/>
+      <c r="Z6">
+        <f t="shared" si="2"/>
         <v>42.241370469975486</v>
       </c>
-      <c r="AA24">
+      <c r="AA6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB24">
+      <c r="AB6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC24">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD24">
+      <c r="AC6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD6">
         <f t="shared" si="3"/>
         <v>42.241370469975486</v>
       </c>
-      <c r="AE24">
+      <c r="AE6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF24">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG24">
+      <c r="AF6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG6">
         <f t="shared" si="4"/>
         <v>42.241370469975486</v>
       </c>
-      <c r="AH24">
+      <c r="AH6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI24">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AJ24">
+      <c r="AI6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK24">
+      <c r="AJ6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AK6">
         <f t="shared" si="5"/>
         <v>42.241370469975486</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A7">
         <v>2</v>
       </c>
-      <c r="B25">
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C25">
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D25">
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="E25">
+      <c r="E7">
         <v>3</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" s="37">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="37">
         <v>5</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H7" s="37">
         <v>4102</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I7" s="26">
         <v>4556</v>
       </c>
-      <c r="J25" s="38">
+      <c r="J7" s="38">
         <v>5031</v>
       </c>
-      <c r="K25" s="37">
+      <c r="K7" s="37">
         <v>4152</v>
       </c>
-      <c r="L25" s="26">
+      <c r="L7" s="26">
         <v>4504</v>
       </c>
-      <c r="M25" s="26">
+      <c r="M7" s="26">
         <v>5040</v>
       </c>
-      <c r="N25" s="37">
+      <c r="N7" s="37">
         <v>4174</v>
       </c>
-      <c r="O25" s="26">
+      <c r="O7" s="26">
         <v>4560</v>
       </c>
-      <c r="P25" s="26">
+      <c r="P7" s="26">
         <v>5032</v>
       </c>
-      <c r="Q25" s="37">
+      <c r="Q7" s="37">
         <f t="shared" si="6"/>
         <v>4572.333333333333</v>
       </c>
-      <c r="R25">
+      <c r="R7">
         <f t="shared" si="7"/>
         <v>387.62610851179772</v>
       </c>
-      <c r="S25">
+      <c r="S7">
         <f t="shared" si="8"/>
         <v>21.434497253970093</v>
       </c>
-      <c r="T25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U25">
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
         <f t="shared" si="0"/>
         <v>21.434497253970093</v>
       </c>
-      <c r="V25">
+      <c r="V7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W25">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X25">
+      <c r="W7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
         <f t="shared" si="1"/>
         <v>21.434497253970093</v>
       </c>
-      <c r="Y25">
+      <c r="Y7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z25">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA25">
+      <c r="Z7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA7">
         <f t="shared" si="2"/>
         <v>21.434497253970093</v>
       </c>
-      <c r="AB25">
+      <c r="AB7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC25">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD25">
+      <c r="AC7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE25">
+      <c r="AD7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE7">
         <f t="shared" si="3"/>
         <v>21.434497253970093</v>
       </c>
-      <c r="AF25">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG25">
+      <c r="AF7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH25">
+      <c r="AG7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH7">
         <f t="shared" si="4"/>
         <v>21.434497253970093</v>
       </c>
-      <c r="AI25">
-        <f t="shared" si="14"/>
+      <c r="AI7">
+        <f t="shared" si="5"/>
         <v>21.434497253970093</v>
       </c>
-      <c r="AJ25">
+      <c r="AJ7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK25">
+      <c r="AK7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A8">
         <v>2</v>
       </c>
-      <c r="B26">
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="C26">
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G8" s="37">
         <v>6</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H8" s="37">
         <v>3022</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I8" s="26">
         <v>2833</v>
       </c>
-      <c r="J26" s="38">
+      <c r="J8" s="38">
         <v>2934</v>
       </c>
-      <c r="K26" s="37">
+      <c r="K8" s="37">
         <v>2932</v>
       </c>
-      <c r="L26" s="26">
+      <c r="L8" s="26">
         <v>2837</v>
       </c>
-      <c r="M26" s="26">
+      <c r="M8" s="26">
         <v>2875</v>
       </c>
-      <c r="N26" s="37">
+      <c r="N8" s="37">
         <v>2913</v>
       </c>
-      <c r="O26" s="26">
+      <c r="O8" s="26">
         <v>2828</v>
       </c>
-      <c r="P26" s="26">
+      <c r="P8" s="26">
         <v>2841</v>
       </c>
-      <c r="Q26" s="37">
+      <c r="Q8" s="37">
         <f t="shared" si="6"/>
         <v>2890.5555555555557</v>
       </c>
-      <c r="R26">
+      <c r="R8">
         <f t="shared" si="7"/>
         <v>65.362663484421873</v>
       </c>
-      <c r="S26">
+      <c r="S8">
         <f t="shared" si="8"/>
         <v>32.913031594015344</v>
       </c>
-      <c r="T26">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U26">
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
         <f t="shared" si="0"/>
         <v>32.913031594015344</v>
       </c>
-      <c r="V26">
+      <c r="V8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W26">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X26">
+      <c r="W8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y26">
+      <c r="X8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y8">
         <f t="shared" si="1"/>
         <v>32.913031594015344</v>
       </c>
-      <c r="Z26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA26">
+      <c r="Z8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB26">
+      <c r="AA8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB8">
         <f t="shared" si="2"/>
         <v>32.913031594015344</v>
       </c>
-      <c r="AC26">
-        <f t="shared" si="12"/>
+      <c r="AC8">
+        <f t="shared" si="3"/>
         <v>32.913031594015344</v>
       </c>
-      <c r="AD26">
+      <c r="AD8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE26">
+      <c r="AE8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF26">
-        <f t="shared" si="13"/>
+      <c r="AF8">
+        <f t="shared" si="4"/>
         <v>32.913031594015344</v>
       </c>
-      <c r="AG26">
+      <c r="AG8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH26">
+      <c r="AH8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI26">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AJ26">
+      <c r="AI8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8">
         <f t="shared" si="5"/>
         <v>32.913031594015344</v>
       </c>
-      <c r="AK26">
+      <c r="AK8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A9">
         <v>3</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="F27">
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G9" s="37">
         <v>7</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H9" s="37">
         <v>3030</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I9" s="26">
         <v>3468</v>
       </c>
-      <c r="J27" s="38">
+      <c r="J9" s="38">
         <v>3709</v>
       </c>
-      <c r="K27" s="37">
+      <c r="K9" s="37">
         <v>3042</v>
       </c>
-      <c r="L27" s="26">
+      <c r="L9" s="26">
         <v>3333</v>
       </c>
-      <c r="M27" s="26">
+      <c r="M9" s="26">
         <v>3671</v>
       </c>
-      <c r="N27" s="37">
+      <c r="N9" s="37">
         <v>3028</v>
       </c>
-      <c r="O27" s="26">
+      <c r="O9" s="26">
         <v>3389</v>
       </c>
-      <c r="P27" s="26">
+      <c r="P9" s="26">
         <v>3687</v>
       </c>
-      <c r="Q27" s="37">
+      <c r="Q9" s="37">
         <f t="shared" si="6"/>
         <v>3373</v>
       </c>
-      <c r="R27">
+      <c r="R9">
         <f t="shared" si="7"/>
         <v>286.66443797583264</v>
       </c>
-      <c r="S27">
+      <c r="S9">
         <f t="shared" si="8"/>
         <v>21.412850422042688</v>
       </c>
-      <c r="T27">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U27">
+      <c r="T9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V27">
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9">
         <f t="shared" si="0"/>
         <v>21.412850422042688</v>
       </c>
-      <c r="W27">
-        <f t="shared" si="10"/>
+      <c r="W9">
+        <f t="shared" si="1"/>
         <v>21.412850422042688</v>
       </c>
-      <c r="X27">
+      <c r="X9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y27">
+      <c r="Y9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z27">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA27">
+      <c r="Z9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA9">
         <f t="shared" si="2"/>
         <v>21.412850422042688</v>
       </c>
-      <c r="AB27">
+      <c r="AB9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC27">
-        <f t="shared" si="12"/>
+      <c r="AC9">
+        <f t="shared" si="3"/>
         <v>21.412850422042688</v>
       </c>
-      <c r="AD27">
+      <c r="AD9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE27">
+      <c r="AE9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF27">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG27">
+      <c r="AF9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH27">
+      <c r="AG9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH9">
         <f t="shared" si="4"/>
         <v>21.412850422042688</v>
       </c>
-      <c r="AI27">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AJ27">
+      <c r="AI9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK27">
+      <c r="AJ9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AK9">
         <f t="shared" si="5"/>
         <v>21.412850422042688</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A10">
         <v>3</v>
       </c>
-      <c r="B28">
+      <c r="B10">
         <v>2</v>
       </c>
-      <c r="C28">
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="D28">
+      <c r="D10">
         <v>2</v>
       </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" s="37">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="37">
         <v>8</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H10" s="37">
         <v>4707</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I10" s="26">
         <v>4407</v>
       </c>
-      <c r="J28" s="38">
+      <c r="J10" s="38">
         <v>5073</v>
       </c>
-      <c r="K28" s="37">
+      <c r="K10" s="37">
         <v>4472</v>
       </c>
-      <c r="L28" s="26">
+      <c r="L10" s="26">
         <v>4156</v>
       </c>
-      <c r="M28" s="26">
+      <c r="M10" s="26">
         <v>4898</v>
       </c>
-      <c r="N28" s="37">
+      <c r="N10" s="37">
         <v>4336</v>
       </c>
-      <c r="O28" s="26">
+      <c r="O10" s="26">
         <v>4094</v>
       </c>
-      <c r="P28" s="26">
+      <c r="P10" s="26">
         <v>4599</v>
       </c>
-      <c r="Q28" s="37">
+      <c r="Q10" s="37">
         <f t="shared" si="6"/>
         <v>4526.8888888888887</v>
       </c>
-      <c r="R28">
+      <c r="R10">
         <f t="shared" si="7"/>
         <v>326.4155497385367</v>
       </c>
-      <c r="S28">
+      <c r="S10">
         <f t="shared" si="8"/>
         <v>22.840579911307238</v>
       </c>
-      <c r="T28">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U28">
+      <c r="T10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V28">
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V10">
         <f t="shared" si="0"/>
         <v>22.840579911307238</v>
       </c>
-      <c r="W28">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X28">
+      <c r="W10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X10">
         <f t="shared" si="1"/>
         <v>22.840579911307238</v>
       </c>
-      <c r="Y28">
+      <c r="Y10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z28">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA28">
+      <c r="Z10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB28">
+      <c r="AA10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB10">
         <f t="shared" si="2"/>
         <v>22.840579911307238</v>
       </c>
-      <c r="AC28">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD28">
+      <c r="AC10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD10">
         <f t="shared" si="3"/>
         <v>22.840579911307238</v>
       </c>
-      <c r="AE28">
+      <c r="AE10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF28">
-        <f t="shared" si="13"/>
+      <c r="AF10">
+        <f t="shared" si="4"/>
         <v>22.840579911307238</v>
       </c>
-      <c r="AG28">
+      <c r="AG10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH28">
+      <c r="AH10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI28">
-        <f t="shared" si="14"/>
+      <c r="AI10">
+        <f t="shared" si="5"/>
         <v>22.840579911307238</v>
       </c>
-      <c r="AJ28">
+      <c r="AJ10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK28">
+      <c r="AK10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A11">
         <v>3</v>
       </c>
-      <c r="B29">
+      <c r="B11">
         <v>3</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="E29">
+      <c r="E11">
         <v>2</v>
       </c>
-      <c r="F29">
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G11" s="37">
         <v>9</v>
       </c>
-      <c r="H29" s="37">
+      <c r="H11" s="37">
         <v>3859</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I11" s="26">
         <v>3871</v>
       </c>
-      <c r="J29" s="38">
+      <c r="J11" s="38">
         <v>4110</v>
       </c>
-      <c r="K29" s="37">
+      <c r="K11" s="37">
         <v>3822</v>
       </c>
-      <c r="L29" s="26">
+      <c r="L11" s="26">
         <v>3922</v>
       </c>
-      <c r="M29" s="26">
+      <c r="M11" s="26">
         <v>4067</v>
       </c>
-      <c r="N29" s="37">
+      <c r="N11" s="37">
         <v>3850</v>
       </c>
-      <c r="O29" s="26">
+      <c r="O11" s="26">
         <v>3904</v>
       </c>
-      <c r="P29" s="26">
+      <c r="P11" s="26">
         <v>4110</v>
       </c>
-      <c r="Q29" s="37">
+      <c r="Q11" s="37">
         <f t="shared" si="6"/>
         <v>3946.1111111111113</v>
       </c>
-      <c r="R29">
+      <c r="R11">
         <f t="shared" si="7"/>
         <v>116.4897468067946</v>
       </c>
-      <c r="S29">
+      <c r="S11">
         <f t="shared" si="8"/>
         <v>30.597632165025747</v>
       </c>
-      <c r="T29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U29">
+      <c r="T11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V29">
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V11">
         <f t="shared" si="0"/>
         <v>30.597632165025747</v>
       </c>
-      <c r="W29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X29">
+      <c r="W11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y29">
+      <c r="X11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y11">
         <f t="shared" si="1"/>
         <v>30.597632165025747</v>
       </c>
-      <c r="Z29">
-        <f t="shared" si="11"/>
+      <c r="Z11">
+        <f t="shared" si="2"/>
         <v>30.597632165025747</v>
       </c>
-      <c r="AA29">
+      <c r="AA11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB29">
+      <c r="AB11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC29">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD29">
+      <c r="AC11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE29">
+      <c r="AD11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE11">
         <f t="shared" si="3"/>
         <v>30.597632165025747</v>
       </c>
-      <c r="AF29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG29">
+      <c r="AF11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG11">
         <f t="shared" si="4"/>
         <v>30.597632165025747</v>
       </c>
-      <c r="AH29">
+      <c r="AH11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI29">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AJ29">
+      <c r="AI11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11">
         <f t="shared" si="5"/>
         <v>30.597632165025747</v>
       </c>
-      <c r="AK29">
+      <c r="AK11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="D30">
+      <c r="D12">
         <v>3</v>
       </c>
-      <c r="E30">
+      <c r="E12">
         <v>2</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" s="37">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="37">
         <v>10</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H12" s="37">
         <v>3227</v>
       </c>
-      <c r="I30" s="26">
+      <c r="I12" s="26">
         <v>3468</v>
       </c>
-      <c r="J30" s="38">
+      <c r="J12" s="38">
         <v>3599</v>
       </c>
-      <c r="K30" s="37">
+      <c r="K12" s="37">
         <v>3205</v>
       </c>
-      <c r="L30" s="26">
+      <c r="L12" s="26">
         <v>3450</v>
       </c>
-      <c r="M30" s="26">
+      <c r="M12" s="26">
         <v>3591</v>
       </c>
-      <c r="N30" s="37">
+      <c r="N12" s="37">
         <v>3242</v>
       </c>
-      <c r="O30" s="26">
+      <c r="O12" s="26">
         <v>3420</v>
       </c>
-      <c r="P30" s="26">
+      <c r="P12" s="26">
         <v>3535</v>
       </c>
-      <c r="Q30" s="37">
+      <c r="Q12" s="37">
         <f t="shared" si="6"/>
         <v>3415.2222222222222</v>
       </c>
-      <c r="R30">
+      <c r="R12">
         <f t="shared" si="7"/>
         <v>155.18680499464006</v>
       </c>
-      <c r="S30">
+      <c r="S12">
         <f t="shared" si="8"/>
         <v>26.851283515353416</v>
       </c>
-      <c r="T30">
-        <f t="shared" si="9"/>
+      <c r="T12">
+        <f t="shared" si="0"/>
         <v>26.851283515353416</v>
       </c>
-      <c r="U30">
+      <c r="U12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V30">
+      <c r="V12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W30">
-        <f t="shared" si="10"/>
+      <c r="W12">
+        <f t="shared" si="1"/>
         <v>26.851283515353416</v>
       </c>
-      <c r="X30">
+      <c r="X12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y30">
+      <c r="Y12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z30">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA30">
+      <c r="Z12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB30">
+      <c r="AA12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB12">
         <f t="shared" si="2"/>
         <v>26.851283515353416</v>
       </c>
-      <c r="AC30">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD30">
+      <c r="AC12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE30">
+      <c r="AD12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE12">
         <f t="shared" si="3"/>
         <v>26.851283515353416</v>
       </c>
-      <c r="AF30">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG30">
+      <c r="AF12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG12">
         <f t="shared" si="4"/>
         <v>26.851283515353416</v>
       </c>
-      <c r="AH30">
+      <c r="AH12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI30">
-        <f t="shared" si="14"/>
+      <c r="AI12">
+        <f t="shared" si="5"/>
         <v>26.851283515353416</v>
       </c>
-      <c r="AJ30">
+      <c r="AJ12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK30">
+      <c r="AK12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>3</v>
       </c>
-      <c r="F31">
+      <c r="F13">
         <v>2</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G13" s="37">
         <v>11</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H13" s="37">
         <v>2521</v>
       </c>
-      <c r="I31" s="26">
+      <c r="I13" s="26">
         <v>2576</v>
       </c>
-      <c r="J31" s="38">
+      <c r="J13" s="38">
         <v>2551</v>
       </c>
-      <c r="K31" s="37">
+      <c r="K13" s="37">
         <v>2499</v>
       </c>
-      <c r="L31" s="26">
+      <c r="L13" s="26">
         <v>2537</v>
       </c>
-      <c r="M31" s="26">
+      <c r="M13" s="26">
         <v>2552</v>
       </c>
-      <c r="N31" s="37">
+      <c r="N13" s="37">
         <v>2499</v>
       </c>
-      <c r="O31" s="26">
+      <c r="O13" s="26">
         <v>2512</v>
       </c>
-      <c r="P31" s="26">
+      <c r="P13" s="26">
         <v>2570</v>
       </c>
-      <c r="Q31" s="37">
+      <c r="Q13" s="37">
         <f t="shared" si="6"/>
         <v>2535.2222222222222</v>
       </c>
-      <c r="R31">
+      <c r="R13">
         <f t="shared" si="7"/>
         <v>29.093718298705724</v>
       </c>
-      <c r="S31">
+      <c r="S13">
         <f t="shared" si="8"/>
         <v>38.804336070369402</v>
       </c>
-      <c r="T31">
-        <f t="shared" si="9"/>
+      <c r="T13">
+        <f t="shared" si="0"/>
         <v>38.804336070369402</v>
       </c>
-      <c r="U31">
+      <c r="U13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V31">
+      <c r="V13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W31">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X31">
+      <c r="W13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X13">
         <f t="shared" si="1"/>
         <v>38.804336070369402</v>
       </c>
-      <c r="Y31">
+      <c r="Y13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z31">
-        <f t="shared" si="11"/>
+      <c r="Z13">
+        <f t="shared" si="2"/>
         <v>38.804336070369402</v>
       </c>
-      <c r="AA31">
+      <c r="AA13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB31">
+      <c r="AB13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC31">
-        <f t="shared" si="12"/>
+      <c r="AC13">
+        <f t="shared" si="3"/>
         <v>38.804336070369402</v>
       </c>
-      <c r="AD31">
+      <c r="AD13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE31">
+      <c r="AE13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF31">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG31">
+      <c r="AF13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH31">
+      <c r="AG13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH13">
         <f t="shared" si="4"/>
         <v>38.804336070369402</v>
       </c>
-      <c r="AI31">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AJ31">
+      <c r="AI13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13">
         <f t="shared" si="5"/>
         <v>38.804336070369402</v>
       </c>
-      <c r="AK31">
+      <c r="AK13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
         <v>3</v>
       </c>
-      <c r="C32">
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="D32">
+      <c r="D14">
         <v>2</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>3</v>
       </c>
-      <c r="G32" s="37">
+      <c r="G14" s="37">
         <v>12</v>
       </c>
-      <c r="H32" s="37">
+      <c r="H14" s="37">
         <v>5921</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I14" s="26">
         <v>5780</v>
       </c>
-      <c r="J32" s="38">
+      <c r="J14" s="38">
         <v>5691</v>
       </c>
-      <c r="K32" s="37">
+      <c r="K14" s="37">
         <v>5766</v>
       </c>
-      <c r="L32" s="26">
+      <c r="L14" s="26">
         <v>5695</v>
       </c>
-      <c r="M32" s="26">
+      <c r="M14" s="26">
         <v>5777</v>
       </c>
-      <c r="N32" s="37">
+      <c r="N14" s="37">
         <v>5844</v>
       </c>
-      <c r="O32" s="26">
+      <c r="O14" s="26">
         <v>5814</v>
       </c>
-      <c r="P32" s="26">
+      <c r="P14" s="26">
         <v>5743</v>
       </c>
-      <c r="Q32" s="37">
+      <c r="Q14" s="37">
         <f t="shared" si="6"/>
         <v>5781.2222222222226</v>
       </c>
-      <c r="R32">
+      <c r="R14">
         <f t="shared" si="7"/>
         <v>72.318354823961826</v>
       </c>
-      <c r="S32">
+      <c r="S14">
         <f t="shared" si="8"/>
         <v>38.055422511962064</v>
       </c>
-      <c r="T32">
-        <f t="shared" si="9"/>
+      <c r="T14">
+        <f t="shared" si="0"/>
         <v>38.055422511962064</v>
       </c>
-      <c r="U32">
+      <c r="U14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V32">
+      <c r="V14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W32">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X32">
+      <c r="W14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y32">
+      <c r="X14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y14">
         <f t="shared" si="1"/>
         <v>38.055422511962064</v>
       </c>
-      <c r="Z32">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA32">
+      <c r="Z14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA14">
         <f t="shared" si="2"/>
         <v>38.055422511962064</v>
       </c>
-      <c r="AB32">
+      <c r="AB14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC32">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD32">
+      <c r="AC14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD14">
         <f t="shared" si="3"/>
         <v>38.055422511962064</v>
       </c>
-      <c r="AE32">
+      <c r="AE14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF32">
-        <f t="shared" si="13"/>
+      <c r="AF14">
+        <f t="shared" si="4"/>
         <v>38.055422511962064</v>
       </c>
-      <c r="AG32">
+      <c r="AG14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH32">
+      <c r="AH14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI32">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AJ32">
+      <c r="AI14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK32">
+      <c r="AJ14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AK14">
         <f t="shared" si="5"/>
         <v>38.055422511962064</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A15">
         <v>2</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="D33">
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <v>2</v>
       </c>
-      <c r="G33" s="158">
+      <c r="G15" s="145">
         <v>13</v>
       </c>
-      <c r="H33" s="158">
+      <c r="H15" s="145">
         <v>2792</v>
       </c>
-      <c r="I33" s="159">
+      <c r="I15" s="146">
         <v>2684</v>
       </c>
-      <c r="J33" s="160">
+      <c r="J15" s="147">
         <v>2765</v>
       </c>
-      <c r="K33" s="158">
+      <c r="K15" s="145">
         <v>2752</v>
       </c>
-      <c r="L33" s="159">
+      <c r="L15" s="146">
         <v>2635</v>
       </c>
-      <c r="M33" s="159">
+      <c r="M15" s="146">
         <v>2786</v>
       </c>
-      <c r="N33" s="158">
+      <c r="N15" s="145">
         <v>2716</v>
       </c>
-      <c r="O33" s="159">
+      <c r="O15" s="146">
         <v>2606</v>
       </c>
-      <c r="P33" s="159">
+      <c r="P15" s="146">
         <v>2773</v>
       </c>
-      <c r="Q33" s="37">
+      <c r="Q15" s="37">
         <f t="shared" si="6"/>
         <v>2723.2222222222222</v>
       </c>
-      <c r="R33">
+      <c r="R15">
         <f t="shared" si="7"/>
         <v>67.857898909739646</v>
       </c>
-      <c r="S33">
+      <c r="S15">
         <f t="shared" si="8"/>
         <v>32.069653479204156</v>
       </c>
-      <c r="T33">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U33">
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
         <f t="shared" si="0"/>
         <v>32.069653479204156</v>
       </c>
-      <c r="V33">
+      <c r="V15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W33">
-        <f t="shared" si="10"/>
+      <c r="W15">
+        <f t="shared" si="1"/>
         <v>32.069653479204156</v>
       </c>
-      <c r="X33">
+      <c r="X15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y33">
+      <c r="Y15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z33">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA33">
+      <c r="Z15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA15">
         <f t="shared" si="2"/>
         <v>32.069653479204156</v>
       </c>
-      <c r="AB33">
+      <c r="AB15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC33">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD33">
+      <c r="AC15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE33">
+      <c r="AD15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE15">
         <f t="shared" si="3"/>
         <v>32.069653479204156</v>
       </c>
-      <c r="AF33">
-        <f t="shared" si="13"/>
+      <c r="AF15">
+        <f t="shared" si="4"/>
         <v>32.069653479204156</v>
       </c>
-      <c r="AG33">
+      <c r="AG15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH33">
+      <c r="AH15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI33">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AJ33">
+      <c r="AI15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15">
         <f t="shared" si="5"/>
         <v>32.069653479204156</v>
       </c>
-      <c r="AK33">
+      <c r="AK15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A16">
         <v>2</v>
       </c>
-      <c r="B34">
+      <c r="B16">
         <v>2</v>
       </c>
-      <c r="C34">
+      <c r="C16">
         <v>3</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>2</v>
       </c>
-      <c r="F34">
+      <c r="F16">
         <v>3</v>
       </c>
-      <c r="G34" s="161">
+      <c r="G16" s="148">
         <v>14</v>
       </c>
-      <c r="H34" s="161">
+      <c r="H16" s="148">
         <v>2863</v>
       </c>
-      <c r="I34" s="162">
+      <c r="I16" s="149">
         <v>2829</v>
       </c>
-      <c r="J34" s="163">
+      <c r="J16" s="150">
         <v>2891</v>
       </c>
-      <c r="K34" s="161">
+      <c r="K16" s="148">
         <v>2835</v>
       </c>
-      <c r="L34" s="162">
+      <c r="L16" s="149">
         <v>2864</v>
       </c>
-      <c r="M34" s="162">
+      <c r="M16" s="149">
         <v>2844</v>
       </c>
-      <c r="N34" s="161">
+      <c r="N16" s="148">
         <v>2859</v>
       </c>
-      <c r="O34" s="162">
+      <c r="O16" s="149">
         <v>2839</v>
       </c>
-      <c r="P34" s="26">
+      <c r="P16" s="149">
         <v>2841</v>
       </c>
-      <c r="Q34" s="37">
+      <c r="Q16" s="37">
         <f t="shared" si="6"/>
         <v>2851.6666666666665</v>
       </c>
-      <c r="R34">
+      <c r="R16">
         <f t="shared" si="7"/>
         <v>19.38427197498013</v>
       </c>
-      <c r="S34">
+      <c r="S16">
         <f t="shared" si="8"/>
         <v>43.352985290559673</v>
       </c>
-      <c r="T34">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U34">
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
         <f t="shared" si="0"/>
         <v>43.352985290559673</v>
       </c>
-      <c r="V34">
+      <c r="V16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X34">
+      <c r="W16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X16">
         <f t="shared" si="1"/>
         <v>43.352985290559673</v>
       </c>
-      <c r="Y34">
+      <c r="Y16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z34">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA34">
+      <c r="Z16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB34">
+      <c r="AA16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB16">
         <f t="shared" si="2"/>
         <v>43.352985290559673</v>
       </c>
-      <c r="AC34">
-        <f t="shared" si="12"/>
+      <c r="AC16">
+        <f t="shared" si="3"/>
         <v>43.352985290559673</v>
       </c>
-      <c r="AD34">
+      <c r="AD16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE34">
+      <c r="AE16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF34">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG34">
+      <c r="AF16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG16">
         <f t="shared" si="4"/>
         <v>43.352985290559673</v>
       </c>
-      <c r="AH34">
+      <c r="AH16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI34">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AJ34">
+      <c r="AI16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK34">
+      <c r="AJ16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AK16">
         <f t="shared" si="5"/>
         <v>43.352985290559673</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A17">
         <v>2</v>
       </c>
-      <c r="B35">
+      <c r="B17">
         <v>3</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
         <v>2</v>
       </c>
-      <c r="E35">
+      <c r="E17">
         <v>3</v>
       </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" s="37">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="37">
         <v>15</v>
       </c>
-      <c r="H35" s="37">
+      <c r="H17" s="37">
         <v>3218</v>
       </c>
-      <c r="I35" s="26">
+      <c r="I17" s="26">
         <v>3261</v>
       </c>
-      <c r="J35" s="38">
+      <c r="J17" s="38">
         <v>3241</v>
       </c>
-      <c r="K35" s="37">
+      <c r="K17" s="37">
         <v>3149</v>
       </c>
-      <c r="L35" s="26">
+      <c r="L17" s="26">
         <v>3205</v>
       </c>
-      <c r="M35" s="26">
+      <c r="M17" s="26">
         <v>3189</v>
       </c>
-      <c r="N35" s="37">
+      <c r="N17" s="37">
         <v>3124</v>
       </c>
-      <c r="O35" s="26">
+      <c r="O17" s="26">
         <v>3223</v>
       </c>
-      <c r="P35" s="26">
+      <c r="P17" s="26">
         <v>3197</v>
       </c>
-      <c r="Q35" s="37">
+      <c r="Q17" s="37">
         <f t="shared" si="6"/>
         <v>3200.7777777777778</v>
       </c>
-      <c r="R35">
+      <c r="R17">
         <f t="shared" si="7"/>
         <v>42.98481644074387</v>
       </c>
-      <c r="S35">
+      <c r="S17">
         <f t="shared" si="8"/>
         <v>37.438808933638541</v>
       </c>
-      <c r="T35">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U35">
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U17">
         <f t="shared" si="0"/>
         <v>37.438808933638541</v>
       </c>
-      <c r="V35">
+      <c r="V17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W35">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X35">
+      <c r="W17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y35">
+      <c r="X17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y17">
         <f t="shared" si="1"/>
         <v>37.438808933638541</v>
       </c>
-      <c r="Z35">
-        <f t="shared" si="11"/>
+      <c r="Z17">
+        <f t="shared" si="2"/>
         <v>37.438808933638541</v>
       </c>
-      <c r="AA35">
+      <c r="AA17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB35">
+      <c r="AB17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC35">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD35">
+      <c r="AC17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD17">
         <f t="shared" si="3"/>
         <v>37.438808933638541</v>
       </c>
-      <c r="AE35">
+      <c r="AE17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF35">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG35">
+      <c r="AF17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH35">
+      <c r="AG17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH17">
         <f t="shared" si="4"/>
         <v>37.438808933638541</v>
       </c>
-      <c r="AI35">
-        <f t="shared" si="14"/>
+      <c r="AI17">
+        <f t="shared" si="5"/>
         <v>37.438808933638541</v>
       </c>
-      <c r="AJ35">
+      <c r="AJ17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK35">
+      <c r="AK17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A18">
         <v>3</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>3</v>
       </c>
-      <c r="D36">
+      <c r="D18">
         <v>2</v>
       </c>
-      <c r="E36">
+      <c r="E18">
         <v>3</v>
       </c>
-      <c r="F36">
+      <c r="F18">
         <v>2</v>
       </c>
-      <c r="G36" s="37">
+      <c r="G18" s="37">
         <v>16</v>
       </c>
-      <c r="H36" s="37">
+      <c r="H18" s="37">
         <v>3020</v>
       </c>
-      <c r="I36" s="26">
+      <c r="I18" s="26">
         <v>3072</v>
       </c>
-      <c r="J36" s="38">
+      <c r="J18" s="38">
         <v>3235</v>
       </c>
-      <c r="K36" s="37">
+      <c r="K18" s="37">
         <v>3008</v>
       </c>
-      <c r="L36" s="26">
+      <c r="L18" s="26">
         <v>3151</v>
       </c>
-      <c r="M36" s="26">
+      <c r="M18" s="26">
         <v>3162</v>
       </c>
-      <c r="N36" s="37">
+      <c r="N18" s="37">
         <v>3016</v>
       </c>
-      <c r="O36" s="26">
+      <c r="O18" s="26">
         <v>3139</v>
       </c>
-      <c r="P36" s="26">
+      <c r="P18" s="26">
         <v>3140</v>
       </c>
-      <c r="Q36" s="37">
+      <c r="Q18" s="37">
         <f t="shared" si="6"/>
         <v>3104.7777777777778</v>
       </c>
-      <c r="R36">
+      <c r="R18">
         <f t="shared" si="7"/>
         <v>79.285524810298412</v>
       </c>
-      <c r="S36">
+      <c r="S18">
         <f t="shared" si="8"/>
         <v>31.856732321457176</v>
       </c>
-      <c r="T36">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U36">
+      <c r="T18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V36">
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V18">
         <f t="shared" si="0"/>
         <v>31.856732321457176</v>
       </c>
-      <c r="W36">
-        <f t="shared" si="10"/>
+      <c r="W18">
+        <f t="shared" si="1"/>
         <v>31.856732321457176</v>
       </c>
-      <c r="X36">
+      <c r="X18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y36">
+      <c r="Y18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z36">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA36">
+      <c r="Z18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB36">
+      <c r="AA18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB18">
         <f t="shared" si="2"/>
         <v>31.856732321457176</v>
       </c>
-      <c r="AC36">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD36">
+      <c r="AC18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD18">
         <f t="shared" si="3"/>
         <v>31.856732321457176</v>
       </c>
-      <c r="AE36">
+      <c r="AE18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF36">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG36">
+      <c r="AF18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH36">
+      <c r="AG18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH18">
         <f t="shared" si="4"/>
         <v>31.856732321457176</v>
       </c>
-      <c r="AI36">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AJ36">
+      <c r="AI18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ18">
         <f t="shared" si="5"/>
         <v>31.856732321457176</v>
       </c>
-      <c r="AK36">
+      <c r="AK18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A19">
         <v>3</v>
       </c>
-      <c r="B37">
+      <c r="B19">
         <v>2</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
         <v>3</v>
       </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>3</v>
       </c>
-      <c r="G37" s="37">
+      <c r="G19" s="37">
         <v>17</v>
       </c>
-      <c r="H37" s="37">
+      <c r="H19" s="37">
         <v>4277</v>
       </c>
-      <c r="I37" s="26">
+      <c r="I19" s="26">
         <v>3888</v>
       </c>
-      <c r="J37" s="38">
+      <c r="J19" s="38">
         <v>4593</v>
       </c>
-      <c r="K37" s="37">
+      <c r="K19" s="37">
         <v>4150</v>
       </c>
-      <c r="L37" s="26">
+      <c r="L19" s="26">
         <v>3681</v>
       </c>
-      <c r="M37" s="26">
+      <c r="M19" s="26">
         <v>4298</v>
       </c>
-      <c r="N37" s="37">
+      <c r="N19" s="37">
         <v>3992</v>
       </c>
-      <c r="O37" s="26">
+      <c r="O19" s="26">
         <v>3572</v>
       </c>
-      <c r="P37" s="26">
+      <c r="P19" s="26">
         <v>4219</v>
       </c>
-      <c r="Q37" s="37">
+      <c r="Q19" s="37">
         <f t="shared" si="6"/>
         <v>4074.4444444444443</v>
       </c>
-      <c r="R37">
+      <c r="R19">
         <f t="shared" si="7"/>
         <v>323.1327556559034</v>
       </c>
-      <c r="S37">
+      <c r="S19">
         <f t="shared" si="8"/>
         <v>22.013748325184537</v>
       </c>
-      <c r="T37">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <f t="shared" si="9"/>
+      <c r="T19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="0"/>
         <v>22.013748325184537</v>
       </c>
-      <c r="W37">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <f t="shared" si="10"/>
+      <c r="W19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="1"/>
         <v>22.013748325184537</v>
       </c>
-      <c r="Y37">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <f t="shared" si="11"/>
+      <c r="Y19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="2"/>
         <v>22.013748325184537</v>
       </c>
-      <c r="AA37">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB37">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC37">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD37">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE37">
-        <f t="shared" si="12"/>
+      <c r="AA19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="3"/>
         <v>22.013748325184537</v>
       </c>
-      <c r="AF37">
-        <f t="shared" si="13"/>
+      <c r="AF19">
+        <f t="shared" si="4"/>
         <v>22.013748325184537</v>
       </c>
-      <c r="AG37">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AH37">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AI37">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AJ37">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AK37">
-        <f t="shared" si="14"/>
+      <c r="AG19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="5"/>
         <v>22.013748325184537</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A20">
         <v>3</v>
       </c>
-      <c r="B38">
+      <c r="B20">
         <v>3</v>
       </c>
-      <c r="C38">
+      <c r="C20">
         <v>2</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
         <v>2</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" s="37">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="37">
         <v>18</v>
       </c>
-      <c r="H38" s="37">
+      <c r="H20" s="37">
         <v>3125</v>
       </c>
-      <c r="I38" s="26">
+      <c r="I20" s="26">
         <v>3567</v>
       </c>
-      <c r="J38" s="38">
+      <c r="J20" s="38">
         <v>4120</v>
       </c>
-      <c r="K38" s="37">
+      <c r="K20" s="37">
         <v>3119</v>
       </c>
-      <c r="L38" s="26">
+      <c r="L20" s="26">
         <v>3563</v>
       </c>
-      <c r="M38" s="26">
+      <c r="M20" s="26">
         <v>4088</v>
       </c>
-      <c r="N38" s="37">
+      <c r="N20" s="37">
         <v>3127</v>
       </c>
-      <c r="O38" s="26">
+      <c r="O20" s="26">
         <v>3520</v>
       </c>
-      <c r="P38" s="26">
+      <c r="P20" s="26">
         <v>4138</v>
       </c>
-      <c r="Q38" s="37">
+      <c r="Q20" s="37">
         <f t="shared" si="6"/>
         <v>3596.3333333333335</v>
       </c>
-      <c r="R38">
+      <c r="R20">
         <f t="shared" si="7"/>
         <v>431.19601111327552</v>
       </c>
-      <c r="S38">
+      <c r="S20">
         <f t="shared" si="8"/>
         <v>18.423704074606906</v>
       </c>
-      <c r="T38">
+      <c r="T20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="0"/>
+        <v>18.423704074606906</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="1"/>
+        <v>18.423704074606906</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="2"/>
+        <v>18.423704074606906</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="3"/>
+        <v>18.423704074606906</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="4"/>
+        <v>18.423704074606906</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="5"/>
+        <v>18.423704074606906</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="S21">
+        <f>AVERAGE(S3:S20)</f>
+        <v>31.516987151648671</v>
+      </c>
+      <c r="T21" s="165" t="s">
+        <v>187</v>
+      </c>
+      <c r="U21" s="165"/>
+      <c r="V21" s="165"/>
+      <c r="W21" s="165"/>
+      <c r="X21" s="165"/>
+      <c r="Y21" s="165"/>
+      <c r="Z21" s="165"/>
+      <c r="AA21" s="165"/>
+      <c r="AB21" s="165"/>
+      <c r="AC21" s="165"/>
+      <c r="AD21" s="165"/>
+      <c r="AE21" s="165"/>
+      <c r="AF21" s="165"/>
+      <c r="AG21" s="165"/>
+      <c r="AH21" s="165"/>
+      <c r="AI21" s="165"/>
+      <c r="AJ21" s="165"/>
+      <c r="AK21" s="165"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>105</v>
+      </c>
+      <c r="T22" t="s">
+        <v>195</v>
+      </c>
+      <c r="U22" t="s">
+        <v>196</v>
+      </c>
+      <c r="V22" t="s">
+        <v>232</v>
+      </c>
+      <c r="W22" t="s">
+        <v>198</v>
+      </c>
+      <c r="X22" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>18</v>
+      </c>
+      <c r="S23">
+        <f>(S3-$S$21)^2</f>
+        <v>13.746623434712312</v>
+      </c>
+      <c r="T23">
+        <f>SUM(T3:T20)/6</f>
+        <v>35.118362414781409</v>
+      </c>
+      <c r="U23">
+        <f t="shared" ref="U23:X23" si="9">SUM(U3:U20)/6</f>
+        <v>34.908391170227212</v>
+      </c>
+      <c r="V23">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U38">
+        <v>24.524207869937385</v>
+      </c>
+      <c r="W23">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V38">
+        <v>31.609420213217316</v>
+      </c>
+      <c r="X23">
         <f t="shared" si="9"/>
-        <v>18.423704074606906</v>
-      </c>
-      <c r="W38">
+        <v>30.700026382855825</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" ref="Y23:AK23" si="10">SUM(Y3:Y20)/6</f>
+        <v>32.241514858872868</v>
+      </c>
+      <c r="Z23">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X38">
+        <v>34.38675450591078</v>
+      </c>
+      <c r="AA23">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y38">
+        <v>27.858356531254987</v>
+      </c>
+      <c r="AB23">
         <f t="shared" si="10"/>
-        <v>18.423704074606906</v>
-      </c>
-      <c r="Z38">
+        <v>32.305850417780242</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="10"/>
+        <v>31.688589753810835</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="10"/>
+        <v>34.697820932347419</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="10"/>
+        <v>28.164550768787752</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="10"/>
+        <v>30.519511148824055</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="10"/>
+        <v>32.870164493544209</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="10"/>
+        <v>31.161285812577745</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="10"/>
+        <v>27.035584126691202</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="10"/>
+        <v>33.665899512635974</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="10"/>
+        <v>33.849477815618833</v>
+      </c>
+      <c r="AL23">
+        <f>AVERAGE(T23:AK23)</f>
+        <v>31.516987151648671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="S24">
+        <f t="shared" ref="S24:S40" si="11">(S4-$S$21)^2</f>
+        <v>17.952374868754191</v>
+      </c>
+      <c r="T24" s="165" t="s">
+        <v>224</v>
+      </c>
+      <c r="U24" s="165"/>
+      <c r="V24" s="165"/>
+      <c r="W24" s="165" t="s">
+        <v>225</v>
+      </c>
+      <c r="X24" s="165"/>
+      <c r="Y24" s="165"/>
+      <c r="Z24" s="165" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA24" s="165"/>
+      <c r="AB24" s="165"/>
+      <c r="AC24" s="165" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD24" s="165"/>
+      <c r="AE24" s="165"/>
+      <c r="AF24" s="165" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG24" s="165"/>
+      <c r="AH24" s="165"/>
+      <c r="AI24" s="165" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ24" s="165"/>
+      <c r="AK24" s="165"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="S25">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA38">
+        <v>20.281536770122916</v>
+      </c>
+      <c r="T25" s="165">
+        <f>((T23-$AL$23)^2+(U23-$AL$23)^2+(V23-$AL$23)^2)*$D$23/3</f>
+        <v>440.22292251519406</v>
+      </c>
+      <c r="U25" s="165"/>
+      <c r="V25" s="165"/>
+      <c r="W25" s="165">
+        <f t="shared" ref="W25" si="12">((W23-$AL$23)^2+(X23-$AL$23)^2+(Y23-$AL$23)^2)*$D$23/3</f>
+        <v>7.2054550029186215</v>
+      </c>
+      <c r="X25" s="165"/>
+      <c r="Y25" s="165"/>
+      <c r="Z25" s="165">
+        <f t="shared" ref="Z25" si="13">((Z23-$AL$23)^2+(AA23-$AL$23)^2+(AB23-$AL$23)^2)*$D$23/3</f>
+        <v>133.46068762033551</v>
+      </c>
+      <c r="AA25" s="165"/>
+      <c r="AB25" s="165"/>
+      <c r="AC25" s="165">
+        <f t="shared" ref="AC25" si="14">((AC23-$AL$23)^2+(AD23-$AL$23)^2+(AE23-$AL$23)^2)*$D$23/3</f>
+        <v>128.31588416779633</v>
+      </c>
+      <c r="AD25" s="165"/>
+      <c r="AE25" s="165"/>
+      <c r="AF25" s="165">
+        <f t="shared" ref="AF25" si="15">((AF23-$AL$23)^2+(AG23-$AL$23)^2+(AH23-$AL$23)^2)*$D$23/3</f>
+        <v>17.715424424683782</v>
+      </c>
+      <c r="AG25" s="165"/>
+      <c r="AH25" s="165"/>
+      <c r="AI25" s="165">
+        <f t="shared" ref="AI25" si="16">((AI23-$AL$23)^2+(AJ23-$AL$23)^2+(AK23-$AL$23)^2)*$D$23/3</f>
+        <v>180.84786062885973</v>
+      </c>
+      <c r="AJ25" s="165"/>
+      <c r="AK25" s="165"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="S26">
         <f t="shared" si="11"/>
-        <v>18.423704074606906</v>
-      </c>
-      <c r="AB38">
+        <v>115.01239755840648</v>
+      </c>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" s="20"/>
+      <c r="AG26" s="20"/>
+      <c r="AH26" s="20"/>
+      <c r="AI26" s="20"/>
+      <c r="AJ26" s="20"/>
+      <c r="AK26" s="20"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="S27">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC38">
-        <f t="shared" si="12"/>
-        <v>18.423704074606906</v>
-      </c>
-      <c r="AD38">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE38">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF38">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG38">
-        <f t="shared" si="13"/>
-        <v>18.423704074606906</v>
-      </c>
-      <c r="AH38">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AI38">
-        <f t="shared" si="14"/>
-        <v>18.423704074606906</v>
-      </c>
-      <c r="AJ38">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AK38">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>101.65660253679057</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="T39" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="U39" s="145"/>
-      <c r="V39" s="145"/>
-      <c r="W39" s="145"/>
-      <c r="X39" s="145"/>
-      <c r="Y39" s="145"/>
-      <c r="Z39" s="145"/>
-      <c r="AA39" s="145"/>
-      <c r="AB39" s="145"/>
-      <c r="AC39" s="145"/>
-      <c r="AD39" s="145"/>
-      <c r="AE39" s="145"/>
-      <c r="AF39" s="145"/>
-      <c r="AG39" s="145"/>
-      <c r="AH39" s="145"/>
-      <c r="AI39" s="145"/>
-      <c r="AJ39" s="145"/>
-      <c r="AK39" s="145"/>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="S28">
+        <f t="shared" si="11"/>
+        <v>1.9489400850628746</v>
+      </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s">
-        <v>105</v>
-      </c>
-      <c r="T40" t="s">
-        <v>195</v>
-      </c>
-      <c r="U40" t="s">
-        <v>196</v>
-      </c>
-      <c r="V40" t="s">
-        <v>232</v>
-      </c>
-      <c r="W40" t="s">
-        <v>198</v>
-      </c>
-      <c r="X40" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>206</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI40" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ40" t="s">
-        <v>208</v>
-      </c>
-      <c r="AK40" t="s">
-        <v>209</v>
-      </c>
-      <c r="AL40" t="s">
-        <v>7</v>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="S29">
+        <f t="shared" si="11"/>
+        <v>102.0935790505727</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>18</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>18</v>
-      </c>
-      <c r="T41">
-        <f>SUM(T21:T38)/6</f>
-        <v>35.118362414781409</v>
-      </c>
-      <c r="U41">
-        <v>34.909999999999997</v>
-      </c>
-      <c r="V41">
-        <f t="shared" ref="V41:AK41" si="15">SUM(V21:V38)/6</f>
-        <v>24.524207869937385</v>
-      </c>
-      <c r="W41">
-        <v>31.61</v>
-      </c>
-      <c r="X41">
-        <f t="shared" si="15"/>
-        <v>30.700026382855825</v>
-      </c>
-      <c r="Y41">
-        <f t="shared" si="15"/>
-        <v>32.241514858872868</v>
-      </c>
-      <c r="Z41">
-        <f t="shared" si="15"/>
-        <v>34.38675450591078</v>
-      </c>
-      <c r="AA41">
-        <f t="shared" si="15"/>
-        <v>27.858356531254987</v>
-      </c>
-      <c r="AB41">
-        <f t="shared" si="15"/>
-        <v>32.305850417780242</v>
-      </c>
-      <c r="AC41">
-        <f t="shared" si="15"/>
-        <v>31.688589753810835</v>
-      </c>
-      <c r="AD41">
-        <f t="shared" si="15"/>
-        <v>34.697820932347419</v>
-      </c>
-      <c r="AE41">
-        <f t="shared" si="15"/>
-        <v>28.164550768787752</v>
-      </c>
-      <c r="AF41">
-        <f t="shared" si="15"/>
-        <v>30.519511148824055</v>
-      </c>
-      <c r="AG41">
-        <f t="shared" si="15"/>
-        <v>32.870164493544209</v>
-      </c>
-      <c r="AH41">
-        <f t="shared" si="15"/>
-        <v>31.161285812577745</v>
-      </c>
-      <c r="AI41">
-        <f t="shared" si="15"/>
-        <v>27.035584126691202</v>
-      </c>
-      <c r="AJ41">
-        <f t="shared" si="15"/>
-        <v>33.665899512635974</v>
-      </c>
-      <c r="AK41">
-        <f t="shared" si="15"/>
-        <v>33.849477815618833</v>
-      </c>
-      <c r="AL41">
-        <f>AVERAGE(T41:AK41)</f>
-        <v>31.517108741457307</v>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="S30">
+        <f t="shared" si="11"/>
+        <v>75.280042600249246</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="T42" s="145" t="s">
-        <v>224</v>
-      </c>
-      <c r="U42" s="145"/>
-      <c r="V42" s="145"/>
-      <c r="W42" s="145" t="s">
-        <v>225</v>
-      </c>
-      <c r="X42" s="145"/>
-      <c r="Y42" s="145"/>
-      <c r="Z42" s="145" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA42" s="145"/>
-      <c r="AB42" s="145"/>
-      <c r="AC42" s="145" t="s">
-        <v>227</v>
-      </c>
-      <c r="AD42" s="145"/>
-      <c r="AE42" s="145"/>
-      <c r="AF42" s="145" t="s">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="S31">
+        <f t="shared" si="11"/>
+        <v>0.84521359142843677</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="S32">
+        <f t="shared" si="11"/>
+        <v>21.768790421738768</v>
+      </c>
+    </row>
+    <row r="33" spans="19:20" x14ac:dyDescent="0.4">
+      <c r="S33">
+        <f t="shared" si="11"/>
+        <v>53.105454263180214</v>
+      </c>
+    </row>
+    <row r="34" spans="19:20" x14ac:dyDescent="0.4">
+      <c r="S34">
+        <f t="shared" si="11"/>
+        <v>42.751136960996533</v>
+      </c>
+    </row>
+    <row r="35" spans="19:20" x14ac:dyDescent="0.4">
+      <c r="S35">
+        <f t="shared" si="11"/>
+        <v>0.30544006961366693</v>
+      </c>
+    </row>
+    <row r="36" spans="19:20" x14ac:dyDescent="0.4">
+      <c r="S36">
+        <f t="shared" si="11"/>
+        <v>140.09085194430469</v>
+      </c>
+    </row>
+    <row r="37" spans="19:20" x14ac:dyDescent="0.4">
+      <c r="S37">
+        <f t="shared" si="11"/>
+        <v>35.06797321764968</v>
+      </c>
+    </row>
+    <row r="38" spans="19:20" x14ac:dyDescent="0.4">
+      <c r="S38">
+        <f t="shared" si="11"/>
+        <v>0.11542678040821035</v>
+      </c>
+    </row>
+    <row r="39" spans="19:20" x14ac:dyDescent="0.4">
+      <c r="S39">
+        <f t="shared" si="11"/>
+        <v>90.311548192815408</v>
+      </c>
+    </row>
+    <row r="40" spans="19:20" x14ac:dyDescent="0.4">
+      <c r="S40">
+        <f t="shared" si="11"/>
+        <v>171.43406173554826</v>
+      </c>
+    </row>
+    <row r="41" spans="19:20" x14ac:dyDescent="0.4">
+      <c r="S41" t="s">
+        <v>236</v>
+      </c>
+      <c r="T41" t="s">
         <v>228</v>
       </c>
-      <c r="AG42" s="145"/>
-      <c r="AH42" s="145"/>
-      <c r="AI42" s="145" t="s">
-        <v>229</v>
-      </c>
-      <c r="AJ42" s="145"/>
-      <c r="AK42" s="145"/>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="T43" s="145">
-        <f>((T41-$AL$41)^2+(U41-$AL$41)^2+(V41-$AL$41)^2)*$D$41/3</f>
-        <v>440.28841026497884</v>
-      </c>
-      <c r="U43" s="145"/>
-      <c r="V43" s="145"/>
-      <c r="W43" s="145">
-        <f t="shared" ref="W43" si="16">((W41-$AL$41)^2+(X41-$AL$41)^2+(Y41-$AL$41)^2)*$D$41/3</f>
-        <v>7.2060995376029702</v>
-      </c>
-      <c r="X43" s="145"/>
-      <c r="Y43" s="145"/>
-      <c r="Z43" s="145">
-        <f t="shared" ref="Z43" si="17">((Z41-$AL$41)^2+(AA41-$AL$41)^2+(AB41-$AL$41)^2)*$D$41/3</f>
-        <v>133.46068788644899</v>
-      </c>
-      <c r="AA43" s="145"/>
-      <c r="AB43" s="145"/>
-      <c r="AC43" s="145">
-        <f t="shared" ref="AC43" si="18">((AC41-$AL$41)^2+(AD41-$AL$41)^2+(AE41-$AL$41)^2)*$D$41/3</f>
-        <v>128.31588443390976</v>
-      </c>
-      <c r="AD43" s="145"/>
-      <c r="AE43" s="145"/>
-      <c r="AF43" s="145">
-        <f t="shared" ref="AF43" si="19">((AF41-$AL$41)^2+(AG41-$AL$41)^2+(AH41-$AL$41)^2)*$D$41/3</f>
-        <v>17.715424690797249</v>
-      </c>
-      <c r="AG43" s="145"/>
-      <c r="AH43" s="145"/>
-      <c r="AI43" s="145">
-        <f t="shared" ref="AI43" si="20">((AI41-$AL$41)^2+(AJ41-$AL$41)^2+(AK41-$AL$41)^2)*$D$41/3</f>
-        <v>180.84786089497319</v>
-      </c>
-      <c r="AJ43" s="145"/>
-      <c r="AK43" s="145"/>
+    <row r="42" spans="19:20" x14ac:dyDescent="0.4">
+      <c r="S42">
+        <f>SUM(S23:S40)</f>
+        <v>1003.7679940823552</v>
+      </c>
+      <c r="T42">
+        <f>S42-SUM(T25:AK25)</f>
+        <v>95.999759722567319</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="W43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="AC43:AE43"/>
-    <mergeCell ref="AF43:AH43"/>
-    <mergeCell ref="AI43:AK43"/>
-    <mergeCell ref="T39:AK39"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="W42:Y42"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC42:AE42"/>
-    <mergeCell ref="AF42:AH42"/>
-    <mergeCell ref="AI42:AK42"/>
-    <mergeCell ref="G19:S19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="AF25:AH25"/>
+    <mergeCell ref="G1:S1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="AI25:AK25"/>
+    <mergeCell ref="T21:AK21"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="AF24:AH24"/>
+    <mergeCell ref="AI24:AK24"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW13/hw_13.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW13/hw_13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657DB9A7-2DF8-471C-A4CA-65418032D223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C732392D-E506-4A23-A144-BB678551610B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{F0E5C9FA-8923-4A07-87AD-C8184F88F5AB}"/>
+    <workbookView xWindow="4580" yWindow="2600" windowWidth="19200" windowHeight="11460" xr2:uid="{F0E5C9FA-8923-4A07-87AD-C8184F88F5AB}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1" sheetId="1" r:id="rId1"/>
@@ -12197,8 +12197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E8708D-517C-4260-80E6-FB2ECBAC5C76}">
   <dimension ref="A1:AI57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AH4" sqref="AH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -34621,7 +34621,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AF25:AH25"/>
     <mergeCell ref="G1:S1"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
@@ -34638,6 +34637,7 @@
     <mergeCell ref="W25:Y25"/>
     <mergeCell ref="Z25:AB25"/>
     <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="AF25:AH25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW13/hw_13.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW13/hw_13.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C732392D-E506-4A23-A144-BB678551610B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE9E13B-059D-460F-8D0F-7EB2F61E4E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4580" yWindow="2600" windowWidth="19200" windowHeight="11460" xr2:uid="{F0E5C9FA-8923-4A07-87AD-C8184F88F5AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F0E5C9FA-8923-4A07-87AD-C8184F88F5AB}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1" sheetId="1" r:id="rId1"/>
@@ -2177,7 +2177,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2189,13 +2195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12197,28 +12197,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E8708D-517C-4260-80E6-FB2ECBAC5C76}">
   <dimension ref="A1:AI57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AH4" sqref="AH4"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="9" max="9" width="12.08984375" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" customWidth="1"/>
-    <col min="11" max="11" width="16.08984375" customWidth="1"/>
-    <col min="12" max="14" width="13.453125" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1"/>
+    <col min="11" max="11" width="16.125" customWidth="1"/>
+    <col min="12" max="14" width="13.5" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="17" max="17" width="12.36328125" customWidth="1"/>
-    <col min="32" max="32" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.6328125" customWidth="1"/>
+    <col min="17" max="17" width="12.375" customWidth="1"/>
+    <col min="32" max="32" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -12292,7 +12292,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -12377,7 +12377,7 @@
         <v>3.3017048961195758</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>-2.7777834618357384</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7</v>
       </c>
@@ -12556,7 +12556,7 @@
         <v>-1.171346530098841</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -12646,7 +12646,7 @@
         <v>0.82708217290775632</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>3.9394847909951354</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>1.5304292368910388</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -12930,7 +12930,7 @@
         <v>-3.9394847909951127</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -13026,7 +13026,7 @@
         <v>-0.4925623772507744</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L10" t="s">
         <v>24</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>1.1713465300988646</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -13182,7 +13182,7 @@
         <v>-1.5304292368910171</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B12">
         <f>C2</f>
         <v>-1</v>
@@ -13293,7 +13293,7 @@
         <v>6.3776205949555091</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" ref="B13:D19" si="22">C3</f>
         <v>1</v>
@@ -13398,7 +13398,7 @@
         <v>-1.9109201944016225</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14">
         <f t="shared" si="22"/>
         <v>-1</v>
@@ -13503,7 +13503,7 @@
         <v>-0.16358717343096266</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -13596,7 +13596,7 @@
         <v>1.910920194401643</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" si="22"/>
         <v>-1</v>
@@ -13714,7 +13714,7 @@
         <v>0.16358717343098547</v>
       </c>
     </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -13834,7 +13834,7 @@
         <v>2.3220376041503594</v>
       </c>
     </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" si="22"/>
         <v>-1</v>
@@ -13945,7 +13945,7 @@
         <v>-0.827082172907735</v>
       </c>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -14067,7 +14067,7 @@
         <v>-2.3220376041503372</v>
       </c>
     </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>C2</f>
         <v>-1</v>
@@ -14187,7 +14187,7 @@
         <v>-3.3017048961195545</v>
       </c>
     </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B21">
         <f t="shared" ref="B21:D27" si="42">C3</f>
         <v>1</v>
@@ -14307,7 +14307,7 @@
         <v>4.8035520548914157</v>
       </c>
     </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B22">
         <f t="shared" si="42"/>
         <v>-1</v>
@@ -14427,7 +14427,7 @@
         <v>-6.3776205949554976</v>
       </c>
     </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B23">
         <f t="shared" si="42"/>
         <v>1</v>
@@ -14547,7 +14547,7 @@
         <v>-4.8035520548913917</v>
       </c>
     </row>
-    <row r="24" spans="2:35" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24">
         <f t="shared" si="42"/>
         <v>-1</v>
@@ -14667,7 +14667,7 @@
         <v>0.49256237725079627</v>
       </c>
     </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" si="42"/>
         <v>1</v>
@@ -14775,7 +14775,7 @@
         <v>2.7777834618357606</v>
       </c>
     </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="42"/>
         <v>-1</v>
@@ -14836,7 +14836,7 @@
         <v>1.0954200509634878E-14</v>
       </c>
     </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="42"/>
         <v>1</v>
@@ -14908,7 +14908,7 @@
         <v>3.13114381563717</v>
       </c>
     </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B28">
         <f>C2</f>
         <v>-1</v>
@@ -14973,7 +14973,7 @@
         <v>accept</v>
       </c>
     </row>
-    <row r="29" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" ref="B29:D35" si="58">C3</f>
         <v>1</v>
@@ -15041,7 +15041,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" si="58"/>
         <v>-1</v>
@@ -15109,7 +15109,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" si="58"/>
         <v>1</v>
@@ -15177,7 +15177,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" si="58"/>
         <v>-1</v>
@@ -15245,7 +15245,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" si="58"/>
         <v>1</v>
@@ -15310,7 +15310,7 @@
         <v>accept</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" si="58"/>
         <v>-1</v>
@@ -15345,7 +15345,7 @@
       </c>
       <c r="M34" s="9"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" si="58"/>
         <v>1</v>
@@ -15392,7 +15392,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q36">
         <v>1</v>
       </c>
@@ -15407,7 +15407,7 @@
         <v>78.956666666666649</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" t="str" cm="1">
         <f t="array" ref="B37:H38">TRANSPOSE(J11:K17)</f>
         <v>E1</v>
@@ -15431,7 +15431,7 @@
         <v>E123</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>21.46916666666667</v>
       </c>
@@ -15454,7 +15454,7 @@
         <v>-0.4641666666666649</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>113</v>
       </c>
@@ -15476,7 +15476,7 @@
       <c r="R41" s="165"/>
       <c r="S41" s="165"/>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42">
         <f>L4</f>
         <v>49.868749999999999</v>
@@ -15504,7 +15504,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>9</v>
       </c>
@@ -15533,7 +15533,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44">
         <f>K2</f>
         <v>8</v>
@@ -15563,7 +15563,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>11</v>
       </c>
@@ -15592,7 +15592,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46">
         <f>K4</f>
         <v>3</v>
@@ -15622,7 +15622,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C47">
         <f t="shared" si="63"/>
         <v>-8.2420833333333334</v>
@@ -15648,7 +15648,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C48">
         <f t="shared" si="63"/>
         <v>-1.5287499999999952</v>
@@ -15674,7 +15674,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C49">
         <f t="shared" si="63"/>
         <v>23.194583333333334</v>
@@ -15700,7 +15700,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>116</v>
       </c>
@@ -15725,7 +15725,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B51">
         <f>B44*B46*B42^2</f>
         <v>59685.413437499992</v>
@@ -15753,7 +15753,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="2:19" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q52">
         <f>(L2-K2)*LN(K6)-SUM(Q43:Q50)</f>
         <v>5.2057980668508534</v>
@@ -15763,7 +15763,7 @@
         <v>1.1875</v>
       </c>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B53" s="31" t="s">
         <v>122</v>
       </c>
@@ -15781,7 +15781,7 @@
       </c>
       <c r="G53" s="22"/>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B54" s="32" t="s">
         <v>123</v>
       </c>
@@ -15811,7 +15811,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B55" s="32" t="s">
         <v>125</v>
       </c>
@@ -15844,7 +15844,7 @@
         <v>accept</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B56" s="32" t="s">
         <v>127</v>
       </c>
@@ -15862,7 +15862,7 @@
       </c>
       <c r="F56" s="27"/>
     </row>
-    <row r="57" spans="2:19" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="34" t="s">
         <v>119</v>
       </c>
@@ -15909,20 +15909,20 @@
       <selection activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8" customWidth="1"/>
-    <col min="13" max="13" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -15977,7 +15977,7 @@
       </c>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -16039,7 +16039,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16102,7 +16102,7 @@
       </c>
       <c r="T3" s="105"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7</v>
       </c>
@@ -16168,7 +16168,7 @@
         <v>0.98944603157237543</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -16233,7 +16233,7 @@
         <v>0.97900344939432205</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -16301,7 +16301,7 @@
         <v>0.96981745850433798</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -16369,7 +16369,7 @@
         <v>3.3006009553817135</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -16440,7 +16440,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -16500,7 +16500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G10" s="151"/>
       <c r="H10" s="152"/>
       <c r="I10" s="152"/>
@@ -16514,7 +16514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -16583,7 +16583,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>Q4</f>
         <v>49.868749999999999</v>
@@ -16661,7 +16661,7 @@
         <v>3.2000830664664587E-12</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -16732,7 +16732,7 @@
         <v>10.89396666666668</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>P2</f>
         <v>8</v>
@@ -16804,7 +16804,7 @@
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
     </row>
-    <row r="15" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -16863,7 +16863,7 @@
         <v>1.08125</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>P4</f>
         <v>3</v>
@@ -16948,7 +16948,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17">
         <f t="shared" si="9"/>
         <v>-8.2420833333333334</v>
@@ -17031,7 +17031,7 @@
         <v>51.836575062717763</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" si="9"/>
         <v>-1.5287499999999952</v>
@@ -17112,7 +17112,7 @@
         <v>12.702408396051094</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19">
         <f t="shared" si="9"/>
         <v>23.194583333333334</v>
@@ -17184,7 +17184,7 @@
         <v>2.5199083960510946</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -17229,7 +17229,7 @@
         <v>-2.0684249372822361</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>A14*A16*A12^2</f>
         <v>59685.413437499992</v>
@@ -17315,7 +17315,7 @@
         <v>3.0490750627177619</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G22" s="110" t="s">
         <v>32</v>
       </c>
@@ -17388,7 +17388,7 @@
         <v>16.284908396051097</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="77" t="s">
         <v>122</v>
       </c>
@@ -17479,7 +17479,7 @@
         <v>2.7457417293844277</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="81" t="s">
         <v>123</v>
       </c>
@@ -17574,7 +17574,7 @@
         <v>1.7357417293844271</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="81" t="s">
         <v>125</v>
       </c>
@@ -17642,7 +17642,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="81" t="s">
         <v>127</v>
       </c>
@@ -17707,7 +17707,7 @@
         <v>0.98938019712087277</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="85" t="s">
         <v>119</v>
       </c>
@@ -17762,7 +17762,7 @@
       <c r="Q27" s="89"/>
       <c r="R27" s="89"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="81" t="s">
         <v>178</v>
       </c>
@@ -17797,7 +17797,7 @@
         <v>3.0481098110878739</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G29" s="110" t="s">
         <v>168</v>
       </c>
@@ -17820,7 +17820,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="93" t="s">
         <v>121</v>
       </c>
@@ -17876,7 +17876,7 @@
       </c>
       <c r="T30" s="117"/>
     </row>
-    <row r="31" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="96" t="s">
         <v>124</v>
       </c>
@@ -17932,7 +17932,7 @@
       <c r="S31" s="117"/>
       <c r="T31" s="117"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="96" t="s">
         <v>126</v>
       </c>
@@ -17971,7 +17971,7 @@
       </c>
       <c r="T32" s="118"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="99" t="s">
         <v>163</v>
       </c>
@@ -18009,7 +18009,7 @@
         <v>0.98632505860381514</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="102" t="s">
         <v>175</v>
       </c>
@@ -18058,7 +18058,7 @@
         <v>0.97283712122981936</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
@@ -18091,7 +18091,7 @@
         <v>0.96876268941429233</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B36" s="26"/>
       <c r="C36" s="76"/>
       <c r="D36" s="76"/>
@@ -18124,7 +18124,7 @@
         <v>3.3577776628796219</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="26"/>
       <c r="C37" s="73"/>
       <c r="D37" s="73"/>
@@ -18157,7 +18157,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B38" s="26"/>
       <c r="C38" s="73"/>
       <c r="D38" s="73"/>
@@ -18184,7 +18184,7 @@
         <v>70.510000000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
@@ -18216,7 +18216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B40" s="26"/>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
@@ -18259,7 +18259,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
@@ -18304,7 +18304,7 @@
         <v>7.9899884231460721E-16</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="M42" s="166"/>
       <c r="N42" s="26">
         <f t="shared" si="24"/>
@@ -18337,7 +18337,7 @@
       <c r="W42" s="73"/>
       <c r="X42" s="73"/>
     </row>
-    <row r="43" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M43" s="166"/>
       <c r="N43" s="26">
         <f t="shared" si="24"/>
@@ -18368,7 +18368,7 @@
       <c r="W43" s="74"/>
       <c r="X43" s="74"/>
     </row>
-    <row r="44" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M44" s="166"/>
       <c r="N44" s="26">
         <f t="shared" si="24"/>
@@ -18387,7 +18387,7 @@
       </c>
       <c r="R44" s="73"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="M45" s="166"/>
       <c r="N45" s="26">
         <f t="shared" si="24"/>
@@ -18431,7 +18431,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="M46" s="167"/>
       <c r="N46" s="18">
         <f t="shared" si="24"/>
@@ -18477,7 +18477,7 @@
         <v>51.298476637853639</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="M47" s="165" t="s">
         <v>179</v>
       </c>
@@ -18525,7 +18525,7 @@
         <v>12.164309971186967</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="M48" s="165"/>
       <c r="N48">
         <f t="shared" ref="N48:O54" si="25">N40</f>
@@ -18571,7 +18571,7 @@
         <v>-2.6065233621463668</v>
       </c>
     </row>
-    <row r="49" spans="13:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="13:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M49" s="165"/>
       <c r="N49">
         <f t="shared" si="25"/>
@@ -18617,7 +18617,7 @@
         <v>15.746809971186963</v>
       </c>
     </row>
-    <row r="50" spans="13:27" x14ac:dyDescent="0.4">
+    <row r="50" spans="13:27" x14ac:dyDescent="0.25">
       <c r="M50" s="165"/>
       <c r="N50">
         <f t="shared" si="25"/>
@@ -18636,7 +18636,7 @@
       </c>
       <c r="R50" s="26"/>
     </row>
-    <row r="51" spans="13:27" x14ac:dyDescent="0.4">
+    <row r="51" spans="13:27" x14ac:dyDescent="0.25">
       <c r="M51" s="165"/>
       <c r="N51">
         <f t="shared" si="25"/>
@@ -18654,7 +18654,7 @@
         <v>15.41</v>
       </c>
     </row>
-    <row r="52" spans="13:27" x14ac:dyDescent="0.4">
+    <row r="52" spans="13:27" x14ac:dyDescent="0.25">
       <c r="M52" s="165"/>
       <c r="N52">
         <f t="shared" si="25"/>
@@ -18672,7 +18672,7 @@
         <v>36.99</v>
       </c>
     </row>
-    <row r="53" spans="13:27" x14ac:dyDescent="0.4">
+    <row r="53" spans="13:27" x14ac:dyDescent="0.25">
       <c r="M53" s="165"/>
       <c r="N53">
         <f t="shared" si="25"/>
@@ -18690,7 +18690,7 @@
         <v>50.29</v>
       </c>
     </row>
-    <row r="54" spans="13:27" x14ac:dyDescent="0.4">
+    <row r="54" spans="13:27" x14ac:dyDescent="0.25">
       <c r="M54" s="165"/>
       <c r="N54">
         <f t="shared" si="25"/>
@@ -18742,15 +18742,15 @@
       <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="12" width="9" customWidth="1"/>
-    <col min="15" max="18" width="11.7265625" customWidth="1"/>
-    <col min="20" max="20" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="11.75" customWidth="1"/>
+    <col min="20" max="20" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>182</v>
       </c>
@@ -18805,7 +18805,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18885,7 +18885,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18970,7 +18970,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19051,7 +19051,7 @@
       </c>
       <c r="Y4" s="27"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -19132,7 +19132,7 @@
       </c>
       <c r="Y5" s="27"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -19213,7 +19213,7 @@
       </c>
       <c r="Y6" s="27"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -19296,7 +19296,7 @@
       </c>
       <c r="Y7" s="27"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -19371,7 +19371,7 @@
       </c>
       <c r="Y8" s="27"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -19442,7 +19442,7 @@
       <c r="X9" s="26"/>
       <c r="Y9" s="27"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -19509,7 +19509,7 @@
       <c r="X10" s="90"/>
       <c r="Y10" s="91"/>
     </row>
-    <row r="11" spans="1:25" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -19571,7 +19571,7 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="28"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -19627,7 +19627,7 @@
         <v>53.777777777780003</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -19686,7 +19686,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -19760,7 +19760,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -19838,7 +19838,7 @@
         <v>2.4563459949430451</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -19916,7 +19916,7 @@
         <v>2.4563459949430451</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -19994,7 +19994,7 @@
         <v>2.4563459949430451</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -20072,7 +20072,7 @@
         <v>2.4563459949430451</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -20150,7 +20150,7 @@
         <v>2.4563459949430451</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
@@ -20187,7 +20187,7 @@
         <v>2.4563459949430451</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="H21" s="123"/>
       <c r="I21" s="123"/>
       <c r="J21" s="123">
@@ -20222,7 +20222,7 @@
       <c r="X21" s="26"/>
       <c r="Y21" s="27"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="170" t="s">
         <v>188</v>
       </c>
@@ -20250,7 +20250,7 @@
       <c r="X22" s="90"/>
       <c r="Y22" s="91"/>
     </row>
-    <row r="23" spans="1:25" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>195</v>
       </c>
@@ -20291,7 +20291,7 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="28"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>AVERAGE(M2,M3,M4,M11,M12,M13)</f>
         <v>39.60813245494419</v>
@@ -20335,7 +20335,7 @@
         <v>11504394.481481489</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>198</v>
       </c>
@@ -20370,7 +20370,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>AVERAGE(M2,M5,M8,M11,M14,M17)</f>
         <v>44.946368081063355</v>
@@ -20410,7 +20410,7 @@
         <v>21897229.148148157</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>201</v>
       </c>
@@ -20442,7 +20442,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>AVERAGE(M2,M5,M10,M12,M16,M18)</f>
         <v>39.863096187218495</v>
@@ -20482,7 +20482,7 @@
         <v>11053419.148148151</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>204</v>
       </c>
@@ -20514,7 +20514,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>AVERAGE(M2,M7,M8,M12,M15,M19)</f>
         <v>44.989748280848268</v>
@@ -20554,7 +20554,7 @@
         <v>18775153.925925925</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -20586,7 +20586,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>AVERAGE(M2,M7,M9,M13,M14,M18)</f>
         <v>33.428830407695934</v>
@@ -20626,7 +20626,7 @@
         <v>852755.70370370476</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>207</v>
       </c>
@@ -20658,7 +20658,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>AVERAGE(M2,M6,M9,M11,M16,M19)</f>
         <v>40.33536210469682</v>
@@ -20715,20 +20715,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502AF91F-0A1E-4C29-9B45-AC33A2A62027}">
   <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>190</v>
       </c>
@@ -20748,7 +20748,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20804,7 +20804,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -20868,7 +20868,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -20932,7 +20932,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -20996,7 +20996,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -21060,7 +21060,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -21124,7 +21124,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -21188,7 +21188,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -21242,7 +21242,7 @@
       <c r="T9" s="140"/>
       <c r="U9" s="141"/>
     </row>
-    <row r="10" spans="1:21" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -21290,7 +21290,7 @@
       <c r="T10" s="144"/>
       <c r="U10" s="142"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -21310,7 +21310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -21339,7 +21339,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -21371,7 +21371,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -21391,7 +21391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -21411,7 +21411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -21431,7 +21431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -21451,7 +21451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -21471,7 +21471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -21491,7 +21491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="165" t="s">
         <v>221</v>
       </c>
@@ -21500,8 +21500,8 @@
       <c r="D20" s="165"/>
       <c r="E20" s="165"/>
       <c r="F20" s="165"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="174" t="s">
+      <c r="G20" s="175"/>
+      <c r="H20" s="176" t="s">
         <v>187</v>
       </c>
       <c r="I20" s="166"/>
@@ -21522,7 +21522,7 @@
       <c r="X20" s="166"/>
       <c r="Y20" s="166"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>182</v>
       </c>
@@ -21600,7 +21600,7 @@
       </c>
       <c r="Z21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -21699,7 +21699,7 @@
       </c>
       <c r="Z22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -21798,7 +21798,7 @@
       </c>
       <c r="Z23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -21897,7 +21897,7 @@
       </c>
       <c r="Z24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
@@ -21996,7 +21996,7 @@
       </c>
       <c r="Z25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -22095,7 +22095,7 @@
       </c>
       <c r="Z26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6</v>
       </c>
@@ -22194,7 +22194,7 @@
       </c>
       <c r="Z27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7</v>
       </c>
@@ -22293,7 +22293,7 @@
       </c>
       <c r="Z28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8</v>
       </c>
@@ -22392,7 +22392,7 @@
       </c>
       <c r="Z29" s="37"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>9</v>
       </c>
@@ -22491,7 +22491,7 @@
       </c>
       <c r="Z30" s="37"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10</v>
       </c>
@@ -22590,7 +22590,7 @@
       </c>
       <c r="Z31" s="37"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>11</v>
       </c>
@@ -22689,7 +22689,7 @@
       </c>
       <c r="Z32" s="37"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>12</v>
       </c>
@@ -22788,7 +22788,7 @@
       </c>
       <c r="Z33" s="37"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>13</v>
       </c>
@@ -22887,7 +22887,7 @@
       </c>
       <c r="Z34" s="37"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>14</v>
       </c>
@@ -22986,7 +22986,7 @@
       </c>
       <c r="Z35" s="37"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>15</v>
       </c>
@@ -23085,7 +23085,7 @@
       </c>
       <c r="Z36" s="37"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>16</v>
       </c>
@@ -23184,7 +23184,7 @@
       </c>
       <c r="Z37" s="37"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>17</v>
       </c>
@@ -23283,7 +23283,7 @@
       </c>
       <c r="Z38" s="37"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>18</v>
       </c>
@@ -23384,7 +23384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G40" s="126" t="s">
         <v>187</v>
       </c>
@@ -23465,7 +23465,7 @@
         <v>41.383274180047707</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="126" t="s">
         <v>9</v>
       </c>
@@ -23490,74 +23490,74 @@
       </c>
       <c r="I41" s="168"/>
       <c r="J41" s="168"/>
-      <c r="K41" s="172" t="s">
+      <c r="K41" s="174" t="s">
         <v>225</v>
       </c>
       <c r="L41" s="168"/>
       <c r="M41" s="168"/>
-      <c r="N41" s="172" t="s">
+      <c r="N41" s="174" t="s">
         <v>226</v>
       </c>
       <c r="O41" s="168"/>
       <c r="P41" s="168"/>
-      <c r="Q41" s="172" t="s">
+      <c r="Q41" s="174" t="s">
         <v>227</v>
       </c>
       <c r="R41" s="168"/>
       <c r="S41" s="168"/>
-      <c r="T41" s="172" t="s">
+      <c r="T41" s="174" t="s">
         <v>228</v>
       </c>
       <c r="U41" s="168"/>
       <c r="V41" s="168"/>
-      <c r="W41" s="172" t="s">
+      <c r="W41" s="174" t="s">
         <v>229</v>
       </c>
       <c r="X41" s="168"/>
       <c r="Y41" s="168"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="H42" s="171">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="H42" s="177">
         <f>((H40-$Z$40)^2+(I40-$Z$40)^2+(J40-$Z$40)^2)*$F$41/3</f>
         <v>81.56784307394885</v>
       </c>
-      <c r="I42" s="171"/>
-      <c r="J42" s="171"/>
-      <c r="K42" s="171">
+      <c r="I42" s="177"/>
+      <c r="J42" s="177"/>
+      <c r="K42" s="177">
         <f t="shared" ref="K42" si="28">((K40-$Z$40)^2+(L40-$Z$40)^2+(M40-$Z$40)^2)*$F$41/3</f>
         <v>174.73674565798532</v>
       </c>
-      <c r="L42" s="171"/>
-      <c r="M42" s="171"/>
-      <c r="N42" s="171">
+      <c r="L42" s="177"/>
+      <c r="M42" s="177"/>
+      <c r="N42" s="177">
         <f t="shared" ref="N42" si="29">((N40-$Z$40)^2+(O40-$Z$40)^2+(P40-$Z$40)^2)*$F$41/3</f>
         <v>38.711288673239387</v>
       </c>
-      <c r="O42" s="171"/>
-      <c r="P42" s="171"/>
-      <c r="Q42" s="171">
+      <c r="O42" s="177"/>
+      <c r="P42" s="177"/>
+      <c r="Q42" s="177">
         <f t="shared" ref="Q42" si="30">((Q40-$Z$40)^2+(R40-$Z$40)^2+(S40-$Z$40)^2)*$F$41/3</f>
         <v>117.11465233330189</v>
       </c>
-      <c r="R42" s="171"/>
-      <c r="S42" s="171"/>
-      <c r="T42" s="171">
+      <c r="R42" s="177"/>
+      <c r="S42" s="177"/>
+      <c r="T42" s="177">
         <f t="shared" ref="T42" si="31">((T40-$Z$40)^2+(U40-$Z$40)^2+(V40-$Z$40)^2)*$F$41/3</f>
         <v>573.32057693741103</v>
       </c>
-      <c r="U42" s="171"/>
-      <c r="V42" s="171"/>
-      <c r="W42" s="171">
+      <c r="U42" s="177"/>
+      <c r="V42" s="177"/>
+      <c r="W42" s="177">
         <f t="shared" ref="W42" si="32">((W40-$Z$40)^2+(X40-$Z$40)^2+(Y40-$Z$40)^2)*$F$41/3</f>
         <v>9.9659815459927596</v>
       </c>
-      <c r="X42" s="171"/>
-      <c r="Y42" s="171"/>
+      <c r="X42" s="177"/>
+      <c r="Y42" s="177"/>
       <c r="Z42" s="37" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H43" cm="1">
         <f t="array" ref="H43">SUMPRODUCT((H22:H39&gt;0)*((H22:H39)-H40)^2)</f>
         <v>115.40909711651943</v>
@@ -23635,7 +23635,7 @@
         <v>6004.4199046699596</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H45" s="165" t="s">
         <v>231</v>
       </c>
@@ -23657,7 +23657,7 @@
       <c r="X45" s="165"/>
       <c r="Y45" s="165"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H46" s="37" t="s">
         <v>195</v>
       </c>
@@ -23713,7 +23713,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G47">
         <v>1</v>
       </c>
@@ -23790,7 +23790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G48">
         <v>2</v>
       </c>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="7:26" x14ac:dyDescent="0.4">
+    <row r="49" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G49">
         <v>3</v>
       </c>
@@ -23944,7 +23944,7 @@
         <v>5919</v>
       </c>
     </row>
-    <row r="50" spans="7:26" x14ac:dyDescent="0.4">
+    <row r="50" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G50">
         <v>4</v>
       </c>
@@ -24021,7 +24021,7 @@
         <v>2108.6666666666665</v>
       </c>
     </row>
-    <row r="51" spans="7:26" x14ac:dyDescent="0.4">
+    <row r="51" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G51">
         <v>5</v>
       </c>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="7:26" x14ac:dyDescent="0.4">
+    <row r="52" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G52">
         <v>6</v>
       </c>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="7:26" x14ac:dyDescent="0.4">
+    <row r="53" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G53">
         <v>7</v>
       </c>
@@ -24252,7 +24252,7 @@
         <v>3033.3333333333335</v>
       </c>
     </row>
-    <row r="54" spans="7:26" x14ac:dyDescent="0.4">
+    <row r="54" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G54">
         <v>8</v>
       </c>
@@ -24329,7 +24329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="7:26" x14ac:dyDescent="0.4">
+    <row r="55" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G55">
         <v>9</v>
       </c>
@@ -24406,7 +24406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="7:26" x14ac:dyDescent="0.4">
+    <row r="56" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G56">
         <v>10</v>
       </c>
@@ -24483,7 +24483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="7:26" x14ac:dyDescent="0.4">
+    <row r="57" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G57">
         <v>11</v>
       </c>
@@ -24560,7 +24560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="7:26" x14ac:dyDescent="0.4">
+    <row r="58" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G58">
         <v>12</v>
       </c>
@@ -24637,7 +24637,7 @@
         <v>5843.666666666667</v>
       </c>
     </row>
-    <row r="59" spans="7:26" x14ac:dyDescent="0.4">
+    <row r="59" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G59">
         <v>13</v>
       </c>
@@ -24714,7 +24714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="7:26" x14ac:dyDescent="0.4">
+    <row r="60" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G60">
         <v>14</v>
       </c>
@@ -24791,7 +24791,7 @@
         <v>2852.3333333333335</v>
       </c>
     </row>
-    <row r="61" spans="7:26" x14ac:dyDescent="0.4">
+    <row r="61" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G61">
         <v>15</v>
       </c>
@@ -24868,7 +24868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="7:26" x14ac:dyDescent="0.4">
+    <row r="62" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G62">
         <v>16</v>
       </c>
@@ -24945,7 +24945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="7:26" x14ac:dyDescent="0.4">
+    <row r="63" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G63">
         <v>17</v>
       </c>
@@ -25022,7 +25022,7 @@
         <v>4139.666666666667</v>
       </c>
     </row>
-    <row r="64" spans="7:26" x14ac:dyDescent="0.4">
+    <row r="64" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G64">
         <v>18</v>
       </c>
@@ -25102,7 +25102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="7:26" x14ac:dyDescent="0.4">
+    <row r="65" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G65" t="s">
         <v>7</v>
       </c>
@@ -25183,80 +25183,80 @@
         <v>3577.0925925925931</v>
       </c>
     </row>
-    <row r="66" spans="7:26" x14ac:dyDescent="0.4">
+    <row r="66" spans="7:26" x14ac:dyDescent="0.25">
       <c r="H66" s="168" t="s">
         <v>224</v>
       </c>
       <c r="I66" s="168"/>
       <c r="J66" s="168"/>
-      <c r="K66" s="172" t="s">
+      <c r="K66" s="174" t="s">
         <v>225</v>
       </c>
       <c r="L66" s="168"/>
       <c r="M66" s="168"/>
-      <c r="N66" s="172" t="s">
+      <c r="N66" s="174" t="s">
         <v>226</v>
       </c>
       <c r="O66" s="168"/>
       <c r="P66" s="168"/>
-      <c r="Q66" s="172" t="s">
+      <c r="Q66" s="174" t="s">
         <v>227</v>
       </c>
       <c r="R66" s="168"/>
       <c r="S66" s="168"/>
-      <c r="T66" s="172" t="s">
+      <c r="T66" s="174" t="s">
         <v>228</v>
       </c>
       <c r="U66" s="168"/>
       <c r="V66" s="168"/>
-      <c r="W66" s="172" t="s">
+      <c r="W66" s="174" t="s">
         <v>229</v>
       </c>
       <c r="X66" s="168"/>
       <c r="Y66" s="168"/>
     </row>
-    <row r="67" spans="7:26" x14ac:dyDescent="0.4">
-      <c r="H67" s="175">
+    <row r="67" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="H67" s="171">
         <f>((H65-$Z$65)^2+(I65-$Z$65)^2+(J65-$Z$65)^2)*$F$41/3</f>
         <v>3834798.1604938204</v>
       </c>
-      <c r="I67" s="176"/>
-      <c r="J67" s="177"/>
-      <c r="K67" s="175">
+      <c r="I67" s="172"/>
+      <c r="J67" s="173"/>
+      <c r="K67" s="171">
         <f t="shared" ref="K67" si="69">((K65-$Z$65)^2+(L65-$Z$65)^2+(M65-$Z$65)^2)*$F$41/3</f>
         <v>7299076.3827160513</v>
       </c>
-      <c r="L67" s="176"/>
-      <c r="M67" s="177"/>
-      <c r="N67" s="175">
+      <c r="L67" s="172"/>
+      <c r="M67" s="173"/>
+      <c r="N67" s="171">
         <f t="shared" ref="N67" si="70">((N65-$Z$65)^2+(O65-$Z$65)^2+(P65-$Z$65)^2)*$F$41/3</f>
         <v>3684473.0493827169</v>
       </c>
-      <c r="O67" s="176"/>
-      <c r="P67" s="177"/>
-      <c r="Q67" s="175">
+      <c r="O67" s="172"/>
+      <c r="P67" s="173"/>
+      <c r="Q67" s="171">
         <f t="shared" ref="Q67" si="71">((Q65-$Z$65)^2+(R65-$Z$65)^2+(S65-$Z$65)^2)*$F$41/3</f>
         <v>6258384.6419753134</v>
       </c>
-      <c r="R67" s="176"/>
-      <c r="S67" s="177"/>
-      <c r="T67" s="175">
+      <c r="R67" s="172"/>
+      <c r="S67" s="173"/>
+      <c r="T67" s="171">
         <f t="shared" ref="T67" si="72">((T65-$Z$65)^2+(U65-$Z$65)^2+(V65-$Z$65)^2)*$F$41/3</f>
         <v>284251.9012345688</v>
       </c>
-      <c r="U67" s="176"/>
-      <c r="V67" s="177"/>
-      <c r="W67" s="175">
+      <c r="U67" s="172"/>
+      <c r="V67" s="173"/>
+      <c r="W67" s="171">
         <f t="shared" ref="W67" si="73">((W65-$Z$65)^2+(X65-$Z$65)^2+(Y65-$Z$65)^2)*$F$41/3</f>
         <v>1484392.9753086425</v>
       </c>
-      <c r="X67" s="176"/>
-      <c r="Y67" s="177"/>
+      <c r="X67" s="172"/>
+      <c r="Y67" s="173"/>
       <c r="Z67" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="68" spans="7:26" x14ac:dyDescent="0.4">
+    <row r="68" spans="7:26" x14ac:dyDescent="0.25">
       <c r="H68" cm="1">
         <f t="array" ref="H68">SUMPRODUCT((H47:H64&gt;0)*((H47:H64)-H65)^2)</f>
         <v>15477775.925925925</v>
@@ -25334,7 +25334,7 @@
         <v>118656842.62962966</v>
       </c>
     </row>
-    <row r="69" spans="7:26" x14ac:dyDescent="0.4">
+    <row r="69" spans="7:26" x14ac:dyDescent="0.25">
       <c r="H69" s="37"/>
       <c r="K69" s="37"/>
       <c r="N69" s="37"/>
@@ -25342,7 +25342,7 @@
       <c r="T69" s="37"/>
       <c r="W69" s="37"/>
     </row>
-    <row r="70" spans="7:26" x14ac:dyDescent="0.4">
+    <row r="70" spans="7:26" x14ac:dyDescent="0.25">
       <c r="H70" s="37"/>
       <c r="K70" s="37"/>
       <c r="N70" s="37"/>
@@ -25350,7 +25350,7 @@
       <c r="T70" s="37"/>
       <c r="W70" s="37"/>
     </row>
-    <row r="71" spans="7:26" x14ac:dyDescent="0.4">
+    <row r="71" spans="7:26" x14ac:dyDescent="0.25">
       <c r="H71" s="37"/>
       <c r="K71" s="37"/>
       <c r="N71" s="37"/>
@@ -25360,12 +25360,20 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="W67:Y67"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="T67:V67"/>
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="H20:Y20"/>
+    <mergeCell ref="W41:Y41"/>
     <mergeCell ref="H45:Y45"/>
     <mergeCell ref="H66:J66"/>
     <mergeCell ref="K66:M66"/>
@@ -25373,20 +25381,12 @@
     <mergeCell ref="Q66:S66"/>
     <mergeCell ref="T66:V66"/>
     <mergeCell ref="W66:Y66"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="H20:Y20"/>
-    <mergeCell ref="W41:Y41"/>
-    <mergeCell ref="W42:Y42"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="W67:Y67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="T67:V67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M3:M8">
@@ -25411,9 +25411,9 @@
       <selection activeCell="B75" sqref="B75:D75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>190</v>
       </c>
@@ -25433,7 +25433,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -25453,7 +25453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -25473,7 +25473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -25493,7 +25493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -25513,7 +25513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -25533,7 +25533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -25553,7 +25553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -25573,7 +25573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -25593,7 +25593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -25613,7 +25613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -25633,7 +25633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -25653,7 +25653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -25673,7 +25673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -25693,7 +25693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -25713,7 +25713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -25733,7 +25733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -25753,7 +25753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -25773,7 +25773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -25847,7 +25847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="165" t="s">
         <v>233</v>
       </c>
@@ -25856,8 +25856,8 @@
       <c r="D20" s="165"/>
       <c r="E20" s="165"/>
       <c r="F20" s="165"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="174" t="s">
+      <c r="G20" s="175"/>
+      <c r="H20" s="176" t="s">
         <v>187</v>
       </c>
       <c r="I20" s="166"/>
@@ -25878,7 +25878,7 @@
       <c r="X20" s="166"/>
       <c r="Y20" s="166"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>182</v>
       </c>
@@ -25955,7 +25955,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -26053,7 +26053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -26151,7 +26151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -26249,7 +26249,7 @@
         <v>39.675797239784998</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
@@ -26347,7 +26347,7 @@
         <v>46.921678295653393</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -26445,7 +26445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6</v>
       </c>
@@ -26543,7 +26543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7</v>
       </c>
@@ -26641,7 +26641,7 @@
         <v>52.054330830149752</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8</v>
       </c>
@@ -26739,7 +26739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>9</v>
       </c>
@@ -26837,7 +26837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10</v>
       </c>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>11</v>
       </c>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>12</v>
       </c>
@@ -27131,7 +27131,7 @@
         <v>37.547614394875183</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>13</v>
       </c>
@@ -27229,7 +27229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>14</v>
       </c>
@@ -27327,7 +27327,7 @@
         <v>45.499333710234126</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>15</v>
       </c>
@@ -27425,7 +27425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>16</v>
       </c>
@@ -27523,7 +27523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>17</v>
       </c>
@@ -27621,7 +27621,7 @@
         <v>29.245916237207055</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>18</v>
       </c>
@@ -27719,7 +27719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="165" t="s">
         <v>234</v>
       </c>
@@ -27728,8 +27728,8 @@
       <c r="D40" s="165"/>
       <c r="E40" s="165"/>
       <c r="F40" s="165"/>
-      <c r="G40" s="173"/>
-      <c r="H40" s="174" t="s">
+      <c r="G40" s="175"/>
+      <c r="H40" s="176" t="s">
         <v>187</v>
       </c>
       <c r="I40" s="166"/>
@@ -27751,7 +27751,7 @@
       <c r="Y40" s="166"/>
       <c r="Z40" s="26"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>182</v>
       </c>
@@ -27829,7 +27829,7 @@
       </c>
       <c r="Z41" s="26"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -27927,7 +27927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -28123,7 +28123,7 @@
         <v>32.183450849934765</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
@@ -28221,7 +28221,7 @@
         <v>42.45640242438639</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -28319,7 +28319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6</v>
       </c>
@@ -28417,7 +28417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>7</v>
       </c>
@@ -28515,7 +28515,7 @@
         <v>33.99316557417508</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8</v>
       </c>
@@ -28613,7 +28613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>9</v>
       </c>
@@ -28711,7 +28711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10</v>
       </c>
@@ -28809,7 +28809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>11</v>
       </c>
@@ -28907,7 +28907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>12</v>
       </c>
@@ -29005,7 +29005,7 @@
         <v>39.464560440993274</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>13</v>
       </c>
@@ -29103,7 +29103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>14</v>
       </c>
@@ -29201,7 +29201,7 @@
         <v>43.959758231365825</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>15</v>
       </c>
@@ -29299,7 +29299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>16</v>
       </c>
@@ -29397,7 +29397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>17</v>
       </c>
@@ -29495,7 +29495,7 @@
         <v>27.28586929693104</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>18</v>
       </c>
@@ -29593,7 +29593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="165" t="s">
         <v>235</v>
       </c>
@@ -29602,8 +29602,8 @@
       <c r="D60" s="165"/>
       <c r="E60" s="165"/>
       <c r="F60" s="165"/>
-      <c r="G60" s="173"/>
-      <c r="H60" s="174" t="s">
+      <c r="G60" s="175"/>
+      <c r="H60" s="176" t="s">
         <v>187</v>
       </c>
       <c r="I60" s="166"/>
@@ -29624,7 +29624,7 @@
       <c r="X60" s="166"/>
       <c r="Y60" s="166"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>182</v>
       </c>
@@ -29701,7 +29701,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -29897,7 +29897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -29995,7 +29995,7 @@
         <v>38.346955002008265</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4</v>
       </c>
@@ -30093,7 +30093,7 @@
         <v>40.992520049718173</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5</v>
       </c>
@@ -30191,7 +30191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6</v>
       </c>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>7</v>
       </c>
@@ -30387,7 +30387,7 @@
         <v>45.727159268045511</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>8</v>
       </c>
@@ -30485,7 +30485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>9</v>
       </c>
@@ -30583,7 +30583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>10</v>
       </c>
@@ -30681,7 +30681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>11</v>
       </c>
@@ -30779,7 +30779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>12</v>
       </c>
@@ -30877,7 +30877,7 @@
         <v>42.441368657218362</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>13</v>
       </c>
@@ -30975,7 +30975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>14</v>
       </c>
@@ -31073,7 +31073,7 @@
         <v>40.167203490921317</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>15</v>
       </c>
@@ -31171,7 +31171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
@@ -31269,7 +31269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>17</v>
       </c>
@@ -31367,7 +31367,7 @@
         <v>26.914936065947259</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>18</v>
       </c>
@@ -31465,7 +31465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="H80" s="165" t="s">
         <v>7</v>
       </c>
@@ -31487,7 +31487,7 @@
       <c r="X80" s="165"/>
       <c r="Y80" s="165"/>
     </row>
-    <row r="81" spans="8:25" x14ac:dyDescent="0.4">
+    <row r="81" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H81">
         <v>1</v>
       </c>
@@ -31543,7 +31543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="8:25" x14ac:dyDescent="0.4">
+    <row r="82" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H82">
         <f>SUM(H22:H39,H42:H59,H62:H79)/18</f>
         <v>39.806159580104378</v>
@@ -31640,13 +31640,13 @@
       <selection activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="9" style="37"/>
-    <col min="20" max="20" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="G1" s="165" t="s">
         <v>221</v>
       </c>
@@ -31661,7 +31661,7 @@
       <c r="P1" s="165"/>
       <c r="Q1" s="165"/>
       <c r="R1" s="165"/>
-      <c r="S1" s="173"/>
+      <c r="S1" s="175"/>
       <c r="T1">
         <v>1</v>
       </c>
@@ -31717,7 +31717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>190</v>
       </c>
@@ -31739,17 +31739,17 @@
       <c r="G2" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="H2" s="174" t="s">
+      <c r="H2" s="176" t="s">
         <v>183</v>
       </c>
       <c r="I2" s="166"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="174" t="s">
+      <c r="J2" s="175"/>
+      <c r="K2" s="176" t="s">
         <v>184</v>
       </c>
       <c r="L2" s="166"/>
       <c r="M2" s="166"/>
-      <c r="N2" s="174" t="s">
+      <c r="N2" s="176" t="s">
         <v>185</v>
       </c>
       <c r="O2" s="166"/>
@@ -31818,7 +31818,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -31952,7 +31952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -32086,7 +32086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -32220,7 +32220,7 @@
         <v>36.020489873988573</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -32354,7 +32354,7 @@
         <v>42.241370469975486</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -32488,7 +32488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -32622,7 +32622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -32756,7 +32756,7 @@
         <v>21.412850422042688</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -32890,7 +32890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -33024,7 +33024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -33158,7 +33158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -33292,7 +33292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -33426,7 +33426,7 @@
         <v>38.055422511962064</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -33560,7 +33560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -33694,7 +33694,7 @@
         <v>43.352985290559673</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -33828,7 +33828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -34096,7 +34096,7 @@
         <v>22.013748325184537</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -34230,7 +34230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="S21">
         <f>AVERAGE(S3:S20)</f>
         <v>31.516987151648671</v>
@@ -34256,7 +34256,7 @@
       <c r="AJ21" s="165"/>
       <c r="AK21" s="165"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>9</v>
       </c>
@@ -34324,7 +34324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>18</v>
       </c>
@@ -34415,7 +34415,7 @@
         <v>31.516987151648671</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="S24">
         <f t="shared" ref="S24:S40" si="11">(S4-$S$21)^2</f>
         <v>17.952374868754191</v>
@@ -34451,7 +34451,7 @@
       <c r="AJ24" s="165"/>
       <c r="AK24" s="165"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="S25">
         <f t="shared" si="11"/>
         <v>20.281536770122916</v>
@@ -34493,7 +34493,7 @@
       <c r="AJ25" s="165"/>
       <c r="AK25" s="165"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="S26">
         <f t="shared" si="11"/>
         <v>115.01239755840648</v>
@@ -34517,91 +34517,91 @@
       <c r="AJ26" s="20"/>
       <c r="AK26" s="20"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="S27">
         <f t="shared" si="11"/>
         <v>101.65660253679057</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="S28">
         <f t="shared" si="11"/>
         <v>1.9489400850628746</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="S29">
         <f t="shared" si="11"/>
         <v>102.0935790505727</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="S30">
         <f t="shared" si="11"/>
         <v>75.280042600249246</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="S31">
         <f t="shared" si="11"/>
         <v>0.84521359142843677</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="S32">
         <f t="shared" si="11"/>
         <v>21.768790421738768</v>
       </c>
     </row>
-    <row r="33" spans="19:20" x14ac:dyDescent="0.4">
+    <row r="33" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S33">
         <f t="shared" si="11"/>
         <v>53.105454263180214</v>
       </c>
     </row>
-    <row r="34" spans="19:20" x14ac:dyDescent="0.4">
+    <row r="34" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S34">
         <f t="shared" si="11"/>
         <v>42.751136960996533</v>
       </c>
     </row>
-    <row r="35" spans="19:20" x14ac:dyDescent="0.4">
+    <row r="35" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S35">
         <f t="shared" si="11"/>
         <v>0.30544006961366693</v>
       </c>
     </row>
-    <row r="36" spans="19:20" x14ac:dyDescent="0.4">
+    <row r="36" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S36">
         <f t="shared" si="11"/>
         <v>140.09085194430469</v>
       </c>
     </row>
-    <row r="37" spans="19:20" x14ac:dyDescent="0.4">
+    <row r="37" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S37">
         <f t="shared" si="11"/>
         <v>35.06797321764968</v>
       </c>
     </row>
-    <row r="38" spans="19:20" x14ac:dyDescent="0.4">
+    <row r="38" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S38">
         <f t="shared" si="11"/>
         <v>0.11542678040821035</v>
       </c>
     </row>
-    <row r="39" spans="19:20" x14ac:dyDescent="0.4">
+    <row r="39" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S39">
         <f t="shared" si="11"/>
         <v>90.311548192815408</v>
       </c>
     </row>
-    <row r="40" spans="19:20" x14ac:dyDescent="0.4">
+    <row r="40" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S40">
         <f t="shared" si="11"/>
         <v>171.43406173554826</v>
       </c>
     </row>
-    <row r="41" spans="19:20" x14ac:dyDescent="0.4">
+    <row r="41" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S41" t="s">
         <v>236</v>
       </c>
@@ -34609,7 +34609,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="19:20" x14ac:dyDescent="0.4">
+    <row r="42" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S42">
         <f>SUM(S23:S40)</f>
         <v>1003.7679940823552</v>
@@ -34621,6 +34621,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AF25:AH25"/>
     <mergeCell ref="G1:S1"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
@@ -34637,7 +34638,6 @@
     <mergeCell ref="W25:Y25"/>
     <mergeCell ref="Z25:AB25"/>
     <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="AF25:AH25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
